--- a/WebApplication1/Forms/06_Kapak kanalları Peene_II_III.xlsx
+++ b/WebApplication1/Forms/06_Kapak kanalları Peene_II_III.xlsx
@@ -385,12 +385,18 @@
       <charset val="162"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="33">
@@ -870,8 +876,34 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -882,6 +914,18 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -897,31 +941,18 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -941,9 +972,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -953,52 +981,32 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Comma0" xfId="1"/>
@@ -1659,8 +1667,8 @@
   </sheetPr>
   <dimension ref="A1:BX137"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E113" activeCellId="33" sqref="E100 E104 E108 AB98 AF100 AF104 AF108 AB110 AJ108 AJ104 AJ100 AN98 AN110 BK100 BK104 BK108 BT101:BW108 BT114:BW121 BK113 BK117 BK121 AN123 AJ121 AJ117 AJ113 AN111 AB111 AF113 AF117 AF121 AB123 E121 E117 E113"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BB130" sqref="BB130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1738,16 +1746,16 @@
       <c r="BJ1" s="2"/>
       <c r="BK1" s="2"/>
       <c r="BL1" s="2"/>
-      <c r="BM1" s="90"/>
-      <c r="BN1" s="90"/>
+      <c r="BM1" s="110"/>
+      <c r="BN1" s="110"/>
       <c r="BO1" s="69"/>
-      <c r="BP1" s="90"/>
-      <c r="BQ1" s="90"/>
+      <c r="BP1" s="110"/>
+      <c r="BQ1" s="110"/>
       <c r="BR1" s="4"/>
-      <c r="BS1" s="100"/>
-      <c r="BT1" s="101"/>
-      <c r="BU1" s="101"/>
-      <c r="BV1" s="101"/>
+      <c r="BS1" s="108"/>
+      <c r="BT1" s="80"/>
+      <c r="BU1" s="80"/>
+      <c r="BV1" s="80"/>
       <c r="BW1" s="2"/>
     </row>
     <row r="2" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1810,16 +1818,16 @@
       <c r="BJ2" s="2"/>
       <c r="BK2" s="2"/>
       <c r="BL2" s="2"/>
-      <c r="BM2" s="90"/>
-      <c r="BN2" s="90"/>
+      <c r="BM2" s="110"/>
+      <c r="BN2" s="110"/>
       <c r="BO2" s="69"/>
-      <c r="BP2" s="90"/>
-      <c r="BQ2" s="90"/>
+      <c r="BP2" s="110"/>
+      <c r="BQ2" s="110"/>
       <c r="BR2" s="4"/>
-      <c r="BS2" s="100"/>
-      <c r="BT2" s="101"/>
-      <c r="BU2" s="101"/>
-      <c r="BV2" s="101"/>
+      <c r="BS2" s="108"/>
+      <c r="BT2" s="80"/>
+      <c r="BU2" s="80"/>
+      <c r="BV2" s="80"/>
       <c r="BW2" s="2"/>
     </row>
     <row r="3" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1831,46 +1839,46 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="102"/>
-      <c r="O3" s="102"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
       <c r="P3" s="4"/>
-      <c r="Q3" s="102"/>
-      <c r="R3" s="102"/>
-      <c r="S3" s="102"/>
-      <c r="T3" s="102"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
       <c r="U3" s="4"/>
-      <c r="V3" s="102"/>
-      <c r="W3" s="102"/>
-      <c r="X3" s="103"/>
-      <c r="Y3" s="103"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
       <c r="Z3" s="4"/>
-      <c r="AA3" s="102"/>
-      <c r="AB3" s="102"/>
-      <c r="AC3" s="103"/>
-      <c r="AD3" s="103"/>
-      <c r="AF3" s="102"/>
-      <c r="AG3" s="102"/>
-      <c r="AH3" s="103"/>
-      <c r="AI3" s="103"/>
-      <c r="AK3" s="102"/>
-      <c r="AL3" s="102"/>
-      <c r="AM3" s="103"/>
-      <c r="AN3" s="103"/>
-      <c r="AP3" s="102"/>
-      <c r="AQ3" s="102"/>
-      <c r="AR3" s="103"/>
-      <c r="AS3" s="103"/>
-      <c r="AU3" s="102"/>
-      <c r="AV3" s="102"/>
-      <c r="AW3" s="103"/>
-      <c r="AX3" s="103"/>
-      <c r="AZ3" s="103"/>
-      <c r="BA3" s="103"/>
+      <c r="AA3" s="70"/>
+      <c r="AB3" s="70"/>
+      <c r="AC3" s="109"/>
+      <c r="AD3" s="109"/>
+      <c r="AF3" s="70"/>
+      <c r="AG3" s="70"/>
+      <c r="AH3" s="109"/>
+      <c r="AI3" s="109"/>
+      <c r="AK3" s="70"/>
+      <c r="AL3" s="70"/>
+      <c r="AM3" s="109"/>
+      <c r="AN3" s="109"/>
+      <c r="AP3" s="70"/>
+      <c r="AQ3" s="70"/>
+      <c r="AR3" s="109"/>
+      <c r="AS3" s="109"/>
+      <c r="AU3" s="70"/>
+      <c r="AV3" s="70"/>
+      <c r="AW3" s="109"/>
+      <c r="AX3" s="109"/>
+      <c r="AZ3" s="109"/>
+      <c r="BA3" s="109"/>
       <c r="BB3" s="4"/>
       <c r="BC3" s="4"/>
       <c r="BD3" s="4"/>
@@ -1882,16 +1890,16 @@
       <c r="BJ3" s="2"/>
       <c r="BK3" s="2"/>
       <c r="BL3" s="2"/>
-      <c r="BM3" s="90"/>
-      <c r="BN3" s="90"/>
+      <c r="BM3" s="110"/>
+      <c r="BN3" s="110"/>
       <c r="BO3" s="69"/>
-      <c r="BP3" s="90"/>
-      <c r="BQ3" s="90"/>
+      <c r="BP3" s="110"/>
+      <c r="BQ3" s="110"/>
       <c r="BR3" s="4"/>
-      <c r="BS3" s="100"/>
-      <c r="BT3" s="101"/>
-      <c r="BU3" s="101"/>
-      <c r="BV3" s="101"/>
+      <c r="BS3" s="108"/>
+      <c r="BT3" s="80"/>
+      <c r="BU3" s="80"/>
+      <c r="BV3" s="80"/>
       <c r="BW3" s="2"/>
     </row>
     <row r="4" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1903,46 +1911,46 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102"/>
-      <c r="N4" s="102"/>
-      <c r="O4" s="102"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
       <c r="P4" s="4"/>
-      <c r="Q4" s="102"/>
-      <c r="R4" s="102"/>
-      <c r="S4" s="102"/>
-      <c r="T4" s="102"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
       <c r="U4" s="4"/>
-      <c r="V4" s="102"/>
-      <c r="W4" s="102"/>
-      <c r="X4" s="103"/>
-      <c r="Y4" s="103"/>
+      <c r="V4" s="70"/>
+      <c r="W4" s="70"/>
+      <c r="X4" s="109"/>
+      <c r="Y4" s="109"/>
       <c r="Z4" s="4"/>
-      <c r="AA4" s="102"/>
-      <c r="AB4" s="102"/>
-      <c r="AC4" s="103"/>
-      <c r="AD4" s="103"/>
-      <c r="AF4" s="102"/>
-      <c r="AG4" s="102"/>
-      <c r="AH4" s="103"/>
-      <c r="AI4" s="103"/>
-      <c r="AK4" s="102"/>
-      <c r="AL4" s="102"/>
-      <c r="AM4" s="103"/>
-      <c r="AN4" s="103"/>
-      <c r="AP4" s="102"/>
-      <c r="AQ4" s="102"/>
-      <c r="AR4" s="103"/>
-      <c r="AS4" s="103"/>
-      <c r="AU4" s="102"/>
-      <c r="AV4" s="102"/>
-      <c r="AW4" s="103"/>
-      <c r="AX4" s="103"/>
-      <c r="AZ4" s="103"/>
-      <c r="BA4" s="103"/>
+      <c r="AA4" s="70"/>
+      <c r="AB4" s="70"/>
+      <c r="AC4" s="109"/>
+      <c r="AD4" s="109"/>
+      <c r="AF4" s="70"/>
+      <c r="AG4" s="70"/>
+      <c r="AH4" s="109"/>
+      <c r="AI4" s="109"/>
+      <c r="AK4" s="70"/>
+      <c r="AL4" s="70"/>
+      <c r="AM4" s="109"/>
+      <c r="AN4" s="109"/>
+      <c r="AP4" s="70"/>
+      <c r="AQ4" s="70"/>
+      <c r="AR4" s="109"/>
+      <c r="AS4" s="109"/>
+      <c r="AU4" s="70"/>
+      <c r="AV4" s="70"/>
+      <c r="AW4" s="109"/>
+      <c r="AX4" s="109"/>
+      <c r="AZ4" s="109"/>
+      <c r="BA4" s="109"/>
       <c r="BB4" s="4"/>
       <c r="BC4" s="4"/>
       <c r="BD4" s="4"/>
@@ -1954,16 +1962,16 @@
       <c r="BJ4" s="2"/>
       <c r="BK4" s="2"/>
       <c r="BL4" s="2"/>
-      <c r="BM4" s="90"/>
-      <c r="BN4" s="90"/>
+      <c r="BM4" s="110"/>
+      <c r="BN4" s="110"/>
       <c r="BO4" s="69"/>
-      <c r="BP4" s="90"/>
-      <c r="BQ4" s="90"/>
+      <c r="BP4" s="110"/>
+      <c r="BQ4" s="110"/>
       <c r="BR4" s="4"/>
-      <c r="BS4" s="100"/>
-      <c r="BT4" s="101"/>
-      <c r="BU4" s="101"/>
-      <c r="BV4" s="101"/>
+      <c r="BS4" s="108"/>
+      <c r="BT4" s="80"/>
+      <c r="BU4" s="80"/>
+      <c r="BV4" s="80"/>
       <c r="BW4" s="2"/>
     </row>
     <row r="5" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2089,7 +2097,7 @@
       <c r="AD7" s="65"/>
       <c r="AE7" s="65"/>
       <c r="AF7" s="65"/>
-      <c r="AG7" s="104"/>
+      <c r="AG7" s="71"/>
       <c r="AH7" s="65"/>
       <c r="AI7" s="65"/>
       <c r="AJ7" s="65"/>
@@ -2118,8 +2126,8 @@
       <c r="BG7" s="65"/>
       <c r="BH7" s="65"/>
       <c r="BI7" s="65"/>
-      <c r="BJ7" s="82"/>
-      <c r="BK7" s="82"/>
+      <c r="BJ7" s="78"/>
+      <c r="BK7" s="78"/>
       <c r="BL7" s="22"/>
       <c r="BM7" s="1"/>
       <c r="BN7" s="18"/>
@@ -2195,12 +2203,12 @@
       <c r="BQ8" s="18"/>
       <c r="BR8" s="18"/>
       <c r="BS8" s="2"/>
-      <c r="BT8" s="95" t="s">
+      <c r="BT8" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="BU8" s="96"/>
-      <c r="BV8" s="96"/>
-      <c r="BW8" s="97"/>
+      <c r="BU8" s="93"/>
+      <c r="BV8" s="93"/>
+      <c r="BW8" s="94"/>
       <c r="BX8" s="2"/>
     </row>
     <row r="9" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2254,27 +2262,27 @@
       <c r="BE9" s="58"/>
       <c r="BF9" s="58"/>
       <c r="BG9" s="58"/>
-      <c r="BH9" s="83"/>
-      <c r="BI9" s="83"/>
+      <c r="BH9" s="79"/>
+      <c r="BI9" s="79"/>
       <c r="BJ9" s="58"/>
       <c r="BL9" s="25"/>
       <c r="BM9" s="2"/>
-      <c r="BN9" s="84">
+      <c r="BN9" s="96">
         <v>1</v>
       </c>
-      <c r="BO9" s="85"/>
+      <c r="BO9" s="97"/>
       <c r="BP9" s="18"/>
-      <c r="BQ9" s="84">
+      <c r="BQ9" s="96">
         <v>2</v>
       </c>
-      <c r="BR9" s="85"/>
+      <c r="BR9" s="97"/>
       <c r="BS9" s="2"/>
-      <c r="BT9" s="91" t="s">
+      <c r="BT9" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="BU9" s="92"/>
-      <c r="BV9" s="92"/>
-      <c r="BW9" s="93"/>
+      <c r="BU9" s="103"/>
+      <c r="BV9" s="103"/>
+      <c r="BW9" s="104"/>
       <c r="BX9" s="2"/>
     </row>
     <row r="10" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2327,16 +2335,16 @@
       <c r="BJ10" s="58"/>
       <c r="BL10" s="25"/>
       <c r="BM10" s="2"/>
-      <c r="BN10" s="86"/>
-      <c r="BO10" s="87"/>
+      <c r="BN10" s="98"/>
+      <c r="BO10" s="99"/>
       <c r="BP10" s="18"/>
-      <c r="BQ10" s="86"/>
-      <c r="BR10" s="87"/>
+      <c r="BQ10" s="98"/>
+      <c r="BR10" s="99"/>
       <c r="BS10" s="2"/>
-      <c r="BT10" s="80"/>
-      <c r="BU10" s="71"/>
-      <c r="BV10" s="72"/>
-      <c r="BW10" s="73"/>
+      <c r="BT10" s="81"/>
+      <c r="BU10" s="83"/>
+      <c r="BV10" s="84"/>
+      <c r="BW10" s="85"/>
       <c r="BX10" s="2"/>
     </row>
     <row r="11" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2356,11 +2364,11 @@
       <c r="AC11" s="58"/>
       <c r="AD11" s="58"/>
       <c r="AE11" s="58"/>
-      <c r="AF11" s="70" t="s">
+      <c r="AF11" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="AG11" s="70"/>
-      <c r="AH11" s="70"/>
+      <c r="AG11" s="105"/>
+      <c r="AH11" s="105"/>
       <c r="AI11" s="58"/>
       <c r="AJ11" s="58"/>
       <c r="AK11" s="58"/>
@@ -2392,16 +2400,16 @@
       <c r="BK11" s="4"/>
       <c r="BL11" s="25"/>
       <c r="BM11" s="2"/>
-      <c r="BN11" s="86"/>
-      <c r="BO11" s="87"/>
+      <c r="BN11" s="98"/>
+      <c r="BO11" s="99"/>
       <c r="BP11" s="18"/>
-      <c r="BQ11" s="86"/>
-      <c r="BR11" s="87"/>
+      <c r="BQ11" s="98"/>
+      <c r="BR11" s="99"/>
       <c r="BS11" s="2"/>
-      <c r="BT11" s="81"/>
-      <c r="BU11" s="77"/>
-      <c r="BV11" s="78"/>
-      <c r="BW11" s="79"/>
+      <c r="BT11" s="82"/>
+      <c r="BU11" s="86"/>
+      <c r="BV11" s="87"/>
+      <c r="BW11" s="88"/>
       <c r="BX11" s="2"/>
     </row>
     <row r="12" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2421,9 +2429,9 @@
       <c r="AC12" s="58"/>
       <c r="AD12" s="58"/>
       <c r="AE12" s="58"/>
-      <c r="AF12" s="70"/>
-      <c r="AG12" s="70"/>
-      <c r="AH12" s="70"/>
+      <c r="AF12" s="105"/>
+      <c r="AG12" s="105"/>
+      <c r="AH12" s="105"/>
       <c r="AI12" s="58"/>
       <c r="AJ12" s="58"/>
       <c r="AK12" s="58"/>
@@ -2455,16 +2463,16 @@
       <c r="BK12" s="4"/>
       <c r="BL12" s="25"/>
       <c r="BM12" s="2"/>
-      <c r="BN12" s="88"/>
-      <c r="BO12" s="89"/>
+      <c r="BN12" s="100"/>
+      <c r="BO12" s="101"/>
       <c r="BP12" s="18"/>
-      <c r="BQ12" s="86"/>
-      <c r="BR12" s="87"/>
+      <c r="BQ12" s="98"/>
+      <c r="BR12" s="99"/>
       <c r="BS12" s="2"/>
-      <c r="BT12" s="80"/>
-      <c r="BU12" s="71"/>
-      <c r="BV12" s="72"/>
-      <c r="BW12" s="73"/>
+      <c r="BT12" s="81"/>
+      <c r="BU12" s="83"/>
+      <c r="BV12" s="84"/>
+      <c r="BW12" s="85"/>
       <c r="BX12" s="2"/>
     </row>
     <row r="13" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2485,9 +2493,9 @@
       <c r="AC13" s="58"/>
       <c r="AD13" s="58"/>
       <c r="AE13" s="58"/>
-      <c r="AF13" s="70"/>
-      <c r="AG13" s="70"/>
-      <c r="AH13" s="70"/>
+      <c r="AF13" s="105"/>
+      <c r="AG13" s="105"/>
+      <c r="AH13" s="105"/>
       <c r="AI13" s="58"/>
       <c r="AJ13" s="58"/>
       <c r="AK13" s="58"/>
@@ -2512,21 +2520,21 @@
       <c r="BE13" s="58"/>
       <c r="BF13" s="58"/>
       <c r="BG13" s="58"/>
-      <c r="BH13" s="83"/>
-      <c r="BI13" s="83"/>
+      <c r="BH13" s="79"/>
+      <c r="BI13" s="79"/>
       <c r="BJ13" s="42"/>
       <c r="BL13" s="25"/>
       <c r="BM13" s="2"/>
       <c r="BN13" s="18"/>
       <c r="BO13" s="18"/>
       <c r="BP13" s="18"/>
-      <c r="BQ13" s="86"/>
-      <c r="BR13" s="87"/>
+      <c r="BQ13" s="98"/>
+      <c r="BR13" s="99"/>
       <c r="BS13" s="2"/>
-      <c r="BT13" s="81"/>
-      <c r="BU13" s="77"/>
-      <c r="BV13" s="78"/>
-      <c r="BW13" s="79"/>
+      <c r="BT13" s="82"/>
+      <c r="BU13" s="86"/>
+      <c r="BV13" s="87"/>
+      <c r="BW13" s="88"/>
       <c r="BX13" s="2"/>
     </row>
     <row r="14" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2546,9 +2554,9 @@
       <c r="AC14" s="58"/>
       <c r="AD14" s="58"/>
       <c r="AE14" s="58"/>
-      <c r="AF14" s="70"/>
-      <c r="AG14" s="70"/>
-      <c r="AH14" s="70"/>
+      <c r="AF14" s="105"/>
+      <c r="AG14" s="105"/>
+      <c r="AH14" s="105"/>
       <c r="AI14" s="58"/>
       <c r="AJ14" s="58"/>
       <c r="AK14" s="58"/>
@@ -2580,18 +2588,18 @@
       <c r="BK14" s="3"/>
       <c r="BL14" s="25"/>
       <c r="BM14" s="2"/>
-      <c r="BN14" s="84">
+      <c r="BN14" s="96">
         <v>3</v>
       </c>
-      <c r="BO14" s="85"/>
+      <c r="BO14" s="97"/>
       <c r="BP14" s="18"/>
-      <c r="BQ14" s="86"/>
-      <c r="BR14" s="87"/>
+      <c r="BQ14" s="98"/>
+      <c r="BR14" s="99"/>
       <c r="BS14" s="2"/>
-      <c r="BT14" s="80"/>
-      <c r="BU14" s="71"/>
-      <c r="BV14" s="72"/>
-      <c r="BW14" s="73"/>
+      <c r="BT14" s="81"/>
+      <c r="BU14" s="83"/>
+      <c r="BV14" s="84"/>
+      <c r="BW14" s="85"/>
       <c r="BX14" s="2"/>
     </row>
     <row r="15" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2645,16 +2653,16 @@
       <c r="BK15" s="3"/>
       <c r="BL15" s="25"/>
       <c r="BM15" s="2"/>
-      <c r="BN15" s="86"/>
-      <c r="BO15" s="87"/>
+      <c r="BN15" s="98"/>
+      <c r="BO15" s="99"/>
       <c r="BP15" s="18"/>
-      <c r="BQ15" s="86"/>
-      <c r="BR15" s="87"/>
+      <c r="BQ15" s="98"/>
+      <c r="BR15" s="99"/>
       <c r="BS15" s="2"/>
-      <c r="BT15" s="81"/>
-      <c r="BU15" s="77"/>
-      <c r="BV15" s="78"/>
-      <c r="BW15" s="79"/>
+      <c r="BT15" s="82"/>
+      <c r="BU15" s="86"/>
+      <c r="BV15" s="87"/>
+      <c r="BW15" s="88"/>
       <c r="BX15" s="2"/>
     </row>
     <row r="16" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2708,16 +2716,16 @@
       <c r="BK16" s="3"/>
       <c r="BL16" s="25"/>
       <c r="BM16" s="2"/>
-      <c r="BN16" s="86"/>
-      <c r="BO16" s="87"/>
+      <c r="BN16" s="98"/>
+      <c r="BO16" s="99"/>
       <c r="BP16" s="18"/>
-      <c r="BQ16" s="86"/>
-      <c r="BR16" s="87"/>
+      <c r="BQ16" s="98"/>
+      <c r="BR16" s="99"/>
       <c r="BS16" s="2"/>
-      <c r="BT16" s="80"/>
-      <c r="BU16" s="71"/>
-      <c r="BV16" s="72"/>
-      <c r="BW16" s="73"/>
+      <c r="BT16" s="81"/>
+      <c r="BU16" s="83"/>
+      <c r="BV16" s="84"/>
+      <c r="BW16" s="85"/>
       <c r="BX16" s="2"/>
     </row>
     <row r="17" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2771,21 +2779,21 @@
       <c r="BE17" s="58"/>
       <c r="BF17" s="58"/>
       <c r="BG17" s="58"/>
-      <c r="BH17" s="83"/>
-      <c r="BI17" s="83"/>
+      <c r="BH17" s="79"/>
+      <c r="BI17" s="79"/>
       <c r="BJ17" s="58"/>
       <c r="BL17" s="25"/>
       <c r="BM17" s="2"/>
-      <c r="BN17" s="88"/>
-      <c r="BO17" s="89"/>
+      <c r="BN17" s="100"/>
+      <c r="BO17" s="101"/>
       <c r="BP17" s="18"/>
-      <c r="BQ17" s="88"/>
-      <c r="BR17" s="89"/>
+      <c r="BQ17" s="100"/>
+      <c r="BR17" s="101"/>
       <c r="BS17" s="2"/>
-      <c r="BT17" s="94"/>
-      <c r="BU17" s="74"/>
-      <c r="BV17" s="75"/>
-      <c r="BW17" s="76"/>
+      <c r="BT17" s="95"/>
+      <c r="BU17" s="89"/>
+      <c r="BV17" s="90"/>
+      <c r="BW17" s="91"/>
       <c r="BX17" s="2"/>
     </row>
     <row r="18" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2868,7 +2876,7 @@
       <c r="Y19" s="64"/>
       <c r="Z19" s="64"/>
       <c r="AA19" s="64"/>
-      <c r="AB19" s="105"/>
+      <c r="AB19" s="72"/>
       <c r="AC19" s="64"/>
       <c r="AD19" s="64"/>
       <c r="AE19" s="64"/>
@@ -2913,61 +2921,61 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="65"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
       <c r="I20" s="65"/>
       <c r="J20" s="65"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
       <c r="M20" s="65"/>
       <c r="N20" s="65"/>
       <c r="O20" s="65"/>
-      <c r="P20" s="82"/>
-      <c r="Q20" s="82"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="78"/>
       <c r="S20" s="65"/>
       <c r="T20" s="65"/>
-      <c r="U20" s="82"/>
-      <c r="V20" s="82"/>
+      <c r="U20" s="78"/>
+      <c r="V20" s="78"/>
       <c r="W20" s="65"/>
       <c r="X20" s="65"/>
       <c r="Y20" s="65"/>
-      <c r="Z20" s="82"/>
-      <c r="AA20" s="82"/>
+      <c r="Z20" s="78"/>
+      <c r="AA20" s="78"/>
       <c r="AB20" s="37"/>
       <c r="AC20" s="65"/>
       <c r="AD20" s="65"/>
-      <c r="AE20" s="82"/>
-      <c r="AF20" s="82"/>
+      <c r="AE20" s="78"/>
+      <c r="AF20" s="78"/>
       <c r="AG20" s="65"/>
       <c r="AH20" s="65"/>
       <c r="AI20" s="65"/>
       <c r="AJ20" s="3"/>
       <c r="AK20" s="65"/>
-      <c r="AL20" s="82"/>
-      <c r="AM20" s="82"/>
+      <c r="AL20" s="78"/>
+      <c r="AM20" s="78"/>
       <c r="AN20" s="37"/>
       <c r="AO20" s="65"/>
-      <c r="AP20" s="82"/>
-      <c r="AQ20" s="82"/>
+      <c r="AP20" s="78"/>
+      <c r="AQ20" s="78"/>
       <c r="AR20" s="65"/>
       <c r="AS20" s="65"/>
       <c r="AT20" s="65"/>
-      <c r="AU20" s="82"/>
-      <c r="AV20" s="82"/>
+      <c r="AU20" s="78"/>
+      <c r="AV20" s="78"/>
       <c r="AX20" s="65"/>
       <c r="AY20" s="65"/>
-      <c r="AZ20" s="82"/>
-      <c r="BA20" s="82"/>
+      <c r="AZ20" s="78"/>
+      <c r="BA20" s="78"/>
       <c r="BB20" s="65"/>
       <c r="BC20" s="65"/>
       <c r="BD20" s="65"/>
-      <c r="BE20" s="82"/>
-      <c r="BF20" s="82"/>
+      <c r="BE20" s="78"/>
+      <c r="BF20" s="78"/>
       <c r="BG20" s="65"/>
       <c r="BH20" s="65"/>
       <c r="BI20" s="65"/>
-      <c r="BJ20" s="82"/>
-      <c r="BK20" s="82"/>
+      <c r="BJ20" s="78"/>
+      <c r="BK20" s="78"/>
       <c r="BL20" s="22"/>
       <c r="BM20" s="1"/>
       <c r="BN20" s="18"/>
@@ -3054,12 +3062,12 @@
       <c r="BQ21" s="18"/>
       <c r="BR21" s="18"/>
       <c r="BS21" s="2"/>
-      <c r="BT21" s="95" t="s">
+      <c r="BT21" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="BU21" s="96"/>
-      <c r="BV21" s="96"/>
-      <c r="BW21" s="97"/>
+      <c r="BU21" s="93"/>
+      <c r="BV21" s="93"/>
+      <c r="BW21" s="94"/>
       <c r="BX21" s="2"/>
     </row>
     <row r="22" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3071,10 +3079,10 @@
       <c r="D22" s="16"/>
       <c r="E22" s="37"/>
       <c r="F22" s="41"/>
-      <c r="G22" s="83">
+      <c r="G22" s="79">
         <v>9</v>
       </c>
-      <c r="H22" s="83"/>
+      <c r="H22" s="79"/>
       <c r="I22" s="42"/>
       <c r="J22" s="58"/>
       <c r="K22" s="58"/>
@@ -3084,8 +3092,8 @@
       <c r="O22" s="58"/>
       <c r="P22" s="58"/>
       <c r="Q22" s="58"/>
-      <c r="R22" s="83"/>
-      <c r="S22" s="83"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79"/>
       <c r="T22" s="58"/>
       <c r="U22" s="58"/>
       <c r="V22" s="58"/>
@@ -3093,28 +3101,28 @@
       <c r="X22" s="42"/>
       <c r="Y22" s="58"/>
       <c r="Z22" s="58"/>
-      <c r="AA22" s="83">
+      <c r="AA22" s="79">
         <v>10</v>
       </c>
-      <c r="AB22" s="83"/>
-      <c r="AC22" s="83">
+      <c r="AB22" s="79"/>
+      <c r="AC22" s="79">
         <v>11</v>
       </c>
-      <c r="AD22" s="83"/>
+      <c r="AD22" s="79"/>
       <c r="AE22" s="58"/>
       <c r="AF22" s="37"/>
-      <c r="AG22" s="106"/>
+      <c r="AG22" s="73"/>
       <c r="AH22" s="4"/>
       <c r="AJ22" s="37"/>
       <c r="AK22" s="41"/>
-      <c r="AL22" s="83">
+      <c r="AL22" s="79">
         <v>17</v>
       </c>
-      <c r="AM22" s="83"/>
-      <c r="AN22" s="83">
+      <c r="AM22" s="79"/>
+      <c r="AN22" s="79">
         <v>18</v>
       </c>
-      <c r="AO22" s="83"/>
+      <c r="AO22" s="79"/>
       <c r="AP22" s="58"/>
       <c r="AQ22" s="58"/>
       <c r="AR22" s="58"/>
@@ -3131,30 +3139,30 @@
       <c r="BE22" s="58"/>
       <c r="BF22" s="58"/>
       <c r="BG22" s="58"/>
-      <c r="BH22" s="83">
+      <c r="BH22" s="79">
         <v>19</v>
       </c>
-      <c r="BI22" s="83"/>
+      <c r="BI22" s="79"/>
       <c r="BJ22" s="58"/>
       <c r="BK22" s="37"/>
       <c r="BL22" s="25"/>
       <c r="BM22" s="2"/>
-      <c r="BN22" s="84">
+      <c r="BN22" s="96">
         <v>5</v>
       </c>
-      <c r="BO22" s="85"/>
+      <c r="BO22" s="97"/>
       <c r="BP22" s="18"/>
-      <c r="BQ22" s="84">
+      <c r="BQ22" s="96">
         <v>6</v>
       </c>
-      <c r="BR22" s="85"/>
+      <c r="BR22" s="97"/>
       <c r="BS22" s="2"/>
-      <c r="BT22" s="91" t="s">
+      <c r="BT22" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="BU22" s="92"/>
-      <c r="BV22" s="92"/>
-      <c r="BW22" s="93"/>
+      <c r="BU22" s="103"/>
+      <c r="BV22" s="103"/>
+      <c r="BW22" s="104"/>
       <c r="BX22" s="2"/>
     </row>
     <row r="23" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3189,7 +3197,7 @@
       <c r="AC23" s="42"/>
       <c r="AD23" s="58"/>
       <c r="AE23" s="58"/>
-      <c r="AF23" s="107"/>
+      <c r="AF23" s="74"/>
       <c r="AH23" s="4"/>
       <c r="AJ23" s="3"/>
       <c r="AK23" s="41"/>
@@ -3218,19 +3226,19 @@
       <c r="BH23" s="42"/>
       <c r="BI23" s="58"/>
       <c r="BJ23" s="58"/>
-      <c r="BK23" s="107"/>
+      <c r="BK23" s="74"/>
       <c r="BL23" s="25"/>
       <c r="BM23" s="2"/>
-      <c r="BN23" s="86"/>
-      <c r="BO23" s="87"/>
+      <c r="BN23" s="98"/>
+      <c r="BO23" s="99"/>
       <c r="BP23" s="18"/>
-      <c r="BQ23" s="86"/>
-      <c r="BR23" s="87"/>
+      <c r="BQ23" s="98"/>
+      <c r="BR23" s="99"/>
       <c r="BS23" s="2"/>
-      <c r="BT23" s="80"/>
-      <c r="BU23" s="71"/>
-      <c r="BV23" s="72"/>
-      <c r="BW23" s="73"/>
+      <c r="BT23" s="81"/>
+      <c r="BU23" s="83"/>
+      <c r="BV23" s="84"/>
+      <c r="BW23" s="85"/>
       <c r="BX23" s="2"/>
     </row>
     <row r="24" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3299,16 +3307,16 @@
       <c r="BK24" s="17"/>
       <c r="BL24" s="25"/>
       <c r="BM24" s="2"/>
-      <c r="BN24" s="86"/>
-      <c r="BO24" s="87"/>
+      <c r="BN24" s="98"/>
+      <c r="BO24" s="99"/>
       <c r="BP24" s="18"/>
-      <c r="BQ24" s="86"/>
-      <c r="BR24" s="87"/>
+      <c r="BQ24" s="98"/>
+      <c r="BR24" s="99"/>
       <c r="BS24" s="2"/>
-      <c r="BT24" s="81"/>
-      <c r="BU24" s="77"/>
-      <c r="BV24" s="78"/>
-      <c r="BW24" s="79"/>
+      <c r="BT24" s="82"/>
+      <c r="BU24" s="86"/>
+      <c r="BV24" s="87"/>
+      <c r="BW24" s="88"/>
       <c r="BX24" s="2"/>
     </row>
     <row r="25" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3327,11 +3335,11 @@
       <c r="M25" s="42"/>
       <c r="N25" s="42"/>
       <c r="O25" s="42"/>
-      <c r="P25" s="70" t="s">
+      <c r="P25" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="Q25" s="70"/>
-      <c r="R25" s="70"/>
+      <c r="Q25" s="105"/>
+      <c r="R25" s="105"/>
       <c r="S25" s="42"/>
       <c r="T25" s="42"/>
       <c r="U25" s="42"/>
@@ -3362,11 +3370,11 @@
       <c r="AT25" s="42"/>
       <c r="AU25" s="42"/>
       <c r="AV25" s="42"/>
-      <c r="AW25" s="70" t="s">
+      <c r="AW25" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="AX25" s="70"/>
-      <c r="AY25" s="70"/>
+      <c r="AX25" s="105"/>
+      <c r="AY25" s="105"/>
       <c r="AZ25" s="42"/>
       <c r="BA25" s="42"/>
       <c r="BB25" s="42"/>
@@ -3381,16 +3389,16 @@
       <c r="BK25" s="17"/>
       <c r="BL25" s="25"/>
       <c r="BM25" s="2"/>
-      <c r="BN25" s="88"/>
-      <c r="BO25" s="89"/>
+      <c r="BN25" s="100"/>
+      <c r="BO25" s="101"/>
       <c r="BP25" s="18"/>
-      <c r="BQ25" s="86"/>
-      <c r="BR25" s="87"/>
+      <c r="BQ25" s="98"/>
+      <c r="BR25" s="99"/>
       <c r="BS25" s="2"/>
-      <c r="BT25" s="80"/>
-      <c r="BU25" s="71"/>
-      <c r="BV25" s="72"/>
-      <c r="BW25" s="73"/>
+      <c r="BT25" s="81"/>
+      <c r="BU25" s="83"/>
+      <c r="BV25" s="84"/>
+      <c r="BW25" s="85"/>
       <c r="BX25" s="2"/>
     </row>
     <row r="26" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3402,10 +3410,10 @@
       <c r="D26" s="15"/>
       <c r="E26" s="37"/>
       <c r="F26" s="41"/>
-      <c r="G26" s="83">
+      <c r="G26" s="79">
         <v>12</v>
       </c>
-      <c r="H26" s="83"/>
+      <c r="H26" s="79"/>
       <c r="I26" s="42"/>
       <c r="J26" s="42"/>
       <c r="K26" s="42"/>
@@ -3413,9 +3421,9 @@
       <c r="M26" s="42"/>
       <c r="N26" s="42"/>
       <c r="O26" s="42"/>
-      <c r="P26" s="70"/>
-      <c r="Q26" s="70"/>
-      <c r="R26" s="70"/>
+      <c r="P26" s="105"/>
+      <c r="Q26" s="105"/>
+      <c r="R26" s="105"/>
       <c r="S26" s="42"/>
       <c r="T26" s="42"/>
       <c r="U26" s="42"/>
@@ -3426,10 +3434,10 @@
       <c r="Z26" s="42"/>
       <c r="AA26" s="42"/>
       <c r="AB26" s="42"/>
-      <c r="AC26" s="83">
+      <c r="AC26" s="79">
         <v>13</v>
       </c>
-      <c r="AD26" s="83"/>
+      <c r="AD26" s="79"/>
       <c r="AE26" s="43"/>
       <c r="AF26" s="37"/>
       <c r="AG26" s="4"/>
@@ -3437,10 +3445,10 @@
       <c r="AI26" s="4"/>
       <c r="AJ26" s="37"/>
       <c r="AK26" s="41"/>
-      <c r="AL26" s="83">
+      <c r="AL26" s="79">
         <v>20</v>
       </c>
-      <c r="AM26" s="83"/>
+      <c r="AM26" s="79"/>
       <c r="AN26" s="42"/>
       <c r="AO26" s="42"/>
       <c r="AP26" s="42"/>
@@ -3450,9 +3458,9 @@
       <c r="AT26" s="42"/>
       <c r="AU26" s="42"/>
       <c r="AV26" s="42"/>
-      <c r="AW26" s="70"/>
-      <c r="AX26" s="70"/>
-      <c r="AY26" s="70"/>
+      <c r="AW26" s="105"/>
+      <c r="AX26" s="105"/>
+      <c r="AY26" s="105"/>
       <c r="AZ26" s="42"/>
       <c r="BA26" s="42"/>
       <c r="BB26" s="42"/>
@@ -3461,10 +3469,10 @@
       <c r="BE26" s="42"/>
       <c r="BF26" s="42"/>
       <c r="BG26" s="42"/>
-      <c r="BH26" s="83">
+      <c r="BH26" s="79">
         <v>21</v>
       </c>
-      <c r="BI26" s="83"/>
+      <c r="BI26" s="79"/>
       <c r="BJ26" s="43"/>
       <c r="BK26" s="37"/>
       <c r="BL26" s="25"/>
@@ -3472,13 +3480,13 @@
       <c r="BN26" s="18"/>
       <c r="BO26" s="18"/>
       <c r="BP26" s="18"/>
-      <c r="BQ26" s="86"/>
-      <c r="BR26" s="87"/>
+      <c r="BQ26" s="98"/>
+      <c r="BR26" s="99"/>
       <c r="BS26" s="2"/>
-      <c r="BT26" s="81"/>
-      <c r="BU26" s="77"/>
-      <c r="BV26" s="78"/>
-      <c r="BW26" s="79"/>
+      <c r="BT26" s="82"/>
+      <c r="BU26" s="86"/>
+      <c r="BV26" s="87"/>
+      <c r="BW26" s="88"/>
       <c r="BX26" s="2"/>
     </row>
     <row r="27" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3497,9 +3505,9 @@
       <c r="M27" s="42"/>
       <c r="N27" s="42"/>
       <c r="O27" s="42"/>
-      <c r="P27" s="70"/>
-      <c r="Q27" s="70"/>
-      <c r="R27" s="70"/>
+      <c r="P27" s="105"/>
+      <c r="Q27" s="105"/>
+      <c r="R27" s="105"/>
       <c r="S27" s="42"/>
       <c r="T27" s="42"/>
       <c r="U27" s="42"/>
@@ -3530,9 +3538,9 @@
       <c r="AT27" s="42"/>
       <c r="AU27" s="42"/>
       <c r="AV27" s="42"/>
-      <c r="AW27" s="70"/>
-      <c r="AX27" s="70"/>
-      <c r="AY27" s="70"/>
+      <c r="AW27" s="105"/>
+      <c r="AX27" s="105"/>
+      <c r="AY27" s="105"/>
       <c r="AZ27" s="42"/>
       <c r="BA27" s="42"/>
       <c r="BB27" s="42"/>
@@ -3547,18 +3555,18 @@
       <c r="BK27" s="3"/>
       <c r="BL27" s="25"/>
       <c r="BM27" s="2"/>
-      <c r="BN27" s="84">
+      <c r="BN27" s="96">
         <v>7</v>
       </c>
-      <c r="BO27" s="85"/>
+      <c r="BO27" s="97"/>
       <c r="BP27" s="18"/>
-      <c r="BQ27" s="86"/>
-      <c r="BR27" s="87"/>
+      <c r="BQ27" s="98"/>
+      <c r="BR27" s="99"/>
       <c r="BS27" s="2"/>
-      <c r="BT27" s="80"/>
-      <c r="BU27" s="71"/>
-      <c r="BV27" s="72"/>
-      <c r="BW27" s="73"/>
+      <c r="BT27" s="81"/>
+      <c r="BU27" s="83"/>
+      <c r="BV27" s="84"/>
+      <c r="BW27" s="85"/>
       <c r="BX27" s="2"/>
     </row>
     <row r="28" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3577,9 +3585,9 @@
       <c r="M28" s="42"/>
       <c r="N28" s="42"/>
       <c r="O28" s="42"/>
-      <c r="P28" s="70"/>
-      <c r="Q28" s="70"/>
-      <c r="R28" s="70"/>
+      <c r="P28" s="105"/>
+      <c r="Q28" s="105"/>
+      <c r="R28" s="105"/>
       <c r="S28" s="42"/>
       <c r="T28" s="42"/>
       <c r="U28" s="42"/>
@@ -3610,9 +3618,9 @@
       <c r="AT28" s="42"/>
       <c r="AU28" s="42"/>
       <c r="AV28" s="42"/>
-      <c r="AW28" s="70"/>
-      <c r="AX28" s="70"/>
-      <c r="AY28" s="70"/>
+      <c r="AW28" s="105"/>
+      <c r="AX28" s="105"/>
+      <c r="AY28" s="105"/>
       <c r="AZ28" s="42"/>
       <c r="BA28" s="42"/>
       <c r="BB28" s="42"/>
@@ -3627,16 +3635,16 @@
       <c r="BK28" s="3"/>
       <c r="BL28" s="25"/>
       <c r="BM28" s="2"/>
-      <c r="BN28" s="86"/>
-      <c r="BO28" s="87"/>
+      <c r="BN28" s="98"/>
+      <c r="BO28" s="99"/>
       <c r="BP28" s="18"/>
-      <c r="BQ28" s="86"/>
-      <c r="BR28" s="87"/>
+      <c r="BQ28" s="98"/>
+      <c r="BR28" s="99"/>
       <c r="BS28" s="2"/>
-      <c r="BT28" s="81"/>
-      <c r="BU28" s="77"/>
-      <c r="BV28" s="78"/>
-      <c r="BW28" s="79"/>
+      <c r="BT28" s="82"/>
+      <c r="BU28" s="86"/>
+      <c r="BV28" s="87"/>
+      <c r="BW28" s="88"/>
       <c r="BX28" s="2"/>
     </row>
     <row r="29" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3703,16 +3711,16 @@
       <c r="BK29" s="3"/>
       <c r="BL29" s="25"/>
       <c r="BM29" s="2"/>
-      <c r="BN29" s="86"/>
-      <c r="BO29" s="87"/>
+      <c r="BN29" s="98"/>
+      <c r="BO29" s="99"/>
       <c r="BP29" s="18"/>
-      <c r="BQ29" s="86"/>
-      <c r="BR29" s="87"/>
+      <c r="BQ29" s="98"/>
+      <c r="BR29" s="99"/>
       <c r="BS29" s="2"/>
-      <c r="BT29" s="80"/>
-      <c r="BU29" s="71"/>
-      <c r="BV29" s="72"/>
-      <c r="BW29" s="73"/>
+      <c r="BT29" s="81"/>
+      <c r="BU29" s="83"/>
+      <c r="BV29" s="84"/>
+      <c r="BW29" s="85"/>
       <c r="BX29" s="2"/>
     </row>
     <row r="30" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3724,10 +3732,10 @@
       <c r="D30" s="16"/>
       <c r="E30" s="37"/>
       <c r="F30" s="41"/>
-      <c r="G30" s="83">
+      <c r="G30" s="79">
         <v>14</v>
       </c>
-      <c r="H30" s="83"/>
+      <c r="H30" s="79"/>
       <c r="I30" s="42"/>
       <c r="J30" s="58"/>
       <c r="K30" s="58"/>
@@ -3744,27 +3752,27 @@
       <c r="X30" s="42"/>
       <c r="Y30" s="58"/>
       <c r="Z30" s="58"/>
-      <c r="AA30" s="83">
+      <c r="AA30" s="79">
         <v>15</v>
       </c>
-      <c r="AB30" s="83"/>
-      <c r="AC30" s="83">
+      <c r="AB30" s="79"/>
+      <c r="AC30" s="79">
         <v>16</v>
       </c>
-      <c r="AD30" s="83"/>
+      <c r="AD30" s="79"/>
       <c r="AE30" s="59"/>
       <c r="AF30" s="37"/>
       <c r="AH30" s="4"/>
       <c r="AJ30" s="37"/>
       <c r="AK30" s="41"/>
-      <c r="AL30" s="83">
+      <c r="AL30" s="79">
         <v>22</v>
       </c>
-      <c r="AM30" s="83"/>
-      <c r="AN30" s="83">
+      <c r="AM30" s="79"/>
+      <c r="AN30" s="79">
         <v>23</v>
       </c>
-      <c r="AO30" s="83"/>
+      <c r="AO30" s="79"/>
       <c r="AP30" s="58"/>
       <c r="AQ30" s="58"/>
       <c r="AT30" s="58"/>
@@ -3781,24 +3789,24 @@
       <c r="BE30" s="58"/>
       <c r="BF30" s="58"/>
       <c r="BG30" s="58"/>
-      <c r="BH30" s="83">
+      <c r="BH30" s="79">
         <v>24</v>
       </c>
-      <c r="BI30" s="83"/>
+      <c r="BI30" s="79"/>
       <c r="BJ30" s="59"/>
       <c r="BK30" s="37"/>
       <c r="BL30" s="25"/>
       <c r="BM30" s="2"/>
-      <c r="BN30" s="88"/>
-      <c r="BO30" s="89"/>
+      <c r="BN30" s="100"/>
+      <c r="BO30" s="101"/>
       <c r="BP30" s="18"/>
-      <c r="BQ30" s="88"/>
-      <c r="BR30" s="89"/>
+      <c r="BQ30" s="100"/>
+      <c r="BR30" s="101"/>
       <c r="BS30" s="2"/>
-      <c r="BT30" s="94"/>
-      <c r="BU30" s="74"/>
-      <c r="BV30" s="75"/>
-      <c r="BW30" s="76"/>
+      <c r="BT30" s="95"/>
+      <c r="BU30" s="89"/>
+      <c r="BV30" s="90"/>
+      <c r="BW30" s="91"/>
       <c r="BX30" s="2"/>
     </row>
     <row r="31" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3962,61 +3970,61 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="65"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="82"/>
+      <c r="G33" s="78"/>
+      <c r="H33" s="78"/>
       <c r="I33" s="65"/>
       <c r="J33" s="65"/>
-      <c r="K33" s="82"/>
-      <c r="L33" s="82"/>
+      <c r="K33" s="78"/>
+      <c r="L33" s="78"/>
       <c r="M33" s="65"/>
       <c r="N33" s="65"/>
       <c r="O33" s="65"/>
-      <c r="P33" s="82"/>
-      <c r="Q33" s="82"/>
+      <c r="P33" s="78"/>
+      <c r="Q33" s="78"/>
       <c r="S33" s="65"/>
       <c r="T33" s="65"/>
-      <c r="U33" s="82"/>
-      <c r="V33" s="82"/>
+      <c r="U33" s="78"/>
+      <c r="V33" s="78"/>
       <c r="W33" s="65"/>
       <c r="X33" s="65"/>
       <c r="Y33" s="65"/>
-      <c r="Z33" s="82"/>
-      <c r="AA33" s="82"/>
+      <c r="Z33" s="78"/>
+      <c r="AA33" s="78"/>
       <c r="AB33" s="37"/>
       <c r="AC33" s="65"/>
       <c r="AD33" s="65"/>
-      <c r="AE33" s="82"/>
-      <c r="AF33" s="82"/>
+      <c r="AE33" s="78"/>
+      <c r="AF33" s="78"/>
       <c r="AG33" s="65"/>
       <c r="AH33" s="65"/>
       <c r="AI33" s="65"/>
       <c r="AJ33" s="3"/>
       <c r="AK33" s="65"/>
-      <c r="AL33" s="82"/>
-      <c r="AM33" s="82"/>
+      <c r="AL33" s="78"/>
+      <c r="AM33" s="78"/>
       <c r="AN33" s="37"/>
       <c r="AO33" s="65"/>
-      <c r="AP33" s="82"/>
-      <c r="AQ33" s="82"/>
+      <c r="AP33" s="78"/>
+      <c r="AQ33" s="78"/>
       <c r="AR33" s="65"/>
       <c r="AS33" s="65"/>
       <c r="AT33" s="65"/>
-      <c r="AU33" s="82"/>
-      <c r="AV33" s="82"/>
+      <c r="AU33" s="78"/>
+      <c r="AV33" s="78"/>
       <c r="AX33" s="65"/>
       <c r="AY33" s="65"/>
-      <c r="AZ33" s="82"/>
-      <c r="BA33" s="82"/>
+      <c r="AZ33" s="78"/>
+      <c r="BA33" s="78"/>
       <c r="BB33" s="65"/>
       <c r="BC33" s="65"/>
       <c r="BD33" s="65"/>
-      <c r="BE33" s="82"/>
-      <c r="BF33" s="82"/>
+      <c r="BE33" s="78"/>
+      <c r="BF33" s="78"/>
       <c r="BG33" s="65"/>
       <c r="BH33" s="65"/>
       <c r="BI33" s="65"/>
-      <c r="BJ33" s="82"/>
-      <c r="BK33" s="82"/>
+      <c r="BJ33" s="78"/>
+      <c r="BK33" s="78"/>
       <c r="BL33" s="22"/>
       <c r="BM33" s="1"/>
       <c r="BN33" s="18"/>
@@ -4103,12 +4111,12 @@
       <c r="BQ34" s="18"/>
       <c r="BR34" s="18"/>
       <c r="BS34" s="2"/>
-      <c r="BT34" s="95" t="s">
+      <c r="BT34" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="BU34" s="96"/>
-      <c r="BV34" s="96"/>
-      <c r="BW34" s="97"/>
+      <c r="BU34" s="93"/>
+      <c r="BV34" s="93"/>
+      <c r="BW34" s="94"/>
       <c r="BX34" s="2"/>
     </row>
     <row r="35" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4120,10 +4128,10 @@
       <c r="D35" s="16"/>
       <c r="E35" s="37"/>
       <c r="F35" s="41"/>
-      <c r="G35" s="83">
+      <c r="G35" s="79">
         <v>25</v>
       </c>
-      <c r="H35" s="83"/>
+      <c r="H35" s="79"/>
       <c r="I35" s="42"/>
       <c r="J35" s="58"/>
       <c r="K35" s="58"/>
@@ -4133,8 +4141,8 @@
       <c r="O35" s="58"/>
       <c r="P35" s="58"/>
       <c r="Q35" s="58"/>
-      <c r="R35" s="83"/>
-      <c r="S35" s="83"/>
+      <c r="R35" s="79"/>
+      <c r="S35" s="79"/>
       <c r="T35" s="58"/>
       <c r="U35" s="58"/>
       <c r="V35" s="58"/>
@@ -4142,28 +4150,28 @@
       <c r="X35" s="42"/>
       <c r="Y35" s="58"/>
       <c r="Z35" s="58"/>
-      <c r="AA35" s="83">
+      <c r="AA35" s="79">
         <v>26</v>
       </c>
-      <c r="AB35" s="83"/>
-      <c r="AC35" s="83">
+      <c r="AB35" s="79"/>
+      <c r="AC35" s="79">
         <v>27</v>
       </c>
-      <c r="AD35" s="83"/>
+      <c r="AD35" s="79"/>
       <c r="AE35" s="58"/>
       <c r="AF35" s="37"/>
-      <c r="AG35" s="106"/>
+      <c r="AG35" s="73"/>
       <c r="AH35" s="4"/>
       <c r="AJ35" s="37"/>
       <c r="AK35" s="41"/>
-      <c r="AL35" s="83">
+      <c r="AL35" s="79">
         <v>33</v>
       </c>
-      <c r="AM35" s="83"/>
-      <c r="AN35" s="83">
+      <c r="AM35" s="79"/>
+      <c r="AN35" s="79">
         <v>34</v>
       </c>
-      <c r="AO35" s="83"/>
+      <c r="AO35" s="79"/>
       <c r="AP35" s="58"/>
       <c r="AQ35" s="58"/>
       <c r="AR35" s="58"/>
@@ -4180,30 +4188,30 @@
       <c r="BE35" s="58"/>
       <c r="BF35" s="58"/>
       <c r="BG35" s="58"/>
-      <c r="BH35" s="83">
+      <c r="BH35" s="79">
         <v>35</v>
       </c>
-      <c r="BI35" s="83"/>
+      <c r="BI35" s="79"/>
       <c r="BJ35" s="58"/>
       <c r="BK35" s="37"/>
       <c r="BL35" s="25"/>
       <c r="BM35" s="2"/>
-      <c r="BN35" s="84">
+      <c r="BN35" s="96">
         <v>11</v>
       </c>
-      <c r="BO35" s="85"/>
+      <c r="BO35" s="97"/>
       <c r="BP35" s="18"/>
-      <c r="BQ35" s="84">
+      <c r="BQ35" s="96">
         <v>12</v>
       </c>
-      <c r="BR35" s="85"/>
+      <c r="BR35" s="97"/>
       <c r="BS35" s="2"/>
-      <c r="BT35" s="91" t="s">
+      <c r="BT35" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="BU35" s="92"/>
-      <c r="BV35" s="92"/>
-      <c r="BW35" s="93"/>
+      <c r="BU35" s="103"/>
+      <c r="BV35" s="103"/>
+      <c r="BW35" s="104"/>
       <c r="BX35" s="2"/>
     </row>
     <row r="36" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4238,7 +4246,7 @@
       <c r="AC36" s="42"/>
       <c r="AD36" s="58"/>
       <c r="AE36" s="58"/>
-      <c r="AF36" s="107"/>
+      <c r="AF36" s="74"/>
       <c r="AH36" s="4"/>
       <c r="AJ36" s="3"/>
       <c r="AK36" s="41"/>
@@ -4267,19 +4275,19 @@
       <c r="BH36" s="42"/>
       <c r="BI36" s="58"/>
       <c r="BJ36" s="58"/>
-      <c r="BK36" s="107"/>
+      <c r="BK36" s="74"/>
       <c r="BL36" s="25"/>
       <c r="BM36" s="2"/>
-      <c r="BN36" s="86"/>
-      <c r="BO36" s="87"/>
+      <c r="BN36" s="98"/>
+      <c r="BO36" s="99"/>
       <c r="BP36" s="18"/>
-      <c r="BQ36" s="86"/>
-      <c r="BR36" s="87"/>
+      <c r="BQ36" s="98"/>
+      <c r="BR36" s="99"/>
       <c r="BS36" s="2"/>
-      <c r="BT36" s="80"/>
-      <c r="BU36" s="71"/>
-      <c r="BV36" s="72"/>
-      <c r="BW36" s="73"/>
+      <c r="BT36" s="81"/>
+      <c r="BU36" s="83"/>
+      <c r="BV36" s="84"/>
+      <c r="BW36" s="85"/>
       <c r="BX36" s="2"/>
     </row>
     <row r="37" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4348,16 +4356,16 @@
       <c r="BK37" s="17"/>
       <c r="BL37" s="25"/>
       <c r="BM37" s="2"/>
-      <c r="BN37" s="86"/>
-      <c r="BO37" s="87"/>
+      <c r="BN37" s="98"/>
+      <c r="BO37" s="99"/>
       <c r="BP37" s="18"/>
-      <c r="BQ37" s="86"/>
-      <c r="BR37" s="87"/>
+      <c r="BQ37" s="98"/>
+      <c r="BR37" s="99"/>
       <c r="BS37" s="2"/>
-      <c r="BT37" s="81"/>
-      <c r="BU37" s="77"/>
-      <c r="BV37" s="78"/>
-      <c r="BW37" s="79"/>
+      <c r="BT37" s="82"/>
+      <c r="BU37" s="86"/>
+      <c r="BV37" s="87"/>
+      <c r="BW37" s="88"/>
       <c r="BX37" s="2"/>
     </row>
     <row r="38" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4376,14 +4384,14 @@
       <c r="M38" s="42"/>
       <c r="N38" s="42"/>
       <c r="O38" s="42"/>
-      <c r="P38" s="70" t="s">
+      <c r="P38" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="Q38" s="70"/>
-      <c r="R38" s="70"/>
-      <c r="S38" s="70"/>
-      <c r="T38" s="70"/>
-      <c r="U38" s="70"/>
+      <c r="Q38" s="105"/>
+      <c r="R38" s="105"/>
+      <c r="S38" s="105"/>
+      <c r="T38" s="105"/>
+      <c r="U38" s="105"/>
       <c r="V38" s="42"/>
       <c r="W38" s="42"/>
       <c r="X38" s="42"/>
@@ -4411,11 +4419,11 @@
       <c r="AT38" s="42"/>
       <c r="AU38" s="42"/>
       <c r="AV38" s="42"/>
-      <c r="AW38" s="70" t="s">
+      <c r="AW38" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="AX38" s="70"/>
-      <c r="AY38" s="70"/>
+      <c r="AX38" s="105"/>
+      <c r="AY38" s="105"/>
       <c r="AZ38" s="42"/>
       <c r="BA38" s="42"/>
       <c r="BB38" s="42"/>
@@ -4430,16 +4438,16 @@
       <c r="BK38" s="17"/>
       <c r="BL38" s="25"/>
       <c r="BM38" s="2"/>
-      <c r="BN38" s="88"/>
-      <c r="BO38" s="89"/>
+      <c r="BN38" s="100"/>
+      <c r="BO38" s="101"/>
       <c r="BP38" s="18"/>
-      <c r="BQ38" s="86"/>
-      <c r="BR38" s="87"/>
+      <c r="BQ38" s="98"/>
+      <c r="BR38" s="99"/>
       <c r="BS38" s="2"/>
-      <c r="BT38" s="80"/>
-      <c r="BU38" s="71"/>
-      <c r="BV38" s="72"/>
-      <c r="BW38" s="73"/>
+      <c r="BT38" s="81"/>
+      <c r="BU38" s="83"/>
+      <c r="BV38" s="84"/>
+      <c r="BW38" s="85"/>
       <c r="BX38" s="2"/>
     </row>
     <row r="39" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4451,10 +4459,10 @@
       <c r="D39" s="16"/>
       <c r="E39" s="37"/>
       <c r="F39" s="41"/>
-      <c r="G39" s="83">
+      <c r="G39" s="79">
         <v>28</v>
       </c>
-      <c r="H39" s="83"/>
+      <c r="H39" s="79"/>
       <c r="I39" s="42"/>
       <c r="J39" s="42"/>
       <c r="K39" s="42"/>
@@ -4462,12 +4470,12 @@
       <c r="M39" s="42"/>
       <c r="N39" s="42"/>
       <c r="O39" s="42"/>
-      <c r="P39" s="70"/>
-      <c r="Q39" s="70"/>
-      <c r="R39" s="70"/>
-      <c r="S39" s="70"/>
-      <c r="T39" s="70"/>
-      <c r="U39" s="70"/>
+      <c r="P39" s="105"/>
+      <c r="Q39" s="105"/>
+      <c r="R39" s="105"/>
+      <c r="S39" s="105"/>
+      <c r="T39" s="105"/>
+      <c r="U39" s="105"/>
       <c r="V39" s="42"/>
       <c r="W39" s="42"/>
       <c r="X39" s="42"/>
@@ -4475,10 +4483,10 @@
       <c r="Z39" s="42"/>
       <c r="AA39" s="42"/>
       <c r="AB39" s="42"/>
-      <c r="AC39" s="83">
+      <c r="AC39" s="79">
         <v>29</v>
       </c>
-      <c r="AD39" s="83"/>
+      <c r="AD39" s="79"/>
       <c r="AE39" s="43"/>
       <c r="AF39" s="37"/>
       <c r="AG39" s="4"/>
@@ -4486,10 +4494,10 @@
       <c r="AI39" s="4"/>
       <c r="AJ39" s="37"/>
       <c r="AK39" s="41"/>
-      <c r="AL39" s="83">
+      <c r="AL39" s="79">
         <v>36</v>
       </c>
-      <c r="AM39" s="83"/>
+      <c r="AM39" s="79"/>
       <c r="AN39" s="42"/>
       <c r="AO39" s="42"/>
       <c r="AP39" s="42"/>
@@ -4499,9 +4507,9 @@
       <c r="AT39" s="42"/>
       <c r="AU39" s="42"/>
       <c r="AV39" s="42"/>
-      <c r="AW39" s="70"/>
-      <c r="AX39" s="70"/>
-      <c r="AY39" s="70"/>
+      <c r="AW39" s="105"/>
+      <c r="AX39" s="105"/>
+      <c r="AY39" s="105"/>
       <c r="AZ39" s="42"/>
       <c r="BA39" s="42"/>
       <c r="BB39" s="42"/>
@@ -4510,10 +4518,10 @@
       <c r="BE39" s="42"/>
       <c r="BF39" s="42"/>
       <c r="BG39" s="42"/>
-      <c r="BH39" s="83">
+      <c r="BH39" s="79">
         <v>37</v>
       </c>
-      <c r="BI39" s="83"/>
+      <c r="BI39" s="79"/>
       <c r="BJ39" s="43"/>
       <c r="BK39" s="37"/>
       <c r="BL39" s="25"/>
@@ -4521,13 +4529,13 @@
       <c r="BN39" s="18"/>
       <c r="BO39" s="18"/>
       <c r="BP39" s="18"/>
-      <c r="BQ39" s="86"/>
-      <c r="BR39" s="87"/>
+      <c r="BQ39" s="98"/>
+      <c r="BR39" s="99"/>
       <c r="BS39" s="2"/>
-      <c r="BT39" s="81"/>
-      <c r="BU39" s="77"/>
-      <c r="BV39" s="78"/>
-      <c r="BW39" s="79"/>
+      <c r="BT39" s="82"/>
+      <c r="BU39" s="86"/>
+      <c r="BV39" s="87"/>
+      <c r="BW39" s="88"/>
       <c r="BX39" s="2"/>
     </row>
     <row r="40" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4546,12 +4554,12 @@
       <c r="M40" s="42"/>
       <c r="N40" s="42"/>
       <c r="O40" s="42"/>
-      <c r="P40" s="70"/>
-      <c r="Q40" s="70"/>
-      <c r="R40" s="70"/>
-      <c r="S40" s="70"/>
-      <c r="T40" s="70"/>
-      <c r="U40" s="70"/>
+      <c r="P40" s="105"/>
+      <c r="Q40" s="105"/>
+      <c r="R40" s="105"/>
+      <c r="S40" s="105"/>
+      <c r="T40" s="105"/>
+      <c r="U40" s="105"/>
       <c r="V40" s="42"/>
       <c r="W40" s="42"/>
       <c r="X40" s="42"/>
@@ -4579,9 +4587,9 @@
       <c r="AT40" s="42"/>
       <c r="AU40" s="42"/>
       <c r="AV40" s="42"/>
-      <c r="AW40" s="70"/>
-      <c r="AX40" s="70"/>
-      <c r="AY40" s="70"/>
+      <c r="AW40" s="105"/>
+      <c r="AX40" s="105"/>
+      <c r="AY40" s="105"/>
       <c r="AZ40" s="42"/>
       <c r="BA40" s="42"/>
       <c r="BB40" s="42"/>
@@ -4596,18 +4604,18 @@
       <c r="BK40" s="3"/>
       <c r="BL40" s="25"/>
       <c r="BM40" s="2"/>
-      <c r="BN40" s="84">
+      <c r="BN40" s="96">
         <v>13</v>
       </c>
-      <c r="BO40" s="85"/>
+      <c r="BO40" s="97"/>
       <c r="BP40" s="18"/>
-      <c r="BQ40" s="86"/>
-      <c r="BR40" s="87"/>
+      <c r="BQ40" s="98"/>
+      <c r="BR40" s="99"/>
       <c r="BS40" s="2"/>
-      <c r="BT40" s="80"/>
-      <c r="BU40" s="71"/>
-      <c r="BV40" s="72"/>
-      <c r="BW40" s="73"/>
+      <c r="BT40" s="81"/>
+      <c r="BU40" s="83"/>
+      <c r="BV40" s="84"/>
+      <c r="BW40" s="85"/>
       <c r="BX40" s="2"/>
     </row>
     <row r="41" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4626,12 +4634,12 @@
       <c r="M41" s="42"/>
       <c r="N41" s="42"/>
       <c r="O41" s="42"/>
-      <c r="P41" s="70"/>
-      <c r="Q41" s="70"/>
-      <c r="R41" s="70"/>
-      <c r="S41" s="70"/>
-      <c r="T41" s="70"/>
-      <c r="U41" s="70"/>
+      <c r="P41" s="105"/>
+      <c r="Q41" s="105"/>
+      <c r="R41" s="105"/>
+      <c r="S41" s="105"/>
+      <c r="T41" s="105"/>
+      <c r="U41" s="105"/>
       <c r="V41" s="42"/>
       <c r="W41" s="42"/>
       <c r="X41" s="42"/>
@@ -4659,9 +4667,9 @@
       <c r="AT41" s="42"/>
       <c r="AU41" s="42"/>
       <c r="AV41" s="42"/>
-      <c r="AW41" s="70"/>
-      <c r="AX41" s="70"/>
-      <c r="AY41" s="70"/>
+      <c r="AW41" s="105"/>
+      <c r="AX41" s="105"/>
+      <c r="AY41" s="105"/>
       <c r="AZ41" s="42"/>
       <c r="BA41" s="42"/>
       <c r="BB41" s="42"/>
@@ -4676,16 +4684,16 @@
       <c r="BK41" s="3"/>
       <c r="BL41" s="22"/>
       <c r="BM41" s="1"/>
-      <c r="BN41" s="86"/>
-      <c r="BO41" s="87"/>
+      <c r="BN41" s="98"/>
+      <c r="BO41" s="99"/>
       <c r="BP41" s="18"/>
-      <c r="BQ41" s="86"/>
-      <c r="BR41" s="87"/>
+      <c r="BQ41" s="98"/>
+      <c r="BR41" s="99"/>
       <c r="BS41" s="2"/>
-      <c r="BT41" s="81"/>
-      <c r="BU41" s="77"/>
-      <c r="BV41" s="78"/>
-      <c r="BW41" s="79"/>
+      <c r="BT41" s="82"/>
+      <c r="BU41" s="86"/>
+      <c r="BV41" s="87"/>
+      <c r="BW41" s="88"/>
       <c r="BX41" s="2"/>
     </row>
     <row r="42" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4752,16 +4760,16 @@
       <c r="BK42" s="3"/>
       <c r="BL42" s="25"/>
       <c r="BM42" s="2"/>
-      <c r="BN42" s="86"/>
-      <c r="BO42" s="87"/>
+      <c r="BN42" s="98"/>
+      <c r="BO42" s="99"/>
       <c r="BP42" s="18"/>
-      <c r="BQ42" s="86"/>
-      <c r="BR42" s="87"/>
+      <c r="BQ42" s="98"/>
+      <c r="BR42" s="99"/>
       <c r="BS42" s="2"/>
-      <c r="BT42" s="80"/>
-      <c r="BU42" s="71"/>
-      <c r="BV42" s="72"/>
-      <c r="BW42" s="73"/>
+      <c r="BT42" s="81"/>
+      <c r="BU42" s="83"/>
+      <c r="BV42" s="84"/>
+      <c r="BW42" s="85"/>
       <c r="BX42" s="2"/>
     </row>
     <row r="43" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4773,10 +4781,10 @@
       <c r="D43" s="16"/>
       <c r="E43" s="37"/>
       <c r="F43" s="41"/>
-      <c r="G43" s="83">
+      <c r="G43" s="79">
         <v>30</v>
       </c>
-      <c r="H43" s="83"/>
+      <c r="H43" s="79"/>
       <c r="I43" s="42"/>
       <c r="J43" s="58"/>
       <c r="K43" s="58"/>
@@ -4793,27 +4801,27 @@
       <c r="X43" s="42"/>
       <c r="Y43" s="58"/>
       <c r="Z43" s="58"/>
-      <c r="AA43" s="83">
+      <c r="AA43" s="79">
         <v>31</v>
       </c>
-      <c r="AB43" s="83"/>
-      <c r="AC43" s="83">
+      <c r="AB43" s="79"/>
+      <c r="AC43" s="79">
         <v>32</v>
       </c>
-      <c r="AD43" s="83"/>
+      <c r="AD43" s="79"/>
       <c r="AE43" s="59"/>
       <c r="AF43" s="37"/>
       <c r="AH43" s="4"/>
       <c r="AJ43" s="37"/>
       <c r="AK43" s="41"/>
-      <c r="AL43" s="83">
+      <c r="AL43" s="79">
         <v>38</v>
       </c>
-      <c r="AM43" s="83"/>
-      <c r="AN43" s="83">
+      <c r="AM43" s="79"/>
+      <c r="AN43" s="79">
         <v>39</v>
       </c>
-      <c r="AO43" s="83"/>
+      <c r="AO43" s="79"/>
       <c r="AP43" s="58"/>
       <c r="AQ43" s="58"/>
       <c r="AT43" s="58"/>
@@ -4830,24 +4838,24 @@
       <c r="BE43" s="58"/>
       <c r="BF43" s="58"/>
       <c r="BG43" s="58"/>
-      <c r="BH43" s="83">
+      <c r="BH43" s="79">
         <v>40</v>
       </c>
-      <c r="BI43" s="83"/>
+      <c r="BI43" s="79"/>
       <c r="BJ43" s="59"/>
       <c r="BK43" s="37"/>
       <c r="BL43" s="25"/>
       <c r="BM43" s="2"/>
-      <c r="BN43" s="88"/>
-      <c r="BO43" s="89"/>
+      <c r="BN43" s="100"/>
+      <c r="BO43" s="101"/>
       <c r="BP43" s="18"/>
-      <c r="BQ43" s="88"/>
-      <c r="BR43" s="89"/>
+      <c r="BQ43" s="100"/>
+      <c r="BR43" s="101"/>
       <c r="BS43" s="2"/>
-      <c r="BT43" s="94"/>
-      <c r="BU43" s="74"/>
-      <c r="BV43" s="75"/>
-      <c r="BW43" s="76"/>
+      <c r="BT43" s="95"/>
+      <c r="BU43" s="89"/>
+      <c r="BV43" s="90"/>
+      <c r="BW43" s="91"/>
       <c r="BX43" s="2"/>
     </row>
     <row r="44" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5011,61 +5019,61 @@
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="65"/>
-      <c r="G46" s="82"/>
-      <c r="H46" s="82"/>
+      <c r="G46" s="78"/>
+      <c r="H46" s="78"/>
       <c r="I46" s="65"/>
       <c r="J46" s="65"/>
-      <c r="K46" s="82"/>
-      <c r="L46" s="82"/>
+      <c r="K46" s="78"/>
+      <c r="L46" s="78"/>
       <c r="M46" s="65"/>
       <c r="N46" s="65"/>
       <c r="O46" s="65"/>
-      <c r="P46" s="82"/>
-      <c r="Q46" s="82"/>
+      <c r="P46" s="78"/>
+      <c r="Q46" s="78"/>
       <c r="S46" s="65"/>
       <c r="T46" s="65"/>
-      <c r="U46" s="82"/>
-      <c r="V46" s="82"/>
+      <c r="U46" s="78"/>
+      <c r="V46" s="78"/>
       <c r="W46" s="65"/>
       <c r="X46" s="65"/>
       <c r="Y46" s="65"/>
-      <c r="Z46" s="82"/>
-      <c r="AA46" s="82"/>
+      <c r="Z46" s="78"/>
+      <c r="AA46" s="78"/>
       <c r="AB46" s="37"/>
       <c r="AC46" s="65"/>
       <c r="AD46" s="65"/>
-      <c r="AE46" s="82"/>
-      <c r="AF46" s="82"/>
+      <c r="AE46" s="78"/>
+      <c r="AF46" s="78"/>
       <c r="AG46" s="65"/>
       <c r="AH46" s="65"/>
       <c r="AI46" s="65"/>
       <c r="AJ46" s="3"/>
       <c r="AK46" s="65"/>
-      <c r="AL46" s="82"/>
-      <c r="AM46" s="82"/>
+      <c r="AL46" s="78"/>
+      <c r="AM46" s="78"/>
       <c r="AN46" s="37"/>
       <c r="AO46" s="65"/>
-      <c r="AP46" s="82"/>
-      <c r="AQ46" s="82"/>
+      <c r="AP46" s="78"/>
+      <c r="AQ46" s="78"/>
       <c r="AR46" s="65"/>
       <c r="AS46" s="65"/>
       <c r="AT46" s="65"/>
-      <c r="AU46" s="82"/>
-      <c r="AV46" s="82"/>
+      <c r="AU46" s="78"/>
+      <c r="AV46" s="78"/>
       <c r="AX46" s="65"/>
       <c r="AY46" s="65"/>
-      <c r="AZ46" s="82"/>
-      <c r="BA46" s="82"/>
+      <c r="AZ46" s="78"/>
+      <c r="BA46" s="78"/>
       <c r="BB46" s="65"/>
       <c r="BC46" s="65"/>
       <c r="BD46" s="65"/>
-      <c r="BE46" s="82"/>
-      <c r="BF46" s="82"/>
+      <c r="BE46" s="78"/>
+      <c r="BF46" s="78"/>
       <c r="BG46" s="65"/>
       <c r="BH46" s="65"/>
       <c r="BI46" s="65"/>
-      <c r="BJ46" s="82"/>
-      <c r="BK46" s="82"/>
+      <c r="BJ46" s="78"/>
+      <c r="BK46" s="78"/>
       <c r="BL46" s="25"/>
       <c r="BM46" s="2"/>
       <c r="BN46" s="69"/>
@@ -5152,12 +5160,12 @@
       <c r="BQ47" s="69"/>
       <c r="BR47" s="69"/>
       <c r="BS47" s="2"/>
-      <c r="BT47" s="95" t="s">
+      <c r="BT47" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="BU47" s="96"/>
-      <c r="BV47" s="96"/>
-      <c r="BW47" s="97"/>
+      <c r="BU47" s="93"/>
+      <c r="BV47" s="93"/>
+      <c r="BW47" s="94"/>
       <c r="BX47" s="2"/>
     </row>
     <row r="48" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5169,10 +5177,10 @@
       </c>
       <c r="E48" s="37"/>
       <c r="F48" s="41"/>
-      <c r="G48" s="83">
+      <c r="G48" s="79">
         <v>41</v>
       </c>
-      <c r="H48" s="83"/>
+      <c r="H48" s="79"/>
       <c r="I48" s="42"/>
       <c r="J48" s="58"/>
       <c r="K48" s="58"/>
@@ -5182,8 +5190,8 @@
       <c r="O48" s="58"/>
       <c r="P48" s="58"/>
       <c r="Q48" s="58"/>
-      <c r="R48" s="83"/>
-      <c r="S48" s="83"/>
+      <c r="R48" s="79"/>
+      <c r="S48" s="79"/>
       <c r="T48" s="58"/>
       <c r="U48" s="58"/>
       <c r="V48" s="58"/>
@@ -5191,28 +5199,28 @@
       <c r="X48" s="42"/>
       <c r="Y48" s="58"/>
       <c r="Z48" s="58"/>
-      <c r="AA48" s="83">
+      <c r="AA48" s="79">
         <v>42</v>
       </c>
-      <c r="AB48" s="83"/>
-      <c r="AC48" s="83">
+      <c r="AB48" s="79"/>
+      <c r="AC48" s="79">
         <v>43</v>
       </c>
-      <c r="AD48" s="83"/>
+      <c r="AD48" s="79"/>
       <c r="AE48" s="58"/>
       <c r="AF48" s="37"/>
-      <c r="AG48" s="106"/>
+      <c r="AG48" s="73"/>
       <c r="AH48" s="4"/>
       <c r="AJ48" s="37"/>
       <c r="AK48" s="41"/>
-      <c r="AL48" s="83">
+      <c r="AL48" s="79">
         <v>49</v>
       </c>
-      <c r="AM48" s="83"/>
-      <c r="AN48" s="83">
+      <c r="AM48" s="79"/>
+      <c r="AN48" s="79">
         <v>50</v>
       </c>
-      <c r="AO48" s="83"/>
+      <c r="AO48" s="79"/>
       <c r="AP48" s="58"/>
       <c r="AQ48" s="58"/>
       <c r="AR48" s="58"/>
@@ -5229,30 +5237,30 @@
       <c r="BE48" s="58"/>
       <c r="BF48" s="58"/>
       <c r="BG48" s="58"/>
-      <c r="BH48" s="83">
+      <c r="BH48" s="79">
         <v>51</v>
       </c>
-      <c r="BI48" s="83"/>
+      <c r="BI48" s="79"/>
       <c r="BJ48" s="58"/>
       <c r="BK48" s="37"/>
       <c r="BL48" s="25"/>
       <c r="BM48" s="2"/>
-      <c r="BN48" s="84">
+      <c r="BN48" s="96">
         <v>15</v>
       </c>
-      <c r="BO48" s="85"/>
+      <c r="BO48" s="97"/>
       <c r="BP48" s="18"/>
-      <c r="BQ48" s="84">
+      <c r="BQ48" s="96">
         <v>16</v>
       </c>
-      <c r="BR48" s="85"/>
+      <c r="BR48" s="97"/>
       <c r="BS48" s="2"/>
-      <c r="BT48" s="91" t="s">
+      <c r="BT48" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="BU48" s="92"/>
-      <c r="BV48" s="92"/>
-      <c r="BW48" s="93"/>
+      <c r="BU48" s="103"/>
+      <c r="BV48" s="103"/>
+      <c r="BW48" s="104"/>
       <c r="BX48" s="2"/>
     </row>
     <row r="49" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5287,7 +5295,7 @@
       <c r="AC49" s="42"/>
       <c r="AD49" s="58"/>
       <c r="AE49" s="58"/>
-      <c r="AF49" s="107"/>
+      <c r="AF49" s="74"/>
       <c r="AH49" s="4"/>
       <c r="AJ49" s="3"/>
       <c r="AK49" s="41"/>
@@ -5316,19 +5324,19 @@
       <c r="BH49" s="42"/>
       <c r="BI49" s="58"/>
       <c r="BJ49" s="58"/>
-      <c r="BK49" s="107"/>
+      <c r="BK49" s="74"/>
       <c r="BL49" s="25"/>
       <c r="BM49" s="2"/>
-      <c r="BN49" s="86"/>
-      <c r="BO49" s="87"/>
+      <c r="BN49" s="98"/>
+      <c r="BO49" s="99"/>
       <c r="BP49" s="18"/>
-      <c r="BQ49" s="86"/>
-      <c r="BR49" s="87"/>
+      <c r="BQ49" s="98"/>
+      <c r="BR49" s="99"/>
       <c r="BS49" s="28"/>
-      <c r="BT49" s="80"/>
-      <c r="BU49" s="71"/>
-      <c r="BV49" s="72"/>
-      <c r="BW49" s="73"/>
+      <c r="BT49" s="81"/>
+      <c r="BU49" s="83"/>
+      <c r="BV49" s="84"/>
+      <c r="BW49" s="85"/>
       <c r="BX49" s="2"/>
     </row>
     <row r="50" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5397,16 +5405,16 @@
       <c r="BK50" s="17"/>
       <c r="BL50" s="25"/>
       <c r="BM50" s="2"/>
-      <c r="BN50" s="86"/>
-      <c r="BO50" s="87"/>
+      <c r="BN50" s="98"/>
+      <c r="BO50" s="99"/>
       <c r="BP50" s="18"/>
-      <c r="BQ50" s="86"/>
-      <c r="BR50" s="87"/>
+      <c r="BQ50" s="98"/>
+      <c r="BR50" s="99"/>
       <c r="BS50" s="2"/>
-      <c r="BT50" s="81"/>
-      <c r="BU50" s="77"/>
-      <c r="BV50" s="78"/>
-      <c r="BW50" s="79"/>
+      <c r="BT50" s="82"/>
+      <c r="BU50" s="86"/>
+      <c r="BV50" s="87"/>
+      <c r="BW50" s="88"/>
       <c r="BX50" s="2"/>
     </row>
     <row r="51" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5425,11 +5433,11 @@
       <c r="M51" s="42"/>
       <c r="N51" s="42"/>
       <c r="O51" s="42"/>
-      <c r="P51" s="70" t="s">
+      <c r="P51" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="Q51" s="70"/>
-      <c r="R51" s="70"/>
+      <c r="Q51" s="105"/>
+      <c r="R51" s="105"/>
       <c r="S51" s="42"/>
       <c r="T51" s="42"/>
       <c r="U51" s="42"/>
@@ -5460,11 +5468,11 @@
       <c r="AT51" s="42"/>
       <c r="AU51" s="42"/>
       <c r="AV51" s="42"/>
-      <c r="AW51" s="70" t="s">
+      <c r="AW51" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="AX51" s="70"/>
-      <c r="AY51" s="70"/>
+      <c r="AX51" s="105"/>
+      <c r="AY51" s="105"/>
       <c r="AZ51" s="42"/>
       <c r="BA51" s="42"/>
       <c r="BB51" s="42"/>
@@ -5479,16 +5487,16 @@
       <c r="BK51" s="17"/>
       <c r="BL51" s="25"/>
       <c r="BM51" s="2"/>
-      <c r="BN51" s="88"/>
-      <c r="BO51" s="89"/>
+      <c r="BN51" s="100"/>
+      <c r="BO51" s="101"/>
       <c r="BP51" s="18"/>
-      <c r="BQ51" s="86"/>
-      <c r="BR51" s="87"/>
+      <c r="BQ51" s="98"/>
+      <c r="BR51" s="99"/>
       <c r="BS51" s="2"/>
-      <c r="BT51" s="80"/>
-      <c r="BU51" s="71"/>
-      <c r="BV51" s="72"/>
-      <c r="BW51" s="73"/>
+      <c r="BT51" s="81"/>
+      <c r="BU51" s="83"/>
+      <c r="BV51" s="84"/>
+      <c r="BW51" s="85"/>
       <c r="BX51" s="2"/>
     </row>
     <row r="52" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5500,10 +5508,10 @@
       <c r="D52" s="15"/>
       <c r="E52" s="37"/>
       <c r="F52" s="41"/>
-      <c r="G52" s="83">
+      <c r="G52" s="79">
         <v>44</v>
       </c>
-      <c r="H52" s="83"/>
+      <c r="H52" s="79"/>
       <c r="I52" s="42"/>
       <c r="J52" s="42"/>
       <c r="K52" s="42"/>
@@ -5511,9 +5519,9 @@
       <c r="M52" s="42"/>
       <c r="N52" s="42"/>
       <c r="O52" s="42"/>
-      <c r="P52" s="70"/>
-      <c r="Q52" s="70"/>
-      <c r="R52" s="70"/>
+      <c r="P52" s="105"/>
+      <c r="Q52" s="105"/>
+      <c r="R52" s="105"/>
       <c r="S52" s="42"/>
       <c r="T52" s="42"/>
       <c r="U52" s="42"/>
@@ -5524,10 +5532,10 @@
       <c r="Z52" s="42"/>
       <c r="AA52" s="42"/>
       <c r="AB52" s="42"/>
-      <c r="AC52" s="83">
+      <c r="AC52" s="79">
         <v>45</v>
       </c>
-      <c r="AD52" s="83"/>
+      <c r="AD52" s="79"/>
       <c r="AE52" s="43"/>
       <c r="AF52" s="37"/>
       <c r="AG52" s="4"/>
@@ -5535,10 +5543,10 @@
       <c r="AI52" s="4"/>
       <c r="AJ52" s="37"/>
       <c r="AK52" s="41"/>
-      <c r="AL52" s="83">
+      <c r="AL52" s="79">
         <v>52</v>
       </c>
-      <c r="AM52" s="83"/>
+      <c r="AM52" s="79"/>
       <c r="AN52" s="42"/>
       <c r="AO52" s="42"/>
       <c r="AP52" s="42"/>
@@ -5548,9 +5556,9 @@
       <c r="AT52" s="42"/>
       <c r="AU52" s="42"/>
       <c r="AV52" s="42"/>
-      <c r="AW52" s="70"/>
-      <c r="AX52" s="70"/>
-      <c r="AY52" s="70"/>
+      <c r="AW52" s="105"/>
+      <c r="AX52" s="105"/>
+      <c r="AY52" s="105"/>
       <c r="AZ52" s="42"/>
       <c r="BA52" s="42"/>
       <c r="BB52" s="42"/>
@@ -5559,10 +5567,10 @@
       <c r="BE52" s="42"/>
       <c r="BF52" s="42"/>
       <c r="BG52" s="42"/>
-      <c r="BH52" s="83">
+      <c r="BH52" s="79">
         <v>53</v>
       </c>
-      <c r="BI52" s="83"/>
+      <c r="BI52" s="79"/>
       <c r="BJ52" s="43"/>
       <c r="BK52" s="37"/>
       <c r="BL52" s="25"/>
@@ -5570,13 +5578,13 @@
       <c r="BN52" s="18"/>
       <c r="BO52" s="18"/>
       <c r="BP52" s="18"/>
-      <c r="BQ52" s="86"/>
-      <c r="BR52" s="87"/>
+      <c r="BQ52" s="98"/>
+      <c r="BR52" s="99"/>
       <c r="BS52" s="2"/>
-      <c r="BT52" s="81"/>
-      <c r="BU52" s="77"/>
-      <c r="BV52" s="78"/>
-      <c r="BW52" s="79"/>
+      <c r="BT52" s="82"/>
+      <c r="BU52" s="86"/>
+      <c r="BV52" s="87"/>
+      <c r="BW52" s="88"/>
       <c r="BX52" s="2"/>
     </row>
     <row r="53" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5595,9 +5603,9 @@
       <c r="M53" s="42"/>
       <c r="N53" s="42"/>
       <c r="O53" s="42"/>
-      <c r="P53" s="70"/>
-      <c r="Q53" s="70"/>
-      <c r="R53" s="70"/>
+      <c r="P53" s="105"/>
+      <c r="Q53" s="105"/>
+      <c r="R53" s="105"/>
       <c r="S53" s="42"/>
       <c r="T53" s="42"/>
       <c r="U53" s="42"/>
@@ -5628,9 +5636,9 @@
       <c r="AT53" s="42"/>
       <c r="AU53" s="42"/>
       <c r="AV53" s="42"/>
-      <c r="AW53" s="70"/>
-      <c r="AX53" s="70"/>
-      <c r="AY53" s="70"/>
+      <c r="AW53" s="105"/>
+      <c r="AX53" s="105"/>
+      <c r="AY53" s="105"/>
       <c r="AZ53" s="42"/>
       <c r="BA53" s="42"/>
       <c r="BB53" s="42"/>
@@ -5645,18 +5653,18 @@
       <c r="BK53" s="3"/>
       <c r="BL53" s="25"/>
       <c r="BM53" s="2"/>
-      <c r="BN53" s="84">
+      <c r="BN53" s="96">
         <v>17</v>
       </c>
-      <c r="BO53" s="85"/>
+      <c r="BO53" s="97"/>
       <c r="BP53" s="18"/>
-      <c r="BQ53" s="86"/>
-      <c r="BR53" s="87"/>
+      <c r="BQ53" s="98"/>
+      <c r="BR53" s="99"/>
       <c r="BS53" s="2"/>
-      <c r="BT53" s="80"/>
-      <c r="BU53" s="71"/>
-      <c r="BV53" s="72"/>
-      <c r="BW53" s="73"/>
+      <c r="BT53" s="81"/>
+      <c r="BU53" s="83"/>
+      <c r="BV53" s="84"/>
+      <c r="BW53" s="85"/>
       <c r="BX53" s="2"/>
     </row>
     <row r="54" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5675,9 +5683,9 @@
       <c r="M54" s="42"/>
       <c r="N54" s="42"/>
       <c r="O54" s="42"/>
-      <c r="P54" s="70"/>
-      <c r="Q54" s="70"/>
-      <c r="R54" s="70"/>
+      <c r="P54" s="105"/>
+      <c r="Q54" s="105"/>
+      <c r="R54" s="105"/>
       <c r="S54" s="42"/>
       <c r="T54" s="42"/>
       <c r="U54" s="42"/>
@@ -5708,9 +5716,9 @@
       <c r="AT54" s="42"/>
       <c r="AU54" s="42"/>
       <c r="AV54" s="42"/>
-      <c r="AW54" s="70"/>
-      <c r="AX54" s="70"/>
-      <c r="AY54" s="70"/>
+      <c r="AW54" s="105"/>
+      <c r="AX54" s="105"/>
+      <c r="AY54" s="105"/>
       <c r="AZ54" s="42"/>
       <c r="BA54" s="42"/>
       <c r="BB54" s="42"/>
@@ -5725,16 +5733,16 @@
       <c r="BK54" s="3"/>
       <c r="BL54" s="22"/>
       <c r="BM54" s="1"/>
-      <c r="BN54" s="86"/>
-      <c r="BO54" s="87"/>
+      <c r="BN54" s="98"/>
+      <c r="BO54" s="99"/>
       <c r="BP54" s="18"/>
-      <c r="BQ54" s="86"/>
-      <c r="BR54" s="87"/>
+      <c r="BQ54" s="98"/>
+      <c r="BR54" s="99"/>
       <c r="BS54" s="2"/>
-      <c r="BT54" s="81"/>
-      <c r="BU54" s="77"/>
-      <c r="BV54" s="78"/>
-      <c r="BW54" s="79"/>
+      <c r="BT54" s="82"/>
+      <c r="BU54" s="86"/>
+      <c r="BV54" s="87"/>
+      <c r="BW54" s="88"/>
       <c r="BX54" s="2"/>
     </row>
     <row r="55" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5801,16 +5809,16 @@
       <c r="BK55" s="3"/>
       <c r="BL55" s="25"/>
       <c r="BM55" s="2"/>
-      <c r="BN55" s="86"/>
-      <c r="BO55" s="87"/>
+      <c r="BN55" s="98"/>
+      <c r="BO55" s="99"/>
       <c r="BP55" s="18"/>
-      <c r="BQ55" s="86"/>
-      <c r="BR55" s="87"/>
+      <c r="BQ55" s="98"/>
+      <c r="BR55" s="99"/>
       <c r="BS55" s="2"/>
-      <c r="BT55" s="80"/>
-      <c r="BU55" s="71"/>
-      <c r="BV55" s="72"/>
-      <c r="BW55" s="73"/>
+      <c r="BT55" s="81"/>
+      <c r="BU55" s="83"/>
+      <c r="BV55" s="84"/>
+      <c r="BW55" s="85"/>
       <c r="BX55" s="2"/>
     </row>
     <row r="56" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5822,10 +5830,10 @@
       </c>
       <c r="E56" s="37"/>
       <c r="F56" s="41"/>
-      <c r="G56" s="83">
+      <c r="G56" s="79">
         <v>46</v>
       </c>
-      <c r="H56" s="83"/>
+      <c r="H56" s="79"/>
       <c r="I56" s="42"/>
       <c r="J56" s="58"/>
       <c r="K56" s="58"/>
@@ -5842,27 +5850,27 @@
       <c r="X56" s="42"/>
       <c r="Y56" s="58"/>
       <c r="Z56" s="58"/>
-      <c r="AA56" s="83">
+      <c r="AA56" s="79">
         <v>47</v>
       </c>
-      <c r="AB56" s="83"/>
-      <c r="AC56" s="83">
+      <c r="AB56" s="79"/>
+      <c r="AC56" s="79">
         <v>48</v>
       </c>
-      <c r="AD56" s="83"/>
+      <c r="AD56" s="79"/>
       <c r="AE56" s="59"/>
       <c r="AF56" s="37"/>
       <c r="AH56" s="4"/>
       <c r="AJ56" s="37"/>
       <c r="AK56" s="41"/>
-      <c r="AL56" s="83">
+      <c r="AL56" s="79">
         <v>54</v>
       </c>
-      <c r="AM56" s="83"/>
-      <c r="AN56" s="83">
+      <c r="AM56" s="79"/>
+      <c r="AN56" s="79">
         <v>55</v>
       </c>
-      <c r="AO56" s="83"/>
+      <c r="AO56" s="79"/>
       <c r="AP56" s="58"/>
       <c r="AQ56" s="58"/>
       <c r="AT56" s="58"/>
@@ -5879,24 +5887,24 @@
       <c r="BE56" s="58"/>
       <c r="BF56" s="58"/>
       <c r="BG56" s="58"/>
-      <c r="BH56" s="83">
+      <c r="BH56" s="79">
         <v>56</v>
       </c>
-      <c r="BI56" s="83"/>
+      <c r="BI56" s="79"/>
       <c r="BJ56" s="59"/>
       <c r="BK56" s="37"/>
       <c r="BL56" s="25"/>
       <c r="BM56" s="2"/>
-      <c r="BN56" s="88"/>
-      <c r="BO56" s="89"/>
+      <c r="BN56" s="100"/>
+      <c r="BO56" s="101"/>
       <c r="BP56" s="18"/>
-      <c r="BQ56" s="88"/>
-      <c r="BR56" s="89"/>
+      <c r="BQ56" s="100"/>
+      <c r="BR56" s="101"/>
       <c r="BS56" s="2"/>
-      <c r="BT56" s="94"/>
-      <c r="BU56" s="74"/>
-      <c r="BV56" s="75"/>
-      <c r="BW56" s="76"/>
+      <c r="BT56" s="95"/>
+      <c r="BU56" s="89"/>
+      <c r="BV56" s="90"/>
+      <c r="BW56" s="91"/>
       <c r="BX56" s="2"/>
     </row>
     <row r="57" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6060,61 +6068,61 @@
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="65"/>
-      <c r="G59" s="82"/>
-      <c r="H59" s="82"/>
+      <c r="G59" s="78"/>
+      <c r="H59" s="78"/>
       <c r="I59" s="65"/>
       <c r="J59" s="65"/>
-      <c r="K59" s="82"/>
-      <c r="L59" s="82"/>
+      <c r="K59" s="78"/>
+      <c r="L59" s="78"/>
       <c r="M59" s="65"/>
       <c r="N59" s="65"/>
       <c r="O59" s="65"/>
-      <c r="P59" s="82"/>
-      <c r="Q59" s="82"/>
+      <c r="P59" s="78"/>
+      <c r="Q59" s="78"/>
       <c r="S59" s="65"/>
       <c r="T59" s="65"/>
-      <c r="U59" s="82"/>
-      <c r="V59" s="82"/>
+      <c r="U59" s="78"/>
+      <c r="V59" s="78"/>
       <c r="W59" s="65"/>
       <c r="X59" s="65"/>
       <c r="Y59" s="65"/>
-      <c r="Z59" s="82"/>
-      <c r="AA59" s="82"/>
+      <c r="Z59" s="78"/>
+      <c r="AA59" s="78"/>
       <c r="AB59" s="37"/>
       <c r="AC59" s="65"/>
       <c r="AD59" s="65"/>
-      <c r="AE59" s="82"/>
-      <c r="AF59" s="82"/>
+      <c r="AE59" s="78"/>
+      <c r="AF59" s="78"/>
       <c r="AG59" s="65"/>
       <c r="AH59" s="65"/>
       <c r="AI59" s="65"/>
       <c r="AJ59" s="3"/>
       <c r="AK59" s="65"/>
-      <c r="AL59" s="82"/>
-      <c r="AM59" s="82"/>
+      <c r="AL59" s="78"/>
+      <c r="AM59" s="78"/>
       <c r="AN59" s="37"/>
       <c r="AO59" s="65"/>
-      <c r="AP59" s="82"/>
-      <c r="AQ59" s="82"/>
+      <c r="AP59" s="78"/>
+      <c r="AQ59" s="78"/>
       <c r="AR59" s="65"/>
       <c r="AS59" s="65"/>
       <c r="AT59" s="65"/>
-      <c r="AU59" s="82"/>
-      <c r="AV59" s="82"/>
+      <c r="AU59" s="78"/>
+      <c r="AV59" s="78"/>
       <c r="AX59" s="65"/>
       <c r="AY59" s="65"/>
-      <c r="AZ59" s="82"/>
-      <c r="BA59" s="82"/>
+      <c r="AZ59" s="78"/>
+      <c r="BA59" s="78"/>
       <c r="BB59" s="65"/>
       <c r="BC59" s="65"/>
       <c r="BD59" s="65"/>
-      <c r="BE59" s="82"/>
-      <c r="BF59" s="82"/>
+      <c r="BE59" s="78"/>
+      <c r="BF59" s="78"/>
       <c r="BG59" s="65"/>
       <c r="BH59" s="65"/>
       <c r="BI59" s="65"/>
-      <c r="BJ59" s="82"/>
-      <c r="BK59" s="82"/>
+      <c r="BJ59" s="78"/>
+      <c r="BK59" s="78"/>
       <c r="BL59" s="25"/>
       <c r="BM59" s="2"/>
       <c r="BN59" s="69"/>
@@ -6201,12 +6209,12 @@
       <c r="BQ60" s="69"/>
       <c r="BR60" s="69"/>
       <c r="BS60" s="2"/>
-      <c r="BT60" s="95" t="s">
+      <c r="BT60" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="BU60" s="96"/>
-      <c r="BV60" s="96"/>
-      <c r="BW60" s="97"/>
+      <c r="BU60" s="93"/>
+      <c r="BV60" s="93"/>
+      <c r="BW60" s="94"/>
       <c r="BX60" s="2"/>
     </row>
     <row r="61" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6218,10 +6226,10 @@
       </c>
       <c r="E61" s="37"/>
       <c r="F61" s="41"/>
-      <c r="G61" s="83">
+      <c r="G61" s="79">
         <v>57</v>
       </c>
-      <c r="H61" s="83"/>
+      <c r="H61" s="79"/>
       <c r="I61" s="42"/>
       <c r="J61" s="58"/>
       <c r="K61" s="58"/>
@@ -6231,8 +6239,8 @@
       <c r="O61" s="58"/>
       <c r="P61" s="58"/>
       <c r="Q61" s="58"/>
-      <c r="R61" s="83"/>
-      <c r="S61" s="83"/>
+      <c r="R61" s="79"/>
+      <c r="S61" s="79"/>
       <c r="T61" s="58"/>
       <c r="U61" s="58"/>
       <c r="V61" s="58"/>
@@ -6240,28 +6248,28 @@
       <c r="X61" s="42"/>
       <c r="Y61" s="58"/>
       <c r="Z61" s="58"/>
-      <c r="AA61" s="83">
+      <c r="AA61" s="79">
         <v>58</v>
       </c>
-      <c r="AB61" s="83"/>
-      <c r="AC61" s="83">
+      <c r="AB61" s="79"/>
+      <c r="AC61" s="79">
         <v>59</v>
       </c>
-      <c r="AD61" s="83"/>
+      <c r="AD61" s="79"/>
       <c r="AE61" s="58"/>
       <c r="AF61" s="37"/>
-      <c r="AG61" s="106"/>
+      <c r="AG61" s="73"/>
       <c r="AH61" s="4"/>
       <c r="AJ61" s="37"/>
       <c r="AK61" s="41"/>
-      <c r="AL61" s="83">
+      <c r="AL61" s="79">
         <v>65</v>
       </c>
-      <c r="AM61" s="83"/>
-      <c r="AN61" s="83">
+      <c r="AM61" s="79"/>
+      <c r="AN61" s="79">
         <v>66</v>
       </c>
-      <c r="AO61" s="83"/>
+      <c r="AO61" s="79"/>
       <c r="AP61" s="58"/>
       <c r="AQ61" s="58"/>
       <c r="AR61" s="58"/>
@@ -6278,30 +6286,30 @@
       <c r="BE61" s="58"/>
       <c r="BF61" s="58"/>
       <c r="BG61" s="58"/>
-      <c r="BH61" s="83">
+      <c r="BH61" s="79">
         <v>67</v>
       </c>
-      <c r="BI61" s="83"/>
+      <c r="BI61" s="79"/>
       <c r="BJ61" s="58"/>
       <c r="BK61" s="37"/>
       <c r="BL61" s="25"/>
       <c r="BM61" s="2"/>
-      <c r="BN61" s="84">
+      <c r="BN61" s="96">
         <v>21</v>
       </c>
-      <c r="BO61" s="85"/>
+      <c r="BO61" s="97"/>
       <c r="BP61" s="18"/>
-      <c r="BQ61" s="84">
+      <c r="BQ61" s="96">
         <v>22</v>
       </c>
-      <c r="BR61" s="85"/>
+      <c r="BR61" s="97"/>
       <c r="BS61" s="2"/>
-      <c r="BT61" s="91" t="s">
+      <c r="BT61" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="BU61" s="92"/>
-      <c r="BV61" s="92"/>
-      <c r="BW61" s="93"/>
+      <c r="BU61" s="103"/>
+      <c r="BV61" s="103"/>
+      <c r="BW61" s="104"/>
       <c r="BX61" s="2"/>
     </row>
     <row r="62" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6336,7 +6344,7 @@
       <c r="AC62" s="42"/>
       <c r="AD62" s="58"/>
       <c r="AE62" s="58"/>
-      <c r="AF62" s="107"/>
+      <c r="AF62" s="74"/>
       <c r="AH62" s="4"/>
       <c r="AJ62" s="3"/>
       <c r="AK62" s="41"/>
@@ -6365,19 +6373,19 @@
       <c r="BH62" s="42"/>
       <c r="BI62" s="58"/>
       <c r="BJ62" s="58"/>
-      <c r="BK62" s="107"/>
+      <c r="BK62" s="74"/>
       <c r="BL62" s="25"/>
       <c r="BM62" s="2"/>
-      <c r="BN62" s="86"/>
-      <c r="BO62" s="87"/>
+      <c r="BN62" s="98"/>
+      <c r="BO62" s="99"/>
       <c r="BP62" s="18"/>
-      <c r="BQ62" s="86"/>
-      <c r="BR62" s="87"/>
+      <c r="BQ62" s="98"/>
+      <c r="BR62" s="99"/>
       <c r="BS62" s="2"/>
-      <c r="BT62" s="80"/>
-      <c r="BU62" s="71"/>
-      <c r="BV62" s="72"/>
-      <c r="BW62" s="73"/>
+      <c r="BT62" s="81"/>
+      <c r="BU62" s="83"/>
+      <c r="BV62" s="84"/>
+      <c r="BW62" s="85"/>
       <c r="BX62" s="2"/>
     </row>
     <row r="63" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6446,16 +6454,16 @@
       <c r="BK63" s="17"/>
       <c r="BL63" s="25"/>
       <c r="BM63" s="2"/>
-      <c r="BN63" s="86"/>
-      <c r="BO63" s="87"/>
+      <c r="BN63" s="98"/>
+      <c r="BO63" s="99"/>
       <c r="BP63" s="18"/>
-      <c r="BQ63" s="86"/>
-      <c r="BR63" s="87"/>
+      <c r="BQ63" s="98"/>
+      <c r="BR63" s="99"/>
       <c r="BS63" s="2"/>
-      <c r="BT63" s="81"/>
-      <c r="BU63" s="77"/>
-      <c r="BV63" s="78"/>
-      <c r="BW63" s="79"/>
+      <c r="BT63" s="82"/>
+      <c r="BU63" s="86"/>
+      <c r="BV63" s="87"/>
+      <c r="BW63" s="88"/>
       <c r="BX63" s="2"/>
     </row>
     <row r="64" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6474,11 +6482,11 @@
       <c r="M64" s="42"/>
       <c r="N64" s="42"/>
       <c r="O64" s="42"/>
-      <c r="P64" s="70" t="s">
+      <c r="P64" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="Q64" s="70"/>
-      <c r="R64" s="70"/>
+      <c r="Q64" s="105"/>
+      <c r="R64" s="105"/>
       <c r="S64" s="42"/>
       <c r="T64" s="42"/>
       <c r="U64" s="42"/>
@@ -6509,11 +6517,11 @@
       <c r="AT64" s="42"/>
       <c r="AU64" s="42"/>
       <c r="AV64" s="42"/>
-      <c r="AW64" s="70" t="s">
+      <c r="AW64" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="AX64" s="70"/>
-      <c r="AY64" s="70"/>
+      <c r="AX64" s="105"/>
+      <c r="AY64" s="105"/>
       <c r="AZ64" s="42"/>
       <c r="BA64" s="42"/>
       <c r="BB64" s="42"/>
@@ -6528,16 +6536,16 @@
       <c r="BK64" s="17"/>
       <c r="BL64" s="25"/>
       <c r="BM64" s="2"/>
-      <c r="BN64" s="88"/>
-      <c r="BO64" s="89"/>
+      <c r="BN64" s="100"/>
+      <c r="BO64" s="101"/>
       <c r="BP64" s="18"/>
-      <c r="BQ64" s="86"/>
-      <c r="BR64" s="87"/>
+      <c r="BQ64" s="98"/>
+      <c r="BR64" s="99"/>
       <c r="BS64" s="2"/>
-      <c r="BT64" s="80"/>
-      <c r="BU64" s="71"/>
-      <c r="BV64" s="72"/>
-      <c r="BW64" s="73"/>
+      <c r="BT64" s="81"/>
+      <c r="BU64" s="83"/>
+      <c r="BV64" s="84"/>
+      <c r="BW64" s="85"/>
       <c r="BX64" s="2"/>
     </row>
     <row r="65" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6549,10 +6557,10 @@
       <c r="D65" s="15"/>
       <c r="E65" s="37"/>
       <c r="F65" s="41"/>
-      <c r="G65" s="83">
+      <c r="G65" s="79">
         <v>60</v>
       </c>
-      <c r="H65" s="83"/>
+      <c r="H65" s="79"/>
       <c r="I65" s="42"/>
       <c r="J65" s="42"/>
       <c r="K65" s="42"/>
@@ -6560,9 +6568,9 @@
       <c r="M65" s="42"/>
       <c r="N65" s="42"/>
       <c r="O65" s="42"/>
-      <c r="P65" s="70"/>
-      <c r="Q65" s="70"/>
-      <c r="R65" s="70"/>
+      <c r="P65" s="105"/>
+      <c r="Q65" s="105"/>
+      <c r="R65" s="105"/>
       <c r="S65" s="42"/>
       <c r="T65" s="42"/>
       <c r="U65" s="42"/>
@@ -6573,10 +6581,10 @@
       <c r="Z65" s="42"/>
       <c r="AA65" s="42"/>
       <c r="AB65" s="42"/>
-      <c r="AC65" s="83">
+      <c r="AC65" s="79">
         <v>61</v>
       </c>
-      <c r="AD65" s="83"/>
+      <c r="AD65" s="79"/>
       <c r="AE65" s="43"/>
       <c r="AF65" s="37"/>
       <c r="AG65" s="4"/>
@@ -6584,10 +6592,10 @@
       <c r="AI65" s="4"/>
       <c r="AJ65" s="37"/>
       <c r="AK65" s="41"/>
-      <c r="AL65" s="83">
+      <c r="AL65" s="79">
         <v>68</v>
       </c>
-      <c r="AM65" s="83"/>
+      <c r="AM65" s="79"/>
       <c r="AN65" s="42"/>
       <c r="AO65" s="42"/>
       <c r="AP65" s="42"/>
@@ -6597,9 +6605,9 @@
       <c r="AT65" s="42"/>
       <c r="AU65" s="42"/>
       <c r="AV65" s="42"/>
-      <c r="AW65" s="70"/>
-      <c r="AX65" s="70"/>
-      <c r="AY65" s="70"/>
+      <c r="AW65" s="105"/>
+      <c r="AX65" s="105"/>
+      <c r="AY65" s="105"/>
       <c r="AZ65" s="42"/>
       <c r="BA65" s="42"/>
       <c r="BB65" s="42"/>
@@ -6608,10 +6616,10 @@
       <c r="BE65" s="42"/>
       <c r="BF65" s="42"/>
       <c r="BG65" s="42"/>
-      <c r="BH65" s="83">
+      <c r="BH65" s="79">
         <v>69</v>
       </c>
-      <c r="BI65" s="83"/>
+      <c r="BI65" s="79"/>
       <c r="BJ65" s="43"/>
       <c r="BK65" s="37"/>
       <c r="BL65" s="25"/>
@@ -6619,13 +6627,13 @@
       <c r="BN65" s="18"/>
       <c r="BO65" s="18"/>
       <c r="BP65" s="18"/>
-      <c r="BQ65" s="86"/>
-      <c r="BR65" s="87"/>
+      <c r="BQ65" s="98"/>
+      <c r="BR65" s="99"/>
       <c r="BS65" s="2"/>
-      <c r="BT65" s="81"/>
-      <c r="BU65" s="77"/>
-      <c r="BV65" s="78"/>
-      <c r="BW65" s="79"/>
+      <c r="BT65" s="82"/>
+      <c r="BU65" s="86"/>
+      <c r="BV65" s="87"/>
+      <c r="BW65" s="88"/>
       <c r="BX65" s="2"/>
     </row>
     <row r="66" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6644,9 +6652,9 @@
       <c r="M66" s="42"/>
       <c r="N66" s="42"/>
       <c r="O66" s="42"/>
-      <c r="P66" s="70"/>
-      <c r="Q66" s="70"/>
-      <c r="R66" s="70"/>
+      <c r="P66" s="105"/>
+      <c r="Q66" s="105"/>
+      <c r="R66" s="105"/>
       <c r="S66" s="42"/>
       <c r="T66" s="42"/>
       <c r="U66" s="42"/>
@@ -6677,9 +6685,9 @@
       <c r="AT66" s="42"/>
       <c r="AU66" s="42"/>
       <c r="AV66" s="42"/>
-      <c r="AW66" s="70"/>
-      <c r="AX66" s="70"/>
-      <c r="AY66" s="70"/>
+      <c r="AW66" s="105"/>
+      <c r="AX66" s="105"/>
+      <c r="AY66" s="105"/>
       <c r="AZ66" s="42"/>
       <c r="BA66" s="42"/>
       <c r="BB66" s="42"/>
@@ -6694,18 +6702,18 @@
       <c r="BK66" s="3"/>
       <c r="BL66" s="25"/>
       <c r="BM66" s="2"/>
-      <c r="BN66" s="84">
+      <c r="BN66" s="96">
         <v>23</v>
       </c>
-      <c r="BO66" s="85"/>
+      <c r="BO66" s="97"/>
       <c r="BP66" s="18"/>
-      <c r="BQ66" s="86"/>
-      <c r="BR66" s="87"/>
+      <c r="BQ66" s="98"/>
+      <c r="BR66" s="99"/>
       <c r="BS66" s="2"/>
-      <c r="BT66" s="80"/>
-      <c r="BU66" s="71"/>
-      <c r="BV66" s="72"/>
-      <c r="BW66" s="73"/>
+      <c r="BT66" s="81"/>
+      <c r="BU66" s="83"/>
+      <c r="BV66" s="84"/>
+      <c r="BW66" s="85"/>
       <c r="BX66" s="2"/>
     </row>
     <row r="67" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6724,9 +6732,9 @@
       <c r="M67" s="42"/>
       <c r="N67" s="42"/>
       <c r="O67" s="42"/>
-      <c r="P67" s="70"/>
-      <c r="Q67" s="70"/>
-      <c r="R67" s="70"/>
+      <c r="P67" s="105"/>
+      <c r="Q67" s="105"/>
+      <c r="R67" s="105"/>
       <c r="S67" s="42"/>
       <c r="T67" s="42"/>
       <c r="U67" s="42"/>
@@ -6757,9 +6765,9 @@
       <c r="AT67" s="42"/>
       <c r="AU67" s="42"/>
       <c r="AV67" s="42"/>
-      <c r="AW67" s="70"/>
-      <c r="AX67" s="70"/>
-      <c r="AY67" s="70"/>
+      <c r="AW67" s="105"/>
+      <c r="AX67" s="105"/>
+      <c r="AY67" s="105"/>
       <c r="AZ67" s="42"/>
       <c r="BA67" s="42"/>
       <c r="BB67" s="42"/>
@@ -6774,16 +6782,16 @@
       <c r="BK67" s="3"/>
       <c r="BL67" s="25"/>
       <c r="BM67" s="2"/>
-      <c r="BN67" s="86"/>
-      <c r="BO67" s="87"/>
+      <c r="BN67" s="98"/>
+      <c r="BO67" s="99"/>
       <c r="BP67" s="18"/>
-      <c r="BQ67" s="86"/>
-      <c r="BR67" s="87"/>
+      <c r="BQ67" s="98"/>
+      <c r="BR67" s="99"/>
       <c r="BS67" s="2"/>
-      <c r="BT67" s="81"/>
-      <c r="BU67" s="77"/>
-      <c r="BV67" s="78"/>
-      <c r="BW67" s="79"/>
+      <c r="BT67" s="82"/>
+      <c r="BU67" s="86"/>
+      <c r="BV67" s="87"/>
+      <c r="BW67" s="88"/>
       <c r="BX67" s="2"/>
     </row>
     <row r="68" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6850,16 +6858,16 @@
       <c r="BK68" s="3"/>
       <c r="BL68" s="25"/>
       <c r="BM68" s="2"/>
-      <c r="BN68" s="86"/>
-      <c r="BO68" s="87"/>
+      <c r="BN68" s="98"/>
+      <c r="BO68" s="99"/>
       <c r="BP68" s="18"/>
-      <c r="BQ68" s="86"/>
-      <c r="BR68" s="87"/>
+      <c r="BQ68" s="98"/>
+      <c r="BR68" s="99"/>
       <c r="BS68" s="2"/>
-      <c r="BT68" s="80"/>
-      <c r="BU68" s="71"/>
-      <c r="BV68" s="72"/>
-      <c r="BW68" s="73"/>
+      <c r="BT68" s="81"/>
+      <c r="BU68" s="83"/>
+      <c r="BV68" s="84"/>
+      <c r="BW68" s="85"/>
       <c r="BX68" s="2"/>
     </row>
     <row r="69" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6871,10 +6879,10 @@
       </c>
       <c r="E69" s="37"/>
       <c r="F69" s="41"/>
-      <c r="G69" s="83">
+      <c r="G69" s="79">
         <v>62</v>
       </c>
-      <c r="H69" s="83"/>
+      <c r="H69" s="79"/>
       <c r="I69" s="42"/>
       <c r="J69" s="58"/>
       <c r="K69" s="58"/>
@@ -6891,27 +6899,27 @@
       <c r="X69" s="42"/>
       <c r="Y69" s="58"/>
       <c r="Z69" s="58"/>
-      <c r="AA69" s="83">
+      <c r="AA69" s="79">
         <v>63</v>
       </c>
-      <c r="AB69" s="83"/>
-      <c r="AC69" s="83">
+      <c r="AB69" s="79"/>
+      <c r="AC69" s="79">
         <v>64</v>
       </c>
-      <c r="AD69" s="83"/>
+      <c r="AD69" s="79"/>
       <c r="AE69" s="59"/>
       <c r="AF69" s="37"/>
       <c r="AH69" s="4"/>
       <c r="AJ69" s="37"/>
       <c r="AK69" s="41"/>
-      <c r="AL69" s="83">
+      <c r="AL69" s="79">
         <v>70</v>
       </c>
-      <c r="AM69" s="83"/>
-      <c r="AN69" s="83">
+      <c r="AM69" s="79"/>
+      <c r="AN69" s="79">
         <v>71</v>
       </c>
-      <c r="AO69" s="83"/>
+      <c r="AO69" s="79"/>
       <c r="AP69" s="58"/>
       <c r="AQ69" s="58"/>
       <c r="AT69" s="58"/>
@@ -6928,24 +6936,24 @@
       <c r="BE69" s="58"/>
       <c r="BF69" s="58"/>
       <c r="BG69" s="58"/>
-      <c r="BH69" s="83">
+      <c r="BH69" s="79">
         <v>72</v>
       </c>
-      <c r="BI69" s="83"/>
+      <c r="BI69" s="79"/>
       <c r="BJ69" s="59"/>
       <c r="BK69" s="37"/>
       <c r="BL69" s="25"/>
       <c r="BM69" s="2"/>
-      <c r="BN69" s="88"/>
-      <c r="BO69" s="89"/>
+      <c r="BN69" s="100"/>
+      <c r="BO69" s="101"/>
       <c r="BP69" s="18"/>
-      <c r="BQ69" s="88"/>
-      <c r="BR69" s="89"/>
+      <c r="BQ69" s="100"/>
+      <c r="BR69" s="101"/>
       <c r="BS69" s="2"/>
-      <c r="BT69" s="94"/>
-      <c r="BU69" s="74"/>
-      <c r="BV69" s="75"/>
-      <c r="BW69" s="76"/>
+      <c r="BT69" s="95"/>
+      <c r="BU69" s="89"/>
+      <c r="BV69" s="90"/>
+      <c r="BW69" s="91"/>
       <c r="BX69" s="2"/>
     </row>
     <row r="70" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7109,61 +7117,61 @@
       <c r="D72" s="2"/>
       <c r="E72" s="3"/>
       <c r="F72" s="65"/>
-      <c r="G72" s="82"/>
-      <c r="H72" s="82"/>
+      <c r="G72" s="78"/>
+      <c r="H72" s="78"/>
       <c r="I72" s="65"/>
       <c r="J72" s="65"/>
-      <c r="K72" s="82"/>
-      <c r="L72" s="82"/>
+      <c r="K72" s="78"/>
+      <c r="L72" s="78"/>
       <c r="M72" s="65"/>
       <c r="N72" s="65"/>
       <c r="O72" s="65"/>
-      <c r="P72" s="82"/>
-      <c r="Q72" s="82"/>
+      <c r="P72" s="78"/>
+      <c r="Q72" s="78"/>
       <c r="S72" s="65"/>
       <c r="T72" s="65"/>
-      <c r="U72" s="82"/>
-      <c r="V72" s="82"/>
+      <c r="U72" s="78"/>
+      <c r="V72" s="78"/>
       <c r="W72" s="65"/>
       <c r="X72" s="65"/>
       <c r="Y72" s="65"/>
-      <c r="Z72" s="82"/>
-      <c r="AA72" s="82"/>
+      <c r="Z72" s="78"/>
+      <c r="AA72" s="78"/>
       <c r="AB72" s="37"/>
       <c r="AC72" s="65"/>
       <c r="AD72" s="65"/>
-      <c r="AE72" s="82"/>
-      <c r="AF72" s="82"/>
+      <c r="AE72" s="78"/>
+      <c r="AF72" s="78"/>
       <c r="AG72" s="65"/>
       <c r="AH72" s="65"/>
       <c r="AI72" s="65"/>
       <c r="AJ72" s="3"/>
       <c r="AK72" s="65"/>
-      <c r="AL72" s="82"/>
-      <c r="AM72" s="82"/>
+      <c r="AL72" s="78"/>
+      <c r="AM72" s="78"/>
       <c r="AN72" s="37"/>
       <c r="AO72" s="65"/>
-      <c r="AP72" s="82"/>
-      <c r="AQ72" s="82"/>
+      <c r="AP72" s="78"/>
+      <c r="AQ72" s="78"/>
       <c r="AR72" s="65"/>
       <c r="AS72" s="65"/>
       <c r="AT72" s="65"/>
-      <c r="AU72" s="82"/>
-      <c r="AV72" s="82"/>
+      <c r="AU72" s="78"/>
+      <c r="AV72" s="78"/>
       <c r="AX72" s="65"/>
       <c r="AY72" s="65"/>
-      <c r="AZ72" s="82"/>
-      <c r="BA72" s="82"/>
+      <c r="AZ72" s="78"/>
+      <c r="BA72" s="78"/>
       <c r="BB72" s="65"/>
       <c r="BC72" s="65"/>
       <c r="BD72" s="65"/>
-      <c r="BE72" s="82"/>
-      <c r="BF72" s="82"/>
+      <c r="BE72" s="78"/>
+      <c r="BF72" s="78"/>
       <c r="BG72" s="65"/>
       <c r="BH72" s="65"/>
       <c r="BI72" s="65"/>
-      <c r="BJ72" s="82"/>
-      <c r="BK72" s="82"/>
+      <c r="BJ72" s="78"/>
+      <c r="BK72" s="78"/>
       <c r="BL72" s="25"/>
       <c r="BM72" s="2"/>
       <c r="BN72" s="69"/>
@@ -7250,12 +7258,12 @@
       <c r="BQ73" s="69"/>
       <c r="BR73" s="69"/>
       <c r="BS73" s="2"/>
-      <c r="BT73" s="95" t="s">
+      <c r="BT73" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="BU73" s="96"/>
-      <c r="BV73" s="96"/>
-      <c r="BW73" s="97"/>
+      <c r="BU73" s="93"/>
+      <c r="BV73" s="93"/>
+      <c r="BW73" s="94"/>
       <c r="BX73" s="2"/>
     </row>
     <row r="74" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7267,10 +7275,10 @@
       </c>
       <c r="E74" s="37"/>
       <c r="F74" s="41"/>
-      <c r="G74" s="83">
+      <c r="G74" s="79">
         <v>73</v>
       </c>
-      <c r="H74" s="83"/>
+      <c r="H74" s="79"/>
       <c r="I74" s="42"/>
       <c r="J74" s="58"/>
       <c r="K74" s="58"/>
@@ -7280,8 +7288,8 @@
       <c r="O74" s="58"/>
       <c r="P74" s="58"/>
       <c r="Q74" s="58"/>
-      <c r="R74" s="83"/>
-      <c r="S74" s="83"/>
+      <c r="R74" s="79"/>
+      <c r="S74" s="79"/>
       <c r="T74" s="58"/>
       <c r="U74" s="58"/>
       <c r="V74" s="58"/>
@@ -7289,28 +7297,28 @@
       <c r="X74" s="42"/>
       <c r="Y74" s="58"/>
       <c r="Z74" s="58"/>
-      <c r="AA74" s="83">
+      <c r="AA74" s="79">
         <v>74</v>
       </c>
-      <c r="AB74" s="83"/>
-      <c r="AC74" s="83">
+      <c r="AB74" s="79"/>
+      <c r="AC74" s="79">
         <v>75</v>
       </c>
-      <c r="AD74" s="83"/>
+      <c r="AD74" s="79"/>
       <c r="AE74" s="58"/>
       <c r="AF74" s="37"/>
-      <c r="AG74" s="106"/>
+      <c r="AG74" s="73"/>
       <c r="AH74" s="4"/>
       <c r="AJ74" s="37"/>
       <c r="AK74" s="41"/>
-      <c r="AL74" s="83">
+      <c r="AL74" s="79">
         <v>81</v>
       </c>
-      <c r="AM74" s="83"/>
-      <c r="AN74" s="83">
+      <c r="AM74" s="79"/>
+      <c r="AN74" s="79">
         <v>82</v>
       </c>
-      <c r="AO74" s="83"/>
+      <c r="AO74" s="79"/>
       <c r="AP74" s="58"/>
       <c r="AQ74" s="58"/>
       <c r="AR74" s="58"/>
@@ -7327,30 +7335,30 @@
       <c r="BE74" s="58"/>
       <c r="BF74" s="58"/>
       <c r="BG74" s="58"/>
-      <c r="BH74" s="83">
+      <c r="BH74" s="79">
         <v>83</v>
       </c>
-      <c r="BI74" s="83"/>
+      <c r="BI74" s="79"/>
       <c r="BJ74" s="58"/>
       <c r="BK74" s="37"/>
       <c r="BL74" s="25"/>
       <c r="BM74" s="2"/>
-      <c r="BN74" s="84">
+      <c r="BN74" s="96">
         <v>25</v>
       </c>
-      <c r="BO74" s="85"/>
+      <c r="BO74" s="97"/>
       <c r="BP74" s="18"/>
-      <c r="BQ74" s="84">
+      <c r="BQ74" s="96">
         <v>26</v>
       </c>
-      <c r="BR74" s="85"/>
+      <c r="BR74" s="97"/>
       <c r="BS74" s="3"/>
-      <c r="BT74" s="91" t="s">
+      <c r="BT74" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="BU74" s="92"/>
-      <c r="BV74" s="92"/>
-      <c r="BW74" s="93"/>
+      <c r="BU74" s="103"/>
+      <c r="BV74" s="103"/>
+      <c r="BW74" s="104"/>
       <c r="BX74" s="2"/>
     </row>
     <row r="75" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7385,7 +7393,7 @@
       <c r="AC75" s="42"/>
       <c r="AD75" s="58"/>
       <c r="AE75" s="58"/>
-      <c r="AF75" s="107"/>
+      <c r="AF75" s="74"/>
       <c r="AH75" s="4"/>
       <c r="AJ75" s="3"/>
       <c r="AK75" s="41"/>
@@ -7414,19 +7422,19 @@
       <c r="BH75" s="42"/>
       <c r="BI75" s="58"/>
       <c r="BJ75" s="58"/>
-      <c r="BK75" s="107"/>
+      <c r="BK75" s="74"/>
       <c r="BL75" s="25"/>
       <c r="BM75" s="2"/>
-      <c r="BN75" s="86"/>
-      <c r="BO75" s="87"/>
+      <c r="BN75" s="98"/>
+      <c r="BO75" s="99"/>
       <c r="BP75" s="18"/>
-      <c r="BQ75" s="86"/>
-      <c r="BR75" s="87"/>
+      <c r="BQ75" s="98"/>
+      <c r="BR75" s="99"/>
       <c r="BS75" s="3"/>
-      <c r="BT75" s="80"/>
-      <c r="BU75" s="71"/>
-      <c r="BV75" s="72"/>
-      <c r="BW75" s="73"/>
+      <c r="BT75" s="81"/>
+      <c r="BU75" s="83"/>
+      <c r="BV75" s="84"/>
+      <c r="BW75" s="85"/>
       <c r="BX75" s="2"/>
     </row>
     <row r="76" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7495,16 +7503,16 @@
       <c r="BK76" s="17"/>
       <c r="BL76" s="25"/>
       <c r="BM76" s="2"/>
-      <c r="BN76" s="86"/>
-      <c r="BO76" s="87"/>
+      <c r="BN76" s="98"/>
+      <c r="BO76" s="99"/>
       <c r="BP76" s="18"/>
-      <c r="BQ76" s="86"/>
-      <c r="BR76" s="87"/>
+      <c r="BQ76" s="98"/>
+      <c r="BR76" s="99"/>
       <c r="BS76" s="3"/>
-      <c r="BT76" s="81"/>
-      <c r="BU76" s="77"/>
-      <c r="BV76" s="78"/>
-      <c r="BW76" s="79"/>
+      <c r="BT76" s="82"/>
+      <c r="BU76" s="86"/>
+      <c r="BV76" s="87"/>
+      <c r="BW76" s="88"/>
       <c r="BX76" s="2"/>
     </row>
     <row r="77" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7523,11 +7531,11 @@
       <c r="M77" s="42"/>
       <c r="N77" s="42"/>
       <c r="O77" s="42"/>
-      <c r="P77" s="70" t="s">
+      <c r="P77" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="Q77" s="70"/>
-      <c r="R77" s="70"/>
+      <c r="Q77" s="105"/>
+      <c r="R77" s="105"/>
       <c r="S77" s="42"/>
       <c r="T77" s="42"/>
       <c r="U77" s="42"/>
@@ -7558,11 +7566,11 @@
       <c r="AT77" s="42"/>
       <c r="AU77" s="42"/>
       <c r="AV77" s="42"/>
-      <c r="AW77" s="70" t="s">
+      <c r="AW77" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="AX77" s="70"/>
-      <c r="AY77" s="70"/>
+      <c r="AX77" s="105"/>
+      <c r="AY77" s="105"/>
       <c r="AZ77" s="42"/>
       <c r="BA77" s="42"/>
       <c r="BB77" s="42"/>
@@ -7577,16 +7585,16 @@
       <c r="BK77" s="17"/>
       <c r="BL77" s="25"/>
       <c r="BM77" s="2"/>
-      <c r="BN77" s="88"/>
-      <c r="BO77" s="89"/>
+      <c r="BN77" s="100"/>
+      <c r="BO77" s="101"/>
       <c r="BP77" s="18"/>
-      <c r="BQ77" s="86"/>
-      <c r="BR77" s="87"/>
+      <c r="BQ77" s="98"/>
+      <c r="BR77" s="99"/>
       <c r="BS77" s="3"/>
-      <c r="BT77" s="80"/>
-      <c r="BU77" s="71"/>
-      <c r="BV77" s="72"/>
-      <c r="BW77" s="73"/>
+      <c r="BT77" s="81"/>
+      <c r="BU77" s="83"/>
+      <c r="BV77" s="84"/>
+      <c r="BW77" s="85"/>
       <c r="BX77" s="2"/>
     </row>
     <row r="78" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7598,10 +7606,10 @@
       <c r="D78" s="15"/>
       <c r="E78" s="37"/>
       <c r="F78" s="41"/>
-      <c r="G78" s="83">
+      <c r="G78" s="79">
         <v>76</v>
       </c>
-      <c r="H78" s="83"/>
+      <c r="H78" s="79"/>
       <c r="I78" s="42"/>
       <c r="J78" s="42"/>
       <c r="K78" s="42"/>
@@ -7609,9 +7617,9 @@
       <c r="M78" s="42"/>
       <c r="N78" s="42"/>
       <c r="O78" s="42"/>
-      <c r="P78" s="70"/>
-      <c r="Q78" s="70"/>
-      <c r="R78" s="70"/>
+      <c r="P78" s="105"/>
+      <c r="Q78" s="105"/>
+      <c r="R78" s="105"/>
       <c r="S78" s="42"/>
       <c r="T78" s="42"/>
       <c r="U78" s="42"/>
@@ -7622,10 +7630,10 @@
       <c r="Z78" s="42"/>
       <c r="AA78" s="42"/>
       <c r="AB78" s="42"/>
-      <c r="AC78" s="83">
+      <c r="AC78" s="79">
         <v>77</v>
       </c>
-      <c r="AD78" s="83"/>
+      <c r="AD78" s="79"/>
       <c r="AE78" s="43"/>
       <c r="AF78" s="37"/>
       <c r="AG78" s="4"/>
@@ -7633,10 +7641,10 @@
       <c r="AI78" s="4"/>
       <c r="AJ78" s="37"/>
       <c r="AK78" s="41"/>
-      <c r="AL78" s="83">
+      <c r="AL78" s="79">
         <v>84</v>
       </c>
-      <c r="AM78" s="83"/>
+      <c r="AM78" s="79"/>
       <c r="AN78" s="42"/>
       <c r="AO78" s="42"/>
       <c r="AP78" s="42"/>
@@ -7646,9 +7654,9 @@
       <c r="AT78" s="42"/>
       <c r="AU78" s="42"/>
       <c r="AV78" s="42"/>
-      <c r="AW78" s="70"/>
-      <c r="AX78" s="70"/>
-      <c r="AY78" s="70"/>
+      <c r="AW78" s="105"/>
+      <c r="AX78" s="105"/>
+      <c r="AY78" s="105"/>
       <c r="AZ78" s="42"/>
       <c r="BA78" s="42"/>
       <c r="BB78" s="42"/>
@@ -7657,10 +7665,10 @@
       <c r="BE78" s="42"/>
       <c r="BF78" s="42"/>
       <c r="BG78" s="42"/>
-      <c r="BH78" s="83">
+      <c r="BH78" s="79">
         <v>85</v>
       </c>
-      <c r="BI78" s="83"/>
+      <c r="BI78" s="79"/>
       <c r="BJ78" s="43"/>
       <c r="BK78" s="37"/>
       <c r="BL78" s="25"/>
@@ -7668,13 +7676,13 @@
       <c r="BN78" s="31"/>
       <c r="BO78" s="31"/>
       <c r="BP78" s="18"/>
-      <c r="BQ78" s="86"/>
-      <c r="BR78" s="87"/>
+      <c r="BQ78" s="98"/>
+      <c r="BR78" s="99"/>
       <c r="BS78" s="3"/>
-      <c r="BT78" s="81"/>
-      <c r="BU78" s="77"/>
-      <c r="BV78" s="78"/>
-      <c r="BW78" s="79"/>
+      <c r="BT78" s="82"/>
+      <c r="BU78" s="86"/>
+      <c r="BV78" s="87"/>
+      <c r="BW78" s="88"/>
       <c r="BX78" s="2"/>
     </row>
     <row r="79" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7693,9 +7701,9 @@
       <c r="M79" s="42"/>
       <c r="N79" s="42"/>
       <c r="O79" s="42"/>
-      <c r="P79" s="70"/>
-      <c r="Q79" s="70"/>
-      <c r="R79" s="70"/>
+      <c r="P79" s="105"/>
+      <c r="Q79" s="105"/>
+      <c r="R79" s="105"/>
       <c r="S79" s="42"/>
       <c r="T79" s="42"/>
       <c r="U79" s="42"/>
@@ -7726,9 +7734,9 @@
       <c r="AT79" s="42"/>
       <c r="AU79" s="42"/>
       <c r="AV79" s="42"/>
-      <c r="AW79" s="70"/>
-      <c r="AX79" s="70"/>
-      <c r="AY79" s="70"/>
+      <c r="AW79" s="105"/>
+      <c r="AX79" s="105"/>
+      <c r="AY79" s="105"/>
       <c r="AZ79" s="42"/>
       <c r="BA79" s="42"/>
       <c r="BB79" s="42"/>
@@ -7743,18 +7751,18 @@
       <c r="BK79" s="3"/>
       <c r="BL79" s="25"/>
       <c r="BM79" s="2"/>
-      <c r="BN79" s="84">
+      <c r="BN79" s="96">
         <v>27</v>
       </c>
-      <c r="BO79" s="85"/>
+      <c r="BO79" s="97"/>
       <c r="BP79" s="18"/>
-      <c r="BQ79" s="86"/>
-      <c r="BR79" s="87"/>
+      <c r="BQ79" s="98"/>
+      <c r="BR79" s="99"/>
       <c r="BS79" s="3"/>
-      <c r="BT79" s="80"/>
-      <c r="BU79" s="71"/>
-      <c r="BV79" s="72"/>
-      <c r="BW79" s="73"/>
+      <c r="BT79" s="81"/>
+      <c r="BU79" s="83"/>
+      <c r="BV79" s="84"/>
+      <c r="BW79" s="85"/>
       <c r="BX79" s="2"/>
     </row>
     <row r="80" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7773,9 +7781,9 @@
       <c r="M80" s="42"/>
       <c r="N80" s="42"/>
       <c r="O80" s="42"/>
-      <c r="P80" s="70"/>
-      <c r="Q80" s="70"/>
-      <c r="R80" s="70"/>
+      <c r="P80" s="105"/>
+      <c r="Q80" s="105"/>
+      <c r="R80" s="105"/>
       <c r="S80" s="42"/>
       <c r="T80" s="42"/>
       <c r="U80" s="42"/>
@@ -7806,9 +7814,9 @@
       <c r="AT80" s="42"/>
       <c r="AU80" s="42"/>
       <c r="AV80" s="42"/>
-      <c r="AW80" s="70"/>
-      <c r="AX80" s="70"/>
-      <c r="AY80" s="70"/>
+      <c r="AW80" s="105"/>
+      <c r="AX80" s="105"/>
+      <c r="AY80" s="105"/>
       <c r="AZ80" s="42"/>
       <c r="BA80" s="42"/>
       <c r="BB80" s="42"/>
@@ -7823,16 +7831,16 @@
       <c r="BK80" s="3"/>
       <c r="BL80" s="25"/>
       <c r="BM80" s="2"/>
-      <c r="BN80" s="86"/>
-      <c r="BO80" s="87"/>
+      <c r="BN80" s="98"/>
+      <c r="BO80" s="99"/>
       <c r="BP80" s="18"/>
-      <c r="BQ80" s="86"/>
-      <c r="BR80" s="87"/>
+      <c r="BQ80" s="98"/>
+      <c r="BR80" s="99"/>
       <c r="BS80" s="3"/>
-      <c r="BT80" s="81"/>
-      <c r="BU80" s="77"/>
-      <c r="BV80" s="78"/>
-      <c r="BW80" s="79"/>
+      <c r="BT80" s="82"/>
+      <c r="BU80" s="86"/>
+      <c r="BV80" s="87"/>
+      <c r="BW80" s="88"/>
       <c r="BX80" s="2"/>
     </row>
     <row r="81" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7899,16 +7907,16 @@
       <c r="BK81" s="3"/>
       <c r="BL81" s="25"/>
       <c r="BM81" s="2"/>
-      <c r="BN81" s="86"/>
-      <c r="BO81" s="87"/>
+      <c r="BN81" s="98"/>
+      <c r="BO81" s="99"/>
       <c r="BP81" s="18"/>
-      <c r="BQ81" s="86"/>
-      <c r="BR81" s="87"/>
+      <c r="BQ81" s="98"/>
+      <c r="BR81" s="99"/>
       <c r="BS81" s="3"/>
-      <c r="BT81" s="80"/>
-      <c r="BU81" s="71"/>
-      <c r="BV81" s="72"/>
-      <c r="BW81" s="73"/>
+      <c r="BT81" s="81"/>
+      <c r="BU81" s="83"/>
+      <c r="BV81" s="84"/>
+      <c r="BW81" s="85"/>
       <c r="BX81" s="2"/>
     </row>
     <row r="82" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7920,10 +7928,10 @@
       </c>
       <c r="E82" s="37"/>
       <c r="F82" s="41"/>
-      <c r="G82" s="83">
+      <c r="G82" s="79">
         <v>78</v>
       </c>
-      <c r="H82" s="83"/>
+      <c r="H82" s="79"/>
       <c r="I82" s="42"/>
       <c r="J82" s="58"/>
       <c r="K82" s="58"/>
@@ -7940,27 +7948,27 @@
       <c r="X82" s="42"/>
       <c r="Y82" s="58"/>
       <c r="Z82" s="58"/>
-      <c r="AA82" s="83">
+      <c r="AA82" s="79">
         <v>79</v>
       </c>
-      <c r="AB82" s="83"/>
-      <c r="AC82" s="83">
+      <c r="AB82" s="79"/>
+      <c r="AC82" s="79">
         <v>80</v>
       </c>
-      <c r="AD82" s="83"/>
+      <c r="AD82" s="79"/>
       <c r="AE82" s="59"/>
       <c r="AF82" s="37"/>
       <c r="AH82" s="4"/>
       <c r="AJ82" s="37"/>
       <c r="AK82" s="41"/>
-      <c r="AL82" s="83">
+      <c r="AL82" s="79">
         <v>86</v>
       </c>
-      <c r="AM82" s="83"/>
-      <c r="AN82" s="83">
+      <c r="AM82" s="79"/>
+      <c r="AN82" s="79">
         <v>87</v>
       </c>
-      <c r="AO82" s="83"/>
+      <c r="AO82" s="79"/>
       <c r="AP82" s="58"/>
       <c r="AQ82" s="58"/>
       <c r="AT82" s="58"/>
@@ -7977,24 +7985,24 @@
       <c r="BE82" s="58"/>
       <c r="BF82" s="58"/>
       <c r="BG82" s="58"/>
-      <c r="BH82" s="83">
+      <c r="BH82" s="79">
         <v>88</v>
       </c>
-      <c r="BI82" s="83"/>
+      <c r="BI82" s="79"/>
       <c r="BJ82" s="59"/>
       <c r="BK82" s="37"/>
       <c r="BL82" s="25"/>
       <c r="BM82" s="2"/>
-      <c r="BN82" s="88"/>
-      <c r="BO82" s="89"/>
+      <c r="BN82" s="100"/>
+      <c r="BO82" s="101"/>
       <c r="BP82" s="18"/>
-      <c r="BQ82" s="88"/>
-      <c r="BR82" s="89"/>
+      <c r="BQ82" s="100"/>
+      <c r="BR82" s="101"/>
       <c r="BS82" s="3"/>
-      <c r="BT82" s="94"/>
-      <c r="BU82" s="74"/>
-      <c r="BV82" s="75"/>
-      <c r="BW82" s="76"/>
+      <c r="BT82" s="95"/>
+      <c r="BU82" s="89"/>
+      <c r="BV82" s="90"/>
+      <c r="BW82" s="91"/>
       <c r="BX82" s="2"/>
     </row>
     <row r="83" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8158,61 +8166,61 @@
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
       <c r="F85" s="65"/>
-      <c r="G85" s="82"/>
-      <c r="H85" s="82"/>
+      <c r="G85" s="78"/>
+      <c r="H85" s="78"/>
       <c r="I85" s="65"/>
       <c r="J85" s="65"/>
-      <c r="K85" s="82"/>
-      <c r="L85" s="82"/>
+      <c r="K85" s="78"/>
+      <c r="L85" s="78"/>
       <c r="M85" s="65"/>
       <c r="N85" s="65"/>
       <c r="O85" s="65"/>
-      <c r="P85" s="82"/>
-      <c r="Q85" s="82"/>
+      <c r="P85" s="78"/>
+      <c r="Q85" s="78"/>
       <c r="S85" s="65"/>
       <c r="T85" s="65"/>
-      <c r="U85" s="82"/>
-      <c r="V85" s="82"/>
+      <c r="U85" s="78"/>
+      <c r="V85" s="78"/>
       <c r="W85" s="65"/>
       <c r="X85" s="65"/>
       <c r="Y85" s="65"/>
-      <c r="Z85" s="82"/>
-      <c r="AA85" s="82"/>
+      <c r="Z85" s="78"/>
+      <c r="AA85" s="78"/>
       <c r="AB85" s="37"/>
       <c r="AC85" s="65"/>
       <c r="AD85" s="65"/>
-      <c r="AE85" s="82"/>
-      <c r="AF85" s="82"/>
+      <c r="AE85" s="78"/>
+      <c r="AF85" s="78"/>
       <c r="AG85" s="65"/>
       <c r="AH85" s="65"/>
       <c r="AI85" s="65"/>
       <c r="AJ85" s="3"/>
       <c r="AK85" s="65"/>
-      <c r="AL85" s="82"/>
-      <c r="AM85" s="82"/>
+      <c r="AL85" s="78"/>
+      <c r="AM85" s="78"/>
       <c r="AN85" s="37"/>
       <c r="AO85" s="65"/>
-      <c r="AP85" s="82"/>
-      <c r="AQ85" s="82"/>
+      <c r="AP85" s="78"/>
+      <c r="AQ85" s="78"/>
       <c r="AR85" s="65"/>
       <c r="AS85" s="65"/>
       <c r="AT85" s="65"/>
-      <c r="AU85" s="82"/>
-      <c r="AV85" s="82"/>
+      <c r="AU85" s="78"/>
+      <c r="AV85" s="78"/>
       <c r="AX85" s="65"/>
       <c r="AY85" s="65"/>
-      <c r="AZ85" s="82"/>
-      <c r="BA85" s="82"/>
+      <c r="AZ85" s="78"/>
+      <c r="BA85" s="78"/>
       <c r="BB85" s="65"/>
       <c r="BC85" s="65"/>
       <c r="BD85" s="65"/>
-      <c r="BE85" s="82"/>
-      <c r="BF85" s="82"/>
+      <c r="BE85" s="78"/>
+      <c r="BF85" s="78"/>
       <c r="BG85" s="65"/>
       <c r="BH85" s="65"/>
       <c r="BI85" s="65"/>
-      <c r="BJ85" s="82"/>
-      <c r="BK85" s="82"/>
+      <c r="BJ85" s="78"/>
+      <c r="BK85" s="78"/>
       <c r="BL85" s="25"/>
       <c r="BM85" s="2"/>
       <c r="BN85" s="69"/>
@@ -8299,12 +8307,12 @@
       <c r="BQ86" s="69"/>
       <c r="BR86" s="69"/>
       <c r="BS86" s="2"/>
-      <c r="BT86" s="95" t="s">
+      <c r="BT86" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="BU86" s="96"/>
-      <c r="BV86" s="96"/>
-      <c r="BW86" s="97"/>
+      <c r="BU86" s="93"/>
+      <c r="BV86" s="93"/>
+      <c r="BW86" s="94"/>
       <c r="BX86" s="2"/>
     </row>
     <row r="87" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8316,10 +8324,10 @@
       </c>
       <c r="E87" s="37"/>
       <c r="F87" s="41"/>
-      <c r="G87" s="83">
+      <c r="G87" s="79">
         <v>89</v>
       </c>
-      <c r="H87" s="83"/>
+      <c r="H87" s="79"/>
       <c r="I87" s="42"/>
       <c r="J87" s="58"/>
       <c r="K87" s="58"/>
@@ -8329,8 +8337,8 @@
       <c r="O87" s="58"/>
       <c r="P87" s="58"/>
       <c r="Q87" s="58"/>
-      <c r="R87" s="83"/>
-      <c r="S87" s="83"/>
+      <c r="R87" s="79"/>
+      <c r="S87" s="79"/>
       <c r="T87" s="58"/>
       <c r="U87" s="58"/>
       <c r="V87" s="58"/>
@@ -8338,28 +8346,28 @@
       <c r="X87" s="42"/>
       <c r="Y87" s="58"/>
       <c r="Z87" s="58"/>
-      <c r="AA87" s="83">
+      <c r="AA87" s="79">
         <v>90</v>
       </c>
-      <c r="AB87" s="83"/>
-      <c r="AC87" s="83">
+      <c r="AB87" s="79"/>
+      <c r="AC87" s="79">
         <v>91</v>
       </c>
-      <c r="AD87" s="83"/>
+      <c r="AD87" s="79"/>
       <c r="AE87" s="58"/>
       <c r="AF87" s="37"/>
-      <c r="AG87" s="106"/>
+      <c r="AG87" s="73"/>
       <c r="AH87" s="4"/>
       <c r="AJ87" s="37"/>
       <c r="AK87" s="41"/>
-      <c r="AL87" s="83">
+      <c r="AL87" s="79">
         <v>97</v>
       </c>
-      <c r="AM87" s="83"/>
-      <c r="AN87" s="83">
+      <c r="AM87" s="79"/>
+      <c r="AN87" s="79">
         <v>98</v>
       </c>
-      <c r="AO87" s="83"/>
+      <c r="AO87" s="79"/>
       <c r="AP87" s="58"/>
       <c r="AQ87" s="58"/>
       <c r="AR87" s="58"/>
@@ -8376,30 +8384,30 @@
       <c r="BE87" s="58"/>
       <c r="BF87" s="58"/>
       <c r="BG87" s="58"/>
-      <c r="BH87" s="83">
+      <c r="BH87" s="79">
         <v>99</v>
       </c>
-      <c r="BI87" s="83"/>
+      <c r="BI87" s="79"/>
       <c r="BJ87" s="58"/>
       <c r="BK87" s="37"/>
       <c r="BL87" s="25"/>
       <c r="BM87" s="2"/>
-      <c r="BN87" s="84">
+      <c r="BN87" s="96">
         <v>29</v>
       </c>
-      <c r="BO87" s="85"/>
+      <c r="BO87" s="97"/>
       <c r="BP87" s="18"/>
-      <c r="BQ87" s="84">
+      <c r="BQ87" s="96">
         <v>30</v>
       </c>
-      <c r="BR87" s="85"/>
+      <c r="BR87" s="97"/>
       <c r="BS87" s="2"/>
-      <c r="BT87" s="91" t="s">
+      <c r="BT87" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="BU87" s="92"/>
-      <c r="BV87" s="92"/>
-      <c r="BW87" s="93"/>
+      <c r="BU87" s="103"/>
+      <c r="BV87" s="103"/>
+      <c r="BW87" s="104"/>
       <c r="BX87" s="2"/>
     </row>
     <row r="88" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8434,7 +8442,7 @@
       <c r="AC88" s="42"/>
       <c r="AD88" s="58"/>
       <c r="AE88" s="58"/>
-      <c r="AF88" s="107"/>
+      <c r="AF88" s="74"/>
       <c r="AH88" s="4"/>
       <c r="AJ88" s="3"/>
       <c r="AK88" s="41"/>
@@ -8463,19 +8471,19 @@
       <c r="BH88" s="42"/>
       <c r="BI88" s="58"/>
       <c r="BJ88" s="58"/>
-      <c r="BK88" s="107"/>
+      <c r="BK88" s="74"/>
       <c r="BL88" s="25"/>
       <c r="BM88" s="2"/>
-      <c r="BN88" s="86"/>
-      <c r="BO88" s="87"/>
+      <c r="BN88" s="98"/>
+      <c r="BO88" s="99"/>
       <c r="BP88" s="18"/>
-      <c r="BQ88" s="86"/>
-      <c r="BR88" s="87"/>
+      <c r="BQ88" s="98"/>
+      <c r="BR88" s="99"/>
       <c r="BS88" s="2"/>
-      <c r="BT88" s="80"/>
-      <c r="BU88" s="71"/>
-      <c r="BV88" s="72"/>
-      <c r="BW88" s="73"/>
+      <c r="BT88" s="81"/>
+      <c r="BU88" s="83"/>
+      <c r="BV88" s="84"/>
+      <c r="BW88" s="85"/>
       <c r="BX88" s="2"/>
     </row>
     <row r="89" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8544,16 +8552,16 @@
       <c r="BK89" s="17"/>
       <c r="BL89" s="25"/>
       <c r="BM89" s="2"/>
-      <c r="BN89" s="86"/>
-      <c r="BO89" s="87"/>
+      <c r="BN89" s="98"/>
+      <c r="BO89" s="99"/>
       <c r="BP89" s="18"/>
-      <c r="BQ89" s="86"/>
-      <c r="BR89" s="87"/>
+      <c r="BQ89" s="98"/>
+      <c r="BR89" s="99"/>
       <c r="BS89" s="2"/>
-      <c r="BT89" s="81"/>
-      <c r="BU89" s="77"/>
-      <c r="BV89" s="78"/>
-      <c r="BW89" s="79"/>
+      <c r="BT89" s="82"/>
+      <c r="BU89" s="86"/>
+      <c r="BV89" s="87"/>
+      <c r="BW89" s="88"/>
       <c r="BX89" s="2"/>
     </row>
     <row r="90" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8572,11 +8580,11 @@
       <c r="M90" s="42"/>
       <c r="N90" s="42"/>
       <c r="O90" s="42"/>
-      <c r="P90" s="70" t="s">
+      <c r="P90" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="Q90" s="70"/>
-      <c r="R90" s="70"/>
+      <c r="Q90" s="105"/>
+      <c r="R90" s="105"/>
       <c r="S90" s="42"/>
       <c r="T90" s="42"/>
       <c r="U90" s="42"/>
@@ -8607,11 +8615,11 @@
       <c r="AT90" s="42"/>
       <c r="AU90" s="42"/>
       <c r="AV90" s="42"/>
-      <c r="AW90" s="70" t="s">
+      <c r="AW90" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="AX90" s="70"/>
-      <c r="AY90" s="70"/>
+      <c r="AX90" s="105"/>
+      <c r="AY90" s="105"/>
       <c r="AZ90" s="42"/>
       <c r="BA90" s="42"/>
       <c r="BB90" s="42"/>
@@ -8626,16 +8634,16 @@
       <c r="BK90" s="17"/>
       <c r="BL90" s="25"/>
       <c r="BM90" s="2"/>
-      <c r="BN90" s="88"/>
-      <c r="BO90" s="89"/>
+      <c r="BN90" s="100"/>
+      <c r="BO90" s="101"/>
       <c r="BP90" s="18"/>
-      <c r="BQ90" s="86"/>
-      <c r="BR90" s="87"/>
+      <c r="BQ90" s="98"/>
+      <c r="BR90" s="99"/>
       <c r="BS90" s="2"/>
-      <c r="BT90" s="80"/>
-      <c r="BU90" s="71"/>
-      <c r="BV90" s="72"/>
-      <c r="BW90" s="73"/>
+      <c r="BT90" s="81"/>
+      <c r="BU90" s="83"/>
+      <c r="BV90" s="84"/>
+      <c r="BW90" s="85"/>
       <c r="BX90" s="2"/>
     </row>
     <row r="91" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8647,10 +8655,10 @@
       <c r="D91" s="15"/>
       <c r="E91" s="37"/>
       <c r="F91" s="41"/>
-      <c r="G91" s="83">
+      <c r="G91" s="79">
         <v>92</v>
       </c>
-      <c r="H91" s="83"/>
+      <c r="H91" s="79"/>
       <c r="I91" s="42"/>
       <c r="J91" s="42"/>
       <c r="K91" s="42"/>
@@ -8658,9 +8666,9 @@
       <c r="M91" s="42"/>
       <c r="N91" s="42"/>
       <c r="O91" s="42"/>
-      <c r="P91" s="70"/>
-      <c r="Q91" s="70"/>
-      <c r="R91" s="70"/>
+      <c r="P91" s="105"/>
+      <c r="Q91" s="105"/>
+      <c r="R91" s="105"/>
       <c r="S91" s="42"/>
       <c r="T91" s="42"/>
       <c r="U91" s="42"/>
@@ -8671,10 +8679,10 @@
       <c r="Z91" s="42"/>
       <c r="AA91" s="42"/>
       <c r="AB91" s="42"/>
-      <c r="AC91" s="83">
+      <c r="AC91" s="79">
         <v>93</v>
       </c>
-      <c r="AD91" s="83"/>
+      <c r="AD91" s="79"/>
       <c r="AE91" s="43"/>
       <c r="AF91" s="37"/>
       <c r="AG91" s="4"/>
@@ -8682,10 +8690,10 @@
       <c r="AI91" s="4"/>
       <c r="AJ91" s="37"/>
       <c r="AK91" s="41"/>
-      <c r="AL91" s="83">
+      <c r="AL91" s="79">
         <v>100</v>
       </c>
-      <c r="AM91" s="83"/>
+      <c r="AM91" s="79"/>
       <c r="AN91" s="42"/>
       <c r="AO91" s="42"/>
       <c r="AP91" s="42"/>
@@ -8695,9 +8703,9 @@
       <c r="AT91" s="42"/>
       <c r="AU91" s="42"/>
       <c r="AV91" s="42"/>
-      <c r="AW91" s="70"/>
-      <c r="AX91" s="70"/>
-      <c r="AY91" s="70"/>
+      <c r="AW91" s="105"/>
+      <c r="AX91" s="105"/>
+      <c r="AY91" s="105"/>
       <c r="AZ91" s="42"/>
       <c r="BA91" s="42"/>
       <c r="BB91" s="42"/>
@@ -8706,10 +8714,10 @@
       <c r="BE91" s="42"/>
       <c r="BF91" s="42"/>
       <c r="BG91" s="42"/>
-      <c r="BH91" s="83">
+      <c r="BH91" s="79">
         <v>101</v>
       </c>
-      <c r="BI91" s="83"/>
+      <c r="BI91" s="79"/>
       <c r="BJ91" s="43"/>
       <c r="BK91" s="37"/>
       <c r="BL91" s="25"/>
@@ -8717,13 +8725,13 @@
       <c r="BN91" s="18"/>
       <c r="BO91" s="18"/>
       <c r="BP91" s="18"/>
-      <c r="BQ91" s="86"/>
-      <c r="BR91" s="87"/>
+      <c r="BQ91" s="98"/>
+      <c r="BR91" s="99"/>
       <c r="BS91" s="2"/>
-      <c r="BT91" s="81"/>
-      <c r="BU91" s="77"/>
-      <c r="BV91" s="78"/>
-      <c r="BW91" s="79"/>
+      <c r="BT91" s="82"/>
+      <c r="BU91" s="86"/>
+      <c r="BV91" s="87"/>
+      <c r="BW91" s="88"/>
       <c r="BX91" s="2"/>
     </row>
     <row r="92" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8742,9 +8750,9 @@
       <c r="M92" s="42"/>
       <c r="N92" s="42"/>
       <c r="O92" s="42"/>
-      <c r="P92" s="70"/>
-      <c r="Q92" s="70"/>
-      <c r="R92" s="70"/>
+      <c r="P92" s="105"/>
+      <c r="Q92" s="105"/>
+      <c r="R92" s="105"/>
       <c r="S92" s="42"/>
       <c r="T92" s="42"/>
       <c r="U92" s="42"/>
@@ -8775,9 +8783,9 @@
       <c r="AT92" s="42"/>
       <c r="AU92" s="42"/>
       <c r="AV92" s="42"/>
-      <c r="AW92" s="70"/>
-      <c r="AX92" s="70"/>
-      <c r="AY92" s="70"/>
+      <c r="AW92" s="105"/>
+      <c r="AX92" s="105"/>
+      <c r="AY92" s="105"/>
       <c r="AZ92" s="42"/>
       <c r="BA92" s="42"/>
       <c r="BB92" s="42"/>
@@ -8792,18 +8800,18 @@
       <c r="BK92" s="3"/>
       <c r="BL92" s="25"/>
       <c r="BM92" s="2"/>
-      <c r="BN92" s="84">
+      <c r="BN92" s="96">
         <v>31</v>
       </c>
-      <c r="BO92" s="85"/>
+      <c r="BO92" s="97"/>
       <c r="BP92" s="18"/>
-      <c r="BQ92" s="86"/>
-      <c r="BR92" s="87"/>
+      <c r="BQ92" s="98"/>
+      <c r="BR92" s="99"/>
       <c r="BS92" s="2"/>
-      <c r="BT92" s="80"/>
-      <c r="BU92" s="71"/>
-      <c r="BV92" s="72"/>
-      <c r="BW92" s="73"/>
+      <c r="BT92" s="81"/>
+      <c r="BU92" s="83"/>
+      <c r="BV92" s="84"/>
+      <c r="BW92" s="85"/>
       <c r="BX92" s="2"/>
     </row>
     <row r="93" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8822,9 +8830,9 @@
       <c r="M93" s="42"/>
       <c r="N93" s="42"/>
       <c r="O93" s="42"/>
-      <c r="P93" s="70"/>
-      <c r="Q93" s="70"/>
-      <c r="R93" s="70"/>
+      <c r="P93" s="105"/>
+      <c r="Q93" s="105"/>
+      <c r="R93" s="105"/>
       <c r="S93" s="42"/>
       <c r="T93" s="42"/>
       <c r="U93" s="42"/>
@@ -8855,9 +8863,9 @@
       <c r="AT93" s="42"/>
       <c r="AU93" s="42"/>
       <c r="AV93" s="42"/>
-      <c r="AW93" s="70"/>
-      <c r="AX93" s="70"/>
-      <c r="AY93" s="70"/>
+      <c r="AW93" s="105"/>
+      <c r="AX93" s="105"/>
+      <c r="AY93" s="105"/>
       <c r="AZ93" s="42"/>
       <c r="BA93" s="42"/>
       <c r="BB93" s="42"/>
@@ -8872,16 +8880,16 @@
       <c r="BK93" s="3"/>
       <c r="BL93" s="25"/>
       <c r="BM93" s="2"/>
-      <c r="BN93" s="86"/>
-      <c r="BO93" s="87"/>
+      <c r="BN93" s="98"/>
+      <c r="BO93" s="99"/>
       <c r="BP93" s="18"/>
-      <c r="BQ93" s="86"/>
-      <c r="BR93" s="87"/>
+      <c r="BQ93" s="98"/>
+      <c r="BR93" s="99"/>
       <c r="BS93" s="2"/>
-      <c r="BT93" s="81"/>
-      <c r="BU93" s="77"/>
-      <c r="BV93" s="78"/>
-      <c r="BW93" s="79"/>
+      <c r="BT93" s="82"/>
+      <c r="BU93" s="86"/>
+      <c r="BV93" s="87"/>
+      <c r="BW93" s="88"/>
       <c r="BX93" s="2"/>
     </row>
     <row r="94" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8948,16 +8956,16 @@
       <c r="BK94" s="3"/>
       <c r="BL94" s="25"/>
       <c r="BM94" s="2"/>
-      <c r="BN94" s="86"/>
-      <c r="BO94" s="87"/>
+      <c r="BN94" s="98"/>
+      <c r="BO94" s="99"/>
       <c r="BP94" s="18"/>
-      <c r="BQ94" s="86"/>
-      <c r="BR94" s="87"/>
+      <c r="BQ94" s="98"/>
+      <c r="BR94" s="99"/>
       <c r="BS94" s="2"/>
-      <c r="BT94" s="80"/>
-      <c r="BU94" s="71"/>
-      <c r="BV94" s="72"/>
-      <c r="BW94" s="73"/>
+      <c r="BT94" s="81"/>
+      <c r="BU94" s="83"/>
+      <c r="BV94" s="84"/>
+      <c r="BW94" s="85"/>
       <c r="BX94" s="2"/>
     </row>
     <row r="95" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8969,10 +8977,10 @@
       </c>
       <c r="E95" s="37"/>
       <c r="F95" s="41"/>
-      <c r="G95" s="83">
+      <c r="G95" s="79">
         <v>94</v>
       </c>
-      <c r="H95" s="83"/>
+      <c r="H95" s="79"/>
       <c r="I95" s="42"/>
       <c r="J95" s="58"/>
       <c r="K95" s="58"/>
@@ -8989,27 +8997,27 @@
       <c r="X95" s="42"/>
       <c r="Y95" s="58"/>
       <c r="Z95" s="58"/>
-      <c r="AA95" s="83">
+      <c r="AA95" s="79">
         <v>95</v>
       </c>
-      <c r="AB95" s="83"/>
-      <c r="AC95" s="83">
+      <c r="AB95" s="79"/>
+      <c r="AC95" s="79">
         <v>96</v>
       </c>
-      <c r="AD95" s="83"/>
+      <c r="AD95" s="79"/>
       <c r="AE95" s="59"/>
       <c r="AF95" s="37"/>
       <c r="AH95" s="4"/>
       <c r="AJ95" s="37"/>
       <c r="AK95" s="41"/>
-      <c r="AL95" s="83">
+      <c r="AL95" s="79">
         <v>102</v>
       </c>
-      <c r="AM95" s="83"/>
-      <c r="AN95" s="83">
+      <c r="AM95" s="79"/>
+      <c r="AN95" s="79">
         <v>103</v>
       </c>
-      <c r="AO95" s="83"/>
+      <c r="AO95" s="79"/>
       <c r="AP95" s="58"/>
       <c r="AQ95" s="58"/>
       <c r="AT95" s="58"/>
@@ -9026,24 +9034,24 @@
       <c r="BE95" s="58"/>
       <c r="BF95" s="58"/>
       <c r="BG95" s="58"/>
-      <c r="BH95" s="83">
+      <c r="BH95" s="79">
         <v>104</v>
       </c>
-      <c r="BI95" s="83"/>
+      <c r="BI95" s="79"/>
       <c r="BJ95" s="59"/>
       <c r="BK95" s="37"/>
       <c r="BL95" s="25"/>
       <c r="BM95" s="2"/>
-      <c r="BN95" s="88"/>
-      <c r="BO95" s="89"/>
+      <c r="BN95" s="100"/>
+      <c r="BO95" s="101"/>
       <c r="BP95" s="18"/>
-      <c r="BQ95" s="88"/>
-      <c r="BR95" s="89"/>
+      <c r="BQ95" s="100"/>
+      <c r="BR95" s="101"/>
       <c r="BS95" s="2"/>
-      <c r="BT95" s="94"/>
-      <c r="BU95" s="74"/>
-      <c r="BV95" s="75"/>
-      <c r="BW95" s="76"/>
+      <c r="BT95" s="95"/>
+      <c r="BU95" s="89"/>
+      <c r="BV95" s="90"/>
+      <c r="BW95" s="91"/>
       <c r="BX95" s="2"/>
     </row>
     <row r="96" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9207,61 +9215,61 @@
       <c r="D98" s="2"/>
       <c r="E98" s="3"/>
       <c r="F98" s="65"/>
-      <c r="G98" s="82"/>
-      <c r="H98" s="82"/>
+      <c r="G98" s="78"/>
+      <c r="H98" s="78"/>
       <c r="I98" s="65"/>
       <c r="J98" s="65"/>
-      <c r="K98" s="82"/>
-      <c r="L98" s="82"/>
+      <c r="K98" s="78"/>
+      <c r="L98" s="78"/>
       <c r="M98" s="65"/>
       <c r="N98" s="65"/>
       <c r="O98" s="65"/>
-      <c r="P98" s="82"/>
-      <c r="Q98" s="82"/>
+      <c r="P98" s="78"/>
+      <c r="Q98" s="78"/>
       <c r="S98" s="65"/>
       <c r="T98" s="65"/>
-      <c r="U98" s="82"/>
-      <c r="V98" s="82"/>
+      <c r="U98" s="78"/>
+      <c r="V98" s="78"/>
       <c r="W98" s="65"/>
       <c r="X98" s="65"/>
       <c r="Y98" s="65"/>
-      <c r="Z98" s="82"/>
-      <c r="AA98" s="82"/>
+      <c r="Z98" s="78"/>
+      <c r="AA98" s="78"/>
       <c r="AB98" s="37"/>
       <c r="AC98" s="65"/>
       <c r="AD98" s="65"/>
-      <c r="AE98" s="82"/>
-      <c r="AF98" s="82"/>
+      <c r="AE98" s="78"/>
+      <c r="AF98" s="78"/>
       <c r="AG98" s="65"/>
       <c r="AH98" s="65"/>
       <c r="AI98" s="65"/>
       <c r="AJ98" s="3"/>
       <c r="AK98" s="65"/>
-      <c r="AL98" s="82"/>
-      <c r="AM98" s="82"/>
+      <c r="AL98" s="78"/>
+      <c r="AM98" s="78"/>
       <c r="AN98" s="37"/>
       <c r="AO98" s="65"/>
-      <c r="AP98" s="82"/>
-      <c r="AQ98" s="82"/>
+      <c r="AP98" s="78"/>
+      <c r="AQ98" s="78"/>
       <c r="AR98" s="65"/>
       <c r="AS98" s="65"/>
       <c r="AT98" s="65"/>
-      <c r="AU98" s="82"/>
-      <c r="AV98" s="82"/>
+      <c r="AU98" s="78"/>
+      <c r="AV98" s="78"/>
       <c r="AX98" s="65"/>
       <c r="AY98" s="65"/>
-      <c r="AZ98" s="82"/>
-      <c r="BA98" s="82"/>
+      <c r="AZ98" s="78"/>
+      <c r="BA98" s="78"/>
       <c r="BB98" s="65"/>
       <c r="BC98" s="65"/>
       <c r="BD98" s="65"/>
-      <c r="BE98" s="82"/>
-      <c r="BF98" s="82"/>
+      <c r="BE98" s="78"/>
+      <c r="BF98" s="78"/>
       <c r="BG98" s="65"/>
       <c r="BH98" s="65"/>
       <c r="BI98" s="65"/>
-      <c r="BJ98" s="82"/>
-      <c r="BK98" s="82"/>
+      <c r="BJ98" s="78"/>
+      <c r="BK98" s="78"/>
       <c r="BL98" s="25"/>
       <c r="BM98" s="2"/>
       <c r="BN98" s="69"/>
@@ -9348,12 +9356,12 @@
       <c r="BQ99" s="69"/>
       <c r="BR99" s="69"/>
       <c r="BS99" s="2"/>
-      <c r="BT99" s="95" t="s">
+      <c r="BT99" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="BU99" s="96"/>
-      <c r="BV99" s="96"/>
-      <c r="BW99" s="97"/>
+      <c r="BU99" s="93"/>
+      <c r="BV99" s="93"/>
+      <c r="BW99" s="94"/>
       <c r="BX99" s="2"/>
     </row>
     <row r="100" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9365,10 +9373,10 @@
       </c>
       <c r="E100" s="37"/>
       <c r="F100" s="41"/>
-      <c r="G100" s="83">
+      <c r="G100" s="79">
         <v>105</v>
       </c>
-      <c r="H100" s="83"/>
+      <c r="H100" s="79"/>
       <c r="I100" s="42"/>
       <c r="J100" s="58"/>
       <c r="K100" s="58"/>
@@ -9378,8 +9386,8 @@
       <c r="O100" s="58"/>
       <c r="P100" s="58"/>
       <c r="Q100" s="58"/>
-      <c r="R100" s="83"/>
-      <c r="S100" s="83"/>
+      <c r="R100" s="79"/>
+      <c r="S100" s="79"/>
       <c r="T100" s="58"/>
       <c r="U100" s="58"/>
       <c r="V100" s="58"/>
@@ -9387,28 +9395,28 @@
       <c r="X100" s="42"/>
       <c r="Y100" s="58"/>
       <c r="Z100" s="58"/>
-      <c r="AA100" s="83">
+      <c r="AA100" s="79">
         <v>106</v>
       </c>
-      <c r="AB100" s="83"/>
-      <c r="AC100" s="83">
+      <c r="AB100" s="79"/>
+      <c r="AC100" s="79">
         <v>107</v>
       </c>
-      <c r="AD100" s="83"/>
+      <c r="AD100" s="79"/>
       <c r="AE100" s="58"/>
       <c r="AF100" s="37"/>
-      <c r="AG100" s="106"/>
+      <c r="AG100" s="73"/>
       <c r="AH100" s="4"/>
       <c r="AJ100" s="37"/>
       <c r="AK100" s="41"/>
-      <c r="AL100" s="83">
+      <c r="AL100" s="79">
         <v>113</v>
       </c>
-      <c r="AM100" s="83"/>
-      <c r="AN100" s="83">
+      <c r="AM100" s="79"/>
+      <c r="AN100" s="79">
         <v>114</v>
       </c>
-      <c r="AO100" s="83"/>
+      <c r="AO100" s="79"/>
       <c r="AP100" s="58"/>
       <c r="AQ100" s="58"/>
       <c r="AR100" s="58"/>
@@ -9425,30 +9433,30 @@
       <c r="BE100" s="58"/>
       <c r="BF100" s="58"/>
       <c r="BG100" s="58"/>
-      <c r="BH100" s="83">
+      <c r="BH100" s="79">
         <v>115</v>
       </c>
-      <c r="BI100" s="83"/>
+      <c r="BI100" s="79"/>
       <c r="BJ100" s="58"/>
       <c r="BK100" s="37"/>
       <c r="BL100" s="25"/>
       <c r="BM100" s="2"/>
-      <c r="BN100" s="84">
+      <c r="BN100" s="96">
         <v>33</v>
       </c>
-      <c r="BO100" s="85"/>
+      <c r="BO100" s="97"/>
       <c r="BP100" s="18"/>
-      <c r="BQ100" s="84">
+      <c r="BQ100" s="96">
         <v>34</v>
       </c>
-      <c r="BR100" s="85"/>
+      <c r="BR100" s="97"/>
       <c r="BS100" s="3"/>
-      <c r="BT100" s="91" t="s">
+      <c r="BT100" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="BU100" s="92"/>
-      <c r="BV100" s="92"/>
-      <c r="BW100" s="93"/>
+      <c r="BU100" s="103"/>
+      <c r="BV100" s="103"/>
+      <c r="BW100" s="104"/>
       <c r="BX100" s="2"/>
     </row>
     <row r="101" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9483,7 +9491,7 @@
       <c r="AC101" s="42"/>
       <c r="AD101" s="58"/>
       <c r="AE101" s="58"/>
-      <c r="AF101" s="107"/>
+      <c r="AF101" s="74"/>
       <c r="AH101" s="4"/>
       <c r="AJ101" s="3"/>
       <c r="AK101" s="41"/>
@@ -9512,19 +9520,19 @@
       <c r="BH101" s="42"/>
       <c r="BI101" s="58"/>
       <c r="BJ101" s="58"/>
-      <c r="BK101" s="107"/>
+      <c r="BK101" s="74"/>
       <c r="BL101" s="25"/>
       <c r="BM101" s="2"/>
-      <c r="BN101" s="86"/>
-      <c r="BO101" s="87"/>
+      <c r="BN101" s="98"/>
+      <c r="BO101" s="99"/>
       <c r="BP101" s="18"/>
-      <c r="BQ101" s="86"/>
-      <c r="BR101" s="87"/>
+      <c r="BQ101" s="98"/>
+      <c r="BR101" s="99"/>
       <c r="BS101" s="3"/>
-      <c r="BT101" s="80"/>
-      <c r="BU101" s="71"/>
-      <c r="BV101" s="72"/>
-      <c r="BW101" s="73"/>
+      <c r="BT101" s="81"/>
+      <c r="BU101" s="83"/>
+      <c r="BV101" s="84"/>
+      <c r="BW101" s="85"/>
       <c r="BX101" s="2"/>
     </row>
     <row r="102" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9593,16 +9601,16 @@
       <c r="BK102" s="17"/>
       <c r="BL102" s="25"/>
       <c r="BM102" s="2"/>
-      <c r="BN102" s="86"/>
-      <c r="BO102" s="87"/>
+      <c r="BN102" s="98"/>
+      <c r="BO102" s="99"/>
       <c r="BP102" s="18"/>
-      <c r="BQ102" s="86"/>
-      <c r="BR102" s="87"/>
+      <c r="BQ102" s="98"/>
+      <c r="BR102" s="99"/>
       <c r="BS102" s="3"/>
-      <c r="BT102" s="81"/>
-      <c r="BU102" s="77"/>
-      <c r="BV102" s="78"/>
-      <c r="BW102" s="79"/>
+      <c r="BT102" s="82"/>
+      <c r="BU102" s="86"/>
+      <c r="BV102" s="87"/>
+      <c r="BW102" s="88"/>
       <c r="BX102" s="2"/>
     </row>
     <row r="103" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9621,11 +9629,11 @@
       <c r="M103" s="42"/>
       <c r="N103" s="42"/>
       <c r="O103" s="42"/>
-      <c r="P103" s="70" t="s">
+      <c r="P103" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="Q103" s="70"/>
-      <c r="R103" s="70"/>
+      <c r="Q103" s="105"/>
+      <c r="R103" s="105"/>
       <c r="S103" s="42"/>
       <c r="T103" s="42"/>
       <c r="U103" s="42"/>
@@ -9656,11 +9664,11 @@
       <c r="AT103" s="42"/>
       <c r="AU103" s="42"/>
       <c r="AV103" s="42"/>
-      <c r="AW103" s="70" t="s">
+      <c r="AW103" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="AX103" s="70"/>
-      <c r="AY103" s="70"/>
+      <c r="AX103" s="105"/>
+      <c r="AY103" s="105"/>
       <c r="AZ103" s="42"/>
       <c r="BA103" s="42"/>
       <c r="BB103" s="42"/>
@@ -9675,16 +9683,16 @@
       <c r="BK103" s="17"/>
       <c r="BL103" s="25"/>
       <c r="BM103" s="2"/>
-      <c r="BN103" s="88"/>
-      <c r="BO103" s="89"/>
+      <c r="BN103" s="100"/>
+      <c r="BO103" s="101"/>
       <c r="BP103" s="18"/>
-      <c r="BQ103" s="86"/>
-      <c r="BR103" s="87"/>
+      <c r="BQ103" s="98"/>
+      <c r="BR103" s="99"/>
       <c r="BS103" s="3"/>
-      <c r="BT103" s="80"/>
-      <c r="BU103" s="71"/>
-      <c r="BV103" s="72"/>
-      <c r="BW103" s="73"/>
+      <c r="BT103" s="81"/>
+      <c r="BU103" s="83"/>
+      <c r="BV103" s="84"/>
+      <c r="BW103" s="85"/>
       <c r="BX103" s="2"/>
     </row>
     <row r="104" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9696,10 +9704,10 @@
       <c r="D104" s="15"/>
       <c r="E104" s="37"/>
       <c r="F104" s="41"/>
-      <c r="G104" s="83">
+      <c r="G104" s="79">
         <v>108</v>
       </c>
-      <c r="H104" s="83"/>
+      <c r="H104" s="79"/>
       <c r="I104" s="42"/>
       <c r="J104" s="42"/>
       <c r="K104" s="42"/>
@@ -9707,9 +9715,9 @@
       <c r="M104" s="42"/>
       <c r="N104" s="42"/>
       <c r="O104" s="42"/>
-      <c r="P104" s="70"/>
-      <c r="Q104" s="70"/>
-      <c r="R104" s="70"/>
+      <c r="P104" s="105"/>
+      <c r="Q104" s="105"/>
+      <c r="R104" s="105"/>
       <c r="S104" s="42"/>
       <c r="T104" s="42"/>
       <c r="U104" s="42"/>
@@ -9720,10 +9728,10 @@
       <c r="Z104" s="42"/>
       <c r="AA104" s="42"/>
       <c r="AB104" s="42"/>
-      <c r="AC104" s="83">
+      <c r="AC104" s="79">
         <v>109</v>
       </c>
-      <c r="AD104" s="83"/>
+      <c r="AD104" s="79"/>
       <c r="AE104" s="43"/>
       <c r="AF104" s="37"/>
       <c r="AG104" s="4"/>
@@ -9731,10 +9739,10 @@
       <c r="AI104" s="4"/>
       <c r="AJ104" s="37"/>
       <c r="AK104" s="41"/>
-      <c r="AL104" s="83">
+      <c r="AL104" s="79">
         <v>116</v>
       </c>
-      <c r="AM104" s="83"/>
+      <c r="AM104" s="79"/>
       <c r="AN104" s="42"/>
       <c r="AO104" s="42"/>
       <c r="AP104" s="42"/>
@@ -9744,9 +9752,9 @@
       <c r="AT104" s="42"/>
       <c r="AU104" s="42"/>
       <c r="AV104" s="42"/>
-      <c r="AW104" s="70"/>
-      <c r="AX104" s="70"/>
-      <c r="AY104" s="70"/>
+      <c r="AW104" s="105"/>
+      <c r="AX104" s="105"/>
+      <c r="AY104" s="105"/>
       <c r="AZ104" s="42"/>
       <c r="BA104" s="42"/>
       <c r="BB104" s="42"/>
@@ -9755,10 +9763,10 @@
       <c r="BE104" s="42"/>
       <c r="BF104" s="42"/>
       <c r="BG104" s="42"/>
-      <c r="BH104" s="83">
+      <c r="BH104" s="79">
         <v>117</v>
       </c>
-      <c r="BI104" s="83"/>
+      <c r="BI104" s="79"/>
       <c r="BJ104" s="43"/>
       <c r="BK104" s="37"/>
       <c r="BL104" s="25"/>
@@ -9766,13 +9774,13 @@
       <c r="BN104" s="31"/>
       <c r="BO104" s="31"/>
       <c r="BP104" s="18"/>
-      <c r="BQ104" s="86"/>
-      <c r="BR104" s="87"/>
+      <c r="BQ104" s="98"/>
+      <c r="BR104" s="99"/>
       <c r="BS104" s="3"/>
-      <c r="BT104" s="81"/>
-      <c r="BU104" s="77"/>
-      <c r="BV104" s="78"/>
-      <c r="BW104" s="79"/>
+      <c r="BT104" s="82"/>
+      <c r="BU104" s="86"/>
+      <c r="BV104" s="87"/>
+      <c r="BW104" s="88"/>
       <c r="BX104" s="2"/>
     </row>
     <row r="105" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9791,9 +9799,9 @@
       <c r="M105" s="42"/>
       <c r="N105" s="42"/>
       <c r="O105" s="42"/>
-      <c r="P105" s="70"/>
-      <c r="Q105" s="70"/>
-      <c r="R105" s="70"/>
+      <c r="P105" s="105"/>
+      <c r="Q105" s="105"/>
+      <c r="R105" s="105"/>
       <c r="S105" s="42"/>
       <c r="T105" s="42"/>
       <c r="U105" s="42"/>
@@ -9824,9 +9832,9 @@
       <c r="AT105" s="42"/>
       <c r="AU105" s="42"/>
       <c r="AV105" s="42"/>
-      <c r="AW105" s="70"/>
-      <c r="AX105" s="70"/>
-      <c r="AY105" s="70"/>
+      <c r="AW105" s="105"/>
+      <c r="AX105" s="105"/>
+      <c r="AY105" s="105"/>
       <c r="AZ105" s="42"/>
       <c r="BA105" s="42"/>
       <c r="BB105" s="42"/>
@@ -9841,18 +9849,18 @@
       <c r="BK105" s="3"/>
       <c r="BL105" s="25"/>
       <c r="BM105" s="2"/>
-      <c r="BN105" s="84">
+      <c r="BN105" s="96">
         <v>35</v>
       </c>
-      <c r="BO105" s="85"/>
+      <c r="BO105" s="97"/>
       <c r="BP105" s="18"/>
-      <c r="BQ105" s="86"/>
-      <c r="BR105" s="87"/>
+      <c r="BQ105" s="98"/>
+      <c r="BR105" s="99"/>
       <c r="BS105" s="3"/>
-      <c r="BT105" s="80"/>
-      <c r="BU105" s="71"/>
-      <c r="BV105" s="72"/>
-      <c r="BW105" s="73"/>
+      <c r="BT105" s="81"/>
+      <c r="BU105" s="83"/>
+      <c r="BV105" s="84"/>
+      <c r="BW105" s="85"/>
       <c r="BX105" s="2"/>
     </row>
     <row r="106" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9871,9 +9879,9 @@
       <c r="M106" s="42"/>
       <c r="N106" s="42"/>
       <c r="O106" s="42"/>
-      <c r="P106" s="70"/>
-      <c r="Q106" s="70"/>
-      <c r="R106" s="70"/>
+      <c r="P106" s="105"/>
+      <c r="Q106" s="105"/>
+      <c r="R106" s="105"/>
       <c r="S106" s="42"/>
       <c r="T106" s="42"/>
       <c r="U106" s="42"/>
@@ -9904,9 +9912,9 @@
       <c r="AT106" s="42"/>
       <c r="AU106" s="42"/>
       <c r="AV106" s="42"/>
-      <c r="AW106" s="70"/>
-      <c r="AX106" s="70"/>
-      <c r="AY106" s="70"/>
+      <c r="AW106" s="105"/>
+      <c r="AX106" s="105"/>
+      <c r="AY106" s="105"/>
       <c r="AZ106" s="42"/>
       <c r="BA106" s="42"/>
       <c r="BB106" s="42"/>
@@ -9921,16 +9929,16 @@
       <c r="BK106" s="3"/>
       <c r="BL106" s="25"/>
       <c r="BM106" s="2"/>
-      <c r="BN106" s="86"/>
-      <c r="BO106" s="87"/>
+      <c r="BN106" s="98"/>
+      <c r="BO106" s="99"/>
       <c r="BP106" s="18"/>
-      <c r="BQ106" s="86"/>
-      <c r="BR106" s="87"/>
+      <c r="BQ106" s="98"/>
+      <c r="BR106" s="99"/>
       <c r="BS106" s="3"/>
-      <c r="BT106" s="81"/>
-      <c r="BU106" s="77"/>
-      <c r="BV106" s="78"/>
-      <c r="BW106" s="79"/>
+      <c r="BT106" s="82"/>
+      <c r="BU106" s="86"/>
+      <c r="BV106" s="87"/>
+      <c r="BW106" s="88"/>
       <c r="BX106" s="2"/>
     </row>
     <row r="107" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9997,16 +10005,16 @@
       <c r="BK107" s="3"/>
       <c r="BL107" s="25"/>
       <c r="BM107" s="2"/>
-      <c r="BN107" s="86"/>
-      <c r="BO107" s="87"/>
+      <c r="BN107" s="98"/>
+      <c r="BO107" s="99"/>
       <c r="BP107" s="18"/>
-      <c r="BQ107" s="86"/>
-      <c r="BR107" s="87"/>
+      <c r="BQ107" s="98"/>
+      <c r="BR107" s="99"/>
       <c r="BS107" s="3"/>
-      <c r="BT107" s="80"/>
-      <c r="BU107" s="71"/>
-      <c r="BV107" s="72"/>
-      <c r="BW107" s="73"/>
+      <c r="BT107" s="81"/>
+      <c r="BU107" s="83"/>
+      <c r="BV107" s="84"/>
+      <c r="BW107" s="85"/>
       <c r="BX107" s="2"/>
     </row>
     <row r="108" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10018,10 +10026,10 @@
       </c>
       <c r="E108" s="37"/>
       <c r="F108" s="41"/>
-      <c r="G108" s="83">
+      <c r="G108" s="79">
         <v>110</v>
       </c>
-      <c r="H108" s="83"/>
+      <c r="H108" s="79"/>
       <c r="I108" s="42"/>
       <c r="J108" s="58"/>
       <c r="K108" s="58"/>
@@ -10038,27 +10046,27 @@
       <c r="X108" s="42"/>
       <c r="Y108" s="58"/>
       <c r="Z108" s="58"/>
-      <c r="AA108" s="83">
+      <c r="AA108" s="79">
         <v>111</v>
       </c>
-      <c r="AB108" s="83"/>
-      <c r="AC108" s="83">
+      <c r="AB108" s="79"/>
+      <c r="AC108" s="79">
         <v>112</v>
       </c>
-      <c r="AD108" s="83"/>
+      <c r="AD108" s="79"/>
       <c r="AE108" s="59"/>
       <c r="AF108" s="37"/>
       <c r="AH108" s="4"/>
       <c r="AJ108" s="37"/>
       <c r="AK108" s="41"/>
-      <c r="AL108" s="83">
+      <c r="AL108" s="79">
         <v>118</v>
       </c>
-      <c r="AM108" s="83"/>
-      <c r="AN108" s="83">
+      <c r="AM108" s="79"/>
+      <c r="AN108" s="79">
         <v>119</v>
       </c>
-      <c r="AO108" s="83"/>
+      <c r="AO108" s="79"/>
       <c r="AP108" s="58"/>
       <c r="AQ108" s="58"/>
       <c r="AT108" s="58"/>
@@ -10075,24 +10083,24 @@
       <c r="BE108" s="58"/>
       <c r="BF108" s="58"/>
       <c r="BG108" s="58"/>
-      <c r="BH108" s="83">
+      <c r="BH108" s="79">
         <v>120</v>
       </c>
-      <c r="BI108" s="83"/>
+      <c r="BI108" s="79"/>
       <c r="BJ108" s="59"/>
       <c r="BK108" s="37"/>
       <c r="BL108" s="25"/>
       <c r="BM108" s="2"/>
-      <c r="BN108" s="88"/>
-      <c r="BO108" s="89"/>
+      <c r="BN108" s="100"/>
+      <c r="BO108" s="101"/>
       <c r="BP108" s="18"/>
-      <c r="BQ108" s="88"/>
-      <c r="BR108" s="89"/>
+      <c r="BQ108" s="100"/>
+      <c r="BR108" s="101"/>
       <c r="BS108" s="3"/>
-      <c r="BT108" s="94"/>
-      <c r="BU108" s="74"/>
-      <c r="BV108" s="75"/>
-      <c r="BW108" s="76"/>
+      <c r="BT108" s="95"/>
+      <c r="BU108" s="89"/>
+      <c r="BV108" s="90"/>
+      <c r="BW108" s="91"/>
       <c r="BX108" s="2"/>
     </row>
     <row r="109" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10256,61 +10264,61 @@
       <c r="D111" s="38"/>
       <c r="E111" s="3"/>
       <c r="F111" s="65"/>
-      <c r="G111" s="82"/>
-      <c r="H111" s="82"/>
+      <c r="G111" s="78"/>
+      <c r="H111" s="78"/>
       <c r="I111" s="65"/>
       <c r="J111" s="65"/>
-      <c r="K111" s="82"/>
-      <c r="L111" s="82"/>
+      <c r="K111" s="78"/>
+      <c r="L111" s="78"/>
       <c r="M111" s="65"/>
       <c r="N111" s="65"/>
       <c r="O111" s="65"/>
-      <c r="P111" s="82"/>
-      <c r="Q111" s="82"/>
+      <c r="P111" s="78"/>
+      <c r="Q111" s="78"/>
       <c r="S111" s="65"/>
       <c r="T111" s="65"/>
-      <c r="U111" s="82"/>
-      <c r="V111" s="82"/>
+      <c r="U111" s="78"/>
+      <c r="V111" s="78"/>
       <c r="W111" s="65"/>
       <c r="X111" s="65"/>
       <c r="Y111" s="65"/>
-      <c r="Z111" s="82"/>
-      <c r="AA111" s="82"/>
+      <c r="Z111" s="78"/>
+      <c r="AA111" s="78"/>
       <c r="AB111" s="37"/>
       <c r="AC111" s="65"/>
       <c r="AD111" s="65"/>
-      <c r="AE111" s="82"/>
-      <c r="AF111" s="82"/>
+      <c r="AE111" s="78"/>
+      <c r="AF111" s="78"/>
       <c r="AG111" s="65"/>
       <c r="AH111" s="65"/>
       <c r="AI111" s="65"/>
       <c r="AJ111" s="3"/>
       <c r="AK111" s="65"/>
-      <c r="AL111" s="82"/>
-      <c r="AM111" s="82"/>
+      <c r="AL111" s="78"/>
+      <c r="AM111" s="78"/>
       <c r="AN111" s="37"/>
       <c r="AO111" s="65"/>
-      <c r="AP111" s="82"/>
-      <c r="AQ111" s="82"/>
+      <c r="AP111" s="78"/>
+      <c r="AQ111" s="78"/>
       <c r="AR111" s="65"/>
       <c r="AS111" s="65"/>
       <c r="AT111" s="65"/>
-      <c r="AU111" s="82"/>
-      <c r="AV111" s="82"/>
+      <c r="AU111" s="78"/>
+      <c r="AV111" s="78"/>
       <c r="AX111" s="65"/>
       <c r="AY111" s="65"/>
-      <c r="AZ111" s="82"/>
-      <c r="BA111" s="82"/>
+      <c r="AZ111" s="78"/>
+      <c r="BA111" s="78"/>
       <c r="BB111" s="65"/>
       <c r="BC111" s="65"/>
       <c r="BD111" s="65"/>
-      <c r="BE111" s="82"/>
-      <c r="BF111" s="82"/>
+      <c r="BE111" s="78"/>
+      <c r="BF111" s="78"/>
       <c r="BG111" s="65"/>
       <c r="BH111" s="65"/>
       <c r="BI111" s="65"/>
-      <c r="BJ111" s="82"/>
-      <c r="BK111" s="82"/>
+      <c r="BJ111" s="78"/>
+      <c r="BK111" s="78"/>
       <c r="BL111" s="25"/>
       <c r="BM111" s="2"/>
       <c r="BN111" s="69"/>
@@ -10397,12 +10405,12 @@
       <c r="BQ112" s="69"/>
       <c r="BR112" s="69"/>
       <c r="BS112" s="4"/>
-      <c r="BT112" s="95" t="s">
+      <c r="BT112" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="BU112" s="96"/>
-      <c r="BV112" s="96"/>
-      <c r="BW112" s="97"/>
+      <c r="BU112" s="93"/>
+      <c r="BV112" s="93"/>
+      <c r="BW112" s="94"/>
       <c r="BX112" s="2"/>
     </row>
     <row r="113" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10414,10 +10422,10 @@
       </c>
       <c r="E113" s="37"/>
       <c r="F113" s="41"/>
-      <c r="G113" s="83">
+      <c r="G113" s="79">
         <v>121</v>
       </c>
-      <c r="H113" s="83"/>
+      <c r="H113" s="79"/>
       <c r="I113" s="42"/>
       <c r="J113" s="58"/>
       <c r="K113" s="58"/>
@@ -10427,8 +10435,8 @@
       <c r="O113" s="58"/>
       <c r="P113" s="58"/>
       <c r="Q113" s="58"/>
-      <c r="R113" s="83"/>
-      <c r="S113" s="83"/>
+      <c r="R113" s="79"/>
+      <c r="S113" s="79"/>
       <c r="T113" s="58"/>
       <c r="U113" s="58"/>
       <c r="V113" s="58"/>
@@ -10436,28 +10444,28 @@
       <c r="X113" s="42"/>
       <c r="Y113" s="58"/>
       <c r="Z113" s="58"/>
-      <c r="AA113" s="83">
+      <c r="AA113" s="79">
         <v>122</v>
       </c>
-      <c r="AB113" s="83"/>
-      <c r="AC113" s="83">
+      <c r="AB113" s="79"/>
+      <c r="AC113" s="79">
         <v>123</v>
       </c>
-      <c r="AD113" s="83"/>
+      <c r="AD113" s="79"/>
       <c r="AE113" s="58"/>
       <c r="AF113" s="37"/>
-      <c r="AG113" s="106"/>
+      <c r="AG113" s="73"/>
       <c r="AH113" s="4"/>
       <c r="AJ113" s="37"/>
       <c r="AK113" s="41"/>
-      <c r="AL113" s="83">
+      <c r="AL113" s="79">
         <v>129</v>
       </c>
-      <c r="AM113" s="83"/>
-      <c r="AN113" s="83">
+      <c r="AM113" s="79"/>
+      <c r="AN113" s="79">
         <v>130</v>
       </c>
-      <c r="AO113" s="83"/>
+      <c r="AO113" s="79"/>
       <c r="AP113" s="58"/>
       <c r="AQ113" s="58"/>
       <c r="AR113" s="58"/>
@@ -10474,30 +10482,30 @@
       <c r="BE113" s="58"/>
       <c r="BF113" s="58"/>
       <c r="BG113" s="58"/>
-      <c r="BH113" s="83">
+      <c r="BH113" s="79">
         <v>131</v>
       </c>
-      <c r="BI113" s="83"/>
+      <c r="BI113" s="79"/>
       <c r="BJ113" s="58"/>
       <c r="BK113" s="37"/>
       <c r="BL113" s="25"/>
       <c r="BM113" s="2"/>
-      <c r="BN113" s="84">
+      <c r="BN113" s="96">
         <v>39</v>
       </c>
-      <c r="BO113" s="85"/>
+      <c r="BO113" s="97"/>
       <c r="BP113" s="18"/>
-      <c r="BQ113" s="84">
+      <c r="BQ113" s="96">
         <v>40</v>
       </c>
-      <c r="BR113" s="85"/>
+      <c r="BR113" s="97"/>
       <c r="BS113" s="4"/>
-      <c r="BT113" s="91" t="s">
+      <c r="BT113" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="BU113" s="92"/>
-      <c r="BV113" s="92"/>
-      <c r="BW113" s="93"/>
+      <c r="BU113" s="103"/>
+      <c r="BV113" s="103"/>
+      <c r="BW113" s="104"/>
       <c r="BX113" s="2"/>
     </row>
     <row r="114" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10532,7 +10540,7 @@
       <c r="AC114" s="42"/>
       <c r="AD114" s="58"/>
       <c r="AE114" s="58"/>
-      <c r="AF114" s="107"/>
+      <c r="AF114" s="74"/>
       <c r="AH114" s="4"/>
       <c r="AJ114" s="3"/>
       <c r="AK114" s="41"/>
@@ -10561,19 +10569,19 @@
       <c r="BH114" s="42"/>
       <c r="BI114" s="58"/>
       <c r="BJ114" s="58"/>
-      <c r="BK114" s="107"/>
+      <c r="BK114" s="74"/>
       <c r="BL114" s="25"/>
       <c r="BM114" s="2"/>
-      <c r="BN114" s="86"/>
-      <c r="BO114" s="87"/>
+      <c r="BN114" s="98"/>
+      <c r="BO114" s="99"/>
       <c r="BP114" s="18"/>
-      <c r="BQ114" s="86"/>
-      <c r="BR114" s="87"/>
+      <c r="BQ114" s="98"/>
+      <c r="BR114" s="99"/>
       <c r="BS114" s="4"/>
-      <c r="BT114" s="80"/>
-      <c r="BU114" s="71"/>
-      <c r="BV114" s="72"/>
-      <c r="BW114" s="73"/>
+      <c r="BT114" s="81"/>
+      <c r="BU114" s="83"/>
+      <c r="BV114" s="84"/>
+      <c r="BW114" s="85"/>
       <c r="BX114" s="2"/>
     </row>
     <row r="115" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10642,16 +10650,16 @@
       <c r="BK115" s="17"/>
       <c r="BL115" s="25"/>
       <c r="BM115" s="2"/>
-      <c r="BN115" s="86"/>
-      <c r="BO115" s="87"/>
+      <c r="BN115" s="98"/>
+      <c r="BO115" s="99"/>
       <c r="BP115" s="18"/>
-      <c r="BQ115" s="86"/>
-      <c r="BR115" s="87"/>
+      <c r="BQ115" s="98"/>
+      <c r="BR115" s="99"/>
       <c r="BS115" s="4"/>
-      <c r="BT115" s="81"/>
-      <c r="BU115" s="77"/>
-      <c r="BV115" s="78"/>
-      <c r="BW115" s="79"/>
+      <c r="BT115" s="82"/>
+      <c r="BU115" s="86"/>
+      <c r="BV115" s="87"/>
+      <c r="BW115" s="88"/>
       <c r="BX115" s="2"/>
     </row>
     <row r="116" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10670,11 +10678,11 @@
       <c r="M116" s="42"/>
       <c r="N116" s="42"/>
       <c r="O116" s="42"/>
-      <c r="P116" s="70" t="s">
+      <c r="P116" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="Q116" s="70"/>
-      <c r="R116" s="70"/>
+      <c r="Q116" s="105"/>
+      <c r="R116" s="105"/>
       <c r="S116" s="42"/>
       <c r="T116" s="42"/>
       <c r="U116" s="42"/>
@@ -10705,11 +10713,11 @@
       <c r="AT116" s="42"/>
       <c r="AU116" s="42"/>
       <c r="AV116" s="42"/>
-      <c r="AW116" s="70" t="s">
+      <c r="AW116" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="AX116" s="70"/>
-      <c r="AY116" s="70"/>
+      <c r="AX116" s="105"/>
+      <c r="AY116" s="105"/>
       <c r="AZ116" s="42"/>
       <c r="BA116" s="42"/>
       <c r="BB116" s="42"/>
@@ -10724,16 +10732,16 @@
       <c r="BK116" s="17"/>
       <c r="BL116" s="25"/>
       <c r="BM116" s="2"/>
-      <c r="BN116" s="88"/>
-      <c r="BO116" s="89"/>
+      <c r="BN116" s="100"/>
+      <c r="BO116" s="101"/>
       <c r="BP116" s="18"/>
-      <c r="BQ116" s="86"/>
-      <c r="BR116" s="87"/>
+      <c r="BQ116" s="98"/>
+      <c r="BR116" s="99"/>
       <c r="BS116" s="4"/>
-      <c r="BT116" s="80"/>
-      <c r="BU116" s="71"/>
-      <c r="BV116" s="72"/>
-      <c r="BW116" s="73"/>
+      <c r="BT116" s="81"/>
+      <c r="BU116" s="83"/>
+      <c r="BV116" s="84"/>
+      <c r="BW116" s="85"/>
       <c r="BX116" s="2"/>
     </row>
     <row r="117" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10745,10 +10753,10 @@
       <c r="D117" s="15"/>
       <c r="E117" s="37"/>
       <c r="F117" s="41"/>
-      <c r="G117" s="83">
+      <c r="G117" s="79">
         <v>124</v>
       </c>
-      <c r="H117" s="83"/>
+      <c r="H117" s="79"/>
       <c r="I117" s="42"/>
       <c r="J117" s="42"/>
       <c r="K117" s="42"/>
@@ -10756,9 +10764,9 @@
       <c r="M117" s="42"/>
       <c r="N117" s="42"/>
       <c r="O117" s="42"/>
-      <c r="P117" s="70"/>
-      <c r="Q117" s="70"/>
-      <c r="R117" s="70"/>
+      <c r="P117" s="105"/>
+      <c r="Q117" s="105"/>
+      <c r="R117" s="105"/>
       <c r="S117" s="42"/>
       <c r="T117" s="42"/>
       <c r="U117" s="42"/>
@@ -10769,10 +10777,10 @@
       <c r="Z117" s="42"/>
       <c r="AA117" s="42"/>
       <c r="AB117" s="42"/>
-      <c r="AC117" s="83">
+      <c r="AC117" s="79">
         <v>125</v>
       </c>
-      <c r="AD117" s="83"/>
+      <c r="AD117" s="79"/>
       <c r="AE117" s="43"/>
       <c r="AF117" s="37"/>
       <c r="AG117" s="4"/>
@@ -10780,10 +10788,10 @@
       <c r="AI117" s="4"/>
       <c r="AJ117" s="37"/>
       <c r="AK117" s="41"/>
-      <c r="AL117" s="83">
+      <c r="AL117" s="79">
         <v>132</v>
       </c>
-      <c r="AM117" s="83"/>
+      <c r="AM117" s="79"/>
       <c r="AN117" s="42"/>
       <c r="AO117" s="42"/>
       <c r="AP117" s="42"/>
@@ -10793,9 +10801,9 @@
       <c r="AT117" s="42"/>
       <c r="AU117" s="42"/>
       <c r="AV117" s="42"/>
-      <c r="AW117" s="70"/>
-      <c r="AX117" s="70"/>
-      <c r="AY117" s="70"/>
+      <c r="AW117" s="105"/>
+      <c r="AX117" s="105"/>
+      <c r="AY117" s="105"/>
       <c r="AZ117" s="42"/>
       <c r="BA117" s="42"/>
       <c r="BB117" s="42"/>
@@ -10804,10 +10812,10 @@
       <c r="BE117" s="42"/>
       <c r="BF117" s="42"/>
       <c r="BG117" s="42"/>
-      <c r="BH117" s="83">
+      <c r="BH117" s="79">
         <v>133</v>
       </c>
-      <c r="BI117" s="83"/>
+      <c r="BI117" s="79"/>
       <c r="BJ117" s="43"/>
       <c r="BK117" s="37"/>
       <c r="BL117" s="25"/>
@@ -10815,13 +10823,13 @@
       <c r="BN117" s="31"/>
       <c r="BO117" s="31"/>
       <c r="BP117" s="18"/>
-      <c r="BQ117" s="86"/>
-      <c r="BR117" s="87"/>
+      <c r="BQ117" s="98"/>
+      <c r="BR117" s="99"/>
       <c r="BS117" s="4"/>
-      <c r="BT117" s="81"/>
-      <c r="BU117" s="77"/>
-      <c r="BV117" s="78"/>
-      <c r="BW117" s="79"/>
+      <c r="BT117" s="82"/>
+      <c r="BU117" s="86"/>
+      <c r="BV117" s="87"/>
+      <c r="BW117" s="88"/>
       <c r="BX117" s="2"/>
     </row>
     <row r="118" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10840,9 +10848,9 @@
       <c r="M118" s="42"/>
       <c r="N118" s="42"/>
       <c r="O118" s="42"/>
-      <c r="P118" s="70"/>
-      <c r="Q118" s="70"/>
-      <c r="R118" s="70"/>
+      <c r="P118" s="105"/>
+      <c r="Q118" s="105"/>
+      <c r="R118" s="105"/>
       <c r="S118" s="42"/>
       <c r="T118" s="42"/>
       <c r="U118" s="42"/>
@@ -10873,9 +10881,9 @@
       <c r="AT118" s="42"/>
       <c r="AU118" s="42"/>
       <c r="AV118" s="42"/>
-      <c r="AW118" s="70"/>
-      <c r="AX118" s="70"/>
-      <c r="AY118" s="70"/>
+      <c r="AW118" s="105"/>
+      <c r="AX118" s="105"/>
+      <c r="AY118" s="105"/>
       <c r="AZ118" s="42"/>
       <c r="BA118" s="42"/>
       <c r="BB118" s="42"/>
@@ -10890,18 +10898,18 @@
       <c r="BK118" s="3"/>
       <c r="BL118" s="25"/>
       <c r="BM118" s="2"/>
-      <c r="BN118" s="84">
+      <c r="BN118" s="96">
         <v>41</v>
       </c>
-      <c r="BO118" s="85"/>
+      <c r="BO118" s="97"/>
       <c r="BP118" s="18"/>
-      <c r="BQ118" s="86"/>
-      <c r="BR118" s="87"/>
+      <c r="BQ118" s="98"/>
+      <c r="BR118" s="99"/>
       <c r="BS118" s="4"/>
-      <c r="BT118" s="80"/>
-      <c r="BU118" s="71"/>
-      <c r="BV118" s="72"/>
-      <c r="BW118" s="73"/>
+      <c r="BT118" s="81"/>
+      <c r="BU118" s="83"/>
+      <c r="BV118" s="84"/>
+      <c r="BW118" s="85"/>
       <c r="BX118" s="2"/>
     </row>
     <row r="119" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10920,9 +10928,9 @@
       <c r="M119" s="42"/>
       <c r="N119" s="42"/>
       <c r="O119" s="42"/>
-      <c r="P119" s="70"/>
-      <c r="Q119" s="70"/>
-      <c r="R119" s="70"/>
+      <c r="P119" s="105"/>
+      <c r="Q119" s="105"/>
+      <c r="R119" s="105"/>
       <c r="S119" s="42"/>
       <c r="T119" s="42"/>
       <c r="U119" s="42"/>
@@ -10953,9 +10961,9 @@
       <c r="AT119" s="42"/>
       <c r="AU119" s="42"/>
       <c r="AV119" s="42"/>
-      <c r="AW119" s="70"/>
-      <c r="AX119" s="70"/>
-      <c r="AY119" s="70"/>
+      <c r="AW119" s="105"/>
+      <c r="AX119" s="105"/>
+      <c r="AY119" s="105"/>
       <c r="AZ119" s="42"/>
       <c r="BA119" s="42"/>
       <c r="BB119" s="42"/>
@@ -10970,16 +10978,16 @@
       <c r="BK119" s="3"/>
       <c r="BL119" s="25"/>
       <c r="BM119" s="2"/>
-      <c r="BN119" s="86"/>
-      <c r="BO119" s="87"/>
+      <c r="BN119" s="98"/>
+      <c r="BO119" s="99"/>
       <c r="BP119" s="18"/>
-      <c r="BQ119" s="86"/>
-      <c r="BR119" s="87"/>
+      <c r="BQ119" s="98"/>
+      <c r="BR119" s="99"/>
       <c r="BS119" s="4"/>
-      <c r="BT119" s="81"/>
-      <c r="BU119" s="77"/>
-      <c r="BV119" s="78"/>
-      <c r="BW119" s="79"/>
+      <c r="BT119" s="82"/>
+      <c r="BU119" s="86"/>
+      <c r="BV119" s="87"/>
+      <c r="BW119" s="88"/>
       <c r="BX119" s="2"/>
     </row>
     <row r="120" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11046,16 +11054,16 @@
       <c r="BK120" s="3"/>
       <c r="BL120" s="25"/>
       <c r="BM120" s="2"/>
-      <c r="BN120" s="86"/>
-      <c r="BO120" s="87"/>
+      <c r="BN120" s="98"/>
+      <c r="BO120" s="99"/>
       <c r="BP120" s="18"/>
-      <c r="BQ120" s="86"/>
-      <c r="BR120" s="87"/>
+      <c r="BQ120" s="98"/>
+      <c r="BR120" s="99"/>
       <c r="BS120" s="4"/>
-      <c r="BT120" s="80"/>
-      <c r="BU120" s="71"/>
-      <c r="BV120" s="72"/>
-      <c r="BW120" s="73"/>
+      <c r="BT120" s="81"/>
+      <c r="BU120" s="83"/>
+      <c r="BV120" s="84"/>
+      <c r="BW120" s="85"/>
       <c r="BX120" s="2"/>
     </row>
     <row r="121" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11067,10 +11075,10 @@
       </c>
       <c r="E121" s="37"/>
       <c r="F121" s="41"/>
-      <c r="G121" s="83">
+      <c r="G121" s="79">
         <v>126</v>
       </c>
-      <c r="H121" s="83"/>
+      <c r="H121" s="79"/>
       <c r="I121" s="42"/>
       <c r="J121" s="58"/>
       <c r="K121" s="58"/>
@@ -11087,27 +11095,27 @@
       <c r="X121" s="42"/>
       <c r="Y121" s="58"/>
       <c r="Z121" s="58"/>
-      <c r="AA121" s="83">
+      <c r="AA121" s="79">
         <v>127</v>
       </c>
-      <c r="AB121" s="83"/>
-      <c r="AC121" s="83">
+      <c r="AB121" s="79"/>
+      <c r="AC121" s="79">
         <v>128</v>
       </c>
-      <c r="AD121" s="83"/>
+      <c r="AD121" s="79"/>
       <c r="AE121" s="59"/>
       <c r="AF121" s="37"/>
       <c r="AH121" s="4"/>
       <c r="AJ121" s="37"/>
       <c r="AK121" s="41"/>
-      <c r="AL121" s="83">
+      <c r="AL121" s="79">
         <v>134</v>
       </c>
-      <c r="AM121" s="83"/>
-      <c r="AN121" s="83">
+      <c r="AM121" s="79"/>
+      <c r="AN121" s="79">
         <v>135</v>
       </c>
-      <c r="AO121" s="83"/>
+      <c r="AO121" s="79"/>
       <c r="AP121" s="58"/>
       <c r="AQ121" s="58"/>
       <c r="AT121" s="58"/>
@@ -11124,24 +11132,24 @@
       <c r="BE121" s="58"/>
       <c r="BF121" s="58"/>
       <c r="BG121" s="58"/>
-      <c r="BH121" s="83">
+      <c r="BH121" s="79">
         <v>136</v>
       </c>
-      <c r="BI121" s="83"/>
+      <c r="BI121" s="79"/>
       <c r="BJ121" s="59"/>
       <c r="BK121" s="37"/>
       <c r="BL121" s="25"/>
       <c r="BM121" s="2"/>
-      <c r="BN121" s="88"/>
-      <c r="BO121" s="89"/>
+      <c r="BN121" s="100"/>
+      <c r="BO121" s="101"/>
       <c r="BP121" s="18"/>
-      <c r="BQ121" s="88"/>
-      <c r="BR121" s="89"/>
+      <c r="BQ121" s="100"/>
+      <c r="BR121" s="101"/>
       <c r="BS121" s="4"/>
-      <c r="BT121" s="94"/>
-      <c r="BU121" s="74"/>
-      <c r="BV121" s="75"/>
-      <c r="BW121" s="76"/>
+      <c r="BT121" s="95"/>
+      <c r="BU121" s="89"/>
+      <c r="BV121" s="90"/>
+      <c r="BW121" s="91"/>
       <c r="BX121" s="2"/>
     </row>
     <row r="122" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11370,10 +11378,10 @@
       <c r="BQ124" s="3"/>
       <c r="BR124" s="3"/>
       <c r="BS124" s="4"/>
-      <c r="BT124" s="108"/>
-      <c r="BU124" s="101"/>
-      <c r="BV124" s="101"/>
-      <c r="BW124" s="101"/>
+      <c r="BT124" s="75"/>
+      <c r="BU124" s="80"/>
+      <c r="BV124" s="80"/>
+      <c r="BW124" s="80"/>
       <c r="BX124" s="2"/>
     </row>
     <row r="125" spans="1:76" s="14" customFormat="1" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -11518,20 +11526,20 @@
       <c r="BJ126" s="47"/>
       <c r="BK126" s="28"/>
       <c r="BL126" s="6"/>
-      <c r="BM126" s="99" t="s">
+      <c r="BM126" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="BN126" s="99"/>
-      <c r="BO126" s="99"/>
-      <c r="BP126" s="99"/>
-      <c r="BQ126" s="99"/>
-      <c r="BR126" s="99"/>
-      <c r="BS126" s="99"/>
-      <c r="BT126" s="99"/>
-      <c r="BV126" s="98" t="s">
+      <c r="BN126" s="106"/>
+      <c r="BO126" s="106"/>
+      <c r="BP126" s="106"/>
+      <c r="BQ126" s="106"/>
+      <c r="BR126" s="106"/>
+      <c r="BS126" s="106"/>
+      <c r="BT126" s="106"/>
+      <c r="BV126" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="BW126" s="98"/>
+      <c r="BW126" s="107"/>
     </row>
     <row r="127" spans="1:76" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
@@ -11673,16 +11681,16 @@
       <c r="BJ128" s="47"/>
       <c r="BK128" s="28"/>
       <c r="BL128" s="6"/>
-      <c r="BM128" s="109"/>
-      <c r="BN128" s="109"/>
-      <c r="BO128" s="109"/>
-      <c r="BP128" s="109"/>
-      <c r="BQ128" s="109"/>
-      <c r="BR128" s="109"/>
-      <c r="BS128" s="109"/>
-      <c r="BT128" s="109"/>
-      <c r="BV128" s="110"/>
-      <c r="BW128" s="110"/>
+      <c r="BM128" s="111"/>
+      <c r="BN128" s="111"/>
+      <c r="BO128" s="111"/>
+      <c r="BP128" s="111"/>
+      <c r="BQ128" s="111"/>
+      <c r="BR128" s="111"/>
+      <c r="BS128" s="111"/>
+      <c r="BT128" s="111"/>
+      <c r="BV128" s="112"/>
+      <c r="BW128" s="112"/>
     </row>
     <row r="129" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
@@ -11749,16 +11757,16 @@
       <c r="BJ129" s="2"/>
       <c r="BK129" s="5"/>
       <c r="BL129" s="6"/>
-      <c r="BM129" s="109"/>
-      <c r="BN129" s="109"/>
-      <c r="BO129" s="109"/>
-      <c r="BP129" s="109"/>
-      <c r="BQ129" s="109"/>
-      <c r="BR129" s="109"/>
-      <c r="BS129" s="109"/>
-      <c r="BT129" s="109"/>
-      <c r="BV129" s="110"/>
-      <c r="BW129" s="110"/>
+      <c r="BM129" s="111"/>
+      <c r="BN129" s="111"/>
+      <c r="BO129" s="111"/>
+      <c r="BP129" s="111"/>
+      <c r="BQ129" s="111"/>
+      <c r="BR129" s="111"/>
+      <c r="BS129" s="111"/>
+      <c r="BT129" s="111"/>
+      <c r="BV129" s="112"/>
+      <c r="BW129" s="112"/>
     </row>
     <row r="130" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
@@ -12175,8 +12183,8 @@
       <c r="BN135" s="54"/>
     </row>
     <row r="136" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A136" s="111"/>
-      <c r="B136" s="112"/>
+      <c r="A136" s="76"/>
+      <c r="B136" s="77"/>
       <c r="C136" s="52"/>
       <c r="D136" s="52"/>
       <c r="E136" s="52"/>
@@ -12243,7 +12251,7 @@
       <c r="BN136" s="54"/>
     </row>
     <row r="137" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="B137" s="112"/>
+      <c r="B137" s="77"/>
       <c r="C137" s="52"/>
       <c r="D137" s="52"/>
       <c r="E137" s="52"/>
@@ -12312,71 +12320,275 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="389">
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="BJ20:BK20"/>
-    <mergeCell ref="BH26:BI26"/>
-    <mergeCell ref="AZ20:BA20"/>
-    <mergeCell ref="BE20:BF20"/>
-    <mergeCell ref="BT1:BV2"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AL20:AM20"/>
-    <mergeCell ref="AL33:AM33"/>
-    <mergeCell ref="AL26:AM26"/>
-    <mergeCell ref="BH69:BI69"/>
-    <mergeCell ref="BJ33:BK33"/>
-    <mergeCell ref="BH30:BI30"/>
-    <mergeCell ref="AP20:AQ20"/>
-    <mergeCell ref="AU20:AV20"/>
-    <mergeCell ref="BT77:BT78"/>
-    <mergeCell ref="BU77:BW78"/>
-    <mergeCell ref="BU81:BW82"/>
-    <mergeCell ref="BJ46:BK46"/>
-    <mergeCell ref="AL59:AM59"/>
-    <mergeCell ref="AP59:AQ59"/>
-    <mergeCell ref="AU59:AV59"/>
-    <mergeCell ref="AU33:AV33"/>
-    <mergeCell ref="AZ33:BA33"/>
-    <mergeCell ref="AP33:AQ33"/>
-    <mergeCell ref="BH52:BI52"/>
-    <mergeCell ref="BH56:BI56"/>
-    <mergeCell ref="AL72:AM72"/>
-    <mergeCell ref="AP72:AQ72"/>
-    <mergeCell ref="AL46:AM46"/>
-    <mergeCell ref="AP46:AQ46"/>
-    <mergeCell ref="AU46:AV46"/>
-    <mergeCell ref="AN22:AO22"/>
-    <mergeCell ref="BH22:BI22"/>
-    <mergeCell ref="BT73:BW73"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AN30:AO30"/>
-    <mergeCell ref="BT68:BT69"/>
-    <mergeCell ref="BT81:BT82"/>
-    <mergeCell ref="BN74:BO77"/>
-    <mergeCell ref="BQ74:BR82"/>
-    <mergeCell ref="BN79:BO82"/>
-    <mergeCell ref="BT74:BW74"/>
-    <mergeCell ref="BT75:BT76"/>
-    <mergeCell ref="BU75:BW76"/>
-    <mergeCell ref="AZ59:BA59"/>
-    <mergeCell ref="BJ59:BK59"/>
-    <mergeCell ref="BH48:BI48"/>
-    <mergeCell ref="BU68:BW69"/>
-    <mergeCell ref="BT79:BT80"/>
-    <mergeCell ref="BU79:BW80"/>
-    <mergeCell ref="BT64:BT65"/>
-    <mergeCell ref="BU64:BW65"/>
-    <mergeCell ref="BT66:BT67"/>
-    <mergeCell ref="BT51:BT52"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="AA30:AB30"/>
-    <mergeCell ref="AC30:AD30"/>
-    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="P51:R54"/>
+    <mergeCell ref="AL113:AM113"/>
+    <mergeCell ref="AW116:AY119"/>
+    <mergeCell ref="BU120:BW121"/>
+    <mergeCell ref="BU114:BW115"/>
+    <mergeCell ref="BT116:BT117"/>
+    <mergeCell ref="BU116:BW117"/>
+    <mergeCell ref="BT118:BT119"/>
+    <mergeCell ref="BU118:BW119"/>
+    <mergeCell ref="AA113:AB113"/>
+    <mergeCell ref="BE111:BF111"/>
+    <mergeCell ref="BJ111:BK111"/>
+    <mergeCell ref="Z111:AA111"/>
+    <mergeCell ref="AE111:AF111"/>
+    <mergeCell ref="AL111:AM111"/>
+    <mergeCell ref="AP111:AQ111"/>
+    <mergeCell ref="AN108:AO108"/>
+    <mergeCell ref="BH108:BI108"/>
+    <mergeCell ref="AW51:AY54"/>
+    <mergeCell ref="AW64:AY67"/>
+    <mergeCell ref="BE85:BF85"/>
+    <mergeCell ref="Z59:AA59"/>
+    <mergeCell ref="AZ72:BA72"/>
+    <mergeCell ref="BJ72:BK72"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="AA121:AB121"/>
+    <mergeCell ref="AC121:AD121"/>
+    <mergeCell ref="BH121:BI121"/>
+    <mergeCell ref="AF11:AH14"/>
+    <mergeCell ref="P25:R28"/>
+    <mergeCell ref="AW25:AY28"/>
+    <mergeCell ref="P38:R41"/>
+    <mergeCell ref="S38:U41"/>
+    <mergeCell ref="AW38:AY41"/>
+    <mergeCell ref="AL121:AM121"/>
+    <mergeCell ref="AN121:AO121"/>
+    <mergeCell ref="AC113:AD113"/>
+    <mergeCell ref="AU111:AV111"/>
+    <mergeCell ref="AZ111:BA111"/>
+    <mergeCell ref="AN113:AO113"/>
+    <mergeCell ref="BH113:BI113"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="AC117:AD117"/>
+    <mergeCell ref="AL117:AM117"/>
+    <mergeCell ref="BH117:BI117"/>
+    <mergeCell ref="P116:R119"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="R113:S113"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="K111:L111"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="U111:V111"/>
+    <mergeCell ref="AA100:AB100"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="U98:V98"/>
+    <mergeCell ref="Z98:AA98"/>
+    <mergeCell ref="AA108:AB108"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AA35:AB35"/>
+    <mergeCell ref="AN35:AO35"/>
+    <mergeCell ref="AL108:AM108"/>
+    <mergeCell ref="Z85:AA85"/>
+    <mergeCell ref="AE85:AF85"/>
+    <mergeCell ref="AA95:AB95"/>
+    <mergeCell ref="AH3:AI4"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="X3:Y4"/>
+    <mergeCell ref="AC3:AD4"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="AN43:AO43"/>
+    <mergeCell ref="AN48:AO48"/>
+    <mergeCell ref="AN56:AO56"/>
+    <mergeCell ref="AN61:AO61"/>
+    <mergeCell ref="AN69:AO69"/>
+    <mergeCell ref="AN74:AO74"/>
+    <mergeCell ref="U46:V46"/>
+    <mergeCell ref="Z46:AA46"/>
+    <mergeCell ref="AA48:AB48"/>
+    <mergeCell ref="AA56:AB56"/>
+    <mergeCell ref="AE98:AF98"/>
+    <mergeCell ref="AA69:AB69"/>
+    <mergeCell ref="AA74:AB74"/>
+    <mergeCell ref="AA82:AB82"/>
+    <mergeCell ref="AA61:AB61"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="U85:V85"/>
+    <mergeCell ref="P77:R80"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="AA87:AB87"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="R87:S87"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="U59:V59"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="AC82:AD82"/>
+    <mergeCell ref="BN48:BO51"/>
+    <mergeCell ref="BQ48:BR56"/>
+    <mergeCell ref="BN53:BO56"/>
+    <mergeCell ref="BN92:BO95"/>
+    <mergeCell ref="BQ87:BR95"/>
+    <mergeCell ref="AC87:AD87"/>
+    <mergeCell ref="AC91:AD91"/>
+    <mergeCell ref="AL82:AM82"/>
+    <mergeCell ref="AE59:AF59"/>
+    <mergeCell ref="BE59:BF59"/>
+    <mergeCell ref="AC78:AD78"/>
+    <mergeCell ref="AL65:AM65"/>
+    <mergeCell ref="AL91:AM91"/>
+    <mergeCell ref="BH91:BI91"/>
+    <mergeCell ref="AL78:AM78"/>
+    <mergeCell ref="BH78:BI78"/>
+    <mergeCell ref="BN9:BO12"/>
+    <mergeCell ref="BQ9:BR17"/>
+    <mergeCell ref="BN14:BO17"/>
+    <mergeCell ref="AZ3:BA4"/>
+    <mergeCell ref="BH13:BI13"/>
+    <mergeCell ref="BH17:BI17"/>
+    <mergeCell ref="BH9:BI9"/>
+    <mergeCell ref="BP1:BQ4"/>
+    <mergeCell ref="BJ7:BK7"/>
+    <mergeCell ref="BN87:BO90"/>
+    <mergeCell ref="BN22:BO25"/>
+    <mergeCell ref="BQ22:BR30"/>
+    <mergeCell ref="BN27:BO30"/>
+    <mergeCell ref="BN35:BO38"/>
+    <mergeCell ref="BN40:BO43"/>
+    <mergeCell ref="BQ35:BR43"/>
+    <mergeCell ref="BN61:BO64"/>
+    <mergeCell ref="BQ61:BR69"/>
+    <mergeCell ref="BN66:BO69"/>
+    <mergeCell ref="AL85:AM85"/>
+    <mergeCell ref="BM1:BN4"/>
+    <mergeCell ref="BS1:BS2"/>
+    <mergeCell ref="BE33:BF33"/>
+    <mergeCell ref="BE46:BF46"/>
+    <mergeCell ref="BE98:BF98"/>
+    <mergeCell ref="AN82:AO82"/>
+    <mergeCell ref="AN87:AO87"/>
+    <mergeCell ref="AW90:AY93"/>
+    <mergeCell ref="AW77:AY80"/>
+    <mergeCell ref="AU72:AV72"/>
+    <mergeCell ref="BH82:BI82"/>
+    <mergeCell ref="AP85:AQ85"/>
+    <mergeCell ref="AU85:AV85"/>
+    <mergeCell ref="AZ85:BA85"/>
+    <mergeCell ref="BH87:BI87"/>
+    <mergeCell ref="BJ85:BK85"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="AC104:AD104"/>
+    <mergeCell ref="BH100:BI100"/>
+    <mergeCell ref="AL104:AM104"/>
+    <mergeCell ref="BH104:BI104"/>
+    <mergeCell ref="AN100:AO100"/>
+    <mergeCell ref="BT9:BW9"/>
+    <mergeCell ref="BT10:BT11"/>
+    <mergeCell ref="BU10:BW11"/>
+    <mergeCell ref="BT16:BT17"/>
+    <mergeCell ref="BT48:BW48"/>
+    <mergeCell ref="BT49:BT50"/>
+    <mergeCell ref="BU49:BW50"/>
+    <mergeCell ref="BT88:BT89"/>
+    <mergeCell ref="BU88:BW89"/>
+    <mergeCell ref="BT90:BT91"/>
+    <mergeCell ref="BU90:BW91"/>
+    <mergeCell ref="BT55:BT56"/>
+    <mergeCell ref="BU55:BW56"/>
+    <mergeCell ref="BT86:BW86"/>
+    <mergeCell ref="BT87:BW87"/>
+    <mergeCell ref="BT61:BW61"/>
+    <mergeCell ref="BT62:BT63"/>
+    <mergeCell ref="AL87:AM87"/>
+    <mergeCell ref="AL100:AM100"/>
+    <mergeCell ref="P90:R93"/>
+    <mergeCell ref="P103:R106"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="R100:S100"/>
+    <mergeCell ref="BT22:BW22"/>
+    <mergeCell ref="BT23:BT24"/>
+    <mergeCell ref="BU23:BW24"/>
+    <mergeCell ref="BT35:BW35"/>
+    <mergeCell ref="BT40:BT41"/>
+    <mergeCell ref="BU40:BW41"/>
+    <mergeCell ref="BT42:BT43"/>
+    <mergeCell ref="BU42:BW43"/>
+    <mergeCell ref="BT36:BT37"/>
+    <mergeCell ref="BU36:BW37"/>
+    <mergeCell ref="BT38:BT39"/>
+    <mergeCell ref="BU38:BW39"/>
+    <mergeCell ref="BU51:BW52"/>
+    <mergeCell ref="BT53:BT54"/>
+    <mergeCell ref="BU53:BW54"/>
+    <mergeCell ref="BT60:BW60"/>
+    <mergeCell ref="BU62:BW63"/>
+    <mergeCell ref="BT47:BW47"/>
+    <mergeCell ref="AC100:AD100"/>
+    <mergeCell ref="BT92:BT93"/>
+    <mergeCell ref="BU92:BW93"/>
+    <mergeCell ref="BT94:BT95"/>
+    <mergeCell ref="BU94:BW95"/>
+    <mergeCell ref="BV126:BW126"/>
+    <mergeCell ref="BM128:BT129"/>
+    <mergeCell ref="BV128:BW129"/>
+    <mergeCell ref="BU124:BW124"/>
+    <mergeCell ref="BU107:BW108"/>
+    <mergeCell ref="BT103:BT104"/>
+    <mergeCell ref="BU103:BW104"/>
+    <mergeCell ref="BT105:BT106"/>
+    <mergeCell ref="BU105:BW106"/>
+    <mergeCell ref="BT120:BT121"/>
+    <mergeCell ref="BN100:BO103"/>
+    <mergeCell ref="BQ100:BR108"/>
+    <mergeCell ref="BN105:BO108"/>
+    <mergeCell ref="AW103:AY106"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="AC95:AD95"/>
+    <mergeCell ref="BM126:BT126"/>
+    <mergeCell ref="BT107:BT108"/>
+    <mergeCell ref="BT112:BW112"/>
+    <mergeCell ref="BT113:BW113"/>
+    <mergeCell ref="BT114:BT115"/>
+    <mergeCell ref="BT99:BW99"/>
+    <mergeCell ref="BT100:BW100"/>
+    <mergeCell ref="BH95:BI95"/>
+    <mergeCell ref="AN95:AO95"/>
+    <mergeCell ref="BN113:BO116"/>
+    <mergeCell ref="AL95:AM95"/>
+    <mergeCell ref="BQ113:BR121"/>
+    <mergeCell ref="BN118:BO121"/>
+    <mergeCell ref="BJ98:BK98"/>
+    <mergeCell ref="AL98:AM98"/>
+    <mergeCell ref="AP98:AQ98"/>
+    <mergeCell ref="AU98:AV98"/>
+    <mergeCell ref="AZ98:BA98"/>
+    <mergeCell ref="BT101:BT102"/>
+    <mergeCell ref="BU101:BW102"/>
+    <mergeCell ref="AC108:AD108"/>
+    <mergeCell ref="P64:R67"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="R74:S74"/>
+    <mergeCell ref="AC74:AD74"/>
+    <mergeCell ref="BH74:BI74"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="AC65:AD65"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="AC69:AD69"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="U72:V72"/>
+    <mergeCell ref="Z72:AA72"/>
+    <mergeCell ref="AE72:AF72"/>
+    <mergeCell ref="BE72:BF72"/>
+    <mergeCell ref="AL69:AM69"/>
+    <mergeCell ref="AL74:AM74"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="AL30:AM30"/>
     <mergeCell ref="AL22:AM22"/>
@@ -12401,6 +12613,18 @@
     <mergeCell ref="AL52:AM52"/>
     <mergeCell ref="AL56:AM56"/>
     <mergeCell ref="AL43:AM43"/>
+    <mergeCell ref="BT79:BT80"/>
+    <mergeCell ref="BU79:BW80"/>
+    <mergeCell ref="BT64:BT65"/>
+    <mergeCell ref="BU64:BW65"/>
+    <mergeCell ref="BT66:BT67"/>
+    <mergeCell ref="BT51:BT52"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="AA30:AB30"/>
+    <mergeCell ref="AC30:AD30"/>
+    <mergeCell ref="G39:H39"/>
     <mergeCell ref="AA43:AB43"/>
     <mergeCell ref="BH35:BI35"/>
     <mergeCell ref="BH43:BI43"/>
@@ -12413,294 +12637,78 @@
     <mergeCell ref="R61:S61"/>
     <mergeCell ref="AC61:AD61"/>
     <mergeCell ref="AL61:AM61"/>
-    <mergeCell ref="P64:R67"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="R74:S74"/>
-    <mergeCell ref="AC74:AD74"/>
-    <mergeCell ref="BH74:BI74"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="AC65:AD65"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="AC69:AD69"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="U72:V72"/>
-    <mergeCell ref="Z72:AA72"/>
-    <mergeCell ref="AE72:AF72"/>
-    <mergeCell ref="BE72:BF72"/>
-    <mergeCell ref="AL69:AM69"/>
-    <mergeCell ref="AW103:AY106"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="AC95:AD95"/>
-    <mergeCell ref="BM126:BT126"/>
-    <mergeCell ref="BT107:BT108"/>
-    <mergeCell ref="BT112:BW112"/>
-    <mergeCell ref="BT113:BW113"/>
-    <mergeCell ref="BT114:BT115"/>
-    <mergeCell ref="BT99:BW99"/>
-    <mergeCell ref="BT100:BW100"/>
-    <mergeCell ref="BH95:BI95"/>
-    <mergeCell ref="AN95:AO95"/>
-    <mergeCell ref="BN113:BO116"/>
-    <mergeCell ref="AL95:AM95"/>
-    <mergeCell ref="BQ113:BR121"/>
-    <mergeCell ref="BN118:BO121"/>
-    <mergeCell ref="BJ98:BK98"/>
-    <mergeCell ref="AL98:AM98"/>
-    <mergeCell ref="AP98:AQ98"/>
-    <mergeCell ref="AU98:AV98"/>
-    <mergeCell ref="AZ98:BA98"/>
-    <mergeCell ref="BT101:BT102"/>
-    <mergeCell ref="BU101:BW102"/>
-    <mergeCell ref="BT92:BT93"/>
-    <mergeCell ref="BU92:BW93"/>
-    <mergeCell ref="BT94:BT95"/>
-    <mergeCell ref="BU94:BW95"/>
-    <mergeCell ref="BV126:BW126"/>
-    <mergeCell ref="BM128:BT129"/>
-    <mergeCell ref="BV128:BW129"/>
-    <mergeCell ref="BU124:BW124"/>
-    <mergeCell ref="BU107:BW108"/>
-    <mergeCell ref="BT103:BT104"/>
-    <mergeCell ref="BU103:BW104"/>
-    <mergeCell ref="BT105:BT106"/>
-    <mergeCell ref="BU105:BW106"/>
-    <mergeCell ref="BT120:BT121"/>
+    <mergeCell ref="BU81:BW82"/>
+    <mergeCell ref="BJ46:BK46"/>
+    <mergeCell ref="AL59:AM59"/>
+    <mergeCell ref="AP59:AQ59"/>
+    <mergeCell ref="AU59:AV59"/>
+    <mergeCell ref="AU33:AV33"/>
+    <mergeCell ref="AZ33:BA33"/>
+    <mergeCell ref="AP33:AQ33"/>
+    <mergeCell ref="BH52:BI52"/>
+    <mergeCell ref="BH56:BI56"/>
+    <mergeCell ref="AL72:AM72"/>
+    <mergeCell ref="AP72:AQ72"/>
+    <mergeCell ref="AL46:AM46"/>
+    <mergeCell ref="AP46:AQ46"/>
+    <mergeCell ref="AU46:AV46"/>
+    <mergeCell ref="BT73:BW73"/>
+    <mergeCell ref="BT68:BT69"/>
+    <mergeCell ref="BT81:BT82"/>
+    <mergeCell ref="BN74:BO77"/>
+    <mergeCell ref="BQ74:BR82"/>
+    <mergeCell ref="BN79:BO82"/>
+    <mergeCell ref="BT74:BW74"/>
+    <mergeCell ref="BT75:BT76"/>
+    <mergeCell ref="BU75:BW76"/>
+    <mergeCell ref="AL33:AM33"/>
+    <mergeCell ref="AL26:AM26"/>
+    <mergeCell ref="BH69:BI69"/>
+    <mergeCell ref="BJ33:BK33"/>
+    <mergeCell ref="BH30:BI30"/>
+    <mergeCell ref="AP20:AQ20"/>
+    <mergeCell ref="AU20:AV20"/>
+    <mergeCell ref="BT77:BT78"/>
+    <mergeCell ref="BU77:BW78"/>
+    <mergeCell ref="AN22:AO22"/>
+    <mergeCell ref="BH22:BI22"/>
+    <mergeCell ref="AN30:AO30"/>
+    <mergeCell ref="AZ59:BA59"/>
+    <mergeCell ref="BJ59:BK59"/>
+    <mergeCell ref="BH48:BI48"/>
+    <mergeCell ref="BU68:BW69"/>
+    <mergeCell ref="BT29:BT30"/>
+    <mergeCell ref="BU29:BW30"/>
+    <mergeCell ref="BT34:BW34"/>
+    <mergeCell ref="BT25:BT26"/>
+    <mergeCell ref="BU25:BW26"/>
+    <mergeCell ref="BT27:BT28"/>
+    <mergeCell ref="BU27:BW28"/>
+    <mergeCell ref="BT21:BW21"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="BJ20:BK20"/>
+    <mergeCell ref="BH26:BI26"/>
+    <mergeCell ref="AZ20:BA20"/>
+    <mergeCell ref="BE20:BF20"/>
+    <mergeCell ref="BT1:BV2"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AL20:AM20"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="AC22:AD22"/>
     <mergeCell ref="BT3:BV4"/>
     <mergeCell ref="BT12:BT13"/>
     <mergeCell ref="BU12:BW13"/>
     <mergeCell ref="BT14:BT15"/>
     <mergeCell ref="BU14:BW15"/>
     <mergeCell ref="BT8:BW8"/>
-    <mergeCell ref="BT29:BT30"/>
-    <mergeCell ref="BU29:BW30"/>
-    <mergeCell ref="BT34:BW34"/>
     <mergeCell ref="BU16:BW17"/>
-    <mergeCell ref="BT25:BT26"/>
-    <mergeCell ref="BU25:BW26"/>
-    <mergeCell ref="BT27:BT28"/>
-    <mergeCell ref="BU27:BW28"/>
-    <mergeCell ref="BT21:BW21"/>
-    <mergeCell ref="AC108:AD108"/>
-    <mergeCell ref="AL100:AM100"/>
-    <mergeCell ref="P90:R93"/>
-    <mergeCell ref="P103:R106"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="R100:S100"/>
-    <mergeCell ref="BT22:BW22"/>
-    <mergeCell ref="BT23:BT24"/>
-    <mergeCell ref="BU23:BW24"/>
-    <mergeCell ref="BT35:BW35"/>
-    <mergeCell ref="BT40:BT41"/>
-    <mergeCell ref="BU40:BW41"/>
-    <mergeCell ref="BT42:BT43"/>
-    <mergeCell ref="BU42:BW43"/>
-    <mergeCell ref="BT36:BT37"/>
-    <mergeCell ref="BU36:BW37"/>
-    <mergeCell ref="BT38:BT39"/>
-    <mergeCell ref="BU38:BW39"/>
-    <mergeCell ref="BU51:BW52"/>
-    <mergeCell ref="BT53:BT54"/>
-    <mergeCell ref="BU53:BW54"/>
-    <mergeCell ref="BT60:BW60"/>
-    <mergeCell ref="BU62:BW63"/>
-    <mergeCell ref="BT47:BW47"/>
-    <mergeCell ref="AC100:AD100"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="AC104:AD104"/>
-    <mergeCell ref="BH100:BI100"/>
-    <mergeCell ref="AL104:AM104"/>
-    <mergeCell ref="BH104:BI104"/>
-    <mergeCell ref="AN100:AO100"/>
-    <mergeCell ref="BT9:BW9"/>
-    <mergeCell ref="BT10:BT11"/>
-    <mergeCell ref="BU10:BW11"/>
-    <mergeCell ref="BT16:BT17"/>
-    <mergeCell ref="BT48:BW48"/>
-    <mergeCell ref="BT49:BT50"/>
-    <mergeCell ref="BU49:BW50"/>
-    <mergeCell ref="BT88:BT89"/>
-    <mergeCell ref="BU88:BW89"/>
-    <mergeCell ref="BT90:BT91"/>
-    <mergeCell ref="BU90:BW91"/>
-    <mergeCell ref="BT55:BT56"/>
-    <mergeCell ref="BU55:BW56"/>
-    <mergeCell ref="BT86:BW86"/>
-    <mergeCell ref="BT87:BW87"/>
-    <mergeCell ref="BT61:BW61"/>
-    <mergeCell ref="BT62:BT63"/>
     <mergeCell ref="BS3:BS4"/>
     <mergeCell ref="AM3:AN4"/>
     <mergeCell ref="AR3:AS4"/>
     <mergeCell ref="AW3:AX4"/>
-    <mergeCell ref="BM1:BN4"/>
-    <mergeCell ref="BS1:BS2"/>
-    <mergeCell ref="BE33:BF33"/>
-    <mergeCell ref="BE46:BF46"/>
-    <mergeCell ref="BE98:BF98"/>
-    <mergeCell ref="AN82:AO82"/>
-    <mergeCell ref="AN87:AO87"/>
-    <mergeCell ref="AW90:AY93"/>
-    <mergeCell ref="AW77:AY80"/>
-    <mergeCell ref="AU72:AV72"/>
-    <mergeCell ref="BH82:BI82"/>
-    <mergeCell ref="AP85:AQ85"/>
-    <mergeCell ref="AU85:AV85"/>
-    <mergeCell ref="AZ85:BA85"/>
-    <mergeCell ref="BH87:BI87"/>
-    <mergeCell ref="AL87:AM87"/>
-    <mergeCell ref="AL91:AM91"/>
-    <mergeCell ref="BH91:BI91"/>
-    <mergeCell ref="AL78:AM78"/>
-    <mergeCell ref="BH78:BI78"/>
-    <mergeCell ref="BN9:BO12"/>
-    <mergeCell ref="BQ9:BR17"/>
-    <mergeCell ref="BN14:BO17"/>
-    <mergeCell ref="AZ3:BA4"/>
-    <mergeCell ref="BH13:BI13"/>
-    <mergeCell ref="BH17:BI17"/>
-    <mergeCell ref="BH9:BI9"/>
-    <mergeCell ref="BP1:BQ4"/>
-    <mergeCell ref="BJ7:BK7"/>
-    <mergeCell ref="BN100:BO103"/>
-    <mergeCell ref="BQ100:BR108"/>
-    <mergeCell ref="BN105:BO108"/>
-    <mergeCell ref="BN87:BO90"/>
-    <mergeCell ref="BN22:BO25"/>
-    <mergeCell ref="BQ22:BR30"/>
-    <mergeCell ref="BN27:BO30"/>
-    <mergeCell ref="BN35:BO38"/>
-    <mergeCell ref="BN40:BO43"/>
-    <mergeCell ref="BQ35:BR43"/>
-    <mergeCell ref="BN61:BO64"/>
-    <mergeCell ref="BQ61:BR69"/>
-    <mergeCell ref="BN66:BO69"/>
-    <mergeCell ref="AL85:AM85"/>
-    <mergeCell ref="BJ85:BK85"/>
-    <mergeCell ref="AL74:AM74"/>
-    <mergeCell ref="AC82:AD82"/>
-    <mergeCell ref="BN48:BO51"/>
-    <mergeCell ref="BQ48:BR56"/>
-    <mergeCell ref="BN53:BO56"/>
-    <mergeCell ref="BN92:BO95"/>
-    <mergeCell ref="BQ87:BR95"/>
-    <mergeCell ref="AC87:AD87"/>
-    <mergeCell ref="AC91:AD91"/>
-    <mergeCell ref="AL82:AM82"/>
-    <mergeCell ref="AE59:AF59"/>
-    <mergeCell ref="BE59:BF59"/>
-    <mergeCell ref="AC78:AD78"/>
-    <mergeCell ref="AL65:AM65"/>
-    <mergeCell ref="Z46:AA46"/>
-    <mergeCell ref="AA48:AB48"/>
-    <mergeCell ref="AA56:AB56"/>
-    <mergeCell ref="AE98:AF98"/>
-    <mergeCell ref="AA69:AB69"/>
-    <mergeCell ref="AA74:AB74"/>
-    <mergeCell ref="AA82:AB82"/>
-    <mergeCell ref="AA61:AB61"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="U85:V85"/>
-    <mergeCell ref="P77:R80"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="AA87:AB87"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="R87:S87"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="U59:V59"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AA35:AB35"/>
-    <mergeCell ref="AN35:AO35"/>
-    <mergeCell ref="AL108:AM108"/>
-    <mergeCell ref="Z85:AA85"/>
-    <mergeCell ref="AE85:AF85"/>
-    <mergeCell ref="AA95:AB95"/>
-    <mergeCell ref="AH3:AI4"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="Z33:AA33"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="X3:Y4"/>
-    <mergeCell ref="AC3:AD4"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="AN43:AO43"/>
-    <mergeCell ref="AN48:AO48"/>
-    <mergeCell ref="AN56:AO56"/>
-    <mergeCell ref="AN61:AO61"/>
-    <mergeCell ref="AN69:AO69"/>
-    <mergeCell ref="AN74:AO74"/>
-    <mergeCell ref="U46:V46"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="K111:L111"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="U111:V111"/>
-    <mergeCell ref="AA100:AB100"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="K98:L98"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="U98:V98"/>
-    <mergeCell ref="Z98:AA98"/>
-    <mergeCell ref="AA108:AB108"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="AA121:AB121"/>
-    <mergeCell ref="AC121:AD121"/>
-    <mergeCell ref="BH121:BI121"/>
-    <mergeCell ref="AF11:AH14"/>
-    <mergeCell ref="P25:R28"/>
-    <mergeCell ref="AW25:AY28"/>
-    <mergeCell ref="P38:R41"/>
-    <mergeCell ref="S38:U41"/>
-    <mergeCell ref="AW38:AY41"/>
-    <mergeCell ref="AL121:AM121"/>
-    <mergeCell ref="AN121:AO121"/>
-    <mergeCell ref="AC113:AD113"/>
-    <mergeCell ref="AU111:AV111"/>
-    <mergeCell ref="AZ111:BA111"/>
-    <mergeCell ref="AN113:AO113"/>
-    <mergeCell ref="BH113:BI113"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="AC117:AD117"/>
-    <mergeCell ref="AL117:AM117"/>
-    <mergeCell ref="BH117:BI117"/>
-    <mergeCell ref="P116:R119"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="R113:S113"/>
-    <mergeCell ref="P51:R54"/>
-    <mergeCell ref="AL113:AM113"/>
-    <mergeCell ref="AW116:AY119"/>
-    <mergeCell ref="BU120:BW121"/>
-    <mergeCell ref="BU114:BW115"/>
-    <mergeCell ref="BT116:BT117"/>
-    <mergeCell ref="BU116:BW117"/>
-    <mergeCell ref="BT118:BT119"/>
-    <mergeCell ref="BU118:BW119"/>
-    <mergeCell ref="AA113:AB113"/>
-    <mergeCell ref="BE111:BF111"/>
-    <mergeCell ref="BJ111:BK111"/>
-    <mergeCell ref="Z111:AA111"/>
-    <mergeCell ref="AE111:AF111"/>
-    <mergeCell ref="AL111:AM111"/>
-    <mergeCell ref="AP111:AQ111"/>
-    <mergeCell ref="AN108:AO108"/>
-    <mergeCell ref="BH108:BI108"/>
-    <mergeCell ref="AW51:AY54"/>
-    <mergeCell ref="AW64:AY67"/>
-    <mergeCell ref="BE85:BF85"/>
-    <mergeCell ref="Z59:AA59"/>
-    <mergeCell ref="AZ72:BA72"/>
-    <mergeCell ref="BJ72:BK72"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="AN20 T8:T9 AN58:AN59 AF26 T17:T18 AB19:AB20 AG7 AN71:AN72 AF78 AF65 AZ3:BA4 V3:Y4 Q3:T4 L3:O4 AA3:AD4 AF3:AI4 I3:J4 AN45:AN46 AF52 AB45:AB46 AF48:AG49 AF22:AG23 AB71:AB72 AN32:AN33 AI29:AI30 AU3:AX4 AF30 AB84:AB85 AF87:AG88 AI94:AI95 AK3:AN4 AP3:AS4 AG29:AG30 AB58:AB59 AF61:AG62 AF74:AG75 AI81:AI82 AF95 E30 E26 AU17:AU18 AI55:AI56 AF56 AF82 AG81:AG82 AG94:AG95 E95 E91 E82 BK9:BK10 E78 E87 E74 BK74:BK75 BK87:BK88 AI87:AI88 E22 AI74:AI75 BK78 BK91 BK22:BK23 BK95 BK13 AF39 AB32:AB33 AF35:AG36 AI42:AI43 AF104 AI68:AI69 AF43 AG42:AG43 E43 E39 E35 BK35:BK36 AI35:AI36 AG55:AG56 AJ95 E56 E52 E48 BK48:BK49 AI48:AI49 BK39 BK43 BK52 AJ91 AJ87 AF69 BK17 AI22:AI23 BK82 AJ82 AJ78 AW7 BK26 BK30 AJ30 AJ26 AJ22 AJ43 AG68:AG69 BK56 AJ39 AJ56 AJ52 E69 E65 E61 AU8:AU9 BK61:BK62 AJ48 AJ74 AJ35 AI61:AI62 BK65 BK69 AJ69 AJ65 AJ61 AN84:AN85 AF91 AB97:AB98 AF100:AG101 AI107:AI108 AF108 AG107:AG108 E108 E104 E100 BK100:BK101 AI100:AI101 BK104 BK108 AJ108 AJ104 AJ100 AN97:AN98 AF117 AB110:AB111 AF113:AG114 AN123 AI120:AI121 AF121 AG120:AG121 E121 E117 E113 BK113:BK114 AB123 AI113:AI114 BK117 BK121 AJ121 AJ117 AJ113 AN110:AN111">

--- a/WebApplication1/Forms/06_Kapak kanalları Peene_II_III.xlsx
+++ b/WebApplication1/Forms/06_Kapak kanalları Peene_II_III.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
   <si>
     <t>F</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>1C</t>
+  </si>
+  <si>
+    <t>{END}</t>
   </si>
 </sst>
 </file>
@@ -888,22 +891,11 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -914,6 +906,18 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -929,30 +933,19 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -972,6 +965,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -981,23 +980,21 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1006,6 +1003,12 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1667,8 +1670,8 @@
   </sheetPr>
   <dimension ref="A1:BX137"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BB130" sqref="BB130"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1746,16 +1749,16 @@
       <c r="BJ1" s="2"/>
       <c r="BK1" s="2"/>
       <c r="BL1" s="2"/>
-      <c r="BM1" s="110"/>
-      <c r="BN1" s="110"/>
+      <c r="BM1" s="99"/>
+      <c r="BN1" s="99"/>
       <c r="BO1" s="69"/>
-      <c r="BP1" s="110"/>
-      <c r="BQ1" s="110"/>
+      <c r="BP1" s="99"/>
+      <c r="BQ1" s="99"/>
       <c r="BR1" s="4"/>
-      <c r="BS1" s="108"/>
-      <c r="BT1" s="80"/>
-      <c r="BU1" s="80"/>
-      <c r="BV1" s="80"/>
+      <c r="BS1" s="100"/>
+      <c r="BT1" s="111"/>
+      <c r="BU1" s="111"/>
+      <c r="BV1" s="111"/>
       <c r="BW1" s="2"/>
     </row>
     <row r="2" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1818,16 +1821,16 @@
       <c r="BJ2" s="2"/>
       <c r="BK2" s="2"/>
       <c r="BL2" s="2"/>
-      <c r="BM2" s="110"/>
-      <c r="BN2" s="110"/>
+      <c r="BM2" s="99"/>
+      <c r="BN2" s="99"/>
       <c r="BO2" s="69"/>
-      <c r="BP2" s="110"/>
-      <c r="BQ2" s="110"/>
+      <c r="BP2" s="99"/>
+      <c r="BQ2" s="99"/>
       <c r="BR2" s="4"/>
-      <c r="BS2" s="108"/>
-      <c r="BT2" s="80"/>
-      <c r="BU2" s="80"/>
-      <c r="BV2" s="80"/>
+      <c r="BS2" s="100"/>
+      <c r="BT2" s="111"/>
+      <c r="BU2" s="111"/>
+      <c r="BV2" s="111"/>
       <c r="BW2" s="2"/>
     </row>
     <row r="3" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1854,31 +1857,31 @@
       <c r="U3" s="4"/>
       <c r="V3" s="70"/>
       <c r="W3" s="70"/>
-      <c r="X3" s="109"/>
-      <c r="Y3" s="109"/>
+      <c r="X3" s="92"/>
+      <c r="Y3" s="92"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="70"/>
       <c r="AB3" s="70"/>
-      <c r="AC3" s="109"/>
-      <c r="AD3" s="109"/>
+      <c r="AC3" s="92"/>
+      <c r="AD3" s="92"/>
       <c r="AF3" s="70"/>
       <c r="AG3" s="70"/>
-      <c r="AH3" s="109"/>
-      <c r="AI3" s="109"/>
+      <c r="AH3" s="92"/>
+      <c r="AI3" s="92"/>
       <c r="AK3" s="70"/>
       <c r="AL3" s="70"/>
-      <c r="AM3" s="109"/>
-      <c r="AN3" s="109"/>
+      <c r="AM3" s="92"/>
+      <c r="AN3" s="92"/>
       <c r="AP3" s="70"/>
       <c r="AQ3" s="70"/>
-      <c r="AR3" s="109"/>
-      <c r="AS3" s="109"/>
+      <c r="AR3" s="92"/>
+      <c r="AS3" s="92"/>
       <c r="AU3" s="70"/>
       <c r="AV3" s="70"/>
-      <c r="AW3" s="109"/>
-      <c r="AX3" s="109"/>
-      <c r="AZ3" s="109"/>
-      <c r="BA3" s="109"/>
+      <c r="AW3" s="92"/>
+      <c r="AX3" s="92"/>
+      <c r="AZ3" s="92"/>
+      <c r="BA3" s="92"/>
       <c r="BB3" s="4"/>
       <c r="BC3" s="4"/>
       <c r="BD3" s="4"/>
@@ -1890,16 +1893,16 @@
       <c r="BJ3" s="2"/>
       <c r="BK3" s="2"/>
       <c r="BL3" s="2"/>
-      <c r="BM3" s="110"/>
-      <c r="BN3" s="110"/>
+      <c r="BM3" s="99"/>
+      <c r="BN3" s="99"/>
       <c r="BO3" s="69"/>
-      <c r="BP3" s="110"/>
-      <c r="BQ3" s="110"/>
+      <c r="BP3" s="99"/>
+      <c r="BQ3" s="99"/>
       <c r="BR3" s="4"/>
-      <c r="BS3" s="108"/>
-      <c r="BT3" s="80"/>
-      <c r="BU3" s="80"/>
-      <c r="BV3" s="80"/>
+      <c r="BS3" s="100"/>
+      <c r="BT3" s="111"/>
+      <c r="BU3" s="111"/>
+      <c r="BV3" s="111"/>
       <c r="BW3" s="2"/>
     </row>
     <row r="4" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1926,31 +1929,31 @@
       <c r="U4" s="4"/>
       <c r="V4" s="70"/>
       <c r="W4" s="70"/>
-      <c r="X4" s="109"/>
-      <c r="Y4" s="109"/>
+      <c r="X4" s="92"/>
+      <c r="Y4" s="92"/>
       <c r="Z4" s="4"/>
       <c r="AA4" s="70"/>
       <c r="AB4" s="70"/>
-      <c r="AC4" s="109"/>
-      <c r="AD4" s="109"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="92"/>
       <c r="AF4" s="70"/>
       <c r="AG4" s="70"/>
-      <c r="AH4" s="109"/>
-      <c r="AI4" s="109"/>
+      <c r="AH4" s="92"/>
+      <c r="AI4" s="92"/>
       <c r="AK4" s="70"/>
       <c r="AL4" s="70"/>
-      <c r="AM4" s="109"/>
-      <c r="AN4" s="109"/>
+      <c r="AM4" s="92"/>
+      <c r="AN4" s="92"/>
       <c r="AP4" s="70"/>
       <c r="AQ4" s="70"/>
-      <c r="AR4" s="109"/>
-      <c r="AS4" s="109"/>
+      <c r="AR4" s="92"/>
+      <c r="AS4" s="92"/>
       <c r="AU4" s="70"/>
       <c r="AV4" s="70"/>
-      <c r="AW4" s="109"/>
-      <c r="AX4" s="109"/>
-      <c r="AZ4" s="109"/>
-      <c r="BA4" s="109"/>
+      <c r="AW4" s="92"/>
+      <c r="AX4" s="92"/>
+      <c r="AZ4" s="92"/>
+      <c r="BA4" s="92"/>
       <c r="BB4" s="4"/>
       <c r="BC4" s="4"/>
       <c r="BD4" s="4"/>
@@ -1962,16 +1965,16 @@
       <c r="BJ4" s="2"/>
       <c r="BK4" s="2"/>
       <c r="BL4" s="2"/>
-      <c r="BM4" s="110"/>
-      <c r="BN4" s="110"/>
+      <c r="BM4" s="99"/>
+      <c r="BN4" s="99"/>
       <c r="BO4" s="69"/>
-      <c r="BP4" s="110"/>
-      <c r="BQ4" s="110"/>
+      <c r="BP4" s="99"/>
+      <c r="BQ4" s="99"/>
       <c r="BR4" s="4"/>
-      <c r="BS4" s="108"/>
-      <c r="BT4" s="80"/>
-      <c r="BU4" s="80"/>
-      <c r="BV4" s="80"/>
+      <c r="BS4" s="100"/>
+      <c r="BT4" s="111"/>
+      <c r="BU4" s="111"/>
+      <c r="BV4" s="111"/>
       <c r="BW4" s="2"/>
     </row>
     <row r="5" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2126,8 +2129,8 @@
       <c r="BG7" s="65"/>
       <c r="BH7" s="65"/>
       <c r="BI7" s="65"/>
-      <c r="BJ7" s="78"/>
-      <c r="BK7" s="78"/>
+      <c r="BJ7" s="91"/>
+      <c r="BK7" s="91"/>
       <c r="BL7" s="22"/>
       <c r="BM7" s="1"/>
       <c r="BN7" s="18"/>
@@ -2203,12 +2206,12 @@
       <c r="BQ8" s="18"/>
       <c r="BR8" s="18"/>
       <c r="BS8" s="2"/>
-      <c r="BT8" s="92" t="s">
+      <c r="BT8" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="BU8" s="93"/>
-      <c r="BV8" s="93"/>
-      <c r="BW8" s="94"/>
+      <c r="BU8" s="106"/>
+      <c r="BV8" s="106"/>
+      <c r="BW8" s="107"/>
       <c r="BX8" s="2"/>
     </row>
     <row r="9" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2267,22 +2270,22 @@
       <c r="BJ9" s="58"/>
       <c r="BL9" s="25"/>
       <c r="BM9" s="2"/>
-      <c r="BN9" s="96">
+      <c r="BN9" s="93">
         <v>1</v>
       </c>
-      <c r="BO9" s="97"/>
+      <c r="BO9" s="94"/>
       <c r="BP9" s="18"/>
-      <c r="BQ9" s="96">
+      <c r="BQ9" s="93">
         <v>2</v>
       </c>
-      <c r="BR9" s="97"/>
+      <c r="BR9" s="94"/>
       <c r="BS9" s="2"/>
-      <c r="BT9" s="102" t="s">
+      <c r="BT9" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="BU9" s="103"/>
-      <c r="BV9" s="103"/>
-      <c r="BW9" s="104"/>
+      <c r="BU9" s="102"/>
+      <c r="BV9" s="102"/>
+      <c r="BW9" s="103"/>
       <c r="BX9" s="2"/>
     </row>
     <row r="10" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2335,16 +2338,16 @@
       <c r="BJ10" s="58"/>
       <c r="BL10" s="25"/>
       <c r="BM10" s="2"/>
-      <c r="BN10" s="98"/>
-      <c r="BO10" s="99"/>
+      <c r="BN10" s="95"/>
+      <c r="BO10" s="96"/>
       <c r="BP10" s="18"/>
-      <c r="BQ10" s="98"/>
-      <c r="BR10" s="99"/>
+      <c r="BQ10" s="95"/>
+      <c r="BR10" s="96"/>
       <c r="BS10" s="2"/>
-      <c r="BT10" s="81"/>
-      <c r="BU10" s="83"/>
-      <c r="BV10" s="84"/>
-      <c r="BW10" s="85"/>
+      <c r="BT10" s="89"/>
+      <c r="BU10" s="80"/>
+      <c r="BV10" s="81"/>
+      <c r="BW10" s="82"/>
       <c r="BX10" s="2"/>
     </row>
     <row r="11" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2364,11 +2367,11 @@
       <c r="AC11" s="58"/>
       <c r="AD11" s="58"/>
       <c r="AE11" s="58"/>
-      <c r="AF11" s="105" t="s">
+      <c r="AF11" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="AG11" s="105"/>
-      <c r="AH11" s="105"/>
+      <c r="AG11" s="78"/>
+      <c r="AH11" s="78"/>
       <c r="AI11" s="58"/>
       <c r="AJ11" s="58"/>
       <c r="AK11" s="58"/>
@@ -2400,13 +2403,13 @@
       <c r="BK11" s="4"/>
       <c r="BL11" s="25"/>
       <c r="BM11" s="2"/>
-      <c r="BN11" s="98"/>
-      <c r="BO11" s="99"/>
+      <c r="BN11" s="95"/>
+      <c r="BO11" s="96"/>
       <c r="BP11" s="18"/>
-      <c r="BQ11" s="98"/>
-      <c r="BR11" s="99"/>
+      <c r="BQ11" s="95"/>
+      <c r="BR11" s="96"/>
       <c r="BS11" s="2"/>
-      <c r="BT11" s="82"/>
+      <c r="BT11" s="90"/>
       <c r="BU11" s="86"/>
       <c r="BV11" s="87"/>
       <c r="BW11" s="88"/>
@@ -2429,9 +2432,9 @@
       <c r="AC12" s="58"/>
       <c r="AD12" s="58"/>
       <c r="AE12" s="58"/>
-      <c r="AF12" s="105"/>
-      <c r="AG12" s="105"/>
-      <c r="AH12" s="105"/>
+      <c r="AF12" s="78"/>
+      <c r="AG12" s="78"/>
+      <c r="AH12" s="78"/>
       <c r="AI12" s="58"/>
       <c r="AJ12" s="58"/>
       <c r="AK12" s="58"/>
@@ -2463,16 +2466,16 @@
       <c r="BK12" s="4"/>
       <c r="BL12" s="25"/>
       <c r="BM12" s="2"/>
-      <c r="BN12" s="100"/>
-      <c r="BO12" s="101"/>
+      <c r="BN12" s="97"/>
+      <c r="BO12" s="98"/>
       <c r="BP12" s="18"/>
-      <c r="BQ12" s="98"/>
-      <c r="BR12" s="99"/>
+      <c r="BQ12" s="95"/>
+      <c r="BR12" s="96"/>
       <c r="BS12" s="2"/>
-      <c r="BT12" s="81"/>
-      <c r="BU12" s="83"/>
-      <c r="BV12" s="84"/>
-      <c r="BW12" s="85"/>
+      <c r="BT12" s="89"/>
+      <c r="BU12" s="80"/>
+      <c r="BV12" s="81"/>
+      <c r="BW12" s="82"/>
       <c r="BX12" s="2"/>
     </row>
     <row r="13" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2493,9 +2496,9 @@
       <c r="AC13" s="58"/>
       <c r="AD13" s="58"/>
       <c r="AE13" s="58"/>
-      <c r="AF13" s="105"/>
-      <c r="AG13" s="105"/>
-      <c r="AH13" s="105"/>
+      <c r="AF13" s="78"/>
+      <c r="AG13" s="78"/>
+      <c r="AH13" s="78"/>
       <c r="AI13" s="58"/>
       <c r="AJ13" s="58"/>
       <c r="AK13" s="58"/>
@@ -2528,10 +2531,10 @@
       <c r="BN13" s="18"/>
       <c r="BO13" s="18"/>
       <c r="BP13" s="18"/>
-      <c r="BQ13" s="98"/>
-      <c r="BR13" s="99"/>
+      <c r="BQ13" s="95"/>
+      <c r="BR13" s="96"/>
       <c r="BS13" s="2"/>
-      <c r="BT13" s="82"/>
+      <c r="BT13" s="90"/>
       <c r="BU13" s="86"/>
       <c r="BV13" s="87"/>
       <c r="BW13" s="88"/>
@@ -2554,9 +2557,9 @@
       <c r="AC14" s="58"/>
       <c r="AD14" s="58"/>
       <c r="AE14" s="58"/>
-      <c r="AF14" s="105"/>
-      <c r="AG14" s="105"/>
-      <c r="AH14" s="105"/>
+      <c r="AF14" s="78"/>
+      <c r="AG14" s="78"/>
+      <c r="AH14" s="78"/>
       <c r="AI14" s="58"/>
       <c r="AJ14" s="58"/>
       <c r="AK14" s="58"/>
@@ -2588,18 +2591,18 @@
       <c r="BK14" s="3"/>
       <c r="BL14" s="25"/>
       <c r="BM14" s="2"/>
-      <c r="BN14" s="96">
+      <c r="BN14" s="93">
         <v>3</v>
       </c>
-      <c r="BO14" s="97"/>
+      <c r="BO14" s="94"/>
       <c r="BP14" s="18"/>
-      <c r="BQ14" s="98"/>
-      <c r="BR14" s="99"/>
+      <c r="BQ14" s="95"/>
+      <c r="BR14" s="96"/>
       <c r="BS14" s="2"/>
-      <c r="BT14" s="81"/>
-      <c r="BU14" s="83"/>
-      <c r="BV14" s="84"/>
-      <c r="BW14" s="85"/>
+      <c r="BT14" s="89"/>
+      <c r="BU14" s="80"/>
+      <c r="BV14" s="81"/>
+      <c r="BW14" s="82"/>
       <c r="BX14" s="2"/>
     </row>
     <row r="15" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2653,13 +2656,13 @@
       <c r="BK15" s="3"/>
       <c r="BL15" s="25"/>
       <c r="BM15" s="2"/>
-      <c r="BN15" s="98"/>
-      <c r="BO15" s="99"/>
+      <c r="BN15" s="95"/>
+      <c r="BO15" s="96"/>
       <c r="BP15" s="18"/>
-      <c r="BQ15" s="98"/>
-      <c r="BR15" s="99"/>
+      <c r="BQ15" s="95"/>
+      <c r="BR15" s="96"/>
       <c r="BS15" s="2"/>
-      <c r="BT15" s="82"/>
+      <c r="BT15" s="90"/>
       <c r="BU15" s="86"/>
       <c r="BV15" s="87"/>
       <c r="BW15" s="88"/>
@@ -2716,16 +2719,16 @@
       <c r="BK16" s="3"/>
       <c r="BL16" s="25"/>
       <c r="BM16" s="2"/>
-      <c r="BN16" s="98"/>
-      <c r="BO16" s="99"/>
+      <c r="BN16" s="95"/>
+      <c r="BO16" s="96"/>
       <c r="BP16" s="18"/>
-      <c r="BQ16" s="98"/>
-      <c r="BR16" s="99"/>
+      <c r="BQ16" s="95"/>
+      <c r="BR16" s="96"/>
       <c r="BS16" s="2"/>
-      <c r="BT16" s="81"/>
-      <c r="BU16" s="83"/>
-      <c r="BV16" s="84"/>
-      <c r="BW16" s="85"/>
+      <c r="BT16" s="89"/>
+      <c r="BU16" s="80"/>
+      <c r="BV16" s="81"/>
+      <c r="BW16" s="82"/>
       <c r="BX16" s="2"/>
     </row>
     <row r="17" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2784,16 +2787,16 @@
       <c r="BJ17" s="58"/>
       <c r="BL17" s="25"/>
       <c r="BM17" s="2"/>
-      <c r="BN17" s="100"/>
-      <c r="BO17" s="101"/>
+      <c r="BN17" s="97"/>
+      <c r="BO17" s="98"/>
       <c r="BP17" s="18"/>
-      <c r="BQ17" s="100"/>
-      <c r="BR17" s="101"/>
+      <c r="BQ17" s="97"/>
+      <c r="BR17" s="98"/>
       <c r="BS17" s="2"/>
-      <c r="BT17" s="95"/>
-      <c r="BU17" s="89"/>
-      <c r="BV17" s="90"/>
-      <c r="BW17" s="91"/>
+      <c r="BT17" s="104"/>
+      <c r="BU17" s="83"/>
+      <c r="BV17" s="84"/>
+      <c r="BW17" s="85"/>
       <c r="BX17" s="2"/>
     </row>
     <row r="18" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2921,61 +2924,61 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="65"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
       <c r="I20" s="65"/>
       <c r="J20" s="65"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="91"/>
       <c r="M20" s="65"/>
       <c r="N20" s="65"/>
       <c r="O20" s="65"/>
-      <c r="P20" s="78"/>
-      <c r="Q20" s="78"/>
+      <c r="P20" s="91"/>
+      <c r="Q20" s="91"/>
       <c r="S20" s="65"/>
       <c r="T20" s="65"/>
-      <c r="U20" s="78"/>
-      <c r="V20" s="78"/>
+      <c r="U20" s="91"/>
+      <c r="V20" s="91"/>
       <c r="W20" s="65"/>
       <c r="X20" s="65"/>
       <c r="Y20" s="65"/>
-      <c r="Z20" s="78"/>
-      <c r="AA20" s="78"/>
+      <c r="Z20" s="91"/>
+      <c r="AA20" s="91"/>
       <c r="AB20" s="37"/>
       <c r="AC20" s="65"/>
       <c r="AD20" s="65"/>
-      <c r="AE20" s="78"/>
-      <c r="AF20" s="78"/>
+      <c r="AE20" s="91"/>
+      <c r="AF20" s="91"/>
       <c r="AG20" s="65"/>
       <c r="AH20" s="65"/>
       <c r="AI20" s="65"/>
       <c r="AJ20" s="3"/>
       <c r="AK20" s="65"/>
-      <c r="AL20" s="78"/>
-      <c r="AM20" s="78"/>
+      <c r="AL20" s="91"/>
+      <c r="AM20" s="91"/>
       <c r="AN20" s="37"/>
       <c r="AO20" s="65"/>
-      <c r="AP20" s="78"/>
-      <c r="AQ20" s="78"/>
+      <c r="AP20" s="91"/>
+      <c r="AQ20" s="91"/>
       <c r="AR20" s="65"/>
       <c r="AS20" s="65"/>
       <c r="AT20" s="65"/>
-      <c r="AU20" s="78"/>
-      <c r="AV20" s="78"/>
+      <c r="AU20" s="91"/>
+      <c r="AV20" s="91"/>
       <c r="AX20" s="65"/>
       <c r="AY20" s="65"/>
-      <c r="AZ20" s="78"/>
-      <c r="BA20" s="78"/>
+      <c r="AZ20" s="91"/>
+      <c r="BA20" s="91"/>
       <c r="BB20" s="65"/>
       <c r="BC20" s="65"/>
       <c r="BD20" s="65"/>
-      <c r="BE20" s="78"/>
-      <c r="BF20" s="78"/>
+      <c r="BE20" s="91"/>
+      <c r="BF20" s="91"/>
       <c r="BG20" s="65"/>
       <c r="BH20" s="65"/>
       <c r="BI20" s="65"/>
-      <c r="BJ20" s="78"/>
-      <c r="BK20" s="78"/>
+      <c r="BJ20" s="91"/>
+      <c r="BK20" s="91"/>
       <c r="BL20" s="22"/>
       <c r="BM20" s="1"/>
       <c r="BN20" s="18"/>
@@ -3062,12 +3065,12 @@
       <c r="BQ21" s="18"/>
       <c r="BR21" s="18"/>
       <c r="BS21" s="2"/>
-      <c r="BT21" s="92" t="s">
+      <c r="BT21" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="BU21" s="93"/>
-      <c r="BV21" s="93"/>
-      <c r="BW21" s="94"/>
+      <c r="BU21" s="106"/>
+      <c r="BV21" s="106"/>
+      <c r="BW21" s="107"/>
       <c r="BX21" s="2"/>
     </row>
     <row r="22" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3147,22 +3150,22 @@
       <c r="BK22" s="37"/>
       <c r="BL22" s="25"/>
       <c r="BM22" s="2"/>
-      <c r="BN22" s="96">
+      <c r="BN22" s="93">
         <v>5</v>
       </c>
-      <c r="BO22" s="97"/>
+      <c r="BO22" s="94"/>
       <c r="BP22" s="18"/>
-      <c r="BQ22" s="96">
+      <c r="BQ22" s="93">
         <v>6</v>
       </c>
-      <c r="BR22" s="97"/>
+      <c r="BR22" s="94"/>
       <c r="BS22" s="2"/>
-      <c r="BT22" s="102" t="s">
+      <c r="BT22" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="BU22" s="103"/>
-      <c r="BV22" s="103"/>
-      <c r="BW22" s="104"/>
+      <c r="BU22" s="102"/>
+      <c r="BV22" s="102"/>
+      <c r="BW22" s="103"/>
       <c r="BX22" s="2"/>
     </row>
     <row r="23" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3229,16 +3232,16 @@
       <c r="BK23" s="74"/>
       <c r="BL23" s="25"/>
       <c r="BM23" s="2"/>
-      <c r="BN23" s="98"/>
-      <c r="BO23" s="99"/>
+      <c r="BN23" s="95"/>
+      <c r="BO23" s="96"/>
       <c r="BP23" s="18"/>
-      <c r="BQ23" s="98"/>
-      <c r="BR23" s="99"/>
+      <c r="BQ23" s="95"/>
+      <c r="BR23" s="96"/>
       <c r="BS23" s="2"/>
-      <c r="BT23" s="81"/>
-      <c r="BU23" s="83"/>
-      <c r="BV23" s="84"/>
-      <c r="BW23" s="85"/>
+      <c r="BT23" s="89"/>
+      <c r="BU23" s="80"/>
+      <c r="BV23" s="81"/>
+      <c r="BW23" s="82"/>
       <c r="BX23" s="2"/>
     </row>
     <row r="24" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3307,13 +3310,13 @@
       <c r="BK24" s="17"/>
       <c r="BL24" s="25"/>
       <c r="BM24" s="2"/>
-      <c r="BN24" s="98"/>
-      <c r="BO24" s="99"/>
+      <c r="BN24" s="95"/>
+      <c r="BO24" s="96"/>
       <c r="BP24" s="18"/>
-      <c r="BQ24" s="98"/>
-      <c r="BR24" s="99"/>
+      <c r="BQ24" s="95"/>
+      <c r="BR24" s="96"/>
       <c r="BS24" s="2"/>
-      <c r="BT24" s="82"/>
+      <c r="BT24" s="90"/>
       <c r="BU24" s="86"/>
       <c r="BV24" s="87"/>
       <c r="BW24" s="88"/>
@@ -3335,11 +3338,11 @@
       <c r="M25" s="42"/>
       <c r="N25" s="42"/>
       <c r="O25" s="42"/>
-      <c r="P25" s="105" t="s">
+      <c r="P25" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="Q25" s="105"/>
-      <c r="R25" s="105"/>
+      <c r="Q25" s="78"/>
+      <c r="R25" s="78"/>
       <c r="S25" s="42"/>
       <c r="T25" s="42"/>
       <c r="U25" s="42"/>
@@ -3370,11 +3373,11 @@
       <c r="AT25" s="42"/>
       <c r="AU25" s="42"/>
       <c r="AV25" s="42"/>
-      <c r="AW25" s="105" t="s">
+      <c r="AW25" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="AX25" s="105"/>
-      <c r="AY25" s="105"/>
+      <c r="AX25" s="78"/>
+      <c r="AY25" s="78"/>
       <c r="AZ25" s="42"/>
       <c r="BA25" s="42"/>
       <c r="BB25" s="42"/>
@@ -3389,16 +3392,16 @@
       <c r="BK25" s="17"/>
       <c r="BL25" s="25"/>
       <c r="BM25" s="2"/>
-      <c r="BN25" s="100"/>
-      <c r="BO25" s="101"/>
+      <c r="BN25" s="97"/>
+      <c r="BO25" s="98"/>
       <c r="BP25" s="18"/>
-      <c r="BQ25" s="98"/>
-      <c r="BR25" s="99"/>
+      <c r="BQ25" s="95"/>
+      <c r="BR25" s="96"/>
       <c r="BS25" s="2"/>
-      <c r="BT25" s="81"/>
-      <c r="BU25" s="83"/>
-      <c r="BV25" s="84"/>
-      <c r="BW25" s="85"/>
+      <c r="BT25" s="89"/>
+      <c r="BU25" s="80"/>
+      <c r="BV25" s="81"/>
+      <c r="BW25" s="82"/>
       <c r="BX25" s="2"/>
     </row>
     <row r="26" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3421,9 +3424,9 @@
       <c r="M26" s="42"/>
       <c r="N26" s="42"/>
       <c r="O26" s="42"/>
-      <c r="P26" s="105"/>
-      <c r="Q26" s="105"/>
-      <c r="R26" s="105"/>
+      <c r="P26" s="78"/>
+      <c r="Q26" s="78"/>
+      <c r="R26" s="78"/>
       <c r="S26" s="42"/>
       <c r="T26" s="42"/>
       <c r="U26" s="42"/>
@@ -3458,9 +3461,9 @@
       <c r="AT26" s="42"/>
       <c r="AU26" s="42"/>
       <c r="AV26" s="42"/>
-      <c r="AW26" s="105"/>
-      <c r="AX26" s="105"/>
-      <c r="AY26" s="105"/>
+      <c r="AW26" s="78"/>
+      <c r="AX26" s="78"/>
+      <c r="AY26" s="78"/>
       <c r="AZ26" s="42"/>
       <c r="BA26" s="42"/>
       <c r="BB26" s="42"/>
@@ -3480,10 +3483,10 @@
       <c r="BN26" s="18"/>
       <c r="BO26" s="18"/>
       <c r="BP26" s="18"/>
-      <c r="BQ26" s="98"/>
-      <c r="BR26" s="99"/>
+      <c r="BQ26" s="95"/>
+      <c r="BR26" s="96"/>
       <c r="BS26" s="2"/>
-      <c r="BT26" s="82"/>
+      <c r="BT26" s="90"/>
       <c r="BU26" s="86"/>
       <c r="BV26" s="87"/>
       <c r="BW26" s="88"/>
@@ -3505,9 +3508,9 @@
       <c r="M27" s="42"/>
       <c r="N27" s="42"/>
       <c r="O27" s="42"/>
-      <c r="P27" s="105"/>
-      <c r="Q27" s="105"/>
-      <c r="R27" s="105"/>
+      <c r="P27" s="78"/>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="78"/>
       <c r="S27" s="42"/>
       <c r="T27" s="42"/>
       <c r="U27" s="42"/>
@@ -3538,9 +3541,9 @@
       <c r="AT27" s="42"/>
       <c r="AU27" s="42"/>
       <c r="AV27" s="42"/>
-      <c r="AW27" s="105"/>
-      <c r="AX27" s="105"/>
-      <c r="AY27" s="105"/>
+      <c r="AW27" s="78"/>
+      <c r="AX27" s="78"/>
+      <c r="AY27" s="78"/>
       <c r="AZ27" s="42"/>
       <c r="BA27" s="42"/>
       <c r="BB27" s="42"/>
@@ -3555,18 +3558,18 @@
       <c r="BK27" s="3"/>
       <c r="BL27" s="25"/>
       <c r="BM27" s="2"/>
-      <c r="BN27" s="96">
+      <c r="BN27" s="93">
         <v>7</v>
       </c>
-      <c r="BO27" s="97"/>
+      <c r="BO27" s="94"/>
       <c r="BP27" s="18"/>
-      <c r="BQ27" s="98"/>
-      <c r="BR27" s="99"/>
+      <c r="BQ27" s="95"/>
+      <c r="BR27" s="96"/>
       <c r="BS27" s="2"/>
-      <c r="BT27" s="81"/>
-      <c r="BU27" s="83"/>
-      <c r="BV27" s="84"/>
-      <c r="BW27" s="85"/>
+      <c r="BT27" s="89"/>
+      <c r="BU27" s="80"/>
+      <c r="BV27" s="81"/>
+      <c r="BW27" s="82"/>
       <c r="BX27" s="2"/>
     </row>
     <row r="28" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3585,9 +3588,9 @@
       <c r="M28" s="42"/>
       <c r="N28" s="42"/>
       <c r="O28" s="42"/>
-      <c r="P28" s="105"/>
-      <c r="Q28" s="105"/>
-      <c r="R28" s="105"/>
+      <c r="P28" s="78"/>
+      <c r="Q28" s="78"/>
+      <c r="R28" s="78"/>
       <c r="S28" s="42"/>
       <c r="T28" s="42"/>
       <c r="U28" s="42"/>
@@ -3618,9 +3621,9 @@
       <c r="AT28" s="42"/>
       <c r="AU28" s="42"/>
       <c r="AV28" s="42"/>
-      <c r="AW28" s="105"/>
-      <c r="AX28" s="105"/>
-      <c r="AY28" s="105"/>
+      <c r="AW28" s="78"/>
+      <c r="AX28" s="78"/>
+      <c r="AY28" s="78"/>
       <c r="AZ28" s="42"/>
       <c r="BA28" s="42"/>
       <c r="BB28" s="42"/>
@@ -3635,13 +3638,13 @@
       <c r="BK28" s="3"/>
       <c r="BL28" s="25"/>
       <c r="BM28" s="2"/>
-      <c r="BN28" s="98"/>
-      <c r="BO28" s="99"/>
+      <c r="BN28" s="95"/>
+      <c r="BO28" s="96"/>
       <c r="BP28" s="18"/>
-      <c r="BQ28" s="98"/>
-      <c r="BR28" s="99"/>
+      <c r="BQ28" s="95"/>
+      <c r="BR28" s="96"/>
       <c r="BS28" s="2"/>
-      <c r="BT28" s="82"/>
+      <c r="BT28" s="90"/>
       <c r="BU28" s="86"/>
       <c r="BV28" s="87"/>
       <c r="BW28" s="88"/>
@@ -3711,16 +3714,16 @@
       <c r="BK29" s="3"/>
       <c r="BL29" s="25"/>
       <c r="BM29" s="2"/>
-      <c r="BN29" s="98"/>
-      <c r="BO29" s="99"/>
+      <c r="BN29" s="95"/>
+      <c r="BO29" s="96"/>
       <c r="BP29" s="18"/>
-      <c r="BQ29" s="98"/>
-      <c r="BR29" s="99"/>
+      <c r="BQ29" s="95"/>
+      <c r="BR29" s="96"/>
       <c r="BS29" s="2"/>
-      <c r="BT29" s="81"/>
-      <c r="BU29" s="83"/>
-      <c r="BV29" s="84"/>
-      <c r="BW29" s="85"/>
+      <c r="BT29" s="89"/>
+      <c r="BU29" s="80"/>
+      <c r="BV29" s="81"/>
+      <c r="BW29" s="82"/>
       <c r="BX29" s="2"/>
     </row>
     <row r="30" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3797,16 +3800,16 @@
       <c r="BK30" s="37"/>
       <c r="BL30" s="25"/>
       <c r="BM30" s="2"/>
-      <c r="BN30" s="100"/>
-      <c r="BO30" s="101"/>
+      <c r="BN30" s="97"/>
+      <c r="BO30" s="98"/>
       <c r="BP30" s="18"/>
-      <c r="BQ30" s="100"/>
-      <c r="BR30" s="101"/>
+      <c r="BQ30" s="97"/>
+      <c r="BR30" s="98"/>
       <c r="BS30" s="2"/>
-      <c r="BT30" s="95"/>
-      <c r="BU30" s="89"/>
-      <c r="BV30" s="90"/>
-      <c r="BW30" s="91"/>
+      <c r="BT30" s="104"/>
+      <c r="BU30" s="83"/>
+      <c r="BV30" s="84"/>
+      <c r="BW30" s="85"/>
       <c r="BX30" s="2"/>
     </row>
     <row r="31" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3970,61 +3973,61 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="65"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="78"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="91"/>
       <c r="I33" s="65"/>
       <c r="J33" s="65"/>
-      <c r="K33" s="78"/>
-      <c r="L33" s="78"/>
+      <c r="K33" s="91"/>
+      <c r="L33" s="91"/>
       <c r="M33" s="65"/>
       <c r="N33" s="65"/>
       <c r="O33" s="65"/>
-      <c r="P33" s="78"/>
-      <c r="Q33" s="78"/>
+      <c r="P33" s="91"/>
+      <c r="Q33" s="91"/>
       <c r="S33" s="65"/>
       <c r="T33" s="65"/>
-      <c r="U33" s="78"/>
-      <c r="V33" s="78"/>
+      <c r="U33" s="91"/>
+      <c r="V33" s="91"/>
       <c r="W33" s="65"/>
       <c r="X33" s="65"/>
       <c r="Y33" s="65"/>
-      <c r="Z33" s="78"/>
-      <c r="AA33" s="78"/>
+      <c r="Z33" s="91"/>
+      <c r="AA33" s="91"/>
       <c r="AB33" s="37"/>
       <c r="AC33" s="65"/>
       <c r="AD33" s="65"/>
-      <c r="AE33" s="78"/>
-      <c r="AF33" s="78"/>
+      <c r="AE33" s="91"/>
+      <c r="AF33" s="91"/>
       <c r="AG33" s="65"/>
       <c r="AH33" s="65"/>
       <c r="AI33" s="65"/>
       <c r="AJ33" s="3"/>
       <c r="AK33" s="65"/>
-      <c r="AL33" s="78"/>
-      <c r="AM33" s="78"/>
+      <c r="AL33" s="91"/>
+      <c r="AM33" s="91"/>
       <c r="AN33" s="37"/>
       <c r="AO33" s="65"/>
-      <c r="AP33" s="78"/>
-      <c r="AQ33" s="78"/>
+      <c r="AP33" s="91"/>
+      <c r="AQ33" s="91"/>
       <c r="AR33" s="65"/>
       <c r="AS33" s="65"/>
       <c r="AT33" s="65"/>
-      <c r="AU33" s="78"/>
-      <c r="AV33" s="78"/>
+      <c r="AU33" s="91"/>
+      <c r="AV33" s="91"/>
       <c r="AX33" s="65"/>
       <c r="AY33" s="65"/>
-      <c r="AZ33" s="78"/>
-      <c r="BA33" s="78"/>
+      <c r="AZ33" s="91"/>
+      <c r="BA33" s="91"/>
       <c r="BB33" s="65"/>
       <c r="BC33" s="65"/>
       <c r="BD33" s="65"/>
-      <c r="BE33" s="78"/>
-      <c r="BF33" s="78"/>
+      <c r="BE33" s="91"/>
+      <c r="BF33" s="91"/>
       <c r="BG33" s="65"/>
       <c r="BH33" s="65"/>
       <c r="BI33" s="65"/>
-      <c r="BJ33" s="78"/>
-      <c r="BK33" s="78"/>
+      <c r="BJ33" s="91"/>
+      <c r="BK33" s="91"/>
       <c r="BL33" s="22"/>
       <c r="BM33" s="1"/>
       <c r="BN33" s="18"/>
@@ -4111,12 +4114,12 @@
       <c r="BQ34" s="18"/>
       <c r="BR34" s="18"/>
       <c r="BS34" s="2"/>
-      <c r="BT34" s="92" t="s">
+      <c r="BT34" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="BU34" s="93"/>
-      <c r="BV34" s="93"/>
-      <c r="BW34" s="94"/>
+      <c r="BU34" s="106"/>
+      <c r="BV34" s="106"/>
+      <c r="BW34" s="107"/>
       <c r="BX34" s="2"/>
     </row>
     <row r="35" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4196,22 +4199,22 @@
       <c r="BK35" s="37"/>
       <c r="BL35" s="25"/>
       <c r="BM35" s="2"/>
-      <c r="BN35" s="96">
+      <c r="BN35" s="93">
         <v>11</v>
       </c>
-      <c r="BO35" s="97"/>
+      <c r="BO35" s="94"/>
       <c r="BP35" s="18"/>
-      <c r="BQ35" s="96">
+      <c r="BQ35" s="93">
         <v>12</v>
       </c>
-      <c r="BR35" s="97"/>
+      <c r="BR35" s="94"/>
       <c r="BS35" s="2"/>
-      <c r="BT35" s="102" t="s">
+      <c r="BT35" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="BU35" s="103"/>
-      <c r="BV35" s="103"/>
-      <c r="BW35" s="104"/>
+      <c r="BU35" s="102"/>
+      <c r="BV35" s="102"/>
+      <c r="BW35" s="103"/>
       <c r="BX35" s="2"/>
     </row>
     <row r="36" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4278,16 +4281,16 @@
       <c r="BK36" s="74"/>
       <c r="BL36" s="25"/>
       <c r="BM36" s="2"/>
-      <c r="BN36" s="98"/>
-      <c r="BO36" s="99"/>
+      <c r="BN36" s="95"/>
+      <c r="BO36" s="96"/>
       <c r="BP36" s="18"/>
-      <c r="BQ36" s="98"/>
-      <c r="BR36" s="99"/>
+      <c r="BQ36" s="95"/>
+      <c r="BR36" s="96"/>
       <c r="BS36" s="2"/>
-      <c r="BT36" s="81"/>
-      <c r="BU36" s="83"/>
-      <c r="BV36" s="84"/>
-      <c r="BW36" s="85"/>
+      <c r="BT36" s="89"/>
+      <c r="BU36" s="80"/>
+      <c r="BV36" s="81"/>
+      <c r="BW36" s="82"/>
       <c r="BX36" s="2"/>
     </row>
     <row r="37" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4356,13 +4359,13 @@
       <c r="BK37" s="17"/>
       <c r="BL37" s="25"/>
       <c r="BM37" s="2"/>
-      <c r="BN37" s="98"/>
-      <c r="BO37" s="99"/>
+      <c r="BN37" s="95"/>
+      <c r="BO37" s="96"/>
       <c r="BP37" s="18"/>
-      <c r="BQ37" s="98"/>
-      <c r="BR37" s="99"/>
+      <c r="BQ37" s="95"/>
+      <c r="BR37" s="96"/>
       <c r="BS37" s="2"/>
-      <c r="BT37" s="82"/>
+      <c r="BT37" s="90"/>
       <c r="BU37" s="86"/>
       <c r="BV37" s="87"/>
       <c r="BW37" s="88"/>
@@ -4384,14 +4387,14 @@
       <c r="M38" s="42"/>
       <c r="N38" s="42"/>
       <c r="O38" s="42"/>
-      <c r="P38" s="105" t="s">
+      <c r="P38" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="Q38" s="105"/>
-      <c r="R38" s="105"/>
-      <c r="S38" s="105"/>
-      <c r="T38" s="105"/>
-      <c r="U38" s="105"/>
+      <c r="Q38" s="78"/>
+      <c r="R38" s="78"/>
+      <c r="S38" s="78"/>
+      <c r="T38" s="78"/>
+      <c r="U38" s="78"/>
       <c r="V38" s="42"/>
       <c r="W38" s="42"/>
       <c r="X38" s="42"/>
@@ -4419,11 +4422,11 @@
       <c r="AT38" s="42"/>
       <c r="AU38" s="42"/>
       <c r="AV38" s="42"/>
-      <c r="AW38" s="105" t="s">
+      <c r="AW38" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="AX38" s="105"/>
-      <c r="AY38" s="105"/>
+      <c r="AX38" s="78"/>
+      <c r="AY38" s="78"/>
       <c r="AZ38" s="42"/>
       <c r="BA38" s="42"/>
       <c r="BB38" s="42"/>
@@ -4438,16 +4441,16 @@
       <c r="BK38" s="17"/>
       <c r="BL38" s="25"/>
       <c r="BM38" s="2"/>
-      <c r="BN38" s="100"/>
-      <c r="BO38" s="101"/>
+      <c r="BN38" s="97"/>
+      <c r="BO38" s="98"/>
       <c r="BP38" s="18"/>
-      <c r="BQ38" s="98"/>
-      <c r="BR38" s="99"/>
+      <c r="BQ38" s="95"/>
+      <c r="BR38" s="96"/>
       <c r="BS38" s="2"/>
-      <c r="BT38" s="81"/>
-      <c r="BU38" s="83"/>
-      <c r="BV38" s="84"/>
-      <c r="BW38" s="85"/>
+      <c r="BT38" s="89"/>
+      <c r="BU38" s="80"/>
+      <c r="BV38" s="81"/>
+      <c r="BW38" s="82"/>
       <c r="BX38" s="2"/>
     </row>
     <row r="39" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4470,12 +4473,12 @@
       <c r="M39" s="42"/>
       <c r="N39" s="42"/>
       <c r="O39" s="42"/>
-      <c r="P39" s="105"/>
-      <c r="Q39" s="105"/>
-      <c r="R39" s="105"/>
-      <c r="S39" s="105"/>
-      <c r="T39" s="105"/>
-      <c r="U39" s="105"/>
+      <c r="P39" s="78"/>
+      <c r="Q39" s="78"/>
+      <c r="R39" s="78"/>
+      <c r="S39" s="78"/>
+      <c r="T39" s="78"/>
+      <c r="U39" s="78"/>
       <c r="V39" s="42"/>
       <c r="W39" s="42"/>
       <c r="X39" s="42"/>
@@ -4507,9 +4510,9 @@
       <c r="AT39" s="42"/>
       <c r="AU39" s="42"/>
       <c r="AV39" s="42"/>
-      <c r="AW39" s="105"/>
-      <c r="AX39" s="105"/>
-      <c r="AY39" s="105"/>
+      <c r="AW39" s="78"/>
+      <c r="AX39" s="78"/>
+      <c r="AY39" s="78"/>
       <c r="AZ39" s="42"/>
       <c r="BA39" s="42"/>
       <c r="BB39" s="42"/>
@@ -4529,10 +4532,10 @@
       <c r="BN39" s="18"/>
       <c r="BO39" s="18"/>
       <c r="BP39" s="18"/>
-      <c r="BQ39" s="98"/>
-      <c r="BR39" s="99"/>
+      <c r="BQ39" s="95"/>
+      <c r="BR39" s="96"/>
       <c r="BS39" s="2"/>
-      <c r="BT39" s="82"/>
+      <c r="BT39" s="90"/>
       <c r="BU39" s="86"/>
       <c r="BV39" s="87"/>
       <c r="BW39" s="88"/>
@@ -4554,12 +4557,12 @@
       <c r="M40" s="42"/>
       <c r="N40" s="42"/>
       <c r="O40" s="42"/>
-      <c r="P40" s="105"/>
-      <c r="Q40" s="105"/>
-      <c r="R40" s="105"/>
-      <c r="S40" s="105"/>
-      <c r="T40" s="105"/>
-      <c r="U40" s="105"/>
+      <c r="P40" s="78"/>
+      <c r="Q40" s="78"/>
+      <c r="R40" s="78"/>
+      <c r="S40" s="78"/>
+      <c r="T40" s="78"/>
+      <c r="U40" s="78"/>
       <c r="V40" s="42"/>
       <c r="W40" s="42"/>
       <c r="X40" s="42"/>
@@ -4587,9 +4590,9 @@
       <c r="AT40" s="42"/>
       <c r="AU40" s="42"/>
       <c r="AV40" s="42"/>
-      <c r="AW40" s="105"/>
-      <c r="AX40" s="105"/>
-      <c r="AY40" s="105"/>
+      <c r="AW40" s="78"/>
+      <c r="AX40" s="78"/>
+      <c r="AY40" s="78"/>
       <c r="AZ40" s="42"/>
       <c r="BA40" s="42"/>
       <c r="BB40" s="42"/>
@@ -4604,18 +4607,18 @@
       <c r="BK40" s="3"/>
       <c r="BL40" s="25"/>
       <c r="BM40" s="2"/>
-      <c r="BN40" s="96">
+      <c r="BN40" s="93">
         <v>13</v>
       </c>
-      <c r="BO40" s="97"/>
+      <c r="BO40" s="94"/>
       <c r="BP40" s="18"/>
-      <c r="BQ40" s="98"/>
-      <c r="BR40" s="99"/>
+      <c r="BQ40" s="95"/>
+      <c r="BR40" s="96"/>
       <c r="BS40" s="2"/>
-      <c r="BT40" s="81"/>
-      <c r="BU40" s="83"/>
-      <c r="BV40" s="84"/>
-      <c r="BW40" s="85"/>
+      <c r="BT40" s="89"/>
+      <c r="BU40" s="80"/>
+      <c r="BV40" s="81"/>
+      <c r="BW40" s="82"/>
       <c r="BX40" s="2"/>
     </row>
     <row r="41" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4634,12 +4637,12 @@
       <c r="M41" s="42"/>
       <c r="N41" s="42"/>
       <c r="O41" s="42"/>
-      <c r="P41" s="105"/>
-      <c r="Q41" s="105"/>
-      <c r="R41" s="105"/>
-      <c r="S41" s="105"/>
-      <c r="T41" s="105"/>
-      <c r="U41" s="105"/>
+      <c r="P41" s="78"/>
+      <c r="Q41" s="78"/>
+      <c r="R41" s="78"/>
+      <c r="S41" s="78"/>
+      <c r="T41" s="78"/>
+      <c r="U41" s="78"/>
       <c r="V41" s="42"/>
       <c r="W41" s="42"/>
       <c r="X41" s="42"/>
@@ -4667,9 +4670,9 @@
       <c r="AT41" s="42"/>
       <c r="AU41" s="42"/>
       <c r="AV41" s="42"/>
-      <c r="AW41" s="105"/>
-      <c r="AX41" s="105"/>
-      <c r="AY41" s="105"/>
+      <c r="AW41" s="78"/>
+      <c r="AX41" s="78"/>
+      <c r="AY41" s="78"/>
       <c r="AZ41" s="42"/>
       <c r="BA41" s="42"/>
       <c r="BB41" s="42"/>
@@ -4684,13 +4687,13 @@
       <c r="BK41" s="3"/>
       <c r="BL41" s="22"/>
       <c r="BM41" s="1"/>
-      <c r="BN41" s="98"/>
-      <c r="BO41" s="99"/>
+      <c r="BN41" s="95"/>
+      <c r="BO41" s="96"/>
       <c r="BP41" s="18"/>
-      <c r="BQ41" s="98"/>
-      <c r="BR41" s="99"/>
+      <c r="BQ41" s="95"/>
+      <c r="BR41" s="96"/>
       <c r="BS41" s="2"/>
-      <c r="BT41" s="82"/>
+      <c r="BT41" s="90"/>
       <c r="BU41" s="86"/>
       <c r="BV41" s="87"/>
       <c r="BW41" s="88"/>
@@ -4760,16 +4763,16 @@
       <c r="BK42" s="3"/>
       <c r="BL42" s="25"/>
       <c r="BM42" s="2"/>
-      <c r="BN42" s="98"/>
-      <c r="BO42" s="99"/>
+      <c r="BN42" s="95"/>
+      <c r="BO42" s="96"/>
       <c r="BP42" s="18"/>
-      <c r="BQ42" s="98"/>
-      <c r="BR42" s="99"/>
+      <c r="BQ42" s="95"/>
+      <c r="BR42" s="96"/>
       <c r="BS42" s="2"/>
-      <c r="BT42" s="81"/>
-      <c r="BU42" s="83"/>
-      <c r="BV42" s="84"/>
-      <c r="BW42" s="85"/>
+      <c r="BT42" s="89"/>
+      <c r="BU42" s="80"/>
+      <c r="BV42" s="81"/>
+      <c r="BW42" s="82"/>
       <c r="BX42" s="2"/>
     </row>
     <row r="43" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4846,16 +4849,16 @@
       <c r="BK43" s="37"/>
       <c r="BL43" s="25"/>
       <c r="BM43" s="2"/>
-      <c r="BN43" s="100"/>
-      <c r="BO43" s="101"/>
+      <c r="BN43" s="97"/>
+      <c r="BO43" s="98"/>
       <c r="BP43" s="18"/>
-      <c r="BQ43" s="100"/>
-      <c r="BR43" s="101"/>
+      <c r="BQ43" s="97"/>
+      <c r="BR43" s="98"/>
       <c r="BS43" s="2"/>
-      <c r="BT43" s="95"/>
-      <c r="BU43" s="89"/>
-      <c r="BV43" s="90"/>
-      <c r="BW43" s="91"/>
+      <c r="BT43" s="104"/>
+      <c r="BU43" s="83"/>
+      <c r="BV43" s="84"/>
+      <c r="BW43" s="85"/>
       <c r="BX43" s="2"/>
     </row>
     <row r="44" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5019,61 +5022,61 @@
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="65"/>
-      <c r="G46" s="78"/>
-      <c r="H46" s="78"/>
+      <c r="G46" s="91"/>
+      <c r="H46" s="91"/>
       <c r="I46" s="65"/>
       <c r="J46" s="65"/>
-      <c r="K46" s="78"/>
-      <c r="L46" s="78"/>
+      <c r="K46" s="91"/>
+      <c r="L46" s="91"/>
       <c r="M46" s="65"/>
       <c r="N46" s="65"/>
       <c r="O46" s="65"/>
-      <c r="P46" s="78"/>
-      <c r="Q46" s="78"/>
+      <c r="P46" s="91"/>
+      <c r="Q46" s="91"/>
       <c r="S46" s="65"/>
       <c r="T46" s="65"/>
-      <c r="U46" s="78"/>
-      <c r="V46" s="78"/>
+      <c r="U46" s="91"/>
+      <c r="V46" s="91"/>
       <c r="W46" s="65"/>
       <c r="X46" s="65"/>
       <c r="Y46" s="65"/>
-      <c r="Z46" s="78"/>
-      <c r="AA46" s="78"/>
+      <c r="Z46" s="91"/>
+      <c r="AA46" s="91"/>
       <c r="AB46" s="37"/>
       <c r="AC46" s="65"/>
       <c r="AD46" s="65"/>
-      <c r="AE46" s="78"/>
-      <c r="AF46" s="78"/>
+      <c r="AE46" s="91"/>
+      <c r="AF46" s="91"/>
       <c r="AG46" s="65"/>
       <c r="AH46" s="65"/>
       <c r="AI46" s="65"/>
       <c r="AJ46" s="3"/>
       <c r="AK46" s="65"/>
-      <c r="AL46" s="78"/>
-      <c r="AM46" s="78"/>
+      <c r="AL46" s="91"/>
+      <c r="AM46" s="91"/>
       <c r="AN46" s="37"/>
       <c r="AO46" s="65"/>
-      <c r="AP46" s="78"/>
-      <c r="AQ46" s="78"/>
+      <c r="AP46" s="91"/>
+      <c r="AQ46" s="91"/>
       <c r="AR46" s="65"/>
       <c r="AS46" s="65"/>
       <c r="AT46" s="65"/>
-      <c r="AU46" s="78"/>
-      <c r="AV46" s="78"/>
+      <c r="AU46" s="91"/>
+      <c r="AV46" s="91"/>
       <c r="AX46" s="65"/>
       <c r="AY46" s="65"/>
-      <c r="AZ46" s="78"/>
-      <c r="BA46" s="78"/>
+      <c r="AZ46" s="91"/>
+      <c r="BA46" s="91"/>
       <c r="BB46" s="65"/>
       <c r="BC46" s="65"/>
       <c r="BD46" s="65"/>
-      <c r="BE46" s="78"/>
-      <c r="BF46" s="78"/>
+      <c r="BE46" s="91"/>
+      <c r="BF46" s="91"/>
       <c r="BG46" s="65"/>
       <c r="BH46" s="65"/>
       <c r="BI46" s="65"/>
-      <c r="BJ46" s="78"/>
-      <c r="BK46" s="78"/>
+      <c r="BJ46" s="91"/>
+      <c r="BK46" s="91"/>
       <c r="BL46" s="25"/>
       <c r="BM46" s="2"/>
       <c r="BN46" s="69"/>
@@ -5160,12 +5163,12 @@
       <c r="BQ47" s="69"/>
       <c r="BR47" s="69"/>
       <c r="BS47" s="2"/>
-      <c r="BT47" s="92" t="s">
+      <c r="BT47" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="BU47" s="93"/>
-      <c r="BV47" s="93"/>
-      <c r="BW47" s="94"/>
+      <c r="BU47" s="106"/>
+      <c r="BV47" s="106"/>
+      <c r="BW47" s="107"/>
       <c r="BX47" s="2"/>
     </row>
     <row r="48" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5245,22 +5248,22 @@
       <c r="BK48" s="37"/>
       <c r="BL48" s="25"/>
       <c r="BM48" s="2"/>
-      <c r="BN48" s="96">
+      <c r="BN48" s="93">
         <v>15</v>
       </c>
-      <c r="BO48" s="97"/>
+      <c r="BO48" s="94"/>
       <c r="BP48" s="18"/>
-      <c r="BQ48" s="96">
+      <c r="BQ48" s="93">
         <v>16</v>
       </c>
-      <c r="BR48" s="97"/>
+      <c r="BR48" s="94"/>
       <c r="BS48" s="2"/>
-      <c r="BT48" s="102" t="s">
+      <c r="BT48" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="BU48" s="103"/>
-      <c r="BV48" s="103"/>
-      <c r="BW48" s="104"/>
+      <c r="BU48" s="102"/>
+      <c r="BV48" s="102"/>
+      <c r="BW48" s="103"/>
       <c r="BX48" s="2"/>
     </row>
     <row r="49" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5327,16 +5330,16 @@
       <c r="BK49" s="74"/>
       <c r="BL49" s="25"/>
       <c r="BM49" s="2"/>
-      <c r="BN49" s="98"/>
-      <c r="BO49" s="99"/>
+      <c r="BN49" s="95"/>
+      <c r="BO49" s="96"/>
       <c r="BP49" s="18"/>
-      <c r="BQ49" s="98"/>
-      <c r="BR49" s="99"/>
+      <c r="BQ49" s="95"/>
+      <c r="BR49" s="96"/>
       <c r="BS49" s="28"/>
-      <c r="BT49" s="81"/>
-      <c r="BU49" s="83"/>
-      <c r="BV49" s="84"/>
-      <c r="BW49" s="85"/>
+      <c r="BT49" s="89"/>
+      <c r="BU49" s="80"/>
+      <c r="BV49" s="81"/>
+      <c r="BW49" s="82"/>
       <c r="BX49" s="2"/>
     </row>
     <row r="50" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5405,13 +5408,13 @@
       <c r="BK50" s="17"/>
       <c r="BL50" s="25"/>
       <c r="BM50" s="2"/>
-      <c r="BN50" s="98"/>
-      <c r="BO50" s="99"/>
+      <c r="BN50" s="95"/>
+      <c r="BO50" s="96"/>
       <c r="BP50" s="18"/>
-      <c r="BQ50" s="98"/>
-      <c r="BR50" s="99"/>
+      <c r="BQ50" s="95"/>
+      <c r="BR50" s="96"/>
       <c r="BS50" s="2"/>
-      <c r="BT50" s="82"/>
+      <c r="BT50" s="90"/>
       <c r="BU50" s="86"/>
       <c r="BV50" s="87"/>
       <c r="BW50" s="88"/>
@@ -5433,11 +5436,11 @@
       <c r="M51" s="42"/>
       <c r="N51" s="42"/>
       <c r="O51" s="42"/>
-      <c r="P51" s="105" t="s">
+      <c r="P51" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="Q51" s="105"/>
-      <c r="R51" s="105"/>
+      <c r="Q51" s="78"/>
+      <c r="R51" s="78"/>
       <c r="S51" s="42"/>
       <c r="T51" s="42"/>
       <c r="U51" s="42"/>
@@ -5468,11 +5471,11 @@
       <c r="AT51" s="42"/>
       <c r="AU51" s="42"/>
       <c r="AV51" s="42"/>
-      <c r="AW51" s="105" t="s">
+      <c r="AW51" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="AX51" s="105"/>
-      <c r="AY51" s="105"/>
+      <c r="AX51" s="78"/>
+      <c r="AY51" s="78"/>
       <c r="AZ51" s="42"/>
       <c r="BA51" s="42"/>
       <c r="BB51" s="42"/>
@@ -5487,16 +5490,16 @@
       <c r="BK51" s="17"/>
       <c r="BL51" s="25"/>
       <c r="BM51" s="2"/>
-      <c r="BN51" s="100"/>
-      <c r="BO51" s="101"/>
+      <c r="BN51" s="97"/>
+      <c r="BO51" s="98"/>
       <c r="BP51" s="18"/>
-      <c r="BQ51" s="98"/>
-      <c r="BR51" s="99"/>
+      <c r="BQ51" s="95"/>
+      <c r="BR51" s="96"/>
       <c r="BS51" s="2"/>
-      <c r="BT51" s="81"/>
-      <c r="BU51" s="83"/>
-      <c r="BV51" s="84"/>
-      <c r="BW51" s="85"/>
+      <c r="BT51" s="89"/>
+      <c r="BU51" s="80"/>
+      <c r="BV51" s="81"/>
+      <c r="BW51" s="82"/>
       <c r="BX51" s="2"/>
     </row>
     <row r="52" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5519,9 +5522,9 @@
       <c r="M52" s="42"/>
       <c r="N52" s="42"/>
       <c r="O52" s="42"/>
-      <c r="P52" s="105"/>
-      <c r="Q52" s="105"/>
-      <c r="R52" s="105"/>
+      <c r="P52" s="78"/>
+      <c r="Q52" s="78"/>
+      <c r="R52" s="78"/>
       <c r="S52" s="42"/>
       <c r="T52" s="42"/>
       <c r="U52" s="42"/>
@@ -5556,9 +5559,9 @@
       <c r="AT52" s="42"/>
       <c r="AU52" s="42"/>
       <c r="AV52" s="42"/>
-      <c r="AW52" s="105"/>
-      <c r="AX52" s="105"/>
-      <c r="AY52" s="105"/>
+      <c r="AW52" s="78"/>
+      <c r="AX52" s="78"/>
+      <c r="AY52" s="78"/>
       <c r="AZ52" s="42"/>
       <c r="BA52" s="42"/>
       <c r="BB52" s="42"/>
@@ -5578,10 +5581,10 @@
       <c r="BN52" s="18"/>
       <c r="BO52" s="18"/>
       <c r="BP52" s="18"/>
-      <c r="BQ52" s="98"/>
-      <c r="BR52" s="99"/>
+      <c r="BQ52" s="95"/>
+      <c r="BR52" s="96"/>
       <c r="BS52" s="2"/>
-      <c r="BT52" s="82"/>
+      <c r="BT52" s="90"/>
       <c r="BU52" s="86"/>
       <c r="BV52" s="87"/>
       <c r="BW52" s="88"/>
@@ -5603,9 +5606,9 @@
       <c r="M53" s="42"/>
       <c r="N53" s="42"/>
       <c r="O53" s="42"/>
-      <c r="P53" s="105"/>
-      <c r="Q53" s="105"/>
-      <c r="R53" s="105"/>
+      <c r="P53" s="78"/>
+      <c r="Q53" s="78"/>
+      <c r="R53" s="78"/>
       <c r="S53" s="42"/>
       <c r="T53" s="42"/>
       <c r="U53" s="42"/>
@@ -5636,9 +5639,9 @@
       <c r="AT53" s="42"/>
       <c r="AU53" s="42"/>
       <c r="AV53" s="42"/>
-      <c r="AW53" s="105"/>
-      <c r="AX53" s="105"/>
-      <c r="AY53" s="105"/>
+      <c r="AW53" s="78"/>
+      <c r="AX53" s="78"/>
+      <c r="AY53" s="78"/>
       <c r="AZ53" s="42"/>
       <c r="BA53" s="42"/>
       <c r="BB53" s="42"/>
@@ -5653,18 +5656,18 @@
       <c r="BK53" s="3"/>
       <c r="BL53" s="25"/>
       <c r="BM53" s="2"/>
-      <c r="BN53" s="96">
+      <c r="BN53" s="93">
         <v>17</v>
       </c>
-      <c r="BO53" s="97"/>
+      <c r="BO53" s="94"/>
       <c r="BP53" s="18"/>
-      <c r="BQ53" s="98"/>
-      <c r="BR53" s="99"/>
+      <c r="BQ53" s="95"/>
+      <c r="BR53" s="96"/>
       <c r="BS53" s="2"/>
-      <c r="BT53" s="81"/>
-      <c r="BU53" s="83"/>
-      <c r="BV53" s="84"/>
-      <c r="BW53" s="85"/>
+      <c r="BT53" s="89"/>
+      <c r="BU53" s="80"/>
+      <c r="BV53" s="81"/>
+      <c r="BW53" s="82"/>
       <c r="BX53" s="2"/>
     </row>
     <row r="54" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5683,9 +5686,9 @@
       <c r="M54" s="42"/>
       <c r="N54" s="42"/>
       <c r="O54" s="42"/>
-      <c r="P54" s="105"/>
-      <c r="Q54" s="105"/>
-      <c r="R54" s="105"/>
+      <c r="P54" s="78"/>
+      <c r="Q54" s="78"/>
+      <c r="R54" s="78"/>
       <c r="S54" s="42"/>
       <c r="T54" s="42"/>
       <c r="U54" s="42"/>
@@ -5716,9 +5719,9 @@
       <c r="AT54" s="42"/>
       <c r="AU54" s="42"/>
       <c r="AV54" s="42"/>
-      <c r="AW54" s="105"/>
-      <c r="AX54" s="105"/>
-      <c r="AY54" s="105"/>
+      <c r="AW54" s="78"/>
+      <c r="AX54" s="78"/>
+      <c r="AY54" s="78"/>
       <c r="AZ54" s="42"/>
       <c r="BA54" s="42"/>
       <c r="BB54" s="42"/>
@@ -5733,13 +5736,13 @@
       <c r="BK54" s="3"/>
       <c r="BL54" s="22"/>
       <c r="BM54" s="1"/>
-      <c r="BN54" s="98"/>
-      <c r="BO54" s="99"/>
+      <c r="BN54" s="95"/>
+      <c r="BO54" s="96"/>
       <c r="BP54" s="18"/>
-      <c r="BQ54" s="98"/>
-      <c r="BR54" s="99"/>
+      <c r="BQ54" s="95"/>
+      <c r="BR54" s="96"/>
       <c r="BS54" s="2"/>
-      <c r="BT54" s="82"/>
+      <c r="BT54" s="90"/>
       <c r="BU54" s="86"/>
       <c r="BV54" s="87"/>
       <c r="BW54" s="88"/>
@@ -5809,16 +5812,16 @@
       <c r="BK55" s="3"/>
       <c r="BL55" s="25"/>
       <c r="BM55" s="2"/>
-      <c r="BN55" s="98"/>
-      <c r="BO55" s="99"/>
+      <c r="BN55" s="95"/>
+      <c r="BO55" s="96"/>
       <c r="BP55" s="18"/>
-      <c r="BQ55" s="98"/>
-      <c r="BR55" s="99"/>
+      <c r="BQ55" s="95"/>
+      <c r="BR55" s="96"/>
       <c r="BS55" s="2"/>
-      <c r="BT55" s="81"/>
-      <c r="BU55" s="83"/>
-      <c r="BV55" s="84"/>
-      <c r="BW55" s="85"/>
+      <c r="BT55" s="89"/>
+      <c r="BU55" s="80"/>
+      <c r="BV55" s="81"/>
+      <c r="BW55" s="82"/>
       <c r="BX55" s="2"/>
     </row>
     <row r="56" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5895,16 +5898,16 @@
       <c r="BK56" s="37"/>
       <c r="BL56" s="25"/>
       <c r="BM56" s="2"/>
-      <c r="BN56" s="100"/>
-      <c r="BO56" s="101"/>
+      <c r="BN56" s="97"/>
+      <c r="BO56" s="98"/>
       <c r="BP56" s="18"/>
-      <c r="BQ56" s="100"/>
-      <c r="BR56" s="101"/>
+      <c r="BQ56" s="97"/>
+      <c r="BR56" s="98"/>
       <c r="BS56" s="2"/>
-      <c r="BT56" s="95"/>
-      <c r="BU56" s="89"/>
-      <c r="BV56" s="90"/>
-      <c r="BW56" s="91"/>
+      <c r="BT56" s="104"/>
+      <c r="BU56" s="83"/>
+      <c r="BV56" s="84"/>
+      <c r="BW56" s="85"/>
       <c r="BX56" s="2"/>
     </row>
     <row r="57" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6068,61 +6071,61 @@
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="65"/>
-      <c r="G59" s="78"/>
-      <c r="H59" s="78"/>
+      <c r="G59" s="91"/>
+      <c r="H59" s="91"/>
       <c r="I59" s="65"/>
       <c r="J59" s="65"/>
-      <c r="K59" s="78"/>
-      <c r="L59" s="78"/>
+      <c r="K59" s="91"/>
+      <c r="L59" s="91"/>
       <c r="M59" s="65"/>
       <c r="N59" s="65"/>
       <c r="O59" s="65"/>
-      <c r="P59" s="78"/>
-      <c r="Q59" s="78"/>
+      <c r="P59" s="91"/>
+      <c r="Q59" s="91"/>
       <c r="S59" s="65"/>
       <c r="T59" s="65"/>
-      <c r="U59" s="78"/>
-      <c r="V59" s="78"/>
+      <c r="U59" s="91"/>
+      <c r="V59" s="91"/>
       <c r="W59" s="65"/>
       <c r="X59" s="65"/>
       <c r="Y59" s="65"/>
-      <c r="Z59" s="78"/>
-      <c r="AA59" s="78"/>
+      <c r="Z59" s="91"/>
+      <c r="AA59" s="91"/>
       <c r="AB59" s="37"/>
       <c r="AC59" s="65"/>
       <c r="AD59" s="65"/>
-      <c r="AE59" s="78"/>
-      <c r="AF59" s="78"/>
+      <c r="AE59" s="91"/>
+      <c r="AF59" s="91"/>
       <c r="AG59" s="65"/>
       <c r="AH59" s="65"/>
       <c r="AI59" s="65"/>
       <c r="AJ59" s="3"/>
       <c r="AK59" s="65"/>
-      <c r="AL59" s="78"/>
-      <c r="AM59" s="78"/>
+      <c r="AL59" s="91"/>
+      <c r="AM59" s="91"/>
       <c r="AN59" s="37"/>
       <c r="AO59" s="65"/>
-      <c r="AP59" s="78"/>
-      <c r="AQ59" s="78"/>
+      <c r="AP59" s="91"/>
+      <c r="AQ59" s="91"/>
       <c r="AR59" s="65"/>
       <c r="AS59" s="65"/>
       <c r="AT59" s="65"/>
-      <c r="AU59" s="78"/>
-      <c r="AV59" s="78"/>
+      <c r="AU59" s="91"/>
+      <c r="AV59" s="91"/>
       <c r="AX59" s="65"/>
       <c r="AY59" s="65"/>
-      <c r="AZ59" s="78"/>
-      <c r="BA59" s="78"/>
+      <c r="AZ59" s="91"/>
+      <c r="BA59" s="91"/>
       <c r="BB59" s="65"/>
       <c r="BC59" s="65"/>
       <c r="BD59" s="65"/>
-      <c r="BE59" s="78"/>
-      <c r="BF59" s="78"/>
+      <c r="BE59" s="91"/>
+      <c r="BF59" s="91"/>
       <c r="BG59" s="65"/>
       <c r="BH59" s="65"/>
       <c r="BI59" s="65"/>
-      <c r="BJ59" s="78"/>
-      <c r="BK59" s="78"/>
+      <c r="BJ59" s="91"/>
+      <c r="BK59" s="91"/>
       <c r="BL59" s="25"/>
       <c r="BM59" s="2"/>
       <c r="BN59" s="69"/>
@@ -6209,12 +6212,12 @@
       <c r="BQ60" s="69"/>
       <c r="BR60" s="69"/>
       <c r="BS60" s="2"/>
-      <c r="BT60" s="92" t="s">
+      <c r="BT60" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="BU60" s="93"/>
-      <c r="BV60" s="93"/>
-      <c r="BW60" s="94"/>
+      <c r="BU60" s="106"/>
+      <c r="BV60" s="106"/>
+      <c r="BW60" s="107"/>
       <c r="BX60" s="2"/>
     </row>
     <row r="61" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6294,22 +6297,22 @@
       <c r="BK61" s="37"/>
       <c r="BL61" s="25"/>
       <c r="BM61" s="2"/>
-      <c r="BN61" s="96">
+      <c r="BN61" s="93">
         <v>21</v>
       </c>
-      <c r="BO61" s="97"/>
+      <c r="BO61" s="94"/>
       <c r="BP61" s="18"/>
-      <c r="BQ61" s="96">
+      <c r="BQ61" s="93">
         <v>22</v>
       </c>
-      <c r="BR61" s="97"/>
+      <c r="BR61" s="94"/>
       <c r="BS61" s="2"/>
-      <c r="BT61" s="102" t="s">
+      <c r="BT61" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="BU61" s="103"/>
-      <c r="BV61" s="103"/>
-      <c r="BW61" s="104"/>
+      <c r="BU61" s="102"/>
+      <c r="BV61" s="102"/>
+      <c r="BW61" s="103"/>
       <c r="BX61" s="2"/>
     </row>
     <row r="62" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6376,16 +6379,16 @@
       <c r="BK62" s="74"/>
       <c r="BL62" s="25"/>
       <c r="BM62" s="2"/>
-      <c r="BN62" s="98"/>
-      <c r="BO62" s="99"/>
+      <c r="BN62" s="95"/>
+      <c r="BO62" s="96"/>
       <c r="BP62" s="18"/>
-      <c r="BQ62" s="98"/>
-      <c r="BR62" s="99"/>
+      <c r="BQ62" s="95"/>
+      <c r="BR62" s="96"/>
       <c r="BS62" s="2"/>
-      <c r="BT62" s="81"/>
-      <c r="BU62" s="83"/>
-      <c r="BV62" s="84"/>
-      <c r="BW62" s="85"/>
+      <c r="BT62" s="89"/>
+      <c r="BU62" s="80"/>
+      <c r="BV62" s="81"/>
+      <c r="BW62" s="82"/>
       <c r="BX62" s="2"/>
     </row>
     <row r="63" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6454,13 +6457,13 @@
       <c r="BK63" s="17"/>
       <c r="BL63" s="25"/>
       <c r="BM63" s="2"/>
-      <c r="BN63" s="98"/>
-      <c r="BO63" s="99"/>
+      <c r="BN63" s="95"/>
+      <c r="BO63" s="96"/>
       <c r="BP63" s="18"/>
-      <c r="BQ63" s="98"/>
-      <c r="BR63" s="99"/>
+      <c r="BQ63" s="95"/>
+      <c r="BR63" s="96"/>
       <c r="BS63" s="2"/>
-      <c r="BT63" s="82"/>
+      <c r="BT63" s="90"/>
       <c r="BU63" s="86"/>
       <c r="BV63" s="87"/>
       <c r="BW63" s="88"/>
@@ -6482,11 +6485,11 @@
       <c r="M64" s="42"/>
       <c r="N64" s="42"/>
       <c r="O64" s="42"/>
-      <c r="P64" s="105" t="s">
+      <c r="P64" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="Q64" s="105"/>
-      <c r="R64" s="105"/>
+      <c r="Q64" s="78"/>
+      <c r="R64" s="78"/>
       <c r="S64" s="42"/>
       <c r="T64" s="42"/>
       <c r="U64" s="42"/>
@@ -6517,11 +6520,11 @@
       <c r="AT64" s="42"/>
       <c r="AU64" s="42"/>
       <c r="AV64" s="42"/>
-      <c r="AW64" s="105" t="s">
+      <c r="AW64" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="AX64" s="105"/>
-      <c r="AY64" s="105"/>
+      <c r="AX64" s="78"/>
+      <c r="AY64" s="78"/>
       <c r="AZ64" s="42"/>
       <c r="BA64" s="42"/>
       <c r="BB64" s="42"/>
@@ -6536,16 +6539,16 @@
       <c r="BK64" s="17"/>
       <c r="BL64" s="25"/>
       <c r="BM64" s="2"/>
-      <c r="BN64" s="100"/>
-      <c r="BO64" s="101"/>
+      <c r="BN64" s="97"/>
+      <c r="BO64" s="98"/>
       <c r="BP64" s="18"/>
-      <c r="BQ64" s="98"/>
-      <c r="BR64" s="99"/>
+      <c r="BQ64" s="95"/>
+      <c r="BR64" s="96"/>
       <c r="BS64" s="2"/>
-      <c r="BT64" s="81"/>
-      <c r="BU64" s="83"/>
-      <c r="BV64" s="84"/>
-      <c r="BW64" s="85"/>
+      <c r="BT64" s="89"/>
+      <c r="BU64" s="80"/>
+      <c r="BV64" s="81"/>
+      <c r="BW64" s="82"/>
       <c r="BX64" s="2"/>
     </row>
     <row r="65" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6568,9 +6571,9 @@
       <c r="M65" s="42"/>
       <c r="N65" s="42"/>
       <c r="O65" s="42"/>
-      <c r="P65" s="105"/>
-      <c r="Q65" s="105"/>
-      <c r="R65" s="105"/>
+      <c r="P65" s="78"/>
+      <c r="Q65" s="78"/>
+      <c r="R65" s="78"/>
       <c r="S65" s="42"/>
       <c r="T65" s="42"/>
       <c r="U65" s="42"/>
@@ -6605,9 +6608,9 @@
       <c r="AT65" s="42"/>
       <c r="AU65" s="42"/>
       <c r="AV65" s="42"/>
-      <c r="AW65" s="105"/>
-      <c r="AX65" s="105"/>
-      <c r="AY65" s="105"/>
+      <c r="AW65" s="78"/>
+      <c r="AX65" s="78"/>
+      <c r="AY65" s="78"/>
       <c r="AZ65" s="42"/>
       <c r="BA65" s="42"/>
       <c r="BB65" s="42"/>
@@ -6627,10 +6630,10 @@
       <c r="BN65" s="18"/>
       <c r="BO65" s="18"/>
       <c r="BP65" s="18"/>
-      <c r="BQ65" s="98"/>
-      <c r="BR65" s="99"/>
+      <c r="BQ65" s="95"/>
+      <c r="BR65" s="96"/>
       <c r="BS65" s="2"/>
-      <c r="BT65" s="82"/>
+      <c r="BT65" s="90"/>
       <c r="BU65" s="86"/>
       <c r="BV65" s="87"/>
       <c r="BW65" s="88"/>
@@ -6652,9 +6655,9 @@
       <c r="M66" s="42"/>
       <c r="N66" s="42"/>
       <c r="O66" s="42"/>
-      <c r="P66" s="105"/>
-      <c r="Q66" s="105"/>
-      <c r="R66" s="105"/>
+      <c r="P66" s="78"/>
+      <c r="Q66" s="78"/>
+      <c r="R66" s="78"/>
       <c r="S66" s="42"/>
       <c r="T66" s="42"/>
       <c r="U66" s="42"/>
@@ -6685,9 +6688,9 @@
       <c r="AT66" s="42"/>
       <c r="AU66" s="42"/>
       <c r="AV66" s="42"/>
-      <c r="AW66" s="105"/>
-      <c r="AX66" s="105"/>
-      <c r="AY66" s="105"/>
+      <c r="AW66" s="78"/>
+      <c r="AX66" s="78"/>
+      <c r="AY66" s="78"/>
       <c r="AZ66" s="42"/>
       <c r="BA66" s="42"/>
       <c r="BB66" s="42"/>
@@ -6702,18 +6705,18 @@
       <c r="BK66" s="3"/>
       <c r="BL66" s="25"/>
       <c r="BM66" s="2"/>
-      <c r="BN66" s="96">
+      <c r="BN66" s="93">
         <v>23</v>
       </c>
-      <c r="BO66" s="97"/>
+      <c r="BO66" s="94"/>
       <c r="BP66" s="18"/>
-      <c r="BQ66" s="98"/>
-      <c r="BR66" s="99"/>
+      <c r="BQ66" s="95"/>
+      <c r="BR66" s="96"/>
       <c r="BS66" s="2"/>
-      <c r="BT66" s="81"/>
-      <c r="BU66" s="83"/>
-      <c r="BV66" s="84"/>
-      <c r="BW66" s="85"/>
+      <c r="BT66" s="89"/>
+      <c r="BU66" s="80"/>
+      <c r="BV66" s="81"/>
+      <c r="BW66" s="82"/>
       <c r="BX66" s="2"/>
     </row>
     <row r="67" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6732,9 +6735,9 @@
       <c r="M67" s="42"/>
       <c r="N67" s="42"/>
       <c r="O67" s="42"/>
-      <c r="P67" s="105"/>
-      <c r="Q67" s="105"/>
-      <c r="R67" s="105"/>
+      <c r="P67" s="78"/>
+      <c r="Q67" s="78"/>
+      <c r="R67" s="78"/>
       <c r="S67" s="42"/>
       <c r="T67" s="42"/>
       <c r="U67" s="42"/>
@@ -6765,9 +6768,9 @@
       <c r="AT67" s="42"/>
       <c r="AU67" s="42"/>
       <c r="AV67" s="42"/>
-      <c r="AW67" s="105"/>
-      <c r="AX67" s="105"/>
-      <c r="AY67" s="105"/>
+      <c r="AW67" s="78"/>
+      <c r="AX67" s="78"/>
+      <c r="AY67" s="78"/>
       <c r="AZ67" s="42"/>
       <c r="BA67" s="42"/>
       <c r="BB67" s="42"/>
@@ -6782,13 +6785,13 @@
       <c r="BK67" s="3"/>
       <c r="BL67" s="25"/>
       <c r="BM67" s="2"/>
-      <c r="BN67" s="98"/>
-      <c r="BO67" s="99"/>
+      <c r="BN67" s="95"/>
+      <c r="BO67" s="96"/>
       <c r="BP67" s="18"/>
-      <c r="BQ67" s="98"/>
-      <c r="BR67" s="99"/>
+      <c r="BQ67" s="95"/>
+      <c r="BR67" s="96"/>
       <c r="BS67" s="2"/>
-      <c r="BT67" s="82"/>
+      <c r="BT67" s="90"/>
       <c r="BU67" s="86"/>
       <c r="BV67" s="87"/>
       <c r="BW67" s="88"/>
@@ -6858,16 +6861,16 @@
       <c r="BK68" s="3"/>
       <c r="BL68" s="25"/>
       <c r="BM68" s="2"/>
-      <c r="BN68" s="98"/>
-      <c r="BO68" s="99"/>
+      <c r="BN68" s="95"/>
+      <c r="BO68" s="96"/>
       <c r="BP68" s="18"/>
-      <c r="BQ68" s="98"/>
-      <c r="BR68" s="99"/>
+      <c r="BQ68" s="95"/>
+      <c r="BR68" s="96"/>
       <c r="BS68" s="2"/>
-      <c r="BT68" s="81"/>
-      <c r="BU68" s="83"/>
-      <c r="BV68" s="84"/>
-      <c r="BW68" s="85"/>
+      <c r="BT68" s="89"/>
+      <c r="BU68" s="80"/>
+      <c r="BV68" s="81"/>
+      <c r="BW68" s="82"/>
       <c r="BX68" s="2"/>
     </row>
     <row r="69" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6944,16 +6947,16 @@
       <c r="BK69" s="37"/>
       <c r="BL69" s="25"/>
       <c r="BM69" s="2"/>
-      <c r="BN69" s="100"/>
-      <c r="BO69" s="101"/>
+      <c r="BN69" s="97"/>
+      <c r="BO69" s="98"/>
       <c r="BP69" s="18"/>
-      <c r="BQ69" s="100"/>
-      <c r="BR69" s="101"/>
+      <c r="BQ69" s="97"/>
+      <c r="BR69" s="98"/>
       <c r="BS69" s="2"/>
-      <c r="BT69" s="95"/>
-      <c r="BU69" s="89"/>
-      <c r="BV69" s="90"/>
-      <c r="BW69" s="91"/>
+      <c r="BT69" s="104"/>
+      <c r="BU69" s="83"/>
+      <c r="BV69" s="84"/>
+      <c r="BW69" s="85"/>
       <c r="BX69" s="2"/>
     </row>
     <row r="70" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7117,61 +7120,61 @@
       <c r="D72" s="2"/>
       <c r="E72" s="3"/>
       <c r="F72" s="65"/>
-      <c r="G72" s="78"/>
-      <c r="H72" s="78"/>
+      <c r="G72" s="91"/>
+      <c r="H72" s="91"/>
       <c r="I72" s="65"/>
       <c r="J72" s="65"/>
-      <c r="K72" s="78"/>
-      <c r="L72" s="78"/>
+      <c r="K72" s="91"/>
+      <c r="L72" s="91"/>
       <c r="M72" s="65"/>
       <c r="N72" s="65"/>
       <c r="O72" s="65"/>
-      <c r="P72" s="78"/>
-      <c r="Q72" s="78"/>
+      <c r="P72" s="91"/>
+      <c r="Q72" s="91"/>
       <c r="S72" s="65"/>
       <c r="T72" s="65"/>
-      <c r="U72" s="78"/>
-      <c r="V72" s="78"/>
+      <c r="U72" s="91"/>
+      <c r="V72" s="91"/>
       <c r="W72" s="65"/>
       <c r="X72" s="65"/>
       <c r="Y72" s="65"/>
-      <c r="Z72" s="78"/>
-      <c r="AA72" s="78"/>
+      <c r="Z72" s="91"/>
+      <c r="AA72" s="91"/>
       <c r="AB72" s="37"/>
       <c r="AC72" s="65"/>
       <c r="AD72" s="65"/>
-      <c r="AE72" s="78"/>
-      <c r="AF72" s="78"/>
+      <c r="AE72" s="91"/>
+      <c r="AF72" s="91"/>
       <c r="AG72" s="65"/>
       <c r="AH72" s="65"/>
       <c r="AI72" s="65"/>
       <c r="AJ72" s="3"/>
       <c r="AK72" s="65"/>
-      <c r="AL72" s="78"/>
-      <c r="AM72" s="78"/>
+      <c r="AL72" s="91"/>
+      <c r="AM72" s="91"/>
       <c r="AN72" s="37"/>
       <c r="AO72" s="65"/>
-      <c r="AP72" s="78"/>
-      <c r="AQ72" s="78"/>
+      <c r="AP72" s="91"/>
+      <c r="AQ72" s="91"/>
       <c r="AR72" s="65"/>
       <c r="AS72" s="65"/>
       <c r="AT72" s="65"/>
-      <c r="AU72" s="78"/>
-      <c r="AV72" s="78"/>
+      <c r="AU72" s="91"/>
+      <c r="AV72" s="91"/>
       <c r="AX72" s="65"/>
       <c r="AY72" s="65"/>
-      <c r="AZ72" s="78"/>
-      <c r="BA72" s="78"/>
+      <c r="AZ72" s="91"/>
+      <c r="BA72" s="91"/>
       <c r="BB72" s="65"/>
       <c r="BC72" s="65"/>
       <c r="BD72" s="65"/>
-      <c r="BE72" s="78"/>
-      <c r="BF72" s="78"/>
+      <c r="BE72" s="91"/>
+      <c r="BF72" s="91"/>
       <c r="BG72" s="65"/>
       <c r="BH72" s="65"/>
       <c r="BI72" s="65"/>
-      <c r="BJ72" s="78"/>
-      <c r="BK72" s="78"/>
+      <c r="BJ72" s="91"/>
+      <c r="BK72" s="91"/>
       <c r="BL72" s="25"/>
       <c r="BM72" s="2"/>
       <c r="BN72" s="69"/>
@@ -7258,12 +7261,12 @@
       <c r="BQ73" s="69"/>
       <c r="BR73" s="69"/>
       <c r="BS73" s="2"/>
-      <c r="BT73" s="92" t="s">
+      <c r="BT73" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="BU73" s="93"/>
-      <c r="BV73" s="93"/>
-      <c r="BW73" s="94"/>
+      <c r="BU73" s="106"/>
+      <c r="BV73" s="106"/>
+      <c r="BW73" s="107"/>
       <c r="BX73" s="2"/>
     </row>
     <row r="74" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7343,22 +7346,22 @@
       <c r="BK74" s="37"/>
       <c r="BL74" s="25"/>
       <c r="BM74" s="2"/>
-      <c r="BN74" s="96">
+      <c r="BN74" s="93">
         <v>25</v>
       </c>
-      <c r="BO74" s="97"/>
+      <c r="BO74" s="94"/>
       <c r="BP74" s="18"/>
-      <c r="BQ74" s="96">
+      <c r="BQ74" s="93">
         <v>26</v>
       </c>
-      <c r="BR74" s="97"/>
+      <c r="BR74" s="94"/>
       <c r="BS74" s="3"/>
-      <c r="BT74" s="102" t="s">
+      <c r="BT74" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="BU74" s="103"/>
-      <c r="BV74" s="103"/>
-      <c r="BW74" s="104"/>
+      <c r="BU74" s="102"/>
+      <c r="BV74" s="102"/>
+      <c r="BW74" s="103"/>
       <c r="BX74" s="2"/>
     </row>
     <row r="75" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7425,16 +7428,16 @@
       <c r="BK75" s="74"/>
       <c r="BL75" s="25"/>
       <c r="BM75" s="2"/>
-      <c r="BN75" s="98"/>
-      <c r="BO75" s="99"/>
+      <c r="BN75" s="95"/>
+      <c r="BO75" s="96"/>
       <c r="BP75" s="18"/>
-      <c r="BQ75" s="98"/>
-      <c r="BR75" s="99"/>
+      <c r="BQ75" s="95"/>
+      <c r="BR75" s="96"/>
       <c r="BS75" s="3"/>
-      <c r="BT75" s="81"/>
-      <c r="BU75" s="83"/>
-      <c r="BV75" s="84"/>
-      <c r="BW75" s="85"/>
+      <c r="BT75" s="89"/>
+      <c r="BU75" s="80"/>
+      <c r="BV75" s="81"/>
+      <c r="BW75" s="82"/>
       <c r="BX75" s="2"/>
     </row>
     <row r="76" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7503,13 +7506,13 @@
       <c r="BK76" s="17"/>
       <c r="BL76" s="25"/>
       <c r="BM76" s="2"/>
-      <c r="BN76" s="98"/>
-      <c r="BO76" s="99"/>
+      <c r="BN76" s="95"/>
+      <c r="BO76" s="96"/>
       <c r="BP76" s="18"/>
-      <c r="BQ76" s="98"/>
-      <c r="BR76" s="99"/>
+      <c r="BQ76" s="95"/>
+      <c r="BR76" s="96"/>
       <c r="BS76" s="3"/>
-      <c r="BT76" s="82"/>
+      <c r="BT76" s="90"/>
       <c r="BU76" s="86"/>
       <c r="BV76" s="87"/>
       <c r="BW76" s="88"/>
@@ -7531,11 +7534,11 @@
       <c r="M77" s="42"/>
       <c r="N77" s="42"/>
       <c r="O77" s="42"/>
-      <c r="P77" s="105" t="s">
+      <c r="P77" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="Q77" s="105"/>
-      <c r="R77" s="105"/>
+      <c r="Q77" s="78"/>
+      <c r="R77" s="78"/>
       <c r="S77" s="42"/>
       <c r="T77" s="42"/>
       <c r="U77" s="42"/>
@@ -7566,11 +7569,11 @@
       <c r="AT77" s="42"/>
       <c r="AU77" s="42"/>
       <c r="AV77" s="42"/>
-      <c r="AW77" s="105" t="s">
+      <c r="AW77" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="AX77" s="105"/>
-      <c r="AY77" s="105"/>
+      <c r="AX77" s="78"/>
+      <c r="AY77" s="78"/>
       <c r="AZ77" s="42"/>
       <c r="BA77" s="42"/>
       <c r="BB77" s="42"/>
@@ -7585,16 +7588,16 @@
       <c r="BK77" s="17"/>
       <c r="BL77" s="25"/>
       <c r="BM77" s="2"/>
-      <c r="BN77" s="100"/>
-      <c r="BO77" s="101"/>
+      <c r="BN77" s="97"/>
+      <c r="BO77" s="98"/>
       <c r="BP77" s="18"/>
-      <c r="BQ77" s="98"/>
-      <c r="BR77" s="99"/>
+      <c r="BQ77" s="95"/>
+      <c r="BR77" s="96"/>
       <c r="BS77" s="3"/>
-      <c r="BT77" s="81"/>
-      <c r="BU77" s="83"/>
-      <c r="BV77" s="84"/>
-      <c r="BW77" s="85"/>
+      <c r="BT77" s="89"/>
+      <c r="BU77" s="80"/>
+      <c r="BV77" s="81"/>
+      <c r="BW77" s="82"/>
       <c r="BX77" s="2"/>
     </row>
     <row r="78" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7617,9 +7620,9 @@
       <c r="M78" s="42"/>
       <c r="N78" s="42"/>
       <c r="O78" s="42"/>
-      <c r="P78" s="105"/>
-      <c r="Q78" s="105"/>
-      <c r="R78" s="105"/>
+      <c r="P78" s="78"/>
+      <c r="Q78" s="78"/>
+      <c r="R78" s="78"/>
       <c r="S78" s="42"/>
       <c r="T78" s="42"/>
       <c r="U78" s="42"/>
@@ -7654,9 +7657,9 @@
       <c r="AT78" s="42"/>
       <c r="AU78" s="42"/>
       <c r="AV78" s="42"/>
-      <c r="AW78" s="105"/>
-      <c r="AX78" s="105"/>
-      <c r="AY78" s="105"/>
+      <c r="AW78" s="78"/>
+      <c r="AX78" s="78"/>
+      <c r="AY78" s="78"/>
       <c r="AZ78" s="42"/>
       <c r="BA78" s="42"/>
       <c r="BB78" s="42"/>
@@ -7676,10 +7679,10 @@
       <c r="BN78" s="31"/>
       <c r="BO78" s="31"/>
       <c r="BP78" s="18"/>
-      <c r="BQ78" s="98"/>
-      <c r="BR78" s="99"/>
+      <c r="BQ78" s="95"/>
+      <c r="BR78" s="96"/>
       <c r="BS78" s="3"/>
-      <c r="BT78" s="82"/>
+      <c r="BT78" s="90"/>
       <c r="BU78" s="86"/>
       <c r="BV78" s="87"/>
       <c r="BW78" s="88"/>
@@ -7701,9 +7704,9 @@
       <c r="M79" s="42"/>
       <c r="N79" s="42"/>
       <c r="O79" s="42"/>
-      <c r="P79" s="105"/>
-      <c r="Q79" s="105"/>
-      <c r="R79" s="105"/>
+      <c r="P79" s="78"/>
+      <c r="Q79" s="78"/>
+      <c r="R79" s="78"/>
       <c r="S79" s="42"/>
       <c r="T79" s="42"/>
       <c r="U79" s="42"/>
@@ -7734,9 +7737,9 @@
       <c r="AT79" s="42"/>
       <c r="AU79" s="42"/>
       <c r="AV79" s="42"/>
-      <c r="AW79" s="105"/>
-      <c r="AX79" s="105"/>
-      <c r="AY79" s="105"/>
+      <c r="AW79" s="78"/>
+      <c r="AX79" s="78"/>
+      <c r="AY79" s="78"/>
       <c r="AZ79" s="42"/>
       <c r="BA79" s="42"/>
       <c r="BB79" s="42"/>
@@ -7751,18 +7754,18 @@
       <c r="BK79" s="3"/>
       <c r="BL79" s="25"/>
       <c r="BM79" s="2"/>
-      <c r="BN79" s="96">
+      <c r="BN79" s="93">
         <v>27</v>
       </c>
-      <c r="BO79" s="97"/>
+      <c r="BO79" s="94"/>
       <c r="BP79" s="18"/>
-      <c r="BQ79" s="98"/>
-      <c r="BR79" s="99"/>
+      <c r="BQ79" s="95"/>
+      <c r="BR79" s="96"/>
       <c r="BS79" s="3"/>
-      <c r="BT79" s="81"/>
-      <c r="BU79" s="83"/>
-      <c r="BV79" s="84"/>
-      <c r="BW79" s="85"/>
+      <c r="BT79" s="89"/>
+      <c r="BU79" s="80"/>
+      <c r="BV79" s="81"/>
+      <c r="BW79" s="82"/>
       <c r="BX79" s="2"/>
     </row>
     <row r="80" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7781,9 +7784,9 @@
       <c r="M80" s="42"/>
       <c r="N80" s="42"/>
       <c r="O80" s="42"/>
-      <c r="P80" s="105"/>
-      <c r="Q80" s="105"/>
-      <c r="R80" s="105"/>
+      <c r="P80" s="78"/>
+      <c r="Q80" s="78"/>
+      <c r="R80" s="78"/>
       <c r="S80" s="42"/>
       <c r="T80" s="42"/>
       <c r="U80" s="42"/>
@@ -7814,9 +7817,9 @@
       <c r="AT80" s="42"/>
       <c r="AU80" s="42"/>
       <c r="AV80" s="42"/>
-      <c r="AW80" s="105"/>
-      <c r="AX80" s="105"/>
-      <c r="AY80" s="105"/>
+      <c r="AW80" s="78"/>
+      <c r="AX80" s="78"/>
+      <c r="AY80" s="78"/>
       <c r="AZ80" s="42"/>
       <c r="BA80" s="42"/>
       <c r="BB80" s="42"/>
@@ -7831,13 +7834,13 @@
       <c r="BK80" s="3"/>
       <c r="BL80" s="25"/>
       <c r="BM80" s="2"/>
-      <c r="BN80" s="98"/>
-      <c r="BO80" s="99"/>
+      <c r="BN80" s="95"/>
+      <c r="BO80" s="96"/>
       <c r="BP80" s="18"/>
-      <c r="BQ80" s="98"/>
-      <c r="BR80" s="99"/>
+      <c r="BQ80" s="95"/>
+      <c r="BR80" s="96"/>
       <c r="BS80" s="3"/>
-      <c r="BT80" s="82"/>
+      <c r="BT80" s="90"/>
       <c r="BU80" s="86"/>
       <c r="BV80" s="87"/>
       <c r="BW80" s="88"/>
@@ -7907,16 +7910,16 @@
       <c r="BK81" s="3"/>
       <c r="BL81" s="25"/>
       <c r="BM81" s="2"/>
-      <c r="BN81" s="98"/>
-      <c r="BO81" s="99"/>
+      <c r="BN81" s="95"/>
+      <c r="BO81" s="96"/>
       <c r="BP81" s="18"/>
-      <c r="BQ81" s="98"/>
-      <c r="BR81" s="99"/>
+      <c r="BQ81" s="95"/>
+      <c r="BR81" s="96"/>
       <c r="BS81" s="3"/>
-      <c r="BT81" s="81"/>
-      <c r="BU81" s="83"/>
-      <c r="BV81" s="84"/>
-      <c r="BW81" s="85"/>
+      <c r="BT81" s="89"/>
+      <c r="BU81" s="80"/>
+      <c r="BV81" s="81"/>
+      <c r="BW81" s="82"/>
       <c r="BX81" s="2"/>
     </row>
     <row r="82" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7993,16 +7996,16 @@
       <c r="BK82" s="37"/>
       <c r="BL82" s="25"/>
       <c r="BM82" s="2"/>
-      <c r="BN82" s="100"/>
-      <c r="BO82" s="101"/>
+      <c r="BN82" s="97"/>
+      <c r="BO82" s="98"/>
       <c r="BP82" s="18"/>
-      <c r="BQ82" s="100"/>
-      <c r="BR82" s="101"/>
+      <c r="BQ82" s="97"/>
+      <c r="BR82" s="98"/>
       <c r="BS82" s="3"/>
-      <c r="BT82" s="95"/>
-      <c r="BU82" s="89"/>
-      <c r="BV82" s="90"/>
-      <c r="BW82" s="91"/>
+      <c r="BT82" s="104"/>
+      <c r="BU82" s="83"/>
+      <c r="BV82" s="84"/>
+      <c r="BW82" s="85"/>
       <c r="BX82" s="2"/>
     </row>
     <row r="83" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8166,61 +8169,61 @@
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
       <c r="F85" s="65"/>
-      <c r="G85" s="78"/>
-      <c r="H85" s="78"/>
+      <c r="G85" s="91"/>
+      <c r="H85" s="91"/>
       <c r="I85" s="65"/>
       <c r="J85" s="65"/>
-      <c r="K85" s="78"/>
-      <c r="L85" s="78"/>
+      <c r="K85" s="91"/>
+      <c r="L85" s="91"/>
       <c r="M85" s="65"/>
       <c r="N85" s="65"/>
       <c r="O85" s="65"/>
-      <c r="P85" s="78"/>
-      <c r="Q85" s="78"/>
+      <c r="P85" s="91"/>
+      <c r="Q85" s="91"/>
       <c r="S85" s="65"/>
       <c r="T85" s="65"/>
-      <c r="U85" s="78"/>
-      <c r="V85" s="78"/>
+      <c r="U85" s="91"/>
+      <c r="V85" s="91"/>
       <c r="W85" s="65"/>
       <c r="X85" s="65"/>
       <c r="Y85" s="65"/>
-      <c r="Z85" s="78"/>
-      <c r="AA85" s="78"/>
+      <c r="Z85" s="91"/>
+      <c r="AA85" s="91"/>
       <c r="AB85" s="37"/>
       <c r="AC85" s="65"/>
       <c r="AD85" s="65"/>
-      <c r="AE85" s="78"/>
-      <c r="AF85" s="78"/>
+      <c r="AE85" s="91"/>
+      <c r="AF85" s="91"/>
       <c r="AG85" s="65"/>
       <c r="AH85" s="65"/>
       <c r="AI85" s="65"/>
       <c r="AJ85" s="3"/>
       <c r="AK85" s="65"/>
-      <c r="AL85" s="78"/>
-      <c r="AM85" s="78"/>
+      <c r="AL85" s="91"/>
+      <c r="AM85" s="91"/>
       <c r="AN85" s="37"/>
       <c r="AO85" s="65"/>
-      <c r="AP85" s="78"/>
-      <c r="AQ85" s="78"/>
+      <c r="AP85" s="91"/>
+      <c r="AQ85" s="91"/>
       <c r="AR85" s="65"/>
       <c r="AS85" s="65"/>
       <c r="AT85" s="65"/>
-      <c r="AU85" s="78"/>
-      <c r="AV85" s="78"/>
+      <c r="AU85" s="91"/>
+      <c r="AV85" s="91"/>
       <c r="AX85" s="65"/>
       <c r="AY85" s="65"/>
-      <c r="AZ85" s="78"/>
-      <c r="BA85" s="78"/>
+      <c r="AZ85" s="91"/>
+      <c r="BA85" s="91"/>
       <c r="BB85" s="65"/>
       <c r="BC85" s="65"/>
       <c r="BD85" s="65"/>
-      <c r="BE85" s="78"/>
-      <c r="BF85" s="78"/>
+      <c r="BE85" s="91"/>
+      <c r="BF85" s="91"/>
       <c r="BG85" s="65"/>
       <c r="BH85" s="65"/>
       <c r="BI85" s="65"/>
-      <c r="BJ85" s="78"/>
-      <c r="BK85" s="78"/>
+      <c r="BJ85" s="91"/>
+      <c r="BK85" s="91"/>
       <c r="BL85" s="25"/>
       <c r="BM85" s="2"/>
       <c r="BN85" s="69"/>
@@ -8307,12 +8310,12 @@
       <c r="BQ86" s="69"/>
       <c r="BR86" s="69"/>
       <c r="BS86" s="2"/>
-      <c r="BT86" s="92" t="s">
+      <c r="BT86" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="BU86" s="93"/>
-      <c r="BV86" s="93"/>
-      <c r="BW86" s="94"/>
+      <c r="BU86" s="106"/>
+      <c r="BV86" s="106"/>
+      <c r="BW86" s="107"/>
       <c r="BX86" s="2"/>
     </row>
     <row r="87" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8392,22 +8395,22 @@
       <c r="BK87" s="37"/>
       <c r="BL87" s="25"/>
       <c r="BM87" s="2"/>
-      <c r="BN87" s="96">
+      <c r="BN87" s="93">
         <v>29</v>
       </c>
-      <c r="BO87" s="97"/>
+      <c r="BO87" s="94"/>
       <c r="BP87" s="18"/>
-      <c r="BQ87" s="96">
+      <c r="BQ87" s="93">
         <v>30</v>
       </c>
-      <c r="BR87" s="97"/>
+      <c r="BR87" s="94"/>
       <c r="BS87" s="2"/>
-      <c r="BT87" s="102" t="s">
+      <c r="BT87" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="BU87" s="103"/>
-      <c r="BV87" s="103"/>
-      <c r="BW87" s="104"/>
+      <c r="BU87" s="102"/>
+      <c r="BV87" s="102"/>
+      <c r="BW87" s="103"/>
       <c r="BX87" s="2"/>
     </row>
     <row r="88" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8474,16 +8477,16 @@
       <c r="BK88" s="74"/>
       <c r="BL88" s="25"/>
       <c r="BM88" s="2"/>
-      <c r="BN88" s="98"/>
-      <c r="BO88" s="99"/>
+      <c r="BN88" s="95"/>
+      <c r="BO88" s="96"/>
       <c r="BP88" s="18"/>
-      <c r="BQ88" s="98"/>
-      <c r="BR88" s="99"/>
+      <c r="BQ88" s="95"/>
+      <c r="BR88" s="96"/>
       <c r="BS88" s="2"/>
-      <c r="BT88" s="81"/>
-      <c r="BU88" s="83"/>
-      <c r="BV88" s="84"/>
-      <c r="BW88" s="85"/>
+      <c r="BT88" s="89"/>
+      <c r="BU88" s="80"/>
+      <c r="BV88" s="81"/>
+      <c r="BW88" s="82"/>
       <c r="BX88" s="2"/>
     </row>
     <row r="89" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8552,13 +8555,13 @@
       <c r="BK89" s="17"/>
       <c r="BL89" s="25"/>
       <c r="BM89" s="2"/>
-      <c r="BN89" s="98"/>
-      <c r="BO89" s="99"/>
+      <c r="BN89" s="95"/>
+      <c r="BO89" s="96"/>
       <c r="BP89" s="18"/>
-      <c r="BQ89" s="98"/>
-      <c r="BR89" s="99"/>
+      <c r="BQ89" s="95"/>
+      <c r="BR89" s="96"/>
       <c r="BS89" s="2"/>
-      <c r="BT89" s="82"/>
+      <c r="BT89" s="90"/>
       <c r="BU89" s="86"/>
       <c r="BV89" s="87"/>
       <c r="BW89" s="88"/>
@@ -8580,11 +8583,11 @@
       <c r="M90" s="42"/>
       <c r="N90" s="42"/>
       <c r="O90" s="42"/>
-      <c r="P90" s="105" t="s">
+      <c r="P90" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="Q90" s="105"/>
-      <c r="R90" s="105"/>
+      <c r="Q90" s="78"/>
+      <c r="R90" s="78"/>
       <c r="S90" s="42"/>
       <c r="T90" s="42"/>
       <c r="U90" s="42"/>
@@ -8615,11 +8618,11 @@
       <c r="AT90" s="42"/>
       <c r="AU90" s="42"/>
       <c r="AV90" s="42"/>
-      <c r="AW90" s="105" t="s">
+      <c r="AW90" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="AX90" s="105"/>
-      <c r="AY90" s="105"/>
+      <c r="AX90" s="78"/>
+      <c r="AY90" s="78"/>
       <c r="AZ90" s="42"/>
       <c r="BA90" s="42"/>
       <c r="BB90" s="42"/>
@@ -8634,16 +8637,16 @@
       <c r="BK90" s="17"/>
       <c r="BL90" s="25"/>
       <c r="BM90" s="2"/>
-      <c r="BN90" s="100"/>
-      <c r="BO90" s="101"/>
+      <c r="BN90" s="97"/>
+      <c r="BO90" s="98"/>
       <c r="BP90" s="18"/>
-      <c r="BQ90" s="98"/>
-      <c r="BR90" s="99"/>
+      <c r="BQ90" s="95"/>
+      <c r="BR90" s="96"/>
       <c r="BS90" s="2"/>
-      <c r="BT90" s="81"/>
-      <c r="BU90" s="83"/>
-      <c r="BV90" s="84"/>
-      <c r="BW90" s="85"/>
+      <c r="BT90" s="89"/>
+      <c r="BU90" s="80"/>
+      <c r="BV90" s="81"/>
+      <c r="BW90" s="82"/>
       <c r="BX90" s="2"/>
     </row>
     <row r="91" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8666,9 +8669,9 @@
       <c r="M91" s="42"/>
       <c r="N91" s="42"/>
       <c r="O91" s="42"/>
-      <c r="P91" s="105"/>
-      <c r="Q91" s="105"/>
-      <c r="R91" s="105"/>
+      <c r="P91" s="78"/>
+      <c r="Q91" s="78"/>
+      <c r="R91" s="78"/>
       <c r="S91" s="42"/>
       <c r="T91" s="42"/>
       <c r="U91" s="42"/>
@@ -8703,9 +8706,9 @@
       <c r="AT91" s="42"/>
       <c r="AU91" s="42"/>
       <c r="AV91" s="42"/>
-      <c r="AW91" s="105"/>
-      <c r="AX91" s="105"/>
-      <c r="AY91" s="105"/>
+      <c r="AW91" s="78"/>
+      <c r="AX91" s="78"/>
+      <c r="AY91" s="78"/>
       <c r="AZ91" s="42"/>
       <c r="BA91" s="42"/>
       <c r="BB91" s="42"/>
@@ -8725,10 +8728,10 @@
       <c r="BN91" s="18"/>
       <c r="BO91" s="18"/>
       <c r="BP91" s="18"/>
-      <c r="BQ91" s="98"/>
-      <c r="BR91" s="99"/>
+      <c r="BQ91" s="95"/>
+      <c r="BR91" s="96"/>
       <c r="BS91" s="2"/>
-      <c r="BT91" s="82"/>
+      <c r="BT91" s="90"/>
       <c r="BU91" s="86"/>
       <c r="BV91" s="87"/>
       <c r="BW91" s="88"/>
@@ -8750,9 +8753,9 @@
       <c r="M92" s="42"/>
       <c r="N92" s="42"/>
       <c r="O92" s="42"/>
-      <c r="P92" s="105"/>
-      <c r="Q92" s="105"/>
-      <c r="R92" s="105"/>
+      <c r="P92" s="78"/>
+      <c r="Q92" s="78"/>
+      <c r="R92" s="78"/>
       <c r="S92" s="42"/>
       <c r="T92" s="42"/>
       <c r="U92" s="42"/>
@@ -8783,9 +8786,9 @@
       <c r="AT92" s="42"/>
       <c r="AU92" s="42"/>
       <c r="AV92" s="42"/>
-      <c r="AW92" s="105"/>
-      <c r="AX92" s="105"/>
-      <c r="AY92" s="105"/>
+      <c r="AW92" s="78"/>
+      <c r="AX92" s="78"/>
+      <c r="AY92" s="78"/>
       <c r="AZ92" s="42"/>
       <c r="BA92" s="42"/>
       <c r="BB92" s="42"/>
@@ -8800,18 +8803,18 @@
       <c r="BK92" s="3"/>
       <c r="BL92" s="25"/>
       <c r="BM92" s="2"/>
-      <c r="BN92" s="96">
+      <c r="BN92" s="93">
         <v>31</v>
       </c>
-      <c r="BO92" s="97"/>
+      <c r="BO92" s="94"/>
       <c r="BP92" s="18"/>
-      <c r="BQ92" s="98"/>
-      <c r="BR92" s="99"/>
+      <c r="BQ92" s="95"/>
+      <c r="BR92" s="96"/>
       <c r="BS92" s="2"/>
-      <c r="BT92" s="81"/>
-      <c r="BU92" s="83"/>
-      <c r="BV92" s="84"/>
-      <c r="BW92" s="85"/>
+      <c r="BT92" s="89"/>
+      <c r="BU92" s="80"/>
+      <c r="BV92" s="81"/>
+      <c r="BW92" s="82"/>
       <c r="BX92" s="2"/>
     </row>
     <row r="93" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8830,9 +8833,9 @@
       <c r="M93" s="42"/>
       <c r="N93" s="42"/>
       <c r="O93" s="42"/>
-      <c r="P93" s="105"/>
-      <c r="Q93" s="105"/>
-      <c r="R93" s="105"/>
+      <c r="P93" s="78"/>
+      <c r="Q93" s="78"/>
+      <c r="R93" s="78"/>
       <c r="S93" s="42"/>
       <c r="T93" s="42"/>
       <c r="U93" s="42"/>
@@ -8863,9 +8866,9 @@
       <c r="AT93" s="42"/>
       <c r="AU93" s="42"/>
       <c r="AV93" s="42"/>
-      <c r="AW93" s="105"/>
-      <c r="AX93" s="105"/>
-      <c r="AY93" s="105"/>
+      <c r="AW93" s="78"/>
+      <c r="AX93" s="78"/>
+      <c r="AY93" s="78"/>
       <c r="AZ93" s="42"/>
       <c r="BA93" s="42"/>
       <c r="BB93" s="42"/>
@@ -8880,13 +8883,13 @@
       <c r="BK93" s="3"/>
       <c r="BL93" s="25"/>
       <c r="BM93" s="2"/>
-      <c r="BN93" s="98"/>
-      <c r="BO93" s="99"/>
+      <c r="BN93" s="95"/>
+      <c r="BO93" s="96"/>
       <c r="BP93" s="18"/>
-      <c r="BQ93" s="98"/>
-      <c r="BR93" s="99"/>
+      <c r="BQ93" s="95"/>
+      <c r="BR93" s="96"/>
       <c r="BS93" s="2"/>
-      <c r="BT93" s="82"/>
+      <c r="BT93" s="90"/>
       <c r="BU93" s="86"/>
       <c r="BV93" s="87"/>
       <c r="BW93" s="88"/>
@@ -8956,16 +8959,16 @@
       <c r="BK94" s="3"/>
       <c r="BL94" s="25"/>
       <c r="BM94" s="2"/>
-      <c r="BN94" s="98"/>
-      <c r="BO94" s="99"/>
+      <c r="BN94" s="95"/>
+      <c r="BO94" s="96"/>
       <c r="BP94" s="18"/>
-      <c r="BQ94" s="98"/>
-      <c r="BR94" s="99"/>
+      <c r="BQ94" s="95"/>
+      <c r="BR94" s="96"/>
       <c r="BS94" s="2"/>
-      <c r="BT94" s="81"/>
-      <c r="BU94" s="83"/>
-      <c r="BV94" s="84"/>
-      <c r="BW94" s="85"/>
+      <c r="BT94" s="89"/>
+      <c r="BU94" s="80"/>
+      <c r="BV94" s="81"/>
+      <c r="BW94" s="82"/>
       <c r="BX94" s="2"/>
     </row>
     <row r="95" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9042,16 +9045,16 @@
       <c r="BK95" s="37"/>
       <c r="BL95" s="25"/>
       <c r="BM95" s="2"/>
-      <c r="BN95" s="100"/>
-      <c r="BO95" s="101"/>
+      <c r="BN95" s="97"/>
+      <c r="BO95" s="98"/>
       <c r="BP95" s="18"/>
-      <c r="BQ95" s="100"/>
-      <c r="BR95" s="101"/>
+      <c r="BQ95" s="97"/>
+      <c r="BR95" s="98"/>
       <c r="BS95" s="2"/>
-      <c r="BT95" s="95"/>
-      <c r="BU95" s="89"/>
-      <c r="BV95" s="90"/>
-      <c r="BW95" s="91"/>
+      <c r="BT95" s="104"/>
+      <c r="BU95" s="83"/>
+      <c r="BV95" s="84"/>
+      <c r="BW95" s="85"/>
       <c r="BX95" s="2"/>
     </row>
     <row r="96" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9215,61 +9218,61 @@
       <c r="D98" s="2"/>
       <c r="E98" s="3"/>
       <c r="F98" s="65"/>
-      <c r="G98" s="78"/>
-      <c r="H98" s="78"/>
+      <c r="G98" s="91"/>
+      <c r="H98" s="91"/>
       <c r="I98" s="65"/>
       <c r="J98" s="65"/>
-      <c r="K98" s="78"/>
-      <c r="L98" s="78"/>
+      <c r="K98" s="91"/>
+      <c r="L98" s="91"/>
       <c r="M98" s="65"/>
       <c r="N98" s="65"/>
       <c r="O98" s="65"/>
-      <c r="P98" s="78"/>
-      <c r="Q98" s="78"/>
+      <c r="P98" s="91"/>
+      <c r="Q98" s="91"/>
       <c r="S98" s="65"/>
       <c r="T98" s="65"/>
-      <c r="U98" s="78"/>
-      <c r="V98" s="78"/>
+      <c r="U98" s="91"/>
+      <c r="V98" s="91"/>
       <c r="W98" s="65"/>
       <c r="X98" s="65"/>
       <c r="Y98" s="65"/>
-      <c r="Z98" s="78"/>
-      <c r="AA98" s="78"/>
+      <c r="Z98" s="91"/>
+      <c r="AA98" s="91"/>
       <c r="AB98" s="37"/>
       <c r="AC98" s="65"/>
       <c r="AD98" s="65"/>
-      <c r="AE98" s="78"/>
-      <c r="AF98" s="78"/>
+      <c r="AE98" s="91"/>
+      <c r="AF98" s="91"/>
       <c r="AG98" s="65"/>
       <c r="AH98" s="65"/>
       <c r="AI98" s="65"/>
       <c r="AJ98" s="3"/>
       <c r="AK98" s="65"/>
-      <c r="AL98" s="78"/>
-      <c r="AM98" s="78"/>
+      <c r="AL98" s="91"/>
+      <c r="AM98" s="91"/>
       <c r="AN98" s="37"/>
       <c r="AO98" s="65"/>
-      <c r="AP98" s="78"/>
-      <c r="AQ98" s="78"/>
+      <c r="AP98" s="91"/>
+      <c r="AQ98" s="91"/>
       <c r="AR98" s="65"/>
       <c r="AS98" s="65"/>
       <c r="AT98" s="65"/>
-      <c r="AU98" s="78"/>
-      <c r="AV98" s="78"/>
+      <c r="AU98" s="91"/>
+      <c r="AV98" s="91"/>
       <c r="AX98" s="65"/>
       <c r="AY98" s="65"/>
-      <c r="AZ98" s="78"/>
-      <c r="BA98" s="78"/>
+      <c r="AZ98" s="91"/>
+      <c r="BA98" s="91"/>
       <c r="BB98" s="65"/>
       <c r="BC98" s="65"/>
       <c r="BD98" s="65"/>
-      <c r="BE98" s="78"/>
-      <c r="BF98" s="78"/>
+      <c r="BE98" s="91"/>
+      <c r="BF98" s="91"/>
       <c r="BG98" s="65"/>
       <c r="BH98" s="65"/>
       <c r="BI98" s="65"/>
-      <c r="BJ98" s="78"/>
-      <c r="BK98" s="78"/>
+      <c r="BJ98" s="91"/>
+      <c r="BK98" s="91"/>
       <c r="BL98" s="25"/>
       <c r="BM98" s="2"/>
       <c r="BN98" s="69"/>
@@ -9356,12 +9359,12 @@
       <c r="BQ99" s="69"/>
       <c r="BR99" s="69"/>
       <c r="BS99" s="2"/>
-      <c r="BT99" s="92" t="s">
+      <c r="BT99" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="BU99" s="93"/>
-      <c r="BV99" s="93"/>
-      <c r="BW99" s="94"/>
+      <c r="BU99" s="106"/>
+      <c r="BV99" s="106"/>
+      <c r="BW99" s="107"/>
       <c r="BX99" s="2"/>
     </row>
     <row r="100" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9441,22 +9444,22 @@
       <c r="BK100" s="37"/>
       <c r="BL100" s="25"/>
       <c r="BM100" s="2"/>
-      <c r="BN100" s="96">
+      <c r="BN100" s="93">
         <v>33</v>
       </c>
-      <c r="BO100" s="97"/>
+      <c r="BO100" s="94"/>
       <c r="BP100" s="18"/>
-      <c r="BQ100" s="96">
+      <c r="BQ100" s="93">
         <v>34</v>
       </c>
-      <c r="BR100" s="97"/>
+      <c r="BR100" s="94"/>
       <c r="BS100" s="3"/>
-      <c r="BT100" s="102" t="s">
+      <c r="BT100" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="BU100" s="103"/>
-      <c r="BV100" s="103"/>
-      <c r="BW100" s="104"/>
+      <c r="BU100" s="102"/>
+      <c r="BV100" s="102"/>
+      <c r="BW100" s="103"/>
       <c r="BX100" s="2"/>
     </row>
     <row r="101" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9523,16 +9526,16 @@
       <c r="BK101" s="74"/>
       <c r="BL101" s="25"/>
       <c r="BM101" s="2"/>
-      <c r="BN101" s="98"/>
-      <c r="BO101" s="99"/>
+      <c r="BN101" s="95"/>
+      <c r="BO101" s="96"/>
       <c r="BP101" s="18"/>
-      <c r="BQ101" s="98"/>
-      <c r="BR101" s="99"/>
+      <c r="BQ101" s="95"/>
+      <c r="BR101" s="96"/>
       <c r="BS101" s="3"/>
-      <c r="BT101" s="81"/>
-      <c r="BU101" s="83"/>
-      <c r="BV101" s="84"/>
-      <c r="BW101" s="85"/>
+      <c r="BT101" s="89"/>
+      <c r="BU101" s="80"/>
+      <c r="BV101" s="81"/>
+      <c r="BW101" s="82"/>
       <c r="BX101" s="2"/>
     </row>
     <row r="102" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9601,13 +9604,13 @@
       <c r="BK102" s="17"/>
       <c r="BL102" s="25"/>
       <c r="BM102" s="2"/>
-      <c r="BN102" s="98"/>
-      <c r="BO102" s="99"/>
+      <c r="BN102" s="95"/>
+      <c r="BO102" s="96"/>
       <c r="BP102" s="18"/>
-      <c r="BQ102" s="98"/>
-      <c r="BR102" s="99"/>
+      <c r="BQ102" s="95"/>
+      <c r="BR102" s="96"/>
       <c r="BS102" s="3"/>
-      <c r="BT102" s="82"/>
+      <c r="BT102" s="90"/>
       <c r="BU102" s="86"/>
       <c r="BV102" s="87"/>
       <c r="BW102" s="88"/>
@@ -9629,11 +9632,11 @@
       <c r="M103" s="42"/>
       <c r="N103" s="42"/>
       <c r="O103" s="42"/>
-      <c r="P103" s="105" t="s">
+      <c r="P103" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="Q103" s="105"/>
-      <c r="R103" s="105"/>
+      <c r="Q103" s="78"/>
+      <c r="R103" s="78"/>
       <c r="S103" s="42"/>
       <c r="T103" s="42"/>
       <c r="U103" s="42"/>
@@ -9664,11 +9667,11 @@
       <c r="AT103" s="42"/>
       <c r="AU103" s="42"/>
       <c r="AV103" s="42"/>
-      <c r="AW103" s="105" t="s">
+      <c r="AW103" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="AX103" s="105"/>
-      <c r="AY103" s="105"/>
+      <c r="AX103" s="78"/>
+      <c r="AY103" s="78"/>
       <c r="AZ103" s="42"/>
       <c r="BA103" s="42"/>
       <c r="BB103" s="42"/>
@@ -9683,16 +9686,16 @@
       <c r="BK103" s="17"/>
       <c r="BL103" s="25"/>
       <c r="BM103" s="2"/>
-      <c r="BN103" s="100"/>
-      <c r="BO103" s="101"/>
+      <c r="BN103" s="97"/>
+      <c r="BO103" s="98"/>
       <c r="BP103" s="18"/>
-      <c r="BQ103" s="98"/>
-      <c r="BR103" s="99"/>
+      <c r="BQ103" s="95"/>
+      <c r="BR103" s="96"/>
       <c r="BS103" s="3"/>
-      <c r="BT103" s="81"/>
-      <c r="BU103" s="83"/>
-      <c r="BV103" s="84"/>
-      <c r="BW103" s="85"/>
+      <c r="BT103" s="89"/>
+      <c r="BU103" s="80"/>
+      <c r="BV103" s="81"/>
+      <c r="BW103" s="82"/>
       <c r="BX103" s="2"/>
     </row>
     <row r="104" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9715,9 +9718,9 @@
       <c r="M104" s="42"/>
       <c r="N104" s="42"/>
       <c r="O104" s="42"/>
-      <c r="P104" s="105"/>
-      <c r="Q104" s="105"/>
-      <c r="R104" s="105"/>
+      <c r="P104" s="78"/>
+      <c r="Q104" s="78"/>
+      <c r="R104" s="78"/>
       <c r="S104" s="42"/>
       <c r="T104" s="42"/>
       <c r="U104" s="42"/>
@@ -9752,9 +9755,9 @@
       <c r="AT104" s="42"/>
       <c r="AU104" s="42"/>
       <c r="AV104" s="42"/>
-      <c r="AW104" s="105"/>
-      <c r="AX104" s="105"/>
-      <c r="AY104" s="105"/>
+      <c r="AW104" s="78"/>
+      <c r="AX104" s="78"/>
+      <c r="AY104" s="78"/>
       <c r="AZ104" s="42"/>
       <c r="BA104" s="42"/>
       <c r="BB104" s="42"/>
@@ -9774,10 +9777,10 @@
       <c r="BN104" s="31"/>
       <c r="BO104" s="31"/>
       <c r="BP104" s="18"/>
-      <c r="BQ104" s="98"/>
-      <c r="BR104" s="99"/>
+      <c r="BQ104" s="95"/>
+      <c r="BR104" s="96"/>
       <c r="BS104" s="3"/>
-      <c r="BT104" s="82"/>
+      <c r="BT104" s="90"/>
       <c r="BU104" s="86"/>
       <c r="BV104" s="87"/>
       <c r="BW104" s="88"/>
@@ -9799,9 +9802,9 @@
       <c r="M105" s="42"/>
       <c r="N105" s="42"/>
       <c r="O105" s="42"/>
-      <c r="P105" s="105"/>
-      <c r="Q105" s="105"/>
-      <c r="R105" s="105"/>
+      <c r="P105" s="78"/>
+      <c r="Q105" s="78"/>
+      <c r="R105" s="78"/>
       <c r="S105" s="42"/>
       <c r="T105" s="42"/>
       <c r="U105" s="42"/>
@@ -9832,9 +9835,9 @@
       <c r="AT105" s="42"/>
       <c r="AU105" s="42"/>
       <c r="AV105" s="42"/>
-      <c r="AW105" s="105"/>
-      <c r="AX105" s="105"/>
-      <c r="AY105" s="105"/>
+      <c r="AW105" s="78"/>
+      <c r="AX105" s="78"/>
+      <c r="AY105" s="78"/>
       <c r="AZ105" s="42"/>
       <c r="BA105" s="42"/>
       <c r="BB105" s="42"/>
@@ -9849,18 +9852,18 @@
       <c r="BK105" s="3"/>
       <c r="BL105" s="25"/>
       <c r="BM105" s="2"/>
-      <c r="BN105" s="96">
+      <c r="BN105" s="93">
         <v>35</v>
       </c>
-      <c r="BO105" s="97"/>
+      <c r="BO105" s="94"/>
       <c r="BP105" s="18"/>
-      <c r="BQ105" s="98"/>
-      <c r="BR105" s="99"/>
+      <c r="BQ105" s="95"/>
+      <c r="BR105" s="96"/>
       <c r="BS105" s="3"/>
-      <c r="BT105" s="81"/>
-      <c r="BU105" s="83"/>
-      <c r="BV105" s="84"/>
-      <c r="BW105" s="85"/>
+      <c r="BT105" s="89"/>
+      <c r="BU105" s="80"/>
+      <c r="BV105" s="81"/>
+      <c r="BW105" s="82"/>
       <c r="BX105" s="2"/>
     </row>
     <row r="106" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9879,9 +9882,9 @@
       <c r="M106" s="42"/>
       <c r="N106" s="42"/>
       <c r="O106" s="42"/>
-      <c r="P106" s="105"/>
-      <c r="Q106" s="105"/>
-      <c r="R106" s="105"/>
+      <c r="P106" s="78"/>
+      <c r="Q106" s="78"/>
+      <c r="R106" s="78"/>
       <c r="S106" s="42"/>
       <c r="T106" s="42"/>
       <c r="U106" s="42"/>
@@ -9912,9 +9915,9 @@
       <c r="AT106" s="42"/>
       <c r="AU106" s="42"/>
       <c r="AV106" s="42"/>
-      <c r="AW106" s="105"/>
-      <c r="AX106" s="105"/>
-      <c r="AY106" s="105"/>
+      <c r="AW106" s="78"/>
+      <c r="AX106" s="78"/>
+      <c r="AY106" s="78"/>
       <c r="AZ106" s="42"/>
       <c r="BA106" s="42"/>
       <c r="BB106" s="42"/>
@@ -9929,13 +9932,13 @@
       <c r="BK106" s="3"/>
       <c r="BL106" s="25"/>
       <c r="BM106" s="2"/>
-      <c r="BN106" s="98"/>
-      <c r="BO106" s="99"/>
+      <c r="BN106" s="95"/>
+      <c r="BO106" s="96"/>
       <c r="BP106" s="18"/>
-      <c r="BQ106" s="98"/>
-      <c r="BR106" s="99"/>
+      <c r="BQ106" s="95"/>
+      <c r="BR106" s="96"/>
       <c r="BS106" s="3"/>
-      <c r="BT106" s="82"/>
+      <c r="BT106" s="90"/>
       <c r="BU106" s="86"/>
       <c r="BV106" s="87"/>
       <c r="BW106" s="88"/>
@@ -10005,16 +10008,16 @@
       <c r="BK107" s="3"/>
       <c r="BL107" s="25"/>
       <c r="BM107" s="2"/>
-      <c r="BN107" s="98"/>
-      <c r="BO107" s="99"/>
+      <c r="BN107" s="95"/>
+      <c r="BO107" s="96"/>
       <c r="BP107" s="18"/>
-      <c r="BQ107" s="98"/>
-      <c r="BR107" s="99"/>
+      <c r="BQ107" s="95"/>
+      <c r="BR107" s="96"/>
       <c r="BS107" s="3"/>
-      <c r="BT107" s="81"/>
-      <c r="BU107" s="83"/>
-      <c r="BV107" s="84"/>
-      <c r="BW107" s="85"/>
+      <c r="BT107" s="89"/>
+      <c r="BU107" s="80"/>
+      <c r="BV107" s="81"/>
+      <c r="BW107" s="82"/>
       <c r="BX107" s="2"/>
     </row>
     <row r="108" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10091,16 +10094,16 @@
       <c r="BK108" s="37"/>
       <c r="BL108" s="25"/>
       <c r="BM108" s="2"/>
-      <c r="BN108" s="100"/>
-      <c r="BO108" s="101"/>
+      <c r="BN108" s="97"/>
+      <c r="BO108" s="98"/>
       <c r="BP108" s="18"/>
-      <c r="BQ108" s="100"/>
-      <c r="BR108" s="101"/>
+      <c r="BQ108" s="97"/>
+      <c r="BR108" s="98"/>
       <c r="BS108" s="3"/>
-      <c r="BT108" s="95"/>
-      <c r="BU108" s="89"/>
-      <c r="BV108" s="90"/>
-      <c r="BW108" s="91"/>
+      <c r="BT108" s="104"/>
+      <c r="BU108" s="83"/>
+      <c r="BV108" s="84"/>
+      <c r="BW108" s="85"/>
       <c r="BX108" s="2"/>
     </row>
     <row r="109" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10264,61 +10267,61 @@
       <c r="D111" s="38"/>
       <c r="E111" s="3"/>
       <c r="F111" s="65"/>
-      <c r="G111" s="78"/>
-      <c r="H111" s="78"/>
+      <c r="G111" s="91"/>
+      <c r="H111" s="91"/>
       <c r="I111" s="65"/>
       <c r="J111" s="65"/>
-      <c r="K111" s="78"/>
-      <c r="L111" s="78"/>
+      <c r="K111" s="91"/>
+      <c r="L111" s="91"/>
       <c r="M111" s="65"/>
       <c r="N111" s="65"/>
       <c r="O111" s="65"/>
-      <c r="P111" s="78"/>
-      <c r="Q111" s="78"/>
+      <c r="P111" s="91"/>
+      <c r="Q111" s="91"/>
       <c r="S111" s="65"/>
       <c r="T111" s="65"/>
-      <c r="U111" s="78"/>
-      <c r="V111" s="78"/>
+      <c r="U111" s="91"/>
+      <c r="V111" s="91"/>
       <c r="W111" s="65"/>
       <c r="X111" s="65"/>
       <c r="Y111" s="65"/>
-      <c r="Z111" s="78"/>
-      <c r="AA111" s="78"/>
+      <c r="Z111" s="91"/>
+      <c r="AA111" s="91"/>
       <c r="AB111" s="37"/>
       <c r="AC111" s="65"/>
       <c r="AD111" s="65"/>
-      <c r="AE111" s="78"/>
-      <c r="AF111" s="78"/>
+      <c r="AE111" s="91"/>
+      <c r="AF111" s="91"/>
       <c r="AG111" s="65"/>
       <c r="AH111" s="65"/>
       <c r="AI111" s="65"/>
       <c r="AJ111" s="3"/>
       <c r="AK111" s="65"/>
-      <c r="AL111" s="78"/>
-      <c r="AM111" s="78"/>
+      <c r="AL111" s="91"/>
+      <c r="AM111" s="91"/>
       <c r="AN111" s="37"/>
       <c r="AO111" s="65"/>
-      <c r="AP111" s="78"/>
-      <c r="AQ111" s="78"/>
+      <c r="AP111" s="91"/>
+      <c r="AQ111" s="91"/>
       <c r="AR111" s="65"/>
       <c r="AS111" s="65"/>
       <c r="AT111" s="65"/>
-      <c r="AU111" s="78"/>
-      <c r="AV111" s="78"/>
+      <c r="AU111" s="91"/>
+      <c r="AV111" s="91"/>
       <c r="AX111" s="65"/>
       <c r="AY111" s="65"/>
-      <c r="AZ111" s="78"/>
-      <c r="BA111" s="78"/>
+      <c r="AZ111" s="91"/>
+      <c r="BA111" s="91"/>
       <c r="BB111" s="65"/>
       <c r="BC111" s="65"/>
       <c r="BD111" s="65"/>
-      <c r="BE111" s="78"/>
-      <c r="BF111" s="78"/>
+      <c r="BE111" s="91"/>
+      <c r="BF111" s="91"/>
       <c r="BG111" s="65"/>
       <c r="BH111" s="65"/>
       <c r="BI111" s="65"/>
-      <c r="BJ111" s="78"/>
-      <c r="BK111" s="78"/>
+      <c r="BJ111" s="91"/>
+      <c r="BK111" s="91"/>
       <c r="BL111" s="25"/>
       <c r="BM111" s="2"/>
       <c r="BN111" s="69"/>
@@ -10405,12 +10408,12 @@
       <c r="BQ112" s="69"/>
       <c r="BR112" s="69"/>
       <c r="BS112" s="4"/>
-      <c r="BT112" s="92" t="s">
+      <c r="BT112" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="BU112" s="93"/>
-      <c r="BV112" s="93"/>
-      <c r="BW112" s="94"/>
+      <c r="BU112" s="106"/>
+      <c r="BV112" s="106"/>
+      <c r="BW112" s="107"/>
       <c r="BX112" s="2"/>
     </row>
     <row r="113" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10490,22 +10493,22 @@
       <c r="BK113" s="37"/>
       <c r="BL113" s="25"/>
       <c r="BM113" s="2"/>
-      <c r="BN113" s="96">
+      <c r="BN113" s="93">
         <v>39</v>
       </c>
-      <c r="BO113" s="97"/>
+      <c r="BO113" s="94"/>
       <c r="BP113" s="18"/>
-      <c r="BQ113" s="96">
+      <c r="BQ113" s="93">
         <v>40</v>
       </c>
-      <c r="BR113" s="97"/>
+      <c r="BR113" s="94"/>
       <c r="BS113" s="4"/>
-      <c r="BT113" s="102" t="s">
+      <c r="BT113" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="BU113" s="103"/>
-      <c r="BV113" s="103"/>
-      <c r="BW113" s="104"/>
+      <c r="BU113" s="102"/>
+      <c r="BV113" s="102"/>
+      <c r="BW113" s="103"/>
       <c r="BX113" s="2"/>
     </row>
     <row r="114" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10572,16 +10575,16 @@
       <c r="BK114" s="74"/>
       <c r="BL114" s="25"/>
       <c r="BM114" s="2"/>
-      <c r="BN114" s="98"/>
-      <c r="BO114" s="99"/>
+      <c r="BN114" s="95"/>
+      <c r="BO114" s="96"/>
       <c r="BP114" s="18"/>
-      <c r="BQ114" s="98"/>
-      <c r="BR114" s="99"/>
+      <c r="BQ114" s="95"/>
+      <c r="BR114" s="96"/>
       <c r="BS114" s="4"/>
-      <c r="BT114" s="81"/>
-      <c r="BU114" s="83"/>
-      <c r="BV114" s="84"/>
-      <c r="BW114" s="85"/>
+      <c r="BT114" s="89"/>
+      <c r="BU114" s="80"/>
+      <c r="BV114" s="81"/>
+      <c r="BW114" s="82"/>
       <c r="BX114" s="2"/>
     </row>
     <row r="115" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10650,13 +10653,13 @@
       <c r="BK115" s="17"/>
       <c r="BL115" s="25"/>
       <c r="BM115" s="2"/>
-      <c r="BN115" s="98"/>
-      <c r="BO115" s="99"/>
+      <c r="BN115" s="95"/>
+      <c r="BO115" s="96"/>
       <c r="BP115" s="18"/>
-      <c r="BQ115" s="98"/>
-      <c r="BR115" s="99"/>
+      <c r="BQ115" s="95"/>
+      <c r="BR115" s="96"/>
       <c r="BS115" s="4"/>
-      <c r="BT115" s="82"/>
+      <c r="BT115" s="90"/>
       <c r="BU115" s="86"/>
       <c r="BV115" s="87"/>
       <c r="BW115" s="88"/>
@@ -10678,11 +10681,11 @@
       <c r="M116" s="42"/>
       <c r="N116" s="42"/>
       <c r="O116" s="42"/>
-      <c r="P116" s="105" t="s">
+      <c r="P116" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="Q116" s="105"/>
-      <c r="R116" s="105"/>
+      <c r="Q116" s="78"/>
+      <c r="R116" s="78"/>
       <c r="S116" s="42"/>
       <c r="T116" s="42"/>
       <c r="U116" s="42"/>
@@ -10713,11 +10716,11 @@
       <c r="AT116" s="42"/>
       <c r="AU116" s="42"/>
       <c r="AV116" s="42"/>
-      <c r="AW116" s="105" t="s">
+      <c r="AW116" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="AX116" s="105"/>
-      <c r="AY116" s="105"/>
+      <c r="AX116" s="78"/>
+      <c r="AY116" s="78"/>
       <c r="AZ116" s="42"/>
       <c r="BA116" s="42"/>
       <c r="BB116" s="42"/>
@@ -10732,16 +10735,16 @@
       <c r="BK116" s="17"/>
       <c r="BL116" s="25"/>
       <c r="BM116" s="2"/>
-      <c r="BN116" s="100"/>
-      <c r="BO116" s="101"/>
+      <c r="BN116" s="97"/>
+      <c r="BO116" s="98"/>
       <c r="BP116" s="18"/>
-      <c r="BQ116" s="98"/>
-      <c r="BR116" s="99"/>
+      <c r="BQ116" s="95"/>
+      <c r="BR116" s="96"/>
       <c r="BS116" s="4"/>
-      <c r="BT116" s="81"/>
-      <c r="BU116" s="83"/>
-      <c r="BV116" s="84"/>
-      <c r="BW116" s="85"/>
+      <c r="BT116" s="89"/>
+      <c r="BU116" s="80"/>
+      <c r="BV116" s="81"/>
+      <c r="BW116" s="82"/>
       <c r="BX116" s="2"/>
     </row>
     <row r="117" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10764,9 +10767,9 @@
       <c r="M117" s="42"/>
       <c r="N117" s="42"/>
       <c r="O117" s="42"/>
-      <c r="P117" s="105"/>
-      <c r="Q117" s="105"/>
-      <c r="R117" s="105"/>
+      <c r="P117" s="78"/>
+      <c r="Q117" s="78"/>
+      <c r="R117" s="78"/>
       <c r="S117" s="42"/>
       <c r="T117" s="42"/>
       <c r="U117" s="42"/>
@@ -10801,9 +10804,9 @@
       <c r="AT117" s="42"/>
       <c r="AU117" s="42"/>
       <c r="AV117" s="42"/>
-      <c r="AW117" s="105"/>
-      <c r="AX117" s="105"/>
-      <c r="AY117" s="105"/>
+      <c r="AW117" s="78"/>
+      <c r="AX117" s="78"/>
+      <c r="AY117" s="78"/>
       <c r="AZ117" s="42"/>
       <c r="BA117" s="42"/>
       <c r="BB117" s="42"/>
@@ -10823,10 +10826,10 @@
       <c r="BN117" s="31"/>
       <c r="BO117" s="31"/>
       <c r="BP117" s="18"/>
-      <c r="BQ117" s="98"/>
-      <c r="BR117" s="99"/>
+      <c r="BQ117" s="95"/>
+      <c r="BR117" s="96"/>
       <c r="BS117" s="4"/>
-      <c r="BT117" s="82"/>
+      <c r="BT117" s="90"/>
       <c r="BU117" s="86"/>
       <c r="BV117" s="87"/>
       <c r="BW117" s="88"/>
@@ -10848,9 +10851,9 @@
       <c r="M118" s="42"/>
       <c r="N118" s="42"/>
       <c r="O118" s="42"/>
-      <c r="P118" s="105"/>
-      <c r="Q118" s="105"/>
-      <c r="R118" s="105"/>
+      <c r="P118" s="78"/>
+      <c r="Q118" s="78"/>
+      <c r="R118" s="78"/>
       <c r="S118" s="42"/>
       <c r="T118" s="42"/>
       <c r="U118" s="42"/>
@@ -10881,9 +10884,9 @@
       <c r="AT118" s="42"/>
       <c r="AU118" s="42"/>
       <c r="AV118" s="42"/>
-      <c r="AW118" s="105"/>
-      <c r="AX118" s="105"/>
-      <c r="AY118" s="105"/>
+      <c r="AW118" s="78"/>
+      <c r="AX118" s="78"/>
+      <c r="AY118" s="78"/>
       <c r="AZ118" s="42"/>
       <c r="BA118" s="42"/>
       <c r="BB118" s="42"/>
@@ -10898,18 +10901,18 @@
       <c r="BK118" s="3"/>
       <c r="BL118" s="25"/>
       <c r="BM118" s="2"/>
-      <c r="BN118" s="96">
+      <c r="BN118" s="93">
         <v>41</v>
       </c>
-      <c r="BO118" s="97"/>
+      <c r="BO118" s="94"/>
       <c r="BP118" s="18"/>
-      <c r="BQ118" s="98"/>
-      <c r="BR118" s="99"/>
+      <c r="BQ118" s="95"/>
+      <c r="BR118" s="96"/>
       <c r="BS118" s="4"/>
-      <c r="BT118" s="81"/>
-      <c r="BU118" s="83"/>
-      <c r="BV118" s="84"/>
-      <c r="BW118" s="85"/>
+      <c r="BT118" s="89"/>
+      <c r="BU118" s="80"/>
+      <c r="BV118" s="81"/>
+      <c r="BW118" s="82"/>
       <c r="BX118" s="2"/>
     </row>
     <row r="119" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10928,9 +10931,9 @@
       <c r="M119" s="42"/>
       <c r="N119" s="42"/>
       <c r="O119" s="42"/>
-      <c r="P119" s="105"/>
-      <c r="Q119" s="105"/>
-      <c r="R119" s="105"/>
+      <c r="P119" s="78"/>
+      <c r="Q119" s="78"/>
+      <c r="R119" s="78"/>
       <c r="S119" s="42"/>
       <c r="T119" s="42"/>
       <c r="U119" s="42"/>
@@ -10961,9 +10964,9 @@
       <c r="AT119" s="42"/>
       <c r="AU119" s="42"/>
       <c r="AV119" s="42"/>
-      <c r="AW119" s="105"/>
-      <c r="AX119" s="105"/>
-      <c r="AY119" s="105"/>
+      <c r="AW119" s="78"/>
+      <c r="AX119" s="78"/>
+      <c r="AY119" s="78"/>
       <c r="AZ119" s="42"/>
       <c r="BA119" s="42"/>
       <c r="BB119" s="42"/>
@@ -10978,13 +10981,13 @@
       <c r="BK119" s="3"/>
       <c r="BL119" s="25"/>
       <c r="BM119" s="2"/>
-      <c r="BN119" s="98"/>
-      <c r="BO119" s="99"/>
+      <c r="BN119" s="95"/>
+      <c r="BO119" s="96"/>
       <c r="BP119" s="18"/>
-      <c r="BQ119" s="98"/>
-      <c r="BR119" s="99"/>
+      <c r="BQ119" s="95"/>
+      <c r="BR119" s="96"/>
       <c r="BS119" s="4"/>
-      <c r="BT119" s="82"/>
+      <c r="BT119" s="90"/>
       <c r="BU119" s="86"/>
       <c r="BV119" s="87"/>
       <c r="BW119" s="88"/>
@@ -11054,16 +11057,16 @@
       <c r="BK120" s="3"/>
       <c r="BL120" s="25"/>
       <c r="BM120" s="2"/>
-      <c r="BN120" s="98"/>
-      <c r="BO120" s="99"/>
+      <c r="BN120" s="95"/>
+      <c r="BO120" s="96"/>
       <c r="BP120" s="18"/>
-      <c r="BQ120" s="98"/>
-      <c r="BR120" s="99"/>
+      <c r="BQ120" s="95"/>
+      <c r="BR120" s="96"/>
       <c r="BS120" s="4"/>
-      <c r="BT120" s="81"/>
-      <c r="BU120" s="83"/>
-      <c r="BV120" s="84"/>
-      <c r="BW120" s="85"/>
+      <c r="BT120" s="89"/>
+      <c r="BU120" s="80"/>
+      <c r="BV120" s="81"/>
+      <c r="BW120" s="82"/>
       <c r="BX120" s="2"/>
     </row>
     <row r="121" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11140,16 +11143,16 @@
       <c r="BK121" s="37"/>
       <c r="BL121" s="25"/>
       <c r="BM121" s="2"/>
-      <c r="BN121" s="100"/>
-      <c r="BO121" s="101"/>
+      <c r="BN121" s="97"/>
+      <c r="BO121" s="98"/>
       <c r="BP121" s="18"/>
-      <c r="BQ121" s="100"/>
-      <c r="BR121" s="101"/>
+      <c r="BQ121" s="97"/>
+      <c r="BR121" s="98"/>
       <c r="BS121" s="4"/>
-      <c r="BT121" s="95"/>
-      <c r="BU121" s="89"/>
-      <c r="BV121" s="90"/>
-      <c r="BW121" s="91"/>
+      <c r="BT121" s="104"/>
+      <c r="BU121" s="83"/>
+      <c r="BV121" s="84"/>
+      <c r="BW121" s="85"/>
       <c r="BX121" s="2"/>
     </row>
     <row r="122" spans="1:76" s="14" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11379,9 +11382,9 @@
       <c r="BR124" s="3"/>
       <c r="BS124" s="4"/>
       <c r="BT124" s="75"/>
-      <c r="BU124" s="80"/>
-      <c r="BV124" s="80"/>
-      <c r="BW124" s="80"/>
+      <c r="BU124" s="111"/>
+      <c r="BV124" s="111"/>
+      <c r="BW124" s="111"/>
       <c r="BX124" s="2"/>
     </row>
     <row r="125" spans="1:76" s="14" customFormat="1" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -11526,20 +11529,20 @@
       <c r="BJ126" s="47"/>
       <c r="BK126" s="28"/>
       <c r="BL126" s="6"/>
-      <c r="BM126" s="106" t="s">
+      <c r="BM126" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="BN126" s="106"/>
-      <c r="BO126" s="106"/>
-      <c r="BP126" s="106"/>
-      <c r="BQ126" s="106"/>
-      <c r="BR126" s="106"/>
-      <c r="BS126" s="106"/>
-      <c r="BT126" s="106"/>
-      <c r="BV126" s="107" t="s">
+      <c r="BN126" s="112"/>
+      <c r="BO126" s="112"/>
+      <c r="BP126" s="112"/>
+      <c r="BQ126" s="112"/>
+      <c r="BR126" s="112"/>
+      <c r="BS126" s="112"/>
+      <c r="BT126" s="112"/>
+      <c r="BV126" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="BW126" s="107"/>
+      <c r="BW126" s="108"/>
     </row>
     <row r="127" spans="1:76" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
@@ -11681,18 +11684,18 @@
       <c r="BJ128" s="47"/>
       <c r="BK128" s="28"/>
       <c r="BL128" s="6"/>
-      <c r="BM128" s="111"/>
-      <c r="BN128" s="111"/>
-      <c r="BO128" s="111"/>
-      <c r="BP128" s="111"/>
-      <c r="BQ128" s="111"/>
-      <c r="BR128" s="111"/>
-      <c r="BS128" s="111"/>
-      <c r="BT128" s="111"/>
-      <c r="BV128" s="112"/>
-      <c r="BW128" s="112"/>
-    </row>
-    <row r="129" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="BM128" s="109"/>
+      <c r="BN128" s="109"/>
+      <c r="BO128" s="109"/>
+      <c r="BP128" s="109"/>
+      <c r="BQ128" s="109"/>
+      <c r="BR128" s="109"/>
+      <c r="BS128" s="109"/>
+      <c r="BT128" s="109"/>
+      <c r="BV128" s="110"/>
+      <c r="BW128" s="110"/>
+    </row>
+    <row r="129" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -11757,18 +11760,18 @@
       <c r="BJ129" s="2"/>
       <c r="BK129" s="5"/>
       <c r="BL129" s="6"/>
-      <c r="BM129" s="111"/>
-      <c r="BN129" s="111"/>
-      <c r="BO129" s="111"/>
-      <c r="BP129" s="111"/>
-      <c r="BQ129" s="111"/>
-      <c r="BR129" s="111"/>
-      <c r="BS129" s="111"/>
-      <c r="BT129" s="111"/>
-      <c r="BV129" s="112"/>
-      <c r="BW129" s="112"/>
-    </row>
-    <row r="130" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="BM129" s="109"/>
+      <c r="BN129" s="109"/>
+      <c r="BO129" s="109"/>
+      <c r="BP129" s="109"/>
+      <c r="BQ129" s="109"/>
+      <c r="BR129" s="109"/>
+      <c r="BS129" s="109"/>
+      <c r="BT129" s="109"/>
+      <c r="BV129" s="110"/>
+      <c r="BW129" s="110"/>
+    </row>
+    <row r="130" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="48">
         <v>1</v>
@@ -11839,7 +11842,7 @@
       <c r="BM130" s="6"/>
       <c r="BN130" s="6"/>
     </row>
-    <row r="131" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="48"/>
       <c r="C131" s="2"/>
@@ -11906,7 +11909,7 @@
       <c r="BM131" s="6"/>
       <c r="BN131" s="6"/>
     </row>
-    <row r="132" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="48">
         <v>2</v>
@@ -11977,7 +11980,7 @@
       <c r="BM132" s="6"/>
       <c r="BN132" s="6"/>
     </row>
-    <row r="133" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -12045,7 +12048,7 @@
       <c r="BM133" s="6"/>
       <c r="BN133" s="6"/>
     </row>
-    <row r="134" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A134" s="50"/>
       <c r="B134" s="51" t="s">
         <v>5</v>
@@ -12114,7 +12117,7 @@
       <c r="BM134" s="54"/>
       <c r="BN134" s="54"/>
     </row>
-    <row r="135" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A135" s="50"/>
       <c r="B135" s="52"/>
       <c r="C135" s="52"/>
@@ -12181,8 +12184,11 @@
       <c r="BL135" s="54"/>
       <c r="BM135" s="54"/>
       <c r="BN135" s="54"/>
-    </row>
-    <row r="136" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="BX135" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="136" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A136" s="76"/>
       <c r="B136" s="77"/>
       <c r="C136" s="52"/>
@@ -12250,7 +12256,7 @@
       <c r="BM136" s="54"/>
       <c r="BN136" s="54"/>
     </row>
-    <row r="137" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:76" x14ac:dyDescent="0.25">
       <c r="B137" s="77"/>
       <c r="C137" s="52"/>
       <c r="D137" s="52"/>
@@ -12320,6 +12326,371 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="389">
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="BJ20:BK20"/>
+    <mergeCell ref="BH26:BI26"/>
+    <mergeCell ref="AZ20:BA20"/>
+    <mergeCell ref="BE20:BF20"/>
+    <mergeCell ref="BT1:BV2"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AL20:AM20"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="BT3:BV4"/>
+    <mergeCell ref="BT12:BT13"/>
+    <mergeCell ref="BU12:BW13"/>
+    <mergeCell ref="BT14:BT15"/>
+    <mergeCell ref="BU14:BW15"/>
+    <mergeCell ref="BT8:BW8"/>
+    <mergeCell ref="BU16:BW17"/>
+    <mergeCell ref="BS3:BS4"/>
+    <mergeCell ref="AM3:AN4"/>
+    <mergeCell ref="AR3:AS4"/>
+    <mergeCell ref="AW3:AX4"/>
+    <mergeCell ref="AL33:AM33"/>
+    <mergeCell ref="AL26:AM26"/>
+    <mergeCell ref="BH69:BI69"/>
+    <mergeCell ref="BJ33:BK33"/>
+    <mergeCell ref="BH30:BI30"/>
+    <mergeCell ref="AP20:AQ20"/>
+    <mergeCell ref="AU20:AV20"/>
+    <mergeCell ref="BT77:BT78"/>
+    <mergeCell ref="BU77:BW78"/>
+    <mergeCell ref="AN22:AO22"/>
+    <mergeCell ref="BH22:BI22"/>
+    <mergeCell ref="AN30:AO30"/>
+    <mergeCell ref="AZ59:BA59"/>
+    <mergeCell ref="BJ59:BK59"/>
+    <mergeCell ref="BH48:BI48"/>
+    <mergeCell ref="BU68:BW69"/>
+    <mergeCell ref="BT29:BT30"/>
+    <mergeCell ref="BU29:BW30"/>
+    <mergeCell ref="BT34:BW34"/>
+    <mergeCell ref="BT25:BT26"/>
+    <mergeCell ref="BU25:BW26"/>
+    <mergeCell ref="BT27:BT28"/>
+    <mergeCell ref="BU27:BW28"/>
+    <mergeCell ref="BT21:BW21"/>
+    <mergeCell ref="BU81:BW82"/>
+    <mergeCell ref="BJ46:BK46"/>
+    <mergeCell ref="AL59:AM59"/>
+    <mergeCell ref="AP59:AQ59"/>
+    <mergeCell ref="AU59:AV59"/>
+    <mergeCell ref="AU33:AV33"/>
+    <mergeCell ref="AZ33:BA33"/>
+    <mergeCell ref="AP33:AQ33"/>
+    <mergeCell ref="BH52:BI52"/>
+    <mergeCell ref="BH56:BI56"/>
+    <mergeCell ref="AL72:AM72"/>
+    <mergeCell ref="AP72:AQ72"/>
+    <mergeCell ref="AL46:AM46"/>
+    <mergeCell ref="AP46:AQ46"/>
+    <mergeCell ref="AU46:AV46"/>
+    <mergeCell ref="BT73:BW73"/>
+    <mergeCell ref="BT68:BT69"/>
+    <mergeCell ref="BT81:BT82"/>
+    <mergeCell ref="BN74:BO77"/>
+    <mergeCell ref="BQ74:BR82"/>
+    <mergeCell ref="BN79:BO82"/>
+    <mergeCell ref="BT74:BW74"/>
+    <mergeCell ref="BT75:BT76"/>
+    <mergeCell ref="BU75:BW76"/>
+    <mergeCell ref="BT79:BT80"/>
+    <mergeCell ref="BU79:BW80"/>
+    <mergeCell ref="BT64:BT65"/>
+    <mergeCell ref="BU64:BW65"/>
+    <mergeCell ref="BT66:BT67"/>
+    <mergeCell ref="BT51:BT52"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="AA30:AB30"/>
+    <mergeCell ref="AC30:AD30"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="AA43:AB43"/>
+    <mergeCell ref="BH35:BI35"/>
+    <mergeCell ref="BH43:BI43"/>
+    <mergeCell ref="AE46:AF46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="BH65:BI65"/>
+    <mergeCell ref="BH61:BI61"/>
+    <mergeCell ref="R61:S61"/>
+    <mergeCell ref="AC61:AD61"/>
+    <mergeCell ref="AL61:AM61"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="AL30:AM30"/>
+    <mergeCell ref="AL22:AM22"/>
+    <mergeCell ref="BU66:BW67"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="AC48:AD48"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="AC52:AD52"/>
+    <mergeCell ref="AC39:AD39"/>
+    <mergeCell ref="BH39:BI39"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="AC35:AD35"/>
+    <mergeCell ref="AL35:AM35"/>
+    <mergeCell ref="AL39:AM39"/>
+    <mergeCell ref="AZ46:BA46"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="AC43:AD43"/>
+    <mergeCell ref="AC56:AD56"/>
+    <mergeCell ref="AL48:AM48"/>
+    <mergeCell ref="AL52:AM52"/>
+    <mergeCell ref="AL56:AM56"/>
+    <mergeCell ref="AL43:AM43"/>
+    <mergeCell ref="P64:R67"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="R74:S74"/>
+    <mergeCell ref="AC74:AD74"/>
+    <mergeCell ref="BH74:BI74"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="AC65:AD65"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="AC69:AD69"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="U72:V72"/>
+    <mergeCell ref="Z72:AA72"/>
+    <mergeCell ref="AE72:AF72"/>
+    <mergeCell ref="BE72:BF72"/>
+    <mergeCell ref="AL69:AM69"/>
+    <mergeCell ref="AL74:AM74"/>
+    <mergeCell ref="AW103:AY106"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="AC95:AD95"/>
+    <mergeCell ref="BM126:BT126"/>
+    <mergeCell ref="BT107:BT108"/>
+    <mergeCell ref="BT112:BW112"/>
+    <mergeCell ref="BT113:BW113"/>
+    <mergeCell ref="BT114:BT115"/>
+    <mergeCell ref="BT99:BW99"/>
+    <mergeCell ref="BT100:BW100"/>
+    <mergeCell ref="BH95:BI95"/>
+    <mergeCell ref="AN95:AO95"/>
+    <mergeCell ref="BN113:BO116"/>
+    <mergeCell ref="AL95:AM95"/>
+    <mergeCell ref="BQ113:BR121"/>
+    <mergeCell ref="BN118:BO121"/>
+    <mergeCell ref="BJ98:BK98"/>
+    <mergeCell ref="AL98:AM98"/>
+    <mergeCell ref="AP98:AQ98"/>
+    <mergeCell ref="AU98:AV98"/>
+    <mergeCell ref="AZ98:BA98"/>
+    <mergeCell ref="BT101:BT102"/>
+    <mergeCell ref="BU101:BW102"/>
+    <mergeCell ref="AC108:AD108"/>
+    <mergeCell ref="BU92:BW93"/>
+    <mergeCell ref="BT94:BT95"/>
+    <mergeCell ref="BU94:BW95"/>
+    <mergeCell ref="BV126:BW126"/>
+    <mergeCell ref="BM128:BT129"/>
+    <mergeCell ref="BV128:BW129"/>
+    <mergeCell ref="BU124:BW124"/>
+    <mergeCell ref="BU107:BW108"/>
+    <mergeCell ref="BT103:BT104"/>
+    <mergeCell ref="BU103:BW104"/>
+    <mergeCell ref="BT105:BT106"/>
+    <mergeCell ref="BU105:BW106"/>
+    <mergeCell ref="BT120:BT121"/>
+    <mergeCell ref="BN100:BO103"/>
+    <mergeCell ref="BQ100:BR108"/>
+    <mergeCell ref="BN105:BO108"/>
+    <mergeCell ref="P90:R93"/>
+    <mergeCell ref="P103:R106"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="R100:S100"/>
+    <mergeCell ref="BT22:BW22"/>
+    <mergeCell ref="BT23:BT24"/>
+    <mergeCell ref="BU23:BW24"/>
+    <mergeCell ref="BT35:BW35"/>
+    <mergeCell ref="BT40:BT41"/>
+    <mergeCell ref="BU40:BW41"/>
+    <mergeCell ref="BT42:BT43"/>
+    <mergeCell ref="BU42:BW43"/>
+    <mergeCell ref="BT36:BT37"/>
+    <mergeCell ref="BU36:BW37"/>
+    <mergeCell ref="BT38:BT39"/>
+    <mergeCell ref="BU38:BW39"/>
+    <mergeCell ref="BU51:BW52"/>
+    <mergeCell ref="BT53:BT54"/>
+    <mergeCell ref="BU53:BW54"/>
+    <mergeCell ref="BT60:BW60"/>
+    <mergeCell ref="BU62:BW63"/>
+    <mergeCell ref="BT47:BW47"/>
+    <mergeCell ref="AC100:AD100"/>
+    <mergeCell ref="BT92:BT93"/>
+    <mergeCell ref="AC104:AD104"/>
+    <mergeCell ref="BH100:BI100"/>
+    <mergeCell ref="AL104:AM104"/>
+    <mergeCell ref="BH104:BI104"/>
+    <mergeCell ref="AN100:AO100"/>
+    <mergeCell ref="BT9:BW9"/>
+    <mergeCell ref="BT10:BT11"/>
+    <mergeCell ref="BU10:BW11"/>
+    <mergeCell ref="BT16:BT17"/>
+    <mergeCell ref="BT48:BW48"/>
+    <mergeCell ref="BT49:BT50"/>
+    <mergeCell ref="BU49:BW50"/>
+    <mergeCell ref="BT88:BT89"/>
+    <mergeCell ref="BU88:BW89"/>
+    <mergeCell ref="BT90:BT91"/>
+    <mergeCell ref="BU90:BW91"/>
+    <mergeCell ref="BT55:BT56"/>
+    <mergeCell ref="BU55:BW56"/>
+    <mergeCell ref="BT86:BW86"/>
+    <mergeCell ref="BT87:BW87"/>
+    <mergeCell ref="BT61:BW61"/>
+    <mergeCell ref="BT62:BT63"/>
+    <mergeCell ref="AL87:AM87"/>
+    <mergeCell ref="AL100:AM100"/>
+    <mergeCell ref="BS1:BS2"/>
+    <mergeCell ref="BE33:BF33"/>
+    <mergeCell ref="BE46:BF46"/>
+    <mergeCell ref="BE98:BF98"/>
+    <mergeCell ref="AN82:AO82"/>
+    <mergeCell ref="AN87:AO87"/>
+    <mergeCell ref="AW90:AY93"/>
+    <mergeCell ref="AW77:AY80"/>
+    <mergeCell ref="AU72:AV72"/>
+    <mergeCell ref="BH82:BI82"/>
+    <mergeCell ref="AP85:AQ85"/>
+    <mergeCell ref="AU85:AV85"/>
+    <mergeCell ref="AZ85:BA85"/>
+    <mergeCell ref="BH87:BI87"/>
+    <mergeCell ref="BJ85:BK85"/>
+    <mergeCell ref="BN22:BO25"/>
+    <mergeCell ref="BQ22:BR30"/>
+    <mergeCell ref="BN27:BO30"/>
+    <mergeCell ref="BN35:BO38"/>
+    <mergeCell ref="BN40:BO43"/>
+    <mergeCell ref="BQ35:BR43"/>
+    <mergeCell ref="BN61:BO64"/>
+    <mergeCell ref="BQ61:BR69"/>
+    <mergeCell ref="BN66:BO69"/>
+    <mergeCell ref="BN9:BO12"/>
+    <mergeCell ref="BQ9:BR17"/>
+    <mergeCell ref="BN14:BO17"/>
+    <mergeCell ref="AZ3:BA4"/>
+    <mergeCell ref="BH13:BI13"/>
+    <mergeCell ref="BH17:BI17"/>
+    <mergeCell ref="BH9:BI9"/>
+    <mergeCell ref="BP1:BQ4"/>
+    <mergeCell ref="BJ7:BK7"/>
+    <mergeCell ref="BM1:BN4"/>
+    <mergeCell ref="AC82:AD82"/>
+    <mergeCell ref="BN48:BO51"/>
+    <mergeCell ref="BQ48:BR56"/>
+    <mergeCell ref="BN53:BO56"/>
+    <mergeCell ref="BN92:BO95"/>
+    <mergeCell ref="BQ87:BR95"/>
+    <mergeCell ref="AC87:AD87"/>
+    <mergeCell ref="AC91:AD91"/>
+    <mergeCell ref="AL82:AM82"/>
+    <mergeCell ref="AE59:AF59"/>
+    <mergeCell ref="BE59:BF59"/>
+    <mergeCell ref="AC78:AD78"/>
+    <mergeCell ref="AL65:AM65"/>
+    <mergeCell ref="AL91:AM91"/>
+    <mergeCell ref="BH91:BI91"/>
+    <mergeCell ref="AL78:AM78"/>
+    <mergeCell ref="BH78:BI78"/>
+    <mergeCell ref="BN87:BO90"/>
+    <mergeCell ref="AL85:AM85"/>
+    <mergeCell ref="Z46:AA46"/>
+    <mergeCell ref="AA48:AB48"/>
+    <mergeCell ref="AA56:AB56"/>
+    <mergeCell ref="AE98:AF98"/>
+    <mergeCell ref="AA69:AB69"/>
+    <mergeCell ref="AA74:AB74"/>
+    <mergeCell ref="AA82:AB82"/>
+    <mergeCell ref="AA61:AB61"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="U85:V85"/>
+    <mergeCell ref="P77:R80"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="AA87:AB87"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="R87:S87"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="U59:V59"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AA35:AB35"/>
+    <mergeCell ref="AN35:AO35"/>
+    <mergeCell ref="AL108:AM108"/>
+    <mergeCell ref="Z85:AA85"/>
+    <mergeCell ref="AE85:AF85"/>
+    <mergeCell ref="AA95:AB95"/>
+    <mergeCell ref="AH3:AI4"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="X3:Y4"/>
+    <mergeCell ref="AC3:AD4"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="AN43:AO43"/>
+    <mergeCell ref="AN48:AO48"/>
+    <mergeCell ref="AN56:AO56"/>
+    <mergeCell ref="AN61:AO61"/>
+    <mergeCell ref="AN69:AO69"/>
+    <mergeCell ref="AN74:AO74"/>
+    <mergeCell ref="U46:V46"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="K111:L111"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="U111:V111"/>
+    <mergeCell ref="AA100:AB100"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="U98:V98"/>
+    <mergeCell ref="Z98:AA98"/>
+    <mergeCell ref="AA108:AB108"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="AA121:AB121"/>
+    <mergeCell ref="AC121:AD121"/>
+    <mergeCell ref="BH121:BI121"/>
+    <mergeCell ref="AF11:AH14"/>
+    <mergeCell ref="P25:R28"/>
+    <mergeCell ref="AW25:AY28"/>
+    <mergeCell ref="P38:R41"/>
+    <mergeCell ref="S38:U41"/>
+    <mergeCell ref="AW38:AY41"/>
+    <mergeCell ref="AL121:AM121"/>
+    <mergeCell ref="AN121:AO121"/>
+    <mergeCell ref="AC113:AD113"/>
+    <mergeCell ref="AU111:AV111"/>
+    <mergeCell ref="AZ111:BA111"/>
+    <mergeCell ref="AN113:AO113"/>
+    <mergeCell ref="BH113:BI113"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="AC117:AD117"/>
+    <mergeCell ref="AL117:AM117"/>
+    <mergeCell ref="BH117:BI117"/>
+    <mergeCell ref="P116:R119"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="R113:S113"/>
     <mergeCell ref="P51:R54"/>
     <mergeCell ref="AL113:AM113"/>
     <mergeCell ref="AW116:AY119"/>
@@ -12344,371 +12715,6 @@
     <mergeCell ref="Z59:AA59"/>
     <mergeCell ref="AZ72:BA72"/>
     <mergeCell ref="BJ72:BK72"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="AA121:AB121"/>
-    <mergeCell ref="AC121:AD121"/>
-    <mergeCell ref="BH121:BI121"/>
-    <mergeCell ref="AF11:AH14"/>
-    <mergeCell ref="P25:R28"/>
-    <mergeCell ref="AW25:AY28"/>
-    <mergeCell ref="P38:R41"/>
-    <mergeCell ref="S38:U41"/>
-    <mergeCell ref="AW38:AY41"/>
-    <mergeCell ref="AL121:AM121"/>
-    <mergeCell ref="AN121:AO121"/>
-    <mergeCell ref="AC113:AD113"/>
-    <mergeCell ref="AU111:AV111"/>
-    <mergeCell ref="AZ111:BA111"/>
-    <mergeCell ref="AN113:AO113"/>
-    <mergeCell ref="BH113:BI113"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="AC117:AD117"/>
-    <mergeCell ref="AL117:AM117"/>
-    <mergeCell ref="BH117:BI117"/>
-    <mergeCell ref="P116:R119"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="R113:S113"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="K111:L111"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="U111:V111"/>
-    <mergeCell ref="AA100:AB100"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="K98:L98"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="U98:V98"/>
-    <mergeCell ref="Z98:AA98"/>
-    <mergeCell ref="AA108:AB108"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AA35:AB35"/>
-    <mergeCell ref="AN35:AO35"/>
-    <mergeCell ref="AL108:AM108"/>
-    <mergeCell ref="Z85:AA85"/>
-    <mergeCell ref="AE85:AF85"/>
-    <mergeCell ref="AA95:AB95"/>
-    <mergeCell ref="AH3:AI4"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="Z33:AA33"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="X3:Y4"/>
-    <mergeCell ref="AC3:AD4"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="AN43:AO43"/>
-    <mergeCell ref="AN48:AO48"/>
-    <mergeCell ref="AN56:AO56"/>
-    <mergeCell ref="AN61:AO61"/>
-    <mergeCell ref="AN69:AO69"/>
-    <mergeCell ref="AN74:AO74"/>
-    <mergeCell ref="U46:V46"/>
-    <mergeCell ref="Z46:AA46"/>
-    <mergeCell ref="AA48:AB48"/>
-    <mergeCell ref="AA56:AB56"/>
-    <mergeCell ref="AE98:AF98"/>
-    <mergeCell ref="AA69:AB69"/>
-    <mergeCell ref="AA74:AB74"/>
-    <mergeCell ref="AA82:AB82"/>
-    <mergeCell ref="AA61:AB61"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="U85:V85"/>
-    <mergeCell ref="P77:R80"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="AA87:AB87"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="R87:S87"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="U59:V59"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="AC82:AD82"/>
-    <mergeCell ref="BN48:BO51"/>
-    <mergeCell ref="BQ48:BR56"/>
-    <mergeCell ref="BN53:BO56"/>
-    <mergeCell ref="BN92:BO95"/>
-    <mergeCell ref="BQ87:BR95"/>
-    <mergeCell ref="AC87:AD87"/>
-    <mergeCell ref="AC91:AD91"/>
-    <mergeCell ref="AL82:AM82"/>
-    <mergeCell ref="AE59:AF59"/>
-    <mergeCell ref="BE59:BF59"/>
-    <mergeCell ref="AC78:AD78"/>
-    <mergeCell ref="AL65:AM65"/>
-    <mergeCell ref="AL91:AM91"/>
-    <mergeCell ref="BH91:BI91"/>
-    <mergeCell ref="AL78:AM78"/>
-    <mergeCell ref="BH78:BI78"/>
-    <mergeCell ref="BN9:BO12"/>
-    <mergeCell ref="BQ9:BR17"/>
-    <mergeCell ref="BN14:BO17"/>
-    <mergeCell ref="AZ3:BA4"/>
-    <mergeCell ref="BH13:BI13"/>
-    <mergeCell ref="BH17:BI17"/>
-    <mergeCell ref="BH9:BI9"/>
-    <mergeCell ref="BP1:BQ4"/>
-    <mergeCell ref="BJ7:BK7"/>
-    <mergeCell ref="BN87:BO90"/>
-    <mergeCell ref="BN22:BO25"/>
-    <mergeCell ref="BQ22:BR30"/>
-    <mergeCell ref="BN27:BO30"/>
-    <mergeCell ref="BN35:BO38"/>
-    <mergeCell ref="BN40:BO43"/>
-    <mergeCell ref="BQ35:BR43"/>
-    <mergeCell ref="BN61:BO64"/>
-    <mergeCell ref="BQ61:BR69"/>
-    <mergeCell ref="BN66:BO69"/>
-    <mergeCell ref="AL85:AM85"/>
-    <mergeCell ref="BM1:BN4"/>
-    <mergeCell ref="BS1:BS2"/>
-    <mergeCell ref="BE33:BF33"/>
-    <mergeCell ref="BE46:BF46"/>
-    <mergeCell ref="BE98:BF98"/>
-    <mergeCell ref="AN82:AO82"/>
-    <mergeCell ref="AN87:AO87"/>
-    <mergeCell ref="AW90:AY93"/>
-    <mergeCell ref="AW77:AY80"/>
-    <mergeCell ref="AU72:AV72"/>
-    <mergeCell ref="BH82:BI82"/>
-    <mergeCell ref="AP85:AQ85"/>
-    <mergeCell ref="AU85:AV85"/>
-    <mergeCell ref="AZ85:BA85"/>
-    <mergeCell ref="BH87:BI87"/>
-    <mergeCell ref="BJ85:BK85"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="AC104:AD104"/>
-    <mergeCell ref="BH100:BI100"/>
-    <mergeCell ref="AL104:AM104"/>
-    <mergeCell ref="BH104:BI104"/>
-    <mergeCell ref="AN100:AO100"/>
-    <mergeCell ref="BT9:BW9"/>
-    <mergeCell ref="BT10:BT11"/>
-    <mergeCell ref="BU10:BW11"/>
-    <mergeCell ref="BT16:BT17"/>
-    <mergeCell ref="BT48:BW48"/>
-    <mergeCell ref="BT49:BT50"/>
-    <mergeCell ref="BU49:BW50"/>
-    <mergeCell ref="BT88:BT89"/>
-    <mergeCell ref="BU88:BW89"/>
-    <mergeCell ref="BT90:BT91"/>
-    <mergeCell ref="BU90:BW91"/>
-    <mergeCell ref="BT55:BT56"/>
-    <mergeCell ref="BU55:BW56"/>
-    <mergeCell ref="BT86:BW86"/>
-    <mergeCell ref="BT87:BW87"/>
-    <mergeCell ref="BT61:BW61"/>
-    <mergeCell ref="BT62:BT63"/>
-    <mergeCell ref="AL87:AM87"/>
-    <mergeCell ref="AL100:AM100"/>
-    <mergeCell ref="P90:R93"/>
-    <mergeCell ref="P103:R106"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="R100:S100"/>
-    <mergeCell ref="BT22:BW22"/>
-    <mergeCell ref="BT23:BT24"/>
-    <mergeCell ref="BU23:BW24"/>
-    <mergeCell ref="BT35:BW35"/>
-    <mergeCell ref="BT40:BT41"/>
-    <mergeCell ref="BU40:BW41"/>
-    <mergeCell ref="BT42:BT43"/>
-    <mergeCell ref="BU42:BW43"/>
-    <mergeCell ref="BT36:BT37"/>
-    <mergeCell ref="BU36:BW37"/>
-    <mergeCell ref="BT38:BT39"/>
-    <mergeCell ref="BU38:BW39"/>
-    <mergeCell ref="BU51:BW52"/>
-    <mergeCell ref="BT53:BT54"/>
-    <mergeCell ref="BU53:BW54"/>
-    <mergeCell ref="BT60:BW60"/>
-    <mergeCell ref="BU62:BW63"/>
-    <mergeCell ref="BT47:BW47"/>
-    <mergeCell ref="AC100:AD100"/>
-    <mergeCell ref="BT92:BT93"/>
-    <mergeCell ref="BU92:BW93"/>
-    <mergeCell ref="BT94:BT95"/>
-    <mergeCell ref="BU94:BW95"/>
-    <mergeCell ref="BV126:BW126"/>
-    <mergeCell ref="BM128:BT129"/>
-    <mergeCell ref="BV128:BW129"/>
-    <mergeCell ref="BU124:BW124"/>
-    <mergeCell ref="BU107:BW108"/>
-    <mergeCell ref="BT103:BT104"/>
-    <mergeCell ref="BU103:BW104"/>
-    <mergeCell ref="BT105:BT106"/>
-    <mergeCell ref="BU105:BW106"/>
-    <mergeCell ref="BT120:BT121"/>
-    <mergeCell ref="BN100:BO103"/>
-    <mergeCell ref="BQ100:BR108"/>
-    <mergeCell ref="BN105:BO108"/>
-    <mergeCell ref="AW103:AY106"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="AC95:AD95"/>
-    <mergeCell ref="BM126:BT126"/>
-    <mergeCell ref="BT107:BT108"/>
-    <mergeCell ref="BT112:BW112"/>
-    <mergeCell ref="BT113:BW113"/>
-    <mergeCell ref="BT114:BT115"/>
-    <mergeCell ref="BT99:BW99"/>
-    <mergeCell ref="BT100:BW100"/>
-    <mergeCell ref="BH95:BI95"/>
-    <mergeCell ref="AN95:AO95"/>
-    <mergeCell ref="BN113:BO116"/>
-    <mergeCell ref="AL95:AM95"/>
-    <mergeCell ref="BQ113:BR121"/>
-    <mergeCell ref="BN118:BO121"/>
-    <mergeCell ref="BJ98:BK98"/>
-    <mergeCell ref="AL98:AM98"/>
-    <mergeCell ref="AP98:AQ98"/>
-    <mergeCell ref="AU98:AV98"/>
-    <mergeCell ref="AZ98:BA98"/>
-    <mergeCell ref="BT101:BT102"/>
-    <mergeCell ref="BU101:BW102"/>
-    <mergeCell ref="AC108:AD108"/>
-    <mergeCell ref="P64:R67"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="R74:S74"/>
-    <mergeCell ref="AC74:AD74"/>
-    <mergeCell ref="BH74:BI74"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="AC65:AD65"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="AC69:AD69"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="U72:V72"/>
-    <mergeCell ref="Z72:AA72"/>
-    <mergeCell ref="AE72:AF72"/>
-    <mergeCell ref="BE72:BF72"/>
-    <mergeCell ref="AL69:AM69"/>
-    <mergeCell ref="AL74:AM74"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="AL30:AM30"/>
-    <mergeCell ref="AL22:AM22"/>
-    <mergeCell ref="BU66:BW67"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="AC48:AD48"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="AC52:AD52"/>
-    <mergeCell ref="AC39:AD39"/>
-    <mergeCell ref="BH39:BI39"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="AC35:AD35"/>
-    <mergeCell ref="AL35:AM35"/>
-    <mergeCell ref="AL39:AM39"/>
-    <mergeCell ref="AZ46:BA46"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="AC43:AD43"/>
-    <mergeCell ref="AC56:AD56"/>
-    <mergeCell ref="AL48:AM48"/>
-    <mergeCell ref="AL52:AM52"/>
-    <mergeCell ref="AL56:AM56"/>
-    <mergeCell ref="AL43:AM43"/>
-    <mergeCell ref="BT79:BT80"/>
-    <mergeCell ref="BU79:BW80"/>
-    <mergeCell ref="BT64:BT65"/>
-    <mergeCell ref="BU64:BW65"/>
-    <mergeCell ref="BT66:BT67"/>
-    <mergeCell ref="BT51:BT52"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="AA30:AB30"/>
-    <mergeCell ref="AC30:AD30"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="AA43:AB43"/>
-    <mergeCell ref="BH35:BI35"/>
-    <mergeCell ref="BH43:BI43"/>
-    <mergeCell ref="AE46:AF46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="BH65:BI65"/>
-    <mergeCell ref="BH61:BI61"/>
-    <mergeCell ref="R61:S61"/>
-    <mergeCell ref="AC61:AD61"/>
-    <mergeCell ref="AL61:AM61"/>
-    <mergeCell ref="BU81:BW82"/>
-    <mergeCell ref="BJ46:BK46"/>
-    <mergeCell ref="AL59:AM59"/>
-    <mergeCell ref="AP59:AQ59"/>
-    <mergeCell ref="AU59:AV59"/>
-    <mergeCell ref="AU33:AV33"/>
-    <mergeCell ref="AZ33:BA33"/>
-    <mergeCell ref="AP33:AQ33"/>
-    <mergeCell ref="BH52:BI52"/>
-    <mergeCell ref="BH56:BI56"/>
-    <mergeCell ref="AL72:AM72"/>
-    <mergeCell ref="AP72:AQ72"/>
-    <mergeCell ref="AL46:AM46"/>
-    <mergeCell ref="AP46:AQ46"/>
-    <mergeCell ref="AU46:AV46"/>
-    <mergeCell ref="BT73:BW73"/>
-    <mergeCell ref="BT68:BT69"/>
-    <mergeCell ref="BT81:BT82"/>
-    <mergeCell ref="BN74:BO77"/>
-    <mergeCell ref="BQ74:BR82"/>
-    <mergeCell ref="BN79:BO82"/>
-    <mergeCell ref="BT74:BW74"/>
-    <mergeCell ref="BT75:BT76"/>
-    <mergeCell ref="BU75:BW76"/>
-    <mergeCell ref="AL33:AM33"/>
-    <mergeCell ref="AL26:AM26"/>
-    <mergeCell ref="BH69:BI69"/>
-    <mergeCell ref="BJ33:BK33"/>
-    <mergeCell ref="BH30:BI30"/>
-    <mergeCell ref="AP20:AQ20"/>
-    <mergeCell ref="AU20:AV20"/>
-    <mergeCell ref="BT77:BT78"/>
-    <mergeCell ref="BU77:BW78"/>
-    <mergeCell ref="AN22:AO22"/>
-    <mergeCell ref="BH22:BI22"/>
-    <mergeCell ref="AN30:AO30"/>
-    <mergeCell ref="AZ59:BA59"/>
-    <mergeCell ref="BJ59:BK59"/>
-    <mergeCell ref="BH48:BI48"/>
-    <mergeCell ref="BU68:BW69"/>
-    <mergeCell ref="BT29:BT30"/>
-    <mergeCell ref="BU29:BW30"/>
-    <mergeCell ref="BT34:BW34"/>
-    <mergeCell ref="BT25:BT26"/>
-    <mergeCell ref="BU25:BW26"/>
-    <mergeCell ref="BT27:BT28"/>
-    <mergeCell ref="BU27:BW28"/>
-    <mergeCell ref="BT21:BW21"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="BJ20:BK20"/>
-    <mergeCell ref="BH26:BI26"/>
-    <mergeCell ref="AZ20:BA20"/>
-    <mergeCell ref="BE20:BF20"/>
-    <mergeCell ref="BT1:BV2"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AL20:AM20"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="BT3:BV4"/>
-    <mergeCell ref="BT12:BT13"/>
-    <mergeCell ref="BU12:BW13"/>
-    <mergeCell ref="BT14:BT15"/>
-    <mergeCell ref="BU14:BW15"/>
-    <mergeCell ref="BT8:BW8"/>
-    <mergeCell ref="BU16:BW17"/>
-    <mergeCell ref="BS3:BS4"/>
-    <mergeCell ref="AM3:AN4"/>
-    <mergeCell ref="AR3:AS4"/>
-    <mergeCell ref="AW3:AX4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="AN20 T8:T9 AN58:AN59 AF26 T17:T18 AB19:AB20 AG7 AN71:AN72 AF78 AF65 AZ3:BA4 V3:Y4 Q3:T4 L3:O4 AA3:AD4 AF3:AI4 I3:J4 AN45:AN46 AF52 AB45:AB46 AF48:AG49 AF22:AG23 AB71:AB72 AN32:AN33 AI29:AI30 AU3:AX4 AF30 AB84:AB85 AF87:AG88 AI94:AI95 AK3:AN4 AP3:AS4 AG29:AG30 AB58:AB59 AF61:AG62 AF74:AG75 AI81:AI82 AF95 E30 E26 AU17:AU18 AI55:AI56 AF56 AF82 AG81:AG82 AG94:AG95 E95 E91 E82 BK9:BK10 E78 E87 E74 BK74:BK75 BK87:BK88 AI87:AI88 E22 AI74:AI75 BK78 BK91 BK22:BK23 BK95 BK13 AF39 AB32:AB33 AF35:AG36 AI42:AI43 AF104 AI68:AI69 AF43 AG42:AG43 E43 E39 E35 BK35:BK36 AI35:AI36 AG55:AG56 AJ95 E56 E52 E48 BK48:BK49 AI48:AI49 BK39 BK43 BK52 AJ91 AJ87 AF69 BK17 AI22:AI23 BK82 AJ82 AJ78 AW7 BK26 BK30 AJ30 AJ26 AJ22 AJ43 AG68:AG69 BK56 AJ39 AJ56 AJ52 E69 E65 E61 AU8:AU9 BK61:BK62 AJ48 AJ74 AJ35 AI61:AI62 BK65 BK69 AJ69 AJ65 AJ61 AN84:AN85 AF91 AB97:AB98 AF100:AG101 AI107:AI108 AF108 AG107:AG108 E108 E104 E100 BK100:BK101 AI100:AI101 BK104 BK108 AJ108 AJ104 AJ100 AN97:AN98 AF117 AB110:AB111 AF113:AG114 AN123 AI120:AI121 AF121 AG120:AG121 E121 E117 E113 BK113:BK114 AB123 AI113:AI114 BK117 BK121 AJ121 AJ117 AJ113 AN110:AN111">
